--- a/pchousebd.xlsx
+++ b/pchousebd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ProjectTesting\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAAA813-90A9-47C1-9B7F-4FFD6B78BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE0AD6-3BD5-4A98-9207-D594B4FB33F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Maps " sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="279">
   <si>
     <t>Product Name</t>
   </si>
@@ -561,40 +561,10 @@
     <t>ygsdfuygdsauyig</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1SUxEfpU4NrgoFDJ-wauuSdu5xs_2GFZV/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sWZX9dyRuCYXUS1w75eQhR90Im4ry8H6/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/16w0mrerH-xsEwIov3ldm91gvOnuwkLsr/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1X0hykZ9Yo4wBMhLIta2lB6baEJdBxf8b/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vZfP4VZDfr4d5PaoBg-OxylrksxoNPMv/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/109tls_CBFjh9U-rTPlVimVaZFbFH3pXo/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12-aeTiwu2xS7rgX0BfuMbAgiRhQLhdRX/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1v9qfHiBcsMITYIRBGDUA4ioatruWgyrD/view?usp=drive_linkhttps://drive.google.com/file/d/1v9qfHiBcsMITYIRBGDUA4ioatruWgyrD/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Sls3wdRxVn7HtohBSk_sAT_uULkhm-_E/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>Found as per expectation</t>
   </si>
   <si>
     <t>Search</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jQSZGcXojJiE-DdC0qXNYCvTggiPdhnv/view?usp=drive_link</t>
   </si>
   <si>
     <t xml:space="preserve">Verify the search field is present and aligned.
@@ -628,19 +598,10 @@
     <t>Should be able to do</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1gWSK1lzZy89JlwNaC2pX0sK8UT8k_m_C/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>Verify searching with large number of text does not show any abnormality</t>
   </si>
   <si>
     <t>Should not show any</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1T3EyRM0XSwHJq99h9Q_pSeTIB1g0CCOM/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/188AeLjBXz4KcKVUO0rfb6-_HLonu0CSh/view?usp=drive_link</t>
   </si>
   <si>
     <t>Pc House Bd</t>
@@ -861,9 +822,6 @@
     <t>Verify wether an eye icon added to the password field to show original letters if user wants</t>
   </si>
   <si>
-    <t xml:space="preserve"> useractual+1@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the user is not allowed to register an account with the same registered email by adding plus. </t>
   </si>
   <si>
@@ -902,13 +860,52 @@
   </si>
   <si>
     <t>(25/76)*100 = 33%</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1K1SAkB7ziTX7H5hHt87Q6ih40d52mKh2/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lHNvVNsVUEgvruQ0ddBYkSuiZBEOp1x-/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N6W-RKgIP8X-itFSLdmY5Pgsu0JzPg8n/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LLX9uZCfaUyGAaYktf4-N_zIJdoFANQt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sr7O0phDD4_25r0yQ4U0mj-SnMIKId84/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18635BDrZY0HSzg0UJayTIHAy5IYSkoLs/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1F_LxfRPl7sGryw8pjEXmFBRdSmJfc7fG/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +xejin74887@konican.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IkfcppwDScgSad4XSjqdxAyfM0phP510/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MfhLk-pDI2sGJBJMrqUm2EOK6FFLK1SD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_820m3E8LKcjwPJs4TwOXsqWzG2HXRTf/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qsagzfdblUSJHCrfWmihP03ne9rvtO4s/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RwEejO1Cu2k0LouNIlWRJyCY890jlqr2/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="75">
+  <fonts count="73">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1260,14 +1257,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Calibri Light"/>
@@ -1315,14 +1304,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -2355,7 +2336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3216,9 +3197,6 @@
     <xf numFmtId="0" fontId="41" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3228,40 +3206,34 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3270,16 +3242,16 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="26" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3301,10 +3273,10 @@
     <xf numFmtId="0" fontId="39" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3316,16 +3288,16 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3334,46 +3306,46 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3382,7 +3354,7 @@
     <xf numFmtId="0" fontId="25" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="12" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3394,31 +3366,111 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3430,106 +3482,52 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3541,57 +3539,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="28" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4443,7 +4418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="U1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="103" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScale="103" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -5474,9 +5449,9 @@
   </sheetPr>
   <dimension ref="A1:AC1010"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5499,33 +5474,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="415" t="s">
+      <c r="A1" s="365" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="417"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="367"/>
+      <c r="C1" s="341" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="324" t="s">
-        <v>251</v>
+      <c r="E1" s="321" t="s">
+        <v>238</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="324" t="s">
-        <v>252</v>
+      <c r="G1" s="321" t="s">
+        <v>239</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="418" t="s">
+      <c r="L1" s="368" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="419"/>
+      <c r="M1" s="369"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -5544,24 +5519,24 @@
       <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A2" s="415" t="s">
+      <c r="A2" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="417"/>
-      <c r="C2" s="343" t="s">
-        <v>250</v>
+      <c r="B2" s="367"/>
+      <c r="C2" s="340" t="s">
+        <v>237</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="325" t="s">
-        <v>253</v>
+      <c r="E2" s="322" t="s">
+        <v>240</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="330" t="s">
-        <v>254</v>
+      <c r="G2" s="327" t="s">
+        <v>241</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
@@ -5592,16 +5567,16 @@
       <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="415" t="s">
+      <c r="A3" s="365" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="417"/>
+      <c r="B3" s="367"/>
       <c r="C3" s="13"/>
       <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="325" t="s">
-        <v>255</v>
+      <c r="E3" s="322" t="s">
+        <v>242</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
@@ -5638,16 +5613,16 @@
       <c r="AC3" s="11"/>
     </row>
     <row r="4" spans="1:29" ht="43.15" customHeight="1" thickBot="1">
-      <c r="A4" s="415" t="s">
+      <c r="A4" s="365" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="416"/>
+      <c r="B4" s="366"/>
       <c r="C4" s="13"/>
       <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="325" t="s">
-        <v>256</v>
+      <c r="E4" s="322" t="s">
+        <v>243</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>15</v>
@@ -5684,17 +5659,17 @@
       <c r="AC4" s="11"/>
     </row>
     <row r="5" spans="1:29" ht="29.75" customHeight="1" thickBot="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="395" t="s">
+      <c r="B5" s="371"/>
+      <c r="C5" s="372" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="396"/>
-      <c r="E5" s="396"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="397"/>
+      <c r="D5" s="373"/>
+      <c r="E5" s="373"/>
+      <c r="F5" s="373"/>
+      <c r="G5" s="374"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
@@ -5817,21 +5792,21 @@
       <c r="AC7" s="34"/>
     </row>
     <row r="8" spans="1:29" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A8" s="336">
+      <c r="A8" s="333">
         <v>1</v>
       </c>
-      <c r="B8" s="337" t="s">
+      <c r="B8" s="334" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="179"/>
-      <c r="E8" s="348" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="349" t="s">
-        <v>200</v>
+      <c r="E8" s="345" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="346" t="s">
+        <v>187</v>
       </c>
       <c r="G8" s="306" t="s">
         <v>36</v>
@@ -5839,10 +5814,10 @@
       <c r="H8" s="306" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="345" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="316"/>
+      <c r="I8" s="342" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="315"/>
       <c r="K8" s="37"/>
       <c r="L8" s="38" t="s">
         <v>38</v>
@@ -5866,19 +5841,19 @@
       <c r="AC8" s="40"/>
     </row>
     <row r="9" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A9" s="336">
+      <c r="A9" s="333">
         <v>2</v>
       </c>
-      <c r="B9" s="403" t="s">
+      <c r="B9" s="381" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="304"/>
       <c r="D9" s="179"/>
-      <c r="E9" s="350" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="351" t="s">
-        <v>201</v>
+      <c r="E9" s="347" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G9" s="306" t="s">
         <v>36</v>
@@ -5886,10 +5861,10 @@
       <c r="H9" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="312" t="s">
+      <c r="I9" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="317"/>
+      <c r="J9" s="316"/>
       <c r="K9" s="41"/>
       <c r="L9" s="38" t="s">
         <v>38</v>
@@ -5913,28 +5888,28 @@
       <c r="AC9" s="42"/>
     </row>
     <row r="10" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A10" s="336">
+      <c r="A10" s="333">
         <v>3</v>
       </c>
-      <c r="B10" s="404"/>
+      <c r="B10" s="382"/>
       <c r="C10" s="303"/>
       <c r="D10" s="305"/>
-      <c r="E10" s="348" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="351" t="s">
-        <v>201</v>
+      <c r="E10" s="345" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G10" s="306" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="346" t="s">
-        <v>258</v>
-      </c>
-      <c r="I10" s="312" t="s">
+      <c r="H10" s="343" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="318"/>
+      <c r="J10" s="317"/>
       <c r="K10" s="43"/>
       <c r="L10" s="38" t="s">
         <v>38</v>
@@ -5946,29 +5921,29 @@
       <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="336">
+      <c r="A11" s="333">
         <v>4</v>
       </c>
-      <c r="B11" s="404"/>
+      <c r="B11" s="382"/>
       <c r="C11" s="44"/>
       <c r="D11" s="176"/>
-      <c r="E11" s="348" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="351" t="s">
-        <v>201</v>
+      <c r="E11" s="345" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G11" s="307" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H11" s="306" t="s">
-        <v>260</v>
-      </c>
-      <c r="I11" s="312" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="319" t="s">
-        <v>171</v>
+      <c r="J11" s="328" t="s">
+        <v>266</v>
       </c>
       <c r="K11" s="43"/>
       <c r="L11" s="38" t="s">
@@ -5981,29 +5956,29 @@
       <c r="Q11" s="43"/>
     </row>
     <row r="12" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A12" s="336">
+      <c r="A12" s="333">
         <v>5</v>
       </c>
-      <c r="B12" s="404"/>
+      <c r="B12" s="382"/>
       <c r="C12" s="44"/>
       <c r="D12" s="176"/>
-      <c r="E12" s="348" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="351" t="s">
-        <v>201</v>
+      <c r="E12" s="345" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G12" s="307" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H12" s="306" t="s">
-        <v>260</v>
-      </c>
-      <c r="I12" s="312" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="331" t="s">
-        <v>172</v>
+      <c r="J12" s="328" t="s">
+        <v>267</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="38" t="s">
@@ -6016,29 +5991,29 @@
       <c r="Q12" s="43"/>
     </row>
     <row r="13" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A13" s="336">
+      <c r="A13" s="333">
         <v>6</v>
       </c>
-      <c r="B13" s="404"/>
+      <c r="B13" s="382"/>
       <c r="C13" s="44"/>
       <c r="D13" s="176"/>
-      <c r="E13" s="348" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" s="351" t="s">
-        <v>201</v>
+      <c r="E13" s="345" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G13" s="307" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="310" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="312" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="309" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="331" t="s">
-        <v>173</v>
+      <c r="J13" s="328" t="s">
+        <v>268</v>
       </c>
       <c r="K13" s="43"/>
       <c r="L13" s="38" t="s">
@@ -6051,29 +6026,29 @@
       <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A14" s="336">
+      <c r="A14" s="333">
         <v>7</v>
       </c>
-      <c r="B14" s="404"/>
+      <c r="B14" s="382"/>
       <c r="C14" s="44"/>
       <c r="D14" s="176"/>
-      <c r="E14" s="348" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="351" t="s">
-        <v>201</v>
+      <c r="E14" s="345" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G14" s="307" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H14" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="312" t="s">
+      <c r="I14" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="319" t="s">
-        <v>174</v>
+      <c r="J14" s="328" t="s">
+        <v>269</v>
       </c>
       <c r="K14" s="43"/>
       <c r="L14" s="38" t="s">
@@ -6086,29 +6061,29 @@
       <c r="Q14" s="43"/>
     </row>
     <row r="15" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A15" s="336">
+      <c r="A15" s="333">
         <v>8</v>
       </c>
-      <c r="B15" s="404"/>
+      <c r="B15" s="382"/>
       <c r="C15" s="44"/>
       <c r="D15" s="176"/>
-      <c r="E15" s="348" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="351" t="s">
-        <v>201</v>
+      <c r="E15" s="345" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G15" s="307" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H15" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="312" t="s">
+      <c r="I15" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="331" t="s">
-        <v>175</v>
+      <c r="J15" s="328" t="s">
+        <v>270</v>
       </c>
       <c r="K15" s="43"/>
       <c r="L15" s="38" t="s">
@@ -6121,17 +6096,17 @@
       <c r="Q15" s="43"/>
     </row>
     <row r="16" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A16" s="336">
+      <c r="A16" s="333">
         <v>9</v>
       </c>
-      <c r="B16" s="404"/>
+      <c r="B16" s="382"/>
       <c r="C16" s="44"/>
       <c r="D16" s="176"/>
-      <c r="E16" s="348" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" s="351" t="s">
-        <v>201</v>
+      <c r="E16" s="345" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G16" s="306" t="s">
         <v>36</v>
@@ -6139,10 +6114,10 @@
       <c r="H16" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="312" t="s">
+      <c r="I16" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="318"/>
+      <c r="J16" s="317"/>
       <c r="K16" s="43"/>
       <c r="L16" s="38" t="s">
         <v>38</v>
@@ -6154,29 +6129,29 @@
       <c r="Q16" s="43"/>
     </row>
     <row r="17" spans="1:17" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A17" s="336">
+      <c r="A17" s="333">
         <v>10</v>
       </c>
-      <c r="B17" s="404"/>
+      <c r="B17" s="382"/>
       <c r="C17" s="44"/>
       <c r="D17" s="176"/>
-      <c r="E17" s="348" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="351" t="s">
-        <v>201</v>
+      <c r="E17" s="345" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G17" s="307" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H17" s="306" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="312" t="s">
+      <c r="I17" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="319" t="s">
-        <v>176</v>
+      <c r="J17" s="328" t="s">
+        <v>271</v>
       </c>
       <c r="K17" s="43"/>
       <c r="L17" s="38" t="s">
@@ -6189,17 +6164,17 @@
       <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A18" s="336">
+      <c r="A18" s="333">
         <v>11</v>
       </c>
-      <c r="B18" s="404"/>
+      <c r="B18" s="382"/>
       <c r="C18" s="44"/>
       <c r="D18" s="176"/>
-      <c r="E18" s="352" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="351" t="s">
-        <v>201</v>
+      <c r="E18" s="349" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="348" t="s">
+        <v>188</v>
       </c>
       <c r="G18" s="306" t="s">
         <v>36</v>
@@ -6207,10 +6182,10 @@
       <c r="H18" s="306" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="312" t="s">
+      <c r="I18" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="318"/>
+      <c r="J18" s="317"/>
       <c r="K18" s="43"/>
       <c r="L18" s="38" t="s">
         <v>38</v>
@@ -6222,29 +6197,29 @@
       <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A19" s="336">
+      <c r="A19" s="333">
         <v>12</v>
       </c>
-      <c r="B19" s="404"/>
+      <c r="B19" s="382"/>
       <c r="C19" s="44"/>
       <c r="D19" s="301"/>
-      <c r="E19" s="353" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="354" t="s">
-        <v>201</v>
+      <c r="E19" s="350" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="351" t="s">
+        <v>188</v>
       </c>
       <c r="G19" s="307" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H19" s="306" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="312" t="s">
+      <c r="I19" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="331" t="s">
-        <v>176</v>
+      <c r="J19" s="328" t="s">
+        <v>271</v>
       </c>
       <c r="K19" s="43"/>
       <c r="L19" s="38" t="s">
@@ -6257,28 +6232,28 @@
       <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A20" s="336">
+      <c r="A20" s="333">
         <v>13</v>
       </c>
-      <c r="B20" s="404"/>
+      <c r="B20" s="382"/>
       <c r="C20" s="44"/>
       <c r="D20" s="301"/>
-      <c r="E20" s="355" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" s="356" t="s">
-        <v>262</v>
+      <c r="E20" s="352" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="353" t="s">
+        <v>249</v>
       </c>
       <c r="G20" s="306" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="306" t="s">
-        <v>263</v>
-      </c>
-      <c r="I20" s="312" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="318"/>
+      <c r="J20" s="317"/>
       <c r="K20" s="43"/>
       <c r="L20" s="38" t="s">
         <v>38</v>
@@ -6290,28 +6265,28 @@
       <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A21" s="336">
+      <c r="A21" s="333">
         <v>14</v>
       </c>
-      <c r="B21" s="404"/>
+      <c r="B21" s="382"/>
       <c r="C21" s="44"/>
       <c r="D21" s="301"/>
-      <c r="E21" s="355" t="s">
+      <c r="E21" s="352" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="354" t="s">
-        <v>220</v>
+      <c r="F21" s="351" t="s">
+        <v>207</v>
       </c>
       <c r="G21" s="306" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="306" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" s="312" t="s">
+        <v>250</v>
+      </c>
+      <c r="I21" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="318"/>
+      <c r="J21" s="317"/>
       <c r="K21" s="43"/>
       <c r="L21" s="38" t="s">
         <v>38</v>
@@ -6323,16 +6298,16 @@
       <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A22" s="336">
+      <c r="A22" s="333">
         <v>15</v>
       </c>
-      <c r="B22" s="404"/>
+      <c r="B22" s="382"/>
       <c r="C22" s="44"/>
       <c r="D22" s="176"/>
-      <c r="E22" s="350" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="351" t="s">
+      <c r="E22" s="347" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="348" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="307" t="s">
@@ -6341,11 +6316,11 @@
       <c r="H22" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="312" t="s">
+      <c r="I22" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="331" t="s">
-        <v>177</v>
+      <c r="J22" s="328" t="s">
+        <v>272</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="38" t="s">
@@ -6358,17 +6333,17 @@
       <c r="Q22" s="43"/>
     </row>
     <row r="23" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A23" s="336">
+      <c r="A23" s="333">
         <v>16</v>
       </c>
-      <c r="B23" s="404"/>
+      <c r="B23" s="382"/>
       <c r="C23" s="44"/>
       <c r="D23" s="176"/>
-      <c r="E23" s="348" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="351" t="s">
-        <v>221</v>
+      <c r="E23" s="345" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="348" t="s">
+        <v>208</v>
       </c>
       <c r="G23" s="307" t="s">
         <v>117</v>
@@ -6376,10 +6351,10 @@
       <c r="H23" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="312" t="s">
+      <c r="I23" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="318"/>
+      <c r="J23" s="317"/>
       <c r="K23" s="43"/>
       <c r="L23" s="38" t="s">
         <v>100</v>
@@ -6391,17 +6366,17 @@
       <c r="Q23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A24" s="336">
+      <c r="A24" s="333">
         <v>17</v>
       </c>
-      <c r="B24" s="404"/>
-      <c r="C24" s="363"/>
+      <c r="B24" s="382"/>
+      <c r="C24" s="360"/>
       <c r="D24" s="176"/>
-      <c r="E24" s="350" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="351" t="s">
-        <v>222</v>
+      <c r="E24" s="347" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="348" t="s">
+        <v>209</v>
       </c>
       <c r="G24" s="307" t="s">
         <v>117</v>
@@ -6409,10 +6384,10 @@
       <c r="H24" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="312" t="s">
+      <c r="I24" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="318"/>
+      <c r="J24" s="317"/>
       <c r="K24" s="43"/>
       <c r="L24" s="38" t="s">
         <v>100</v>
@@ -6424,17 +6399,17 @@
       <c r="Q24" s="43"/>
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A25" s="336">
+      <c r="A25" s="333">
         <v>18</v>
       </c>
-      <c r="B25" s="404"/>
-      <c r="C25" s="364"/>
-      <c r="D25" s="362"/>
-      <c r="E25" s="352" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25" s="351" t="s">
-        <v>223</v>
+      <c r="B25" s="382"/>
+      <c r="C25" s="361"/>
+      <c r="D25" s="359"/>
+      <c r="E25" s="349" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="348" t="s">
+        <v>210</v>
       </c>
       <c r="G25" s="307" t="s">
         <v>110</v>
@@ -6442,10 +6417,10 @@
       <c r="H25" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="312" t="s">
+      <c r="I25" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="318"/>
+      <c r="J25" s="317"/>
       <c r="K25" s="43"/>
       <c r="L25" s="38" t="s">
         <v>38</v>
@@ -6457,16 +6432,16 @@
       <c r="Q25" s="43"/>
     </row>
     <row r="26" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A26" s="336">
+      <c r="A26" s="333">
         <v>19</v>
       </c>
-      <c r="B26" s="404"/>
-      <c r="C26" s="347"/>
+      <c r="B26" s="382"/>
+      <c r="C26" s="344"/>
       <c r="D26" s="301"/>
-      <c r="E26" s="355" t="s">
-        <v>216</v>
-      </c>
-      <c r="F26" s="354" t="s">
+      <c r="E26" s="352" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="351" t="s">
         <v>105</v>
       </c>
       <c r="G26" s="307" t="s">
@@ -6475,10 +6450,10 @@
       <c r="H26" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="312" t="s">
+      <c r="I26" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J26" s="318"/>
+      <c r="J26" s="317"/>
       <c r="K26" s="43"/>
       <c r="L26" s="38" t="s">
         <v>38</v>
@@ -6490,29 +6465,29 @@
       <c r="Q26" s="43"/>
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A27" s="336">
+      <c r="A27" s="333">
         <v>20</v>
       </c>
-      <c r="B27" s="404"/>
+      <c r="B27" s="382"/>
       <c r="C27" s="44"/>
       <c r="D27" s="301"/>
-      <c r="E27" s="355" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="354" t="s">
-        <v>201</v>
+      <c r="E27" s="352" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" s="351" t="s">
+        <v>188</v>
       </c>
       <c r="G27" s="307" t="s">
         <v>117</v>
       </c>
       <c r="H27" s="306" t="s">
-        <v>266</v>
-      </c>
-      <c r="I27" s="312" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="331" t="s">
-        <v>178</v>
+      <c r="J27" s="328" t="s">
+        <v>274</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="38" t="s">
@@ -6525,17 +6500,17 @@
       <c r="Q27" s="43"/>
     </row>
     <row r="28" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A28" s="336">
+      <c r="A28" s="333">
         <v>21</v>
       </c>
-      <c r="B28" s="404"/>
+      <c r="B28" s="382"/>
       <c r="C28" s="44"/>
       <c r="D28" s="176"/>
-      <c r="E28" s="350" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="351" t="s">
-        <v>224</v>
+      <c r="E28" s="347" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="348" t="s">
+        <v>211</v>
       </c>
       <c r="G28" s="307" t="s">
         <v>117</v>
@@ -6543,10 +6518,10 @@
       <c r="H28" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="312" t="s">
+      <c r="I28" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="318"/>
+      <c r="J28" s="317"/>
       <c r="K28" s="43"/>
       <c r="L28" s="38" t="s">
         <v>100</v>
@@ -6558,17 +6533,17 @@
       <c r="Q28" s="43"/>
     </row>
     <row r="29" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A29" s="336">
+      <c r="A29" s="333">
         <v>22</v>
       </c>
-      <c r="B29" s="404"/>
+      <c r="B29" s="382"/>
       <c r="C29" s="44"/>
       <c r="D29" s="301"/>
-      <c r="E29" s="355" t="s">
-        <v>218</v>
-      </c>
-      <c r="F29" s="354" t="s">
-        <v>225</v>
+      <c r="E29" s="352" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="351" t="s">
+        <v>212</v>
       </c>
       <c r="G29" s="307" t="s">
         <v>117</v>
@@ -6576,10 +6551,10 @@
       <c r="H29" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="312" t="s">
+      <c r="I29" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="318"/>
+      <c r="J29" s="317"/>
       <c r="K29" s="43"/>
       <c r="L29" s="38" t="s">
         <v>100</v>
@@ -6591,17 +6566,17 @@
       <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A30" s="336">
+      <c r="A30" s="333">
         <v>23</v>
       </c>
-      <c r="B30" s="404"/>
+      <c r="B30" s="382"/>
       <c r="C30" s="44"/>
       <c r="D30" s="176"/>
-      <c r="E30" s="350" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="351" t="s">
-        <v>226</v>
+      <c r="E30" s="347" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="348" t="s">
+        <v>213</v>
       </c>
       <c r="G30" s="307" t="s">
         <v>117</v>
@@ -6609,10 +6584,10 @@
       <c r="H30" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="312" t="s">
+      <c r="I30" s="311" t="s">
         <v>98</v>
       </c>
-      <c r="J30" s="318"/>
+      <c r="J30" s="317"/>
       <c r="K30" s="43"/>
       <c r="L30" s="38" t="s">
         <v>100</v>
@@ -6624,17 +6599,17 @@
       <c r="Q30" s="43"/>
     </row>
     <row r="31" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A31" s="336">
+      <c r="A31" s="333">
         <v>24</v>
       </c>
-      <c r="B31" s="405"/>
+      <c r="B31" s="383"/>
       <c r="C31" s="44"/>
       <c r="D31" s="301"/>
-      <c r="E31" s="355" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" s="354" t="s">
-        <v>201</v>
+      <c r="E31" s="352" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="351" t="s">
+        <v>188</v>
       </c>
       <c r="G31" s="307" t="s">
         <v>110</v>
@@ -6642,10 +6617,10 @@
       <c r="H31" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="313" t="s">
+      <c r="I31" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="J31" s="318"/>
+      <c r="J31" s="317"/>
       <c r="K31" s="43"/>
       <c r="L31" s="38" t="s">
         <v>38</v>
@@ -6657,18 +6632,18 @@
       <c r="Q31" s="43"/>
     </row>
     <row r="32" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A32" s="336">
+      <c r="A32" s="333">
         <v>25</v>
       </c>
-      <c r="B32" s="406" t="s">
-        <v>271</v>
+      <c r="B32" s="384" t="s">
+        <v>257</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="176"/>
-      <c r="E32" s="357" t="s">
+      <c r="E32" s="354" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="351" t="s">
+      <c r="F32" s="348" t="s">
         <v>109</v>
       </c>
       <c r="G32" s="307" t="s">
@@ -6677,10 +6652,10 @@
       <c r="H32" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="313" t="s">
+      <c r="I32" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J32" s="318"/>
+      <c r="J32" s="317"/>
       <c r="K32" s="43"/>
       <c r="L32" s="38" t="s">
         <v>38</v>
@@ -6692,16 +6667,16 @@
       <c r="Q32" s="43"/>
     </row>
     <row r="33" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A33" s="336">
+      <c r="A33" s="333">
         <v>26</v>
       </c>
-      <c r="B33" s="407"/>
+      <c r="B33" s="385"/>
       <c r="C33" s="44"/>
       <c r="D33" s="176"/>
-      <c r="E33" s="333" t="s">
+      <c r="E33" s="330" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="351" t="s">
+      <c r="F33" s="348" t="s">
         <v>109</v>
       </c>
       <c r="G33" s="307" t="s">
@@ -6710,10 +6685,10 @@
       <c r="H33" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="313" t="s">
+      <c r="I33" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J33" s="318"/>
+      <c r="J33" s="317"/>
       <c r="K33" s="43"/>
       <c r="L33" s="38" t="s">
         <v>38</v>
@@ -6725,16 +6700,16 @@
       <c r="Q33" s="43"/>
     </row>
     <row r="34" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A34" s="336">
+      <c r="A34" s="333">
         <v>27</v>
       </c>
-      <c r="B34" s="407"/>
+      <c r="B34" s="385"/>
       <c r="C34" s="44"/>
       <c r="D34" s="176"/>
-      <c r="E34" s="348" t="s">
+      <c r="E34" s="345" t="s">
         <v>113</v>
       </c>
-      <c r="F34" s="351" t="s">
+      <c r="F34" s="348" t="s">
         <v>109</v>
       </c>
       <c r="G34" s="307" t="s">
@@ -6743,10 +6718,10 @@
       <c r="H34" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="313" t="s">
+      <c r="I34" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J34" s="318"/>
+      <c r="J34" s="317"/>
       <c r="K34" s="43"/>
       <c r="L34" s="38" t="s">
         <v>38</v>
@@ -6758,16 +6733,16 @@
       <c r="Q34" s="43"/>
     </row>
     <row r="35" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="336">
+      <c r="A35" s="333">
         <v>28</v>
       </c>
-      <c r="B35" s="407"/>
+      <c r="B35" s="385"/>
       <c r="C35" s="44"/>
       <c r="D35" s="176"/>
-      <c r="E35" s="333" t="s">
-        <v>227</v>
-      </c>
-      <c r="F35" s="351" t="s">
+      <c r="E35" s="330" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="348" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="307" t="s">
@@ -6776,10 +6751,10 @@
       <c r="H35" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="313" t="s">
+      <c r="I35" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J35" s="318"/>
+      <c r="J35" s="317"/>
       <c r="K35" s="43"/>
       <c r="L35" s="38" t="s">
         <v>38</v>
@@ -6791,16 +6766,16 @@
       <c r="Q35" s="43"/>
     </row>
     <row r="36" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A36" s="336">
+      <c r="A36" s="333">
         <v>29</v>
       </c>
-      <c r="B36" s="407"/>
+      <c r="B36" s="385"/>
       <c r="C36" s="45"/>
       <c r="D36" s="302"/>
-      <c r="E36" s="334" t="s">
+      <c r="E36" s="331" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="354" t="s">
+      <c r="F36" s="351" t="s">
         <v>116</v>
       </c>
       <c r="G36" s="307" t="s">
@@ -6809,11 +6784,11 @@
       <c r="H36" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="313" t="s">
+      <c r="I36" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="335" t="s">
-        <v>179</v>
+      <c r="J36" s="332" t="s">
+        <v>275</v>
       </c>
       <c r="K36" s="46"/>
       <c r="L36" s="38" t="s">
@@ -6826,28 +6801,28 @@
       <c r="Q36" s="46"/>
     </row>
     <row r="37" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A37" s="336">
+      <c r="A37" s="333">
         <v>30</v>
       </c>
-      <c r="B37" s="407"/>
+      <c r="B37" s="385"/>
       <c r="C37" s="45"/>
       <c r="D37" s="180"/>
-      <c r="E37" s="333" t="s">
+      <c r="E37" s="330" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="351" t="s">
+      <c r="F37" s="348" t="s">
         <v>116</v>
       </c>
       <c r="G37" s="307" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H37" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="313" t="s">
+      <c r="I37" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J37" s="315"/>
+      <c r="J37" s="314"/>
       <c r="K37" s="46"/>
       <c r="L37" s="38" t="s">
         <v>38</v>
@@ -6859,16 +6834,16 @@
       <c r="Q37" s="46"/>
     </row>
     <row r="38" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A38" s="336">
+      <c r="A38" s="333">
         <v>31</v>
       </c>
-      <c r="B38" s="407"/>
+      <c r="B38" s="385"/>
       <c r="C38" s="45"/>
       <c r="D38" s="180"/>
-      <c r="E38" s="358" t="s">
+      <c r="E38" s="355" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="351" t="s">
+      <c r="F38" s="348" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="307" t="s">
@@ -6877,10 +6852,10 @@
       <c r="H38" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="313" t="s">
+      <c r="I38" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J38" s="315"/>
+      <c r="J38" s="314"/>
       <c r="K38" s="46"/>
       <c r="L38" s="38" t="s">
         <v>100</v>
@@ -6892,16 +6867,16 @@
       <c r="Q38" s="46"/>
     </row>
     <row r="39" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A39" s="336">
+      <c r="A39" s="333">
         <v>32</v>
       </c>
-      <c r="B39" s="407"/>
+      <c r="B39" s="385"/>
       <c r="C39" s="45"/>
       <c r="D39" s="180"/>
-      <c r="E39" s="358" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="359" t="s">
+      <c r="E39" s="355" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="356" t="s">
         <v>120</v>
       </c>
       <c r="G39" s="307" t="s">
@@ -6910,10 +6885,10 @@
       <c r="H39" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="313" t="s">
+      <c r="I39" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="315"/>
+      <c r="J39" s="314"/>
       <c r="K39" s="46"/>
       <c r="L39" s="38" t="s">
         <v>38</v>
@@ -6925,16 +6900,16 @@
       <c r="Q39" s="46"/>
     </row>
     <row r="40" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A40" s="336">
+      <c r="A40" s="333">
         <v>33</v>
       </c>
-      <c r="B40" s="407"/>
+      <c r="B40" s="385"/>
       <c r="C40" s="47"/>
       <c r="D40" s="181"/>
-      <c r="E40" s="360" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="359" t="s">
+      <c r="E40" s="357" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="356" t="s">
         <v>120</v>
       </c>
       <c r="G40" s="307" t="s">
@@ -6943,10 +6918,10 @@
       <c r="H40" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="313" t="s">
+      <c r="I40" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J40" s="321"/>
+      <c r="J40" s="318"/>
       <c r="K40" s="48"/>
       <c r="L40" s="38" t="s">
         <v>38</v>
@@ -6958,16 +6933,16 @@
       <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A41" s="336">
+      <c r="A41" s="333">
         <v>34</v>
       </c>
-      <c r="B41" s="407"/>
+      <c r="B41" s="385"/>
       <c r="C41" s="45"/>
       <c r="D41" s="180"/>
-      <c r="E41" s="358" t="s">
-        <v>230</v>
-      </c>
-      <c r="F41" s="359" t="s">
+      <c r="E41" s="355" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="356" t="s">
         <v>121</v>
       </c>
       <c r="G41" s="307" t="s">
@@ -6976,10 +6951,10 @@
       <c r="H41" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="313" t="s">
+      <c r="I41" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J41" s="315"/>
+      <c r="J41" s="314"/>
       <c r="K41" s="46"/>
       <c r="L41" s="38" t="s">
         <v>100</v>
@@ -6991,16 +6966,16 @@
       <c r="Q41" s="46"/>
     </row>
     <row r="42" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A42" s="336">
+      <c r="A42" s="333">
         <v>35</v>
       </c>
-      <c r="B42" s="407"/>
+      <c r="B42" s="385"/>
       <c r="C42" s="50"/>
       <c r="D42" s="182"/>
-      <c r="E42" s="361" t="s">
+      <c r="E42" s="358" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="359" t="s">
+      <c r="F42" s="356" t="s">
         <v>121</v>
       </c>
       <c r="G42" s="307" t="s">
@@ -7009,10 +6984,10 @@
       <c r="H42" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="313" t="s">
+      <c r="I42" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J42" s="322"/>
+      <c r="J42" s="319"/>
       <c r="K42" s="51"/>
       <c r="L42" s="38" t="s">
         <v>38</v>
@@ -7024,16 +6999,16 @@
       <c r="Q42" s="51"/>
     </row>
     <row r="43" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A43" s="336">
+      <c r="A43" s="333">
         <v>36</v>
       </c>
-      <c r="B43" s="407"/>
+      <c r="B43" s="385"/>
       <c r="C43" s="49"/>
       <c r="D43" s="176"/>
-      <c r="E43" s="348" t="s">
-        <v>269</v>
-      </c>
-      <c r="F43" s="351" t="s">
+      <c r="E43" s="345" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="348" t="s">
         <v>123</v>
       </c>
       <c r="G43" s="307" t="s">
@@ -7042,10 +7017,10 @@
       <c r="H43" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="313" t="s">
+      <c r="I43" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="J43" s="317"/>
+      <c r="J43" s="316"/>
       <c r="K43" s="41"/>
       <c r="L43" s="38" t="s">
         <v>38</v>
@@ -7069,16 +7044,16 @@
       <c r="AC43" s="42"/>
     </row>
     <row r="44" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A44" s="336">
+      <c r="A44" s="333">
         <v>37</v>
       </c>
-      <c r="B44" s="407"/>
+      <c r="B44" s="385"/>
       <c r="C44" s="45"/>
       <c r="D44" s="180"/>
-      <c r="E44" s="358" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="359" t="s">
+      <c r="E44" s="355" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="356" t="s">
         <v>125</v>
       </c>
       <c r="G44" s="307" t="s">
@@ -7087,10 +7062,10 @@
       <c r="H44" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I44" s="313" t="s">
+      <c r="I44" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J44" s="315"/>
+      <c r="J44" s="314"/>
       <c r="K44" s="46"/>
       <c r="L44" s="38" t="s">
         <v>38</v>
@@ -7102,16 +7077,16 @@
       <c r="Q44" s="46"/>
     </row>
     <row r="45" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A45" s="336">
+      <c r="A45" s="333">
         <v>38</v>
       </c>
-      <c r="B45" s="407"/>
+      <c r="B45" s="385"/>
       <c r="C45" s="45"/>
       <c r="D45" s="180"/>
-      <c r="E45" s="358" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" s="359" t="s">
+      <c r="E45" s="355" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="356" t="s">
         <v>109</v>
       </c>
       <c r="G45" s="307" t="s">
@@ -7120,10 +7095,10 @@
       <c r="H45" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="313" t="s">
+      <c r="I45" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J45" s="315"/>
+      <c r="J45" s="314"/>
       <c r="K45" s="46"/>
       <c r="L45" s="38" t="s">
         <v>100</v>
@@ -7135,28 +7110,28 @@
       <c r="Q45" s="46"/>
     </row>
     <row r="46" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A46" s="336">
+      <c r="A46" s="333">
         <v>39</v>
       </c>
-      <c r="B46" s="408"/>
+      <c r="B46" s="386"/>
       <c r="C46" s="45"/>
       <c r="D46" s="180"/>
-      <c r="E46" s="358" t="s">
+      <c r="E46" s="355" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="359" t="s">
+      <c r="F46" s="356" t="s">
         <v>128</v>
       </c>
       <c r="G46" s="307" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="311" t="s">
+      <c r="H46" s="310" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="313" t="s">
+      <c r="I46" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J46" s="315"/>
+      <c r="J46" s="314"/>
       <c r="K46" s="46"/>
       <c r="L46" s="38" t="s">
         <v>38</v>
@@ -7168,18 +7143,18 @@
       <c r="Q46" s="46"/>
     </row>
     <row r="47" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A47" s="336">
+      <c r="A47" s="333">
         <v>40</v>
       </c>
-      <c r="B47" s="338" t="s">
-        <v>270</v>
+      <c r="B47" s="335" t="s">
+        <v>256</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="176"/>
-      <c r="E47" s="358" t="s">
+      <c r="E47" s="355" t="s">
         <v>129</v>
       </c>
-      <c r="F47" s="359" t="s">
+      <c r="F47" s="356" t="s">
         <v>130</v>
       </c>
       <c r="G47" s="307" t="s">
@@ -7188,10 +7163,10 @@
       <c r="H47" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="314" t="s">
+      <c r="I47" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="315"/>
+      <c r="J47" s="314"/>
       <c r="K47" s="46"/>
       <c r="L47" s="38" t="s">
         <v>100</v>
@@ -7203,18 +7178,18 @@
       <c r="Q47" s="46"/>
     </row>
     <row r="48" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A48" s="336">
+      <c r="A48" s="333">
         <v>41</v>
       </c>
-      <c r="B48" s="409" t="s">
+      <c r="B48" s="387" t="s">
         <v>147</v>
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="180"/>
-      <c r="E48" s="358" t="s">
-        <v>233</v>
-      </c>
-      <c r="F48" s="359" t="s">
+      <c r="E48" s="355" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="356" t="s">
         <v>116</v>
       </c>
       <c r="G48" s="307" t="s">
@@ -7223,10 +7198,10 @@
       <c r="H48" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I48" s="313" t="s">
+      <c r="I48" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J48" s="315"/>
+      <c r="J48" s="314"/>
       <c r="K48" s="46"/>
       <c r="L48" s="38" t="s">
         <v>38</v>
@@ -7238,16 +7213,16 @@
       <c r="Q48" s="46"/>
     </row>
     <row r="49" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A49" s="336">
+      <c r="A49" s="333">
         <v>42</v>
       </c>
-      <c r="B49" s="410"/>
+      <c r="B49" s="388"/>
       <c r="C49" s="45"/>
       <c r="D49" s="180"/>
-      <c r="E49" s="358" t="s">
-        <v>234</v>
-      </c>
-      <c r="F49" s="359" t="s">
+      <c r="E49" s="355" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="356" t="s">
         <v>148</v>
       </c>
       <c r="G49" s="307" t="s">
@@ -7256,10 +7231,10 @@
       <c r="H49" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="313" t="s">
+      <c r="I49" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="J49" s="315"/>
+      <c r="J49" s="314"/>
       <c r="K49" s="46"/>
       <c r="L49" s="38" t="s">
         <v>38</v>
@@ -7271,16 +7246,16 @@
       <c r="Q49" s="46"/>
     </row>
     <row r="50" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A50" s="336">
+      <c r="A50" s="333">
         <v>43</v>
       </c>
-      <c r="B50" s="410"/>
+      <c r="B50" s="388"/>
       <c r="C50" s="45"/>
       <c r="D50" s="180"/>
-      <c r="E50" s="358" t="s">
-        <v>248</v>
-      </c>
-      <c r="F50" s="359" t="s">
+      <c r="E50" s="355" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="356" t="s">
         <v>149</v>
       </c>
       <c r="G50" s="307" t="s">
@@ -7289,10 +7264,10 @@
       <c r="H50" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I50" s="313" t="s">
+      <c r="I50" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J50" s="315"/>
+      <c r="J50" s="314"/>
       <c r="K50" s="52"/>
       <c r="L50" s="38" t="s">
         <v>100</v>
@@ -7304,28 +7279,28 @@
       <c r="Q50" s="46"/>
     </row>
     <row r="51" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A51" s="336">
+      <c r="A51" s="333">
         <v>44</v>
       </c>
-      <c r="B51" s="410"/>
+      <c r="B51" s="388"/>
       <c r="C51" s="45"/>
       <c r="D51" s="180"/>
-      <c r="E51" s="358" t="s">
+      <c r="E51" s="355" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="359" t="s">
+      <c r="F51" s="356" t="s">
         <v>144</v>
       </c>
       <c r="G51" s="307" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H51" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I51" s="313" t="s">
+      <c r="I51" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J51" s="315"/>
+      <c r="J51" s="314"/>
       <c r="K51" s="46"/>
       <c r="L51" s="38" t="s">
         <v>38</v>
@@ -7337,16 +7312,16 @@
       <c r="Q51" s="46"/>
     </row>
     <row r="52" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A52" s="336">
+      <c r="A52" s="333">
         <v>45</v>
       </c>
-      <c r="B52" s="410"/>
+      <c r="B52" s="388"/>
       <c r="C52" s="45"/>
       <c r="D52" s="180"/>
-      <c r="E52" s="358" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="359" t="s">
+      <c r="E52" s="355" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" s="356" t="s">
         <v>152</v>
       </c>
       <c r="G52" s="307" t="s">
@@ -7355,10 +7330,10 @@
       <c r="H52" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="313" t="s">
+      <c r="I52" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="315"/>
+      <c r="J52" s="314"/>
       <c r="K52" s="46"/>
       <c r="L52" s="38" t="s">
         <v>38</v>
@@ -7370,16 +7345,16 @@
       <c r="Q52" s="46"/>
     </row>
     <row r="53" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A53" s="336">
+      <c r="A53" s="333">
         <v>46</v>
       </c>
-      <c r="B53" s="410"/>
+      <c r="B53" s="388"/>
       <c r="C53" s="45"/>
       <c r="D53" s="180"/>
-      <c r="E53" s="358" t="s">
-        <v>236</v>
-      </c>
-      <c r="F53" s="359" t="s">
+      <c r="E53" s="355" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="356" t="s">
         <v>153</v>
       </c>
       <c r="G53" s="307" t="s">
@@ -7388,10 +7363,10 @@
       <c r="H53" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I53" s="313" t="s">
+      <c r="I53" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J53" s="315"/>
+      <c r="J53" s="314"/>
       <c r="K53" s="46"/>
       <c r="L53" s="38" t="s">
         <v>100</v>
@@ -7403,16 +7378,16 @@
       <c r="Q53" s="46"/>
     </row>
     <row r="54" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A54" s="336">
+      <c r="A54" s="333">
         <v>47</v>
       </c>
-      <c r="B54" s="410"/>
+      <c r="B54" s="388"/>
       <c r="C54" s="45"/>
       <c r="D54" s="180"/>
-      <c r="E54" s="358" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="359" t="s">
+      <c r="E54" s="355" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="356" t="s">
         <v>154</v>
       </c>
       <c r="G54" s="307" t="s">
@@ -7421,10 +7396,10 @@
       <c r="H54" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I54" s="313" t="s">
+      <c r="I54" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J54" s="315"/>
+      <c r="J54" s="314"/>
       <c r="K54" s="46"/>
       <c r="L54" s="38" t="s">
         <v>38</v>
@@ -7436,16 +7411,16 @@
       <c r="Q54" s="46"/>
     </row>
     <row r="55" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A55" s="336">
+      <c r="A55" s="333">
         <v>48</v>
       </c>
-      <c r="B55" s="410"/>
+      <c r="B55" s="388"/>
       <c r="C55" s="45"/>
       <c r="D55" s="180"/>
-      <c r="E55" s="358" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="359" t="s">
+      <c r="E55" s="355" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="356" t="s">
         <v>155</v>
       </c>
       <c r="G55" s="307" t="s">
@@ -7454,10 +7429,10 @@
       <c r="H55" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I55" s="313" t="s">
+      <c r="I55" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J55" s="315"/>
+      <c r="J55" s="314"/>
       <c r="K55" s="46"/>
       <c r="L55" s="38" t="s">
         <v>38</v>
@@ -7469,16 +7444,16 @@
       <c r="Q55" s="46"/>
     </row>
     <row r="56" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A56" s="336">
+      <c r="A56" s="333">
         <v>49</v>
       </c>
-      <c r="B56" s="410"/>
+      <c r="B56" s="388"/>
       <c r="C56" s="45"/>
       <c r="D56" s="180"/>
-      <c r="E56" s="358" t="s">
+      <c r="E56" s="355" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="359" t="s">
+      <c r="F56" s="356" t="s">
         <v>157</v>
       </c>
       <c r="G56" s="307" t="s">
@@ -7487,10 +7462,10 @@
       <c r="H56" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I56" s="313" t="s">
+      <c r="I56" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J56" s="315"/>
+      <c r="J56" s="314"/>
       <c r="K56" s="46"/>
       <c r="L56" s="38" t="s">
         <v>38</v>
@@ -7502,16 +7477,16 @@
       <c r="Q56" s="46"/>
     </row>
     <row r="57" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A57" s="336">
+      <c r="A57" s="333">
         <v>50</v>
       </c>
-      <c r="B57" s="410"/>
+      <c r="B57" s="388"/>
       <c r="C57" s="45"/>
       <c r="D57" s="180"/>
-      <c r="E57" s="358" t="s">
-        <v>249</v>
-      </c>
-      <c r="F57" s="359" t="s">
+      <c r="E57" s="355" t="s">
+        <v>236</v>
+      </c>
+      <c r="F57" s="356" t="s">
         <v>158</v>
       </c>
       <c r="G57" s="307" t="s">
@@ -7520,10 +7495,10 @@
       <c r="H57" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I57" s="313" t="s">
+      <c r="I57" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J57" s="315"/>
+      <c r="J57" s="314"/>
       <c r="K57" s="46"/>
       <c r="L57" s="38" t="s">
         <v>100</v>
@@ -7535,29 +7510,29 @@
       <c r="Q57" s="46"/>
     </row>
     <row r="58" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A58" s="336">
+      <c r="A58" s="333">
         <v>51</v>
       </c>
-      <c r="B58" s="410"/>
+      <c r="B58" s="388"/>
       <c r="C58" s="45"/>
       <c r="D58" s="180"/>
-      <c r="E58" s="358" t="s">
-        <v>273</v>
-      </c>
-      <c r="F58" s="359" t="s">
+      <c r="E58" s="355" t="s">
+        <v>259</v>
+      </c>
+      <c r="F58" s="356" t="s">
         <v>154</v>
       </c>
       <c r="G58" s="307" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="H58" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I58" s="313" t="s">
+      <c r="I58" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J58" s="320" t="s">
-        <v>182</v>
+      <c r="J58" s="332" t="s">
+        <v>276</v>
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="38" t="s">
@@ -7570,16 +7545,16 @@
       <c r="Q58" s="52"/>
     </row>
     <row r="59" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A59" s="336">
+      <c r="A59" s="333">
         <v>52</v>
       </c>
-      <c r="B59" s="410"/>
+      <c r="B59" s="388"/>
       <c r="C59" s="45"/>
       <c r="D59" s="180"/>
-      <c r="E59" s="358" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="359" t="s">
+      <c r="E59" s="355" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="356" t="s">
         <v>159</v>
       </c>
       <c r="G59" s="307" t="s">
@@ -7588,10 +7563,10 @@
       <c r="H59" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="313" t="s">
+      <c r="I59" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J59" s="315"/>
+      <c r="J59" s="314"/>
       <c r="K59" s="46"/>
       <c r="L59" s="38" t="s">
         <v>38</v>
@@ -7603,28 +7578,28 @@
       <c r="Q59" s="46"/>
     </row>
     <row r="60" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A60" s="336">
+      <c r="A60" s="333">
         <v>53</v>
       </c>
-      <c r="B60" s="411"/>
+      <c r="B60" s="389"/>
       <c r="C60" s="45"/>
       <c r="D60" s="180"/>
-      <c r="E60" s="358" t="s">
+      <c r="E60" s="355" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="359" t="s">
+      <c r="F60" s="356" t="s">
         <v>154</v>
       </c>
       <c r="G60" s="307" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H60" s="306" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="313" t="s">
+      <c r="I60" s="312" t="s">
         <v>150</v>
       </c>
-      <c r="J60" s="315"/>
+      <c r="J60" s="314"/>
       <c r="K60" s="46"/>
       <c r="L60" s="38" t="s">
         <v>38</v>
@@ -7636,20 +7611,20 @@
       <c r="Q60" s="46"/>
     </row>
     <row r="61" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A61" s="336">
+      <c r="A61" s="333">
         <v>54</v>
       </c>
-      <c r="B61" s="409" t="s">
+      <c r="B61" s="387" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="184" t="s">
         <v>139</v>
       </c>
-      <c r="E61" s="358" t="s">
+      <c r="E61" s="355" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="359" t="s">
+      <c r="F61" s="356" t="s">
         <v>133</v>
       </c>
       <c r="G61" s="307" t="s">
@@ -7658,10 +7633,10 @@
       <c r="H61" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I61" s="313" t="s">
+      <c r="I61" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J61" s="315"/>
+      <c r="J61" s="314"/>
       <c r="K61" s="46"/>
       <c r="L61" s="38" t="s">
         <v>38</v>
@@ -7673,16 +7648,16 @@
       <c r="Q61" s="46"/>
     </row>
     <row r="62" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A62" s="336">
+      <c r="A62" s="333">
         <v>55</v>
       </c>
-      <c r="B62" s="410"/>
+      <c r="B62" s="388"/>
       <c r="C62" s="45"/>
       <c r="D62" s="180"/>
-      <c r="E62" s="358" t="s">
+      <c r="E62" s="355" t="s">
         <v>135</v>
       </c>
-      <c r="F62" s="359" t="s">
+      <c r="F62" s="356" t="s">
         <v>136</v>
       </c>
       <c r="G62" s="307" t="s">
@@ -7691,10 +7666,10 @@
       <c r="H62" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I62" s="313" t="s">
+      <c r="I62" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J62" s="315"/>
+      <c r="J62" s="314"/>
       <c r="K62" s="46"/>
       <c r="L62" s="38" t="s">
         <v>38</v>
@@ -7706,16 +7681,16 @@
       <c r="Q62" s="46"/>
     </row>
     <row r="63" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A63" s="336">
+      <c r="A63" s="333">
         <v>56</v>
       </c>
-      <c r="B63" s="410"/>
+      <c r="B63" s="388"/>
       <c r="C63" s="45"/>
       <c r="D63" s="180"/>
-      <c r="E63" s="358" t="s">
+      <c r="E63" s="355" t="s">
         <v>137</v>
       </c>
-      <c r="F63" s="359" t="s">
+      <c r="F63" s="356" t="s">
         <v>138</v>
       </c>
       <c r="G63" s="307" t="s">
@@ -7724,10 +7699,10 @@
       <c r="H63" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I63" s="313" t="s">
+      <c r="I63" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J63" s="315"/>
+      <c r="J63" s="314"/>
       <c r="K63" s="46"/>
       <c r="L63" s="38" t="s">
         <v>38</v>
@@ -7739,16 +7714,16 @@
       <c r="Q63" s="46"/>
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" thickBot="1">
-      <c r="A64" s="336">
+      <c r="A64" s="333">
         <v>57</v>
       </c>
-      <c r="B64" s="410"/>
+      <c r="B64" s="388"/>
       <c r="C64" s="45"/>
       <c r="D64" s="180"/>
-      <c r="E64" s="358" t="s">
-        <v>240</v>
-      </c>
-      <c r="F64" s="359" t="s">
+      <c r="E64" s="355" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" s="356" t="s">
         <v>140</v>
       </c>
       <c r="G64" s="307" t="s">
@@ -7757,10 +7732,10 @@
       <c r="H64" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I64" s="313" t="s">
+      <c r="I64" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J64" s="315"/>
+      <c r="J64" s="314"/>
       <c r="K64" s="46"/>
       <c r="L64" s="38" t="s">
         <v>38</v>
@@ -7772,16 +7747,16 @@
       <c r="Q64" s="46"/>
     </row>
     <row r="65" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A65" s="336">
+      <c r="A65" s="333">
         <v>58</v>
       </c>
-      <c r="B65" s="410"/>
+      <c r="B65" s="388"/>
       <c r="C65" s="45"/>
       <c r="D65" s="180"/>
-      <c r="E65" s="358" t="s">
+      <c r="E65" s="355" t="s">
         <v>141</v>
       </c>
-      <c r="F65" s="359" t="s">
+      <c r="F65" s="356" t="s">
         <v>142</v>
       </c>
       <c r="G65" s="307" t="s">
@@ -7790,10 +7765,10 @@
       <c r="H65" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I65" s="313" t="s">
+      <c r="I65" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J65" s="315"/>
+      <c r="J65" s="314"/>
       <c r="K65" s="46"/>
       <c r="L65" s="38" t="s">
         <v>38</v>
@@ -7817,16 +7792,16 @@
       <c r="AC65" s="42"/>
     </row>
     <row r="66" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A66" s="336">
+      <c r="A66" s="333">
         <v>59</v>
       </c>
-      <c r="B66" s="410"/>
+      <c r="B66" s="388"/>
       <c r="C66" s="45"/>
       <c r="D66" s="180"/>
-      <c r="E66" s="358" t="s">
+      <c r="E66" s="355" t="s">
         <v>143</v>
       </c>
-      <c r="F66" s="359" t="s">
+      <c r="F66" s="356" t="s">
         <v>144</v>
       </c>
       <c r="G66" s="307" t="s">
@@ -7835,10 +7810,10 @@
       <c r="H66" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I66" s="313" t="s">
+      <c r="I66" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J66" s="315"/>
+      <c r="J66" s="314"/>
       <c r="K66" s="46"/>
       <c r="L66" s="38" t="s">
         <v>38</v>
@@ -7850,16 +7825,16 @@
       <c r="Q66" s="46"/>
     </row>
     <row r="67" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A67" s="336">
+      <c r="A67" s="333">
         <v>60</v>
       </c>
-      <c r="B67" s="410"/>
+      <c r="B67" s="388"/>
       <c r="C67" s="45"/>
       <c r="D67" s="180"/>
-      <c r="E67" s="358" t="s">
-        <v>241</v>
-      </c>
-      <c r="F67" s="359" t="s">
+      <c r="E67" s="355" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="356" t="s">
         <v>145</v>
       </c>
       <c r="G67" s="307" t="s">
@@ -7868,10 +7843,10 @@
       <c r="H67" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I67" s="313" t="s">
+      <c r="I67" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J67" s="315"/>
+      <c r="J67" s="314"/>
       <c r="K67" s="46"/>
       <c r="L67" s="38" t="s">
         <v>38</v>
@@ -7883,16 +7858,16 @@
       <c r="Q67" s="46"/>
     </row>
     <row r="68" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A68" s="336">
+      <c r="A68" s="333">
         <v>61</v>
       </c>
-      <c r="B68" s="411"/>
+      <c r="B68" s="389"/>
       <c r="C68" s="45"/>
       <c r="D68" s="180"/>
-      <c r="E68" s="358" t="s">
+      <c r="E68" s="355" t="s">
         <v>146</v>
       </c>
-      <c r="F68" s="359" t="s">
+      <c r="F68" s="356" t="s">
         <v>144</v>
       </c>
       <c r="G68" s="307" t="s">
@@ -7901,10 +7876,10 @@
       <c r="H68" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I68" s="313" t="s">
+      <c r="I68" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J68" s="315"/>
+      <c r="J68" s="314"/>
       <c r="K68" s="46"/>
       <c r="L68" s="38" t="s">
         <v>38</v>
@@ -7916,19 +7891,19 @@
       <c r="Q68" s="46"/>
     </row>
     <row r="69" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A69" s="336">
+      <c r="A69" s="333">
         <v>62</v>
       </c>
-      <c r="B69" s="409" t="s">
-        <v>181</v>
+      <c r="B69" s="387" t="s">
+        <v>172</v>
       </c>
       <c r="C69" s="45"/>
       <c r="D69" s="180"/>
-      <c r="E69" s="358" t="s">
-        <v>183</v>
-      </c>
-      <c r="F69" s="359" t="s">
-        <v>184</v>
+      <c r="E69" s="355" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="356" t="s">
+        <v>174</v>
       </c>
       <c r="G69" s="307" t="s">
         <v>110</v>
@@ -7936,10 +7911,10 @@
       <c r="H69" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I69" s="313" t="s">
+      <c r="I69" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J69" s="315"/>
+      <c r="J69" s="314"/>
       <c r="K69" s="46"/>
       <c r="L69" s="38" t="s">
         <v>38</v>
@@ -7951,16 +7926,16 @@
       <c r="Q69" s="46"/>
     </row>
     <row r="70" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A70" s="336">
+      <c r="A70" s="333">
         <v>63</v>
       </c>
-      <c r="B70" s="410"/>
+      <c r="B70" s="388"/>
       <c r="C70" s="45"/>
       <c r="D70" s="180"/>
-      <c r="E70" s="358" t="s">
-        <v>185</v>
-      </c>
-      <c r="F70" s="359" t="s">
+      <c r="E70" s="355" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="356" t="s">
         <v>144</v>
       </c>
       <c r="G70" s="307" t="s">
@@ -7969,10 +7944,10 @@
       <c r="H70" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I70" s="313" t="s">
+      <c r="I70" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J70" s="315"/>
+      <c r="J70" s="314"/>
       <c r="K70" s="46"/>
       <c r="L70" s="38" t="s">
         <v>38</v>
@@ -7984,16 +7959,16 @@
       <c r="Q70" s="46"/>
     </row>
     <row r="71" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A71" s="336">
+      <c r="A71" s="333">
         <v>64</v>
       </c>
-      <c r="B71" s="410"/>
+      <c r="B71" s="388"/>
       <c r="C71" s="45"/>
       <c r="D71" s="180"/>
-      <c r="E71" s="358" t="s">
-        <v>186</v>
-      </c>
-      <c r="F71" s="359" t="s">
+      <c r="E71" s="355" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="356" t="s">
         <v>144</v>
       </c>
       <c r="G71" s="307" t="s">
@@ -8002,10 +7977,10 @@
       <c r="H71" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I71" s="313" t="s">
+      <c r="I71" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J71" s="315"/>
+      <c r="J71" s="314"/>
       <c r="K71" s="46"/>
       <c r="L71" s="38" t="s">
         <v>38</v>
@@ -8017,16 +7992,16 @@
       <c r="Q71" s="46"/>
     </row>
     <row r="72" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A72" s="336">
+      <c r="A72" s="333">
         <v>65</v>
       </c>
-      <c r="B72" s="410"/>
+      <c r="B72" s="388"/>
       <c r="C72" s="45"/>
       <c r="D72" s="180"/>
-      <c r="E72" s="358" t="s">
-        <v>242</v>
-      </c>
-      <c r="F72" s="359" t="s">
+      <c r="E72" s="355" t="s">
+        <v>229</v>
+      </c>
+      <c r="F72" s="356" t="s">
         <v>116</v>
       </c>
       <c r="G72" s="307" t="s">
@@ -8035,10 +8010,10 @@
       <c r="H72" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I72" s="313" t="s">
+      <c r="I72" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J72" s="315"/>
+      <c r="J72" s="314"/>
       <c r="K72" s="46"/>
       <c r="L72" s="38" t="s">
         <v>38</v>
@@ -8050,17 +8025,17 @@
       <c r="Q72" s="46"/>
     </row>
     <row r="73" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A73" s="336">
+      <c r="A73" s="333">
         <v>66</v>
       </c>
-      <c r="B73" s="410"/>
+      <c r="B73" s="388"/>
       <c r="C73" s="45"/>
       <c r="D73" s="180"/>
-      <c r="E73" s="358" t="s">
-        <v>187</v>
-      </c>
-      <c r="F73" s="359" t="s">
-        <v>188</v>
+      <c r="E73" s="355" t="s">
+        <v>177</v>
+      </c>
+      <c r="F73" s="356" t="s">
+        <v>178</v>
       </c>
       <c r="G73" s="307" t="s">
         <v>110</v>
@@ -8068,10 +8043,10 @@
       <c r="H73" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="313" t="s">
+      <c r="I73" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J73" s="315"/>
+      <c r="J73" s="314"/>
       <c r="K73" s="46"/>
       <c r="L73" s="38" t="s">
         <v>38</v>
@@ -8083,17 +8058,17 @@
       <c r="Q73" s="46"/>
     </row>
     <row r="74" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A74" s="336">
+      <c r="A74" s="333">
         <v>67</v>
       </c>
-      <c r="B74" s="410"/>
+      <c r="B74" s="388"/>
       <c r="C74" s="45"/>
       <c r="D74" s="180"/>
-      <c r="E74" s="358" t="s">
-        <v>189</v>
-      </c>
-      <c r="F74" s="359" t="s">
-        <v>188</v>
+      <c r="E74" s="355" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" s="356" t="s">
+        <v>178</v>
       </c>
       <c r="G74" s="307" t="s">
         <v>110</v>
@@ -8101,10 +8076,10 @@
       <c r="H74" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I74" s="313" t="s">
+      <c r="I74" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J74" s="315"/>
+      <c r="J74" s="314"/>
       <c r="K74" s="46"/>
       <c r="L74" s="38" t="s">
         <v>38</v>
@@ -8116,17 +8091,17 @@
       <c r="Q74" s="46"/>
     </row>
     <row r="75" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A75" s="336">
+      <c r="A75" s="333">
         <v>68</v>
       </c>
-      <c r="B75" s="410"/>
+      <c r="B75" s="388"/>
       <c r="C75" s="45"/>
       <c r="D75" s="180"/>
-      <c r="E75" s="358" t="s">
-        <v>190</v>
-      </c>
-      <c r="F75" s="359" t="s">
-        <v>191</v>
+      <c r="E75" s="355" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="356" t="s">
+        <v>181</v>
       </c>
       <c r="G75" s="307" t="s">
         <v>110</v>
@@ -8134,10 +8109,10 @@
       <c r="H75" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I75" s="313" t="s">
+      <c r="I75" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J75" s="323"/>
+      <c r="J75" s="320"/>
       <c r="K75" s="46"/>
       <c r="L75" s="38" t="s">
         <v>38</v>
@@ -8149,17 +8124,17 @@
       <c r="Q75" s="46"/>
     </row>
     <row r="76" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A76" s="336">
+      <c r="A76" s="333">
         <v>69</v>
       </c>
-      <c r="B76" s="410"/>
+      <c r="B76" s="388"/>
       <c r="C76" s="45"/>
       <c r="D76" s="180"/>
-      <c r="E76" s="358" t="s">
-        <v>275</v>
-      </c>
-      <c r="F76" s="359" t="s">
-        <v>274</v>
+      <c r="E76" s="355" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" s="356" t="s">
+        <v>260</v>
       </c>
       <c r="G76" s="307" t="s">
         <v>167</v>
@@ -8167,11 +8142,11 @@
       <c r="H76" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I76" s="313" t="s">
+      <c r="I76" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J76" s="335" t="s">
-        <v>192</v>
+      <c r="J76" s="332" t="s">
+        <v>277</v>
       </c>
       <c r="K76" s="46"/>
       <c r="L76" s="38" t="s">
@@ -8184,29 +8159,29 @@
       <c r="Q76" s="46"/>
     </row>
     <row r="77" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A77" s="336">
+      <c r="A77" s="333">
         <v>70</v>
       </c>
-      <c r="B77" s="411"/>
+      <c r="B77" s="389"/>
       <c r="C77" s="45"/>
       <c r="D77" s="180"/>
-      <c r="E77" s="358" t="s">
-        <v>193</v>
-      </c>
-      <c r="F77" s="359" t="s">
-        <v>194</v>
+      <c r="E77" s="355" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="356" t="s">
+        <v>183</v>
       </c>
       <c r="G77" s="307" t="s">
         <v>167</v>
       </c>
-      <c r="H77" s="308" t="s">
-        <v>195</v>
-      </c>
-      <c r="I77" s="313" t="s">
+      <c r="H77" s="449" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J77" s="335" t="s">
-        <v>196</v>
+      <c r="J77" s="332" t="s">
+        <v>278</v>
       </c>
       <c r="K77" s="46"/>
       <c r="L77" s="38" t="s">
@@ -8219,18 +8194,18 @@
       <c r="Q77" s="46"/>
     </row>
     <row r="78" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A78" s="336">
+      <c r="A78" s="333">
         <v>71</v>
       </c>
-      <c r="B78" s="338"/>
+      <c r="B78" s="335"/>
       <c r="C78" s="45"/>
       <c r="D78" s="180"/>
-      <c r="E78" s="358"/>
-      <c r="F78" s="359"/>
+      <c r="E78" s="355"/>
+      <c r="F78" s="356"/>
       <c r="G78" s="307"/>
       <c r="H78" s="306"/>
-      <c r="I78" s="313"/>
-      <c r="J78" s="315"/>
+      <c r="I78" s="312"/>
+      <c r="J78" s="314"/>
       <c r="K78" s="46"/>
       <c r="L78" s="38"/>
       <c r="M78" s="46"/>
@@ -8240,20 +8215,20 @@
       <c r="Q78" s="46"/>
     </row>
     <row r="79" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A79" s="336">
+      <c r="A79" s="333">
         <v>72</v>
       </c>
-      <c r="B79" s="412" t="s">
+      <c r="B79" s="390" t="s">
         <v>162</v>
       </c>
       <c r="C79" s="45"/>
       <c r="D79" s="184" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="358" t="s">
+      <c r="E79" s="355" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="359" t="s">
+      <c r="F79" s="356" t="s">
         <v>133</v>
       </c>
       <c r="G79" s="307" t="s">
@@ -8262,10 +8237,10 @@
       <c r="H79" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I79" s="313" t="s">
+      <c r="I79" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J79" s="315"/>
+      <c r="J79" s="314"/>
       <c r="K79" s="46"/>
       <c r="L79" s="38" t="s">
         <v>38</v>
@@ -8277,16 +8252,16 @@
       <c r="Q79" s="46"/>
     </row>
     <row r="80" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A80" s="336">
+      <c r="A80" s="333">
         <v>73</v>
       </c>
-      <c r="B80" s="413"/>
+      <c r="B80" s="391"/>
       <c r="C80" s="45"/>
       <c r="D80" s="180"/>
-      <c r="E80" s="358" t="s">
-        <v>243</v>
-      </c>
-      <c r="F80" s="359" t="s">
+      <c r="E80" s="355" t="s">
+        <v>230</v>
+      </c>
+      <c r="F80" s="356" t="s">
         <v>164</v>
       </c>
       <c r="G80" s="307" t="s">
@@ -8295,10 +8270,10 @@
       <c r="H80" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I80" s="313" t="s">
+      <c r="I80" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J80" s="315"/>
+      <c r="J80" s="314"/>
       <c r="K80" s="46"/>
       <c r="L80" s="38" t="s">
         <v>38</v>
@@ -8310,16 +8285,16 @@
       <c r="Q80" s="46"/>
     </row>
     <row r="81" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A81" s="336">
+      <c r="A81" s="333">
         <v>74</v>
       </c>
-      <c r="B81" s="413"/>
+      <c r="B81" s="391"/>
       <c r="C81" s="45"/>
       <c r="D81" s="180"/>
-      <c r="E81" s="358" t="s">
-        <v>244</v>
-      </c>
-      <c r="F81" s="359" t="s">
+      <c r="E81" s="355" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" s="356" t="s">
         <v>165</v>
       </c>
       <c r="G81" s="307" t="s">
@@ -8328,10 +8303,10 @@
       <c r="H81" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I81" s="313" t="s">
+      <c r="I81" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J81" s="315"/>
+      <c r="J81" s="314"/>
       <c r="K81" s="46"/>
       <c r="L81" s="38" t="s">
         <v>38</v>
@@ -8343,16 +8318,16 @@
       <c r="Q81" s="46"/>
     </row>
     <row r="82" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A82" s="336">
+      <c r="A82" s="333">
         <v>75</v>
       </c>
-      <c r="B82" s="413"/>
+      <c r="B82" s="391"/>
       <c r="C82" s="47"/>
       <c r="D82" s="180"/>
-      <c r="E82" s="358" t="s">
-        <v>245</v>
-      </c>
-      <c r="F82" s="359" t="s">
+      <c r="E82" s="355" t="s">
+        <v>232</v>
+      </c>
+      <c r="F82" s="356" t="s">
         <v>166</v>
       </c>
       <c r="G82" s="307" t="s">
@@ -8361,10 +8336,10 @@
       <c r="H82" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="I82" s="313" t="s">
+      <c r="I82" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J82" s="335"/>
+      <c r="J82" s="332"/>
       <c r="K82" s="46"/>
       <c r="L82" s="38" t="s">
         <v>38</v>
@@ -8376,28 +8351,28 @@
       <c r="Q82" s="46"/>
     </row>
     <row r="83" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A83" s="336">
+      <c r="A83" s="333">
         <v>77</v>
       </c>
-      <c r="B83" s="413"/>
-      <c r="C83" s="366"/>
-      <c r="D83" s="365"/>
-      <c r="E83" s="333" t="s">
-        <v>246</v>
-      </c>
-      <c r="F83" s="359" t="s">
-        <v>247</v>
+      <c r="B83" s="391"/>
+      <c r="C83" s="363"/>
+      <c r="D83" s="362"/>
+      <c r="E83" s="330" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" s="356" t="s">
+        <v>234</v>
       </c>
       <c r="G83" s="307" t="s">
         <v>167</v>
       </c>
-      <c r="H83" s="309" t="s">
+      <c r="H83" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="I83" s="313" t="s">
+      <c r="I83" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J83" s="332"/>
+      <c r="J83" s="329"/>
       <c r="K83" s="46"/>
       <c r="L83" s="38" t="s">
         <v>38</v>
@@ -8409,28 +8384,28 @@
       <c r="Q83" s="46"/>
     </row>
     <row r="84" spans="1:29" ht="45" customHeight="1" thickBot="1">
-      <c r="A84" s="336">
+      <c r="A84" s="333">
         <v>78</v>
       </c>
-      <c r="B84" s="414"/>
-      <c r="C84" s="367"/>
-      <c r="D84" s="365"/>
-      <c r="E84" s="358" t="s">
+      <c r="B84" s="392"/>
+      <c r="C84" s="364"/>
+      <c r="D84" s="362"/>
+      <c r="E84" s="355" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="359" t="s">
+      <c r="F84" s="356" t="s">
         <v>144</v>
       </c>
       <c r="G84" s="307" t="s">
         <v>110</v>
       </c>
-      <c r="H84" s="309" t="s">
+      <c r="H84" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="I84" s="313" t="s">
+      <c r="I84" s="312" t="s">
         <v>134</v>
       </c>
-      <c r="J84" s="315"/>
+      <c r="J84" s="314"/>
       <c r="K84" s="46"/>
       <c r="L84" s="38" t="s">
         <v>38</v>
@@ -9418,7 +9393,7 @@
       </c>
       <c r="B118" s="70"/>
       <c r="C118" s="71"/>
-      <c r="D118" s="398"/>
+      <c r="D118" s="375"/>
       <c r="E118" s="281"/>
       <c r="F118" s="212"/>
       <c r="G118" s="220"/>
@@ -9451,7 +9426,7 @@
       </c>
       <c r="B119" s="70"/>
       <c r="C119" s="71"/>
-      <c r="D119" s="399"/>
+      <c r="D119" s="376"/>
       <c r="E119" s="281"/>
       <c r="F119" s="212"/>
       <c r="G119" s="220"/>
@@ -9517,7 +9492,7 @@
       </c>
       <c r="B121" s="70"/>
       <c r="C121" s="71"/>
-      <c r="D121" s="400"/>
+      <c r="D121" s="377"/>
       <c r="E121" s="281"/>
       <c r="F121" s="212"/>
       <c r="G121" s="220"/>
@@ -9550,7 +9525,7 @@
       </c>
       <c r="B122" s="70"/>
       <c r="C122" s="71"/>
-      <c r="D122" s="401"/>
+      <c r="D122" s="378"/>
       <c r="E122" s="281"/>
       <c r="F122" s="212"/>
       <c r="G122" s="220"/>
@@ -9583,7 +9558,7 @@
       </c>
       <c r="B123" s="70"/>
       <c r="C123" s="71"/>
-      <c r="D123" s="401"/>
+      <c r="D123" s="378"/>
       <c r="E123" s="282"/>
       <c r="F123" s="174"/>
       <c r="G123" s="220"/>
@@ -9616,7 +9591,7 @@
       </c>
       <c r="B124" s="70"/>
       <c r="C124" s="71"/>
-      <c r="D124" s="401"/>
+      <c r="D124" s="378"/>
       <c r="E124" s="281"/>
       <c r="F124" s="212"/>
       <c r="G124" s="220"/>
@@ -9649,7 +9624,7 @@
       </c>
       <c r="B125" s="70"/>
       <c r="C125" s="71"/>
-      <c r="D125" s="401"/>
+      <c r="D125" s="378"/>
       <c r="E125" s="281"/>
       <c r="F125" s="212"/>
       <c r="G125" s="220"/>
@@ -9682,7 +9657,7 @@
       </c>
       <c r="B126" s="70"/>
       <c r="C126" s="71"/>
-      <c r="D126" s="401"/>
+      <c r="D126" s="378"/>
       <c r="E126" s="281"/>
       <c r="F126" s="212"/>
       <c r="G126" s="220"/>
@@ -9715,7 +9690,7 @@
       </c>
       <c r="B127" s="70"/>
       <c r="C127" s="71"/>
-      <c r="D127" s="401"/>
+      <c r="D127" s="378"/>
       <c r="E127" s="281"/>
       <c r="F127" s="212"/>
       <c r="G127" s="220"/>
@@ -9748,7 +9723,7 @@
       </c>
       <c r="B128" s="70"/>
       <c r="C128" s="71"/>
-      <c r="D128" s="401"/>
+      <c r="D128" s="378"/>
       <c r="E128" s="281"/>
       <c r="F128" s="212"/>
       <c r="G128" s="220"/>
@@ -9781,7 +9756,7 @@
       </c>
       <c r="B129" s="70"/>
       <c r="C129" s="71"/>
-      <c r="D129" s="401"/>
+      <c r="D129" s="378"/>
       <c r="E129" s="282"/>
       <c r="F129" s="174"/>
       <c r="G129" s="220"/>
@@ -9814,7 +9789,7 @@
       </c>
       <c r="B130" s="70"/>
       <c r="C130" s="71"/>
-      <c r="D130" s="401"/>
+      <c r="D130" s="378"/>
       <c r="E130" s="281"/>
       <c r="F130" s="212"/>
       <c r="G130" s="220"/>
@@ -9847,7 +9822,7 @@
       </c>
       <c r="B131" s="70"/>
       <c r="C131" s="71"/>
-      <c r="D131" s="399"/>
+      <c r="D131" s="376"/>
       <c r="E131" s="281"/>
       <c r="F131" s="212"/>
       <c r="G131" s="220"/>
@@ -9913,7 +9888,7 @@
       </c>
       <c r="B133" s="70"/>
       <c r="C133" s="71"/>
-      <c r="D133" s="402"/>
+      <c r="D133" s="379"/>
       <c r="E133" s="281"/>
       <c r="F133" s="212"/>
       <c r="G133" s="220"/>
@@ -9946,7 +9921,7 @@
       </c>
       <c r="B134" s="70"/>
       <c r="C134" s="71"/>
-      <c r="D134" s="388"/>
+      <c r="D134" s="380"/>
       <c r="E134" s="281"/>
       <c r="F134" s="212"/>
       <c r="G134" s="220"/>
@@ -9979,7 +9954,7 @@
       </c>
       <c r="B135" s="70"/>
       <c r="C135" s="71"/>
-      <c r="D135" s="388"/>
+      <c r="D135" s="380"/>
       <c r="E135" s="281"/>
       <c r="F135" s="212"/>
       <c r="G135" s="220"/>
@@ -10012,7 +9987,7 @@
       </c>
       <c r="B136" s="70"/>
       <c r="C136" s="71"/>
-      <c r="D136" s="388"/>
+      <c r="D136" s="380"/>
       <c r="E136" s="282"/>
       <c r="F136" s="174"/>
       <c r="G136" s="220"/>
@@ -10045,7 +10020,7 @@
       </c>
       <c r="B137" s="70"/>
       <c r="C137" s="71"/>
-      <c r="D137" s="388"/>
+      <c r="D137" s="380"/>
       <c r="E137" s="283"/>
       <c r="F137" s="227"/>
       <c r="G137" s="228"/>
@@ -10078,7 +10053,7 @@
       </c>
       <c r="B138" s="70"/>
       <c r="C138" s="71"/>
-      <c r="D138" s="388"/>
+      <c r="D138" s="380"/>
       <c r="E138" s="283"/>
       <c r="F138" s="230"/>
       <c r="G138" s="231"/>
@@ -10111,7 +10086,7 @@
       </c>
       <c r="B139" s="70"/>
       <c r="C139" s="71"/>
-      <c r="D139" s="388"/>
+      <c r="D139" s="380"/>
       <c r="E139" s="284"/>
       <c r="F139" s="233"/>
       <c r="G139" s="234"/>
@@ -10144,7 +10119,7 @@
       </c>
       <c r="B140" s="70"/>
       <c r="C140" s="71"/>
-      <c r="D140" s="388"/>
+      <c r="D140" s="380"/>
       <c r="E140" s="284"/>
       <c r="F140" s="233"/>
       <c r="G140" s="234"/>
@@ -10177,7 +10152,7 @@
       </c>
       <c r="B141" s="70"/>
       <c r="C141" s="71"/>
-      <c r="D141" s="388"/>
+      <c r="D141" s="380"/>
       <c r="E141" s="285"/>
       <c r="F141" s="233"/>
       <c r="G141" s="234"/>
@@ -10210,7 +10185,7 @@
       </c>
       <c r="B142" s="70"/>
       <c r="C142" s="71"/>
-      <c r="D142" s="388"/>
+      <c r="D142" s="380"/>
       <c r="E142" s="286"/>
       <c r="F142" s="230"/>
       <c r="G142" s="231"/>
@@ -10276,7 +10251,7 @@
       </c>
       <c r="B144" s="70"/>
       <c r="C144" s="71"/>
-      <c r="D144" s="384"/>
+      <c r="D144" s="393"/>
       <c r="E144" s="287"/>
       <c r="F144" s="230"/>
       <c r="G144" s="231"/>
@@ -10309,7 +10284,7 @@
       </c>
       <c r="B145" s="70"/>
       <c r="C145" s="71"/>
-      <c r="D145" s="385"/>
+      <c r="D145" s="394"/>
       <c r="E145" s="284"/>
       <c r="F145" s="233"/>
       <c r="G145" s="234"/>
@@ -10375,7 +10350,7 @@
       </c>
       <c r="B147" s="70"/>
       <c r="C147" s="71"/>
-      <c r="D147" s="384"/>
+      <c r="D147" s="393"/>
       <c r="E147" s="284"/>
       <c r="F147" s="233"/>
       <c r="G147" s="234"/>
@@ -10408,7 +10383,7 @@
       </c>
       <c r="B148" s="70"/>
       <c r="C148" s="71"/>
-      <c r="D148" s="385"/>
+      <c r="D148" s="394"/>
       <c r="E148" s="287"/>
       <c r="F148" s="233"/>
       <c r="G148" s="234"/>
@@ -10441,7 +10416,7 @@
       </c>
       <c r="B149" s="70"/>
       <c r="C149" s="71"/>
-      <c r="D149" s="385"/>
+      <c r="D149" s="394"/>
       <c r="E149" s="284"/>
       <c r="F149" s="233"/>
       <c r="G149" s="234"/>
@@ -10474,7 +10449,7 @@
       </c>
       <c r="B150" s="70"/>
       <c r="C150" s="71"/>
-      <c r="D150" s="385"/>
+      <c r="D150" s="394"/>
       <c r="E150" s="287"/>
       <c r="F150" s="230"/>
       <c r="G150" s="231"/>
@@ -10507,7 +10482,7 @@
       </c>
       <c r="B151" s="70"/>
       <c r="C151" s="71"/>
-      <c r="D151" s="385"/>
+      <c r="D151" s="394"/>
       <c r="E151" s="286"/>
       <c r="F151" s="236"/>
       <c r="G151" s="237"/>
@@ -10540,7 +10515,7 @@
       </c>
       <c r="B152" s="70"/>
       <c r="C152" s="71"/>
-      <c r="D152" s="385"/>
+      <c r="D152" s="394"/>
       <c r="E152" s="287"/>
       <c r="F152" s="239"/>
       <c r="G152" s="231"/>
@@ -10573,7 +10548,7 @@
       </c>
       <c r="B153" s="70"/>
       <c r="C153" s="71"/>
-      <c r="D153" s="386"/>
+      <c r="D153" s="395"/>
       <c r="E153" s="286"/>
       <c r="F153" s="240"/>
       <c r="G153" s="237"/>
@@ -10639,7 +10614,7 @@
       </c>
       <c r="B155" s="70"/>
       <c r="C155" s="71"/>
-      <c r="D155" s="387"/>
+      <c r="D155" s="396"/>
       <c r="E155" s="289"/>
       <c r="F155" s="241"/>
       <c r="G155" s="237"/>
@@ -10672,7 +10647,7 @@
       </c>
       <c r="B156" s="70"/>
       <c r="C156" s="71"/>
-      <c r="D156" s="388"/>
+      <c r="D156" s="380"/>
       <c r="E156" s="286"/>
       <c r="F156" s="241"/>
       <c r="G156" s="237"/>
@@ -10705,7 +10680,7 @@
       </c>
       <c r="B157" s="70"/>
       <c r="C157" s="71"/>
-      <c r="D157" s="388"/>
+      <c r="D157" s="380"/>
       <c r="E157" s="284"/>
       <c r="F157" s="233"/>
       <c r="G157" s="234"/>
@@ -10738,7 +10713,7 @@
       </c>
       <c r="B158" s="70"/>
       <c r="C158" s="71"/>
-      <c r="D158" s="388"/>
+      <c r="D158" s="380"/>
       <c r="E158" s="284"/>
       <c r="F158" s="233"/>
       <c r="G158" s="234"/>
@@ -10771,7 +10746,7 @@
       </c>
       <c r="B159" s="70"/>
       <c r="C159" s="71"/>
-      <c r="D159" s="388"/>
+      <c r="D159" s="380"/>
       <c r="E159" s="284"/>
       <c r="F159" s="233"/>
       <c r="G159" s="234"/>
@@ -10804,7 +10779,7 @@
       </c>
       <c r="B160" s="70"/>
       <c r="C160" s="71"/>
-      <c r="D160" s="388"/>
+      <c r="D160" s="380"/>
       <c r="E160" s="284"/>
       <c r="F160" s="233"/>
       <c r="G160" s="234"/>
@@ -10837,7 +10812,7 @@
       </c>
       <c r="B161" s="70"/>
       <c r="C161" s="71"/>
-      <c r="D161" s="388"/>
+      <c r="D161" s="380"/>
       <c r="E161" s="284"/>
       <c r="F161" s="233"/>
       <c r="G161" s="233"/>
@@ -10870,7 +10845,7 @@
       </c>
       <c r="B162" s="70"/>
       <c r="C162" s="71"/>
-      <c r="D162" s="388"/>
+      <c r="D162" s="380"/>
       <c r="E162" s="284"/>
       <c r="F162" s="233"/>
       <c r="G162" s="233"/>
@@ -10903,7 +10878,7 @@
       </c>
       <c r="B163" s="70"/>
       <c r="C163" s="71"/>
-      <c r="D163" s="389"/>
+      <c r="D163" s="397"/>
       <c r="E163" s="284"/>
       <c r="F163" s="233"/>
       <c r="G163" s="233"/>
@@ -11035,7 +11010,7 @@
       </c>
       <c r="B167" s="70"/>
       <c r="C167" s="88"/>
-      <c r="D167" s="384"/>
+      <c r="D167" s="393"/>
       <c r="E167" s="288"/>
       <c r="F167" s="233"/>
       <c r="G167" s="233"/>
@@ -11068,7 +11043,7 @@
       </c>
       <c r="B168" s="70"/>
       <c r="C168" s="88"/>
-      <c r="D168" s="386"/>
+      <c r="D168" s="395"/>
       <c r="E168" s="288"/>
       <c r="F168" s="233"/>
       <c r="G168" s="233"/>
@@ -12124,7 +12099,7 @@
       </c>
       <c r="B200" s="70"/>
       <c r="C200" s="88"/>
-      <c r="D200" s="380"/>
+      <c r="D200" s="405"/>
       <c r="E200" s="284"/>
       <c r="F200" s="233"/>
       <c r="G200" s="233"/>
@@ -12133,7 +12108,7 @@
       <c r="J200" s="84"/>
       <c r="K200" s="87"/>
       <c r="L200" s="82"/>
-      <c r="M200" s="383"/>
+      <c r="M200" s="408"/>
       <c r="N200" s="26"/>
       <c r="O200" s="26"/>
       <c r="P200" s="26"/>
@@ -12157,7 +12132,7 @@
       </c>
       <c r="B201" s="70"/>
       <c r="C201" s="88"/>
-      <c r="D201" s="381"/>
+      <c r="D201" s="406"/>
       <c r="E201" s="284"/>
       <c r="F201" s="233"/>
       <c r="G201" s="233"/>
@@ -12166,7 +12141,7 @@
       <c r="J201" s="84"/>
       <c r="K201" s="87"/>
       <c r="L201" s="82"/>
-      <c r="M201" s="371"/>
+      <c r="M201" s="402"/>
       <c r="N201" s="26"/>
       <c r="O201" s="26"/>
       <c r="P201" s="26"/>
@@ -12190,7 +12165,7 @@
       </c>
       <c r="B202" s="70"/>
       <c r="C202" s="88"/>
-      <c r="D202" s="381"/>
+      <c r="D202" s="406"/>
       <c r="E202" s="284"/>
       <c r="F202" s="233"/>
       <c r="G202" s="233"/>
@@ -12199,7 +12174,7 @@
       <c r="J202" s="84"/>
       <c r="K202" s="87"/>
       <c r="L202" s="82"/>
-      <c r="M202" s="371"/>
+      <c r="M202" s="402"/>
       <c r="N202" s="26"/>
       <c r="O202" s="26"/>
       <c r="P202" s="26"/>
@@ -12223,7 +12198,7 @@
       </c>
       <c r="B203" s="70"/>
       <c r="C203" s="88"/>
-      <c r="D203" s="381"/>
+      <c r="D203" s="406"/>
       <c r="E203" s="283"/>
       <c r="F203" s="233"/>
       <c r="G203" s="233"/>
@@ -12232,7 +12207,7 @@
       <c r="J203" s="84"/>
       <c r="K203" s="87"/>
       <c r="L203" s="82"/>
-      <c r="M203" s="371"/>
+      <c r="M203" s="402"/>
       <c r="N203" s="26"/>
       <c r="O203" s="26"/>
       <c r="P203" s="26"/>
@@ -12256,7 +12231,7 @@
       </c>
       <c r="B204" s="70"/>
       <c r="C204" s="88"/>
-      <c r="D204" s="381"/>
+      <c r="D204" s="406"/>
       <c r="E204" s="283"/>
       <c r="F204" s="233"/>
       <c r="G204" s="233"/>
@@ -12265,7 +12240,7 @@
       <c r="J204" s="84"/>
       <c r="K204" s="87"/>
       <c r="L204" s="82"/>
-      <c r="M204" s="371"/>
+      <c r="M204" s="402"/>
       <c r="N204" s="26"/>
       <c r="O204" s="26"/>
       <c r="P204" s="26"/>
@@ -12289,7 +12264,7 @@
       </c>
       <c r="B205" s="70"/>
       <c r="C205" s="88"/>
-      <c r="D205" s="381"/>
+      <c r="D205" s="406"/>
       <c r="E205" s="283"/>
       <c r="F205" s="233"/>
       <c r="G205" s="233"/>
@@ -12298,7 +12273,7 @@
       <c r="J205" s="84"/>
       <c r="K205" s="87"/>
       <c r="L205" s="82"/>
-      <c r="M205" s="371"/>
+      <c r="M205" s="402"/>
       <c r="N205" s="26"/>
       <c r="O205" s="26"/>
       <c r="P205" s="26"/>
@@ -12322,7 +12297,7 @@
       </c>
       <c r="B206" s="70"/>
       <c r="C206" s="88"/>
-      <c r="D206" s="381"/>
+      <c r="D206" s="406"/>
       <c r="E206" s="283"/>
       <c r="F206" s="233"/>
       <c r="G206" s="233"/>
@@ -12331,7 +12306,7 @@
       <c r="J206" s="84"/>
       <c r="K206" s="87"/>
       <c r="L206" s="82"/>
-      <c r="M206" s="371"/>
+      <c r="M206" s="402"/>
       <c r="N206" s="26"/>
       <c r="O206" s="26"/>
       <c r="P206" s="26"/>
@@ -12355,7 +12330,7 @@
       </c>
       <c r="B207" s="70"/>
       <c r="C207" s="88"/>
-      <c r="D207" s="381"/>
+      <c r="D207" s="406"/>
       <c r="E207" s="284"/>
       <c r="F207" s="233"/>
       <c r="G207" s="233"/>
@@ -12364,7 +12339,7 @@
       <c r="J207" s="84"/>
       <c r="K207" s="87"/>
       <c r="L207" s="82"/>
-      <c r="M207" s="369"/>
+      <c r="M207" s="403"/>
       <c r="N207" s="26"/>
       <c r="O207" s="26"/>
       <c r="P207" s="26"/>
@@ -12388,7 +12363,7 @@
       </c>
       <c r="B208" s="70"/>
       <c r="C208" s="88"/>
-      <c r="D208" s="381"/>
+      <c r="D208" s="406"/>
       <c r="E208" s="284"/>
       <c r="F208" s="233"/>
       <c r="G208" s="233"/>
@@ -12421,7 +12396,7 @@
       </c>
       <c r="B209" s="70"/>
       <c r="C209" s="88"/>
-      <c r="D209" s="381"/>
+      <c r="D209" s="406"/>
       <c r="E209" s="284"/>
       <c r="F209" s="233"/>
       <c r="G209" s="233"/>
@@ -12454,7 +12429,7 @@
       </c>
       <c r="B210" s="70"/>
       <c r="C210" s="88"/>
-      <c r="D210" s="382"/>
+      <c r="D210" s="407"/>
       <c r="E210" s="284"/>
       <c r="F210" s="233"/>
       <c r="G210" s="233"/>
@@ -12520,7 +12495,7 @@
       </c>
       <c r="B212" s="98"/>
       <c r="C212" s="99"/>
-      <c r="D212" s="390"/>
+      <c r="D212" s="398"/>
       <c r="E212" s="284"/>
       <c r="F212" s="233"/>
       <c r="G212" s="245"/>
@@ -12553,7 +12528,7 @@
       </c>
       <c r="B213" s="82"/>
       <c r="C213" s="101"/>
-      <c r="D213" s="391"/>
+      <c r="D213" s="399"/>
       <c r="E213" s="284"/>
       <c r="F213" s="233"/>
       <c r="G213" s="245"/>
@@ -12586,7 +12561,7 @@
       </c>
       <c r="B214" s="82"/>
       <c r="C214" s="101"/>
-      <c r="D214" s="391"/>
+      <c r="D214" s="399"/>
       <c r="E214" s="284"/>
       <c r="F214" s="233"/>
       <c r="G214" s="245"/>
@@ -12619,7 +12594,7 @@
       </c>
       <c r="B215" s="82"/>
       <c r="C215" s="99"/>
-      <c r="D215" s="391"/>
+      <c r="D215" s="399"/>
       <c r="E215" s="284"/>
       <c r="F215" s="233"/>
       <c r="G215" s="245"/>
@@ -12652,7 +12627,7 @@
       </c>
       <c r="B216" s="98"/>
       <c r="C216" s="99"/>
-      <c r="D216" s="391"/>
+      <c r="D216" s="399"/>
       <c r="E216" s="284"/>
       <c r="F216" s="233"/>
       <c r="G216" s="245"/>
@@ -12685,7 +12660,7 @@
       </c>
       <c r="B217" s="98"/>
       <c r="C217" s="99"/>
-      <c r="D217" s="391"/>
+      <c r="D217" s="399"/>
       <c r="E217" s="284"/>
       <c r="F217" s="233"/>
       <c r="G217" s="245"/>
@@ -12718,7 +12693,7 @@
       </c>
       <c r="B218" s="98"/>
       <c r="C218" s="99"/>
-      <c r="D218" s="391"/>
+      <c r="D218" s="399"/>
       <c r="E218" s="284"/>
       <c r="F218" s="233"/>
       <c r="G218" s="245"/>
@@ -12751,7 +12726,7 @@
       </c>
       <c r="B219" s="98"/>
       <c r="C219" s="99"/>
-      <c r="D219" s="391"/>
+      <c r="D219" s="399"/>
       <c r="E219" s="284"/>
       <c r="F219" s="233"/>
       <c r="G219" s="245"/>
@@ -12784,7 +12759,7 @@
       </c>
       <c r="B220" s="98"/>
       <c r="C220" s="99"/>
-      <c r="D220" s="392"/>
+      <c r="D220" s="400"/>
       <c r="E220" s="284"/>
       <c r="F220" s="233"/>
       <c r="G220" s="245"/>
@@ -14210,8 +14185,8 @@
       <c r="H263" s="258"/>
       <c r="I263" s="259"/>
       <c r="J263" s="113"/>
-      <c r="K263" s="368"/>
-      <c r="L263" s="383"/>
+      <c r="K263" s="401"/>
+      <c r="L263" s="408"/>
       <c r="M263" s="108"/>
       <c r="N263" s="26"/>
       <c r="O263" s="26"/>
@@ -14243,8 +14218,8 @@
       <c r="H264" s="261"/>
       <c r="I264" s="262"/>
       <c r="J264" s="115"/>
-      <c r="K264" s="371"/>
-      <c r="L264" s="371"/>
+      <c r="K264" s="402"/>
+      <c r="L264" s="402"/>
       <c r="M264" s="108"/>
       <c r="N264" s="26"/>
       <c r="O264" s="26"/>
@@ -14276,8 +14251,8 @@
       <c r="H265" s="229"/>
       <c r="I265" s="228"/>
       <c r="J265" s="76"/>
-      <c r="K265" s="369"/>
-      <c r="L265" s="369"/>
+      <c r="K265" s="403"/>
+      <c r="L265" s="403"/>
       <c r="M265" s="108"/>
       <c r="N265" s="26"/>
       <c r="O265" s="26"/>
@@ -14499,9 +14474,9 @@
         <v>255</v>
       </c>
       <c r="B272" s="112"/>
-      <c r="C272" s="370"/>
+      <c r="C272" s="409"/>
       <c r="D272" s="202"/>
-      <c r="E272" s="376"/>
+      <c r="E272" s="410"/>
       <c r="F272" s="233"/>
       <c r="G272" s="233"/>
       <c r="H272" s="235"/>
@@ -14532,9 +14507,9 @@
         <v>256</v>
       </c>
       <c r="B273" s="112"/>
-      <c r="C273" s="371"/>
+      <c r="C273" s="402"/>
       <c r="D273" s="202"/>
-      <c r="E273" s="377"/>
+      <c r="E273" s="411"/>
       <c r="F273" s="233"/>
       <c r="G273" s="233"/>
       <c r="H273" s="235"/>
@@ -14565,9 +14540,9 @@
         <v>257</v>
       </c>
       <c r="B274" s="112"/>
-      <c r="C274" s="371"/>
+      <c r="C274" s="402"/>
       <c r="D274" s="202"/>
-      <c r="E274" s="378"/>
+      <c r="E274" s="412"/>
       <c r="F274" s="233"/>
       <c r="G274" s="233"/>
       <c r="H274" s="235"/>
@@ -14598,7 +14573,7 @@
         <v>258</v>
       </c>
       <c r="B275" s="112"/>
-      <c r="C275" s="371"/>
+      <c r="C275" s="402"/>
       <c r="D275" s="202"/>
       <c r="E275" s="284"/>
       <c r="F275" s="233"/>
@@ -14631,7 +14606,7 @@
         <v>259</v>
       </c>
       <c r="B276" s="112"/>
-      <c r="C276" s="371"/>
+      <c r="C276" s="402"/>
       <c r="D276" s="202"/>
       <c r="E276" s="284"/>
       <c r="F276" s="233"/>
@@ -14664,7 +14639,7 @@
         <v>260</v>
       </c>
       <c r="B277" s="112"/>
-      <c r="C277" s="371"/>
+      <c r="C277" s="402"/>
       <c r="D277" s="202"/>
       <c r="E277" s="284"/>
       <c r="F277" s="254"/>
@@ -14697,7 +14672,7 @@
         <v>261</v>
       </c>
       <c r="B278" s="112"/>
-      <c r="C278" s="369"/>
+      <c r="C278" s="403"/>
       <c r="D278" s="202"/>
       <c r="E278" s="284"/>
       <c r="F278" s="233"/>
@@ -14730,7 +14705,7 @@
         <v>262</v>
       </c>
       <c r="B279" s="112"/>
-      <c r="C279" s="370"/>
+      <c r="C279" s="409"/>
       <c r="D279" s="205"/>
       <c r="E279" s="284"/>
       <c r="F279" s="254"/>
@@ -14763,7 +14738,7 @@
         <v>263</v>
       </c>
       <c r="B280" s="112"/>
-      <c r="C280" s="369"/>
+      <c r="C280" s="403"/>
       <c r="D280" s="206"/>
       <c r="E280" s="284"/>
       <c r="F280" s="254"/>
@@ -14829,7 +14804,7 @@
         <v>265</v>
       </c>
       <c r="B282" s="112"/>
-      <c r="C282" s="370"/>
+      <c r="C282" s="409"/>
       <c r="D282" s="205"/>
       <c r="E282" s="284"/>
       <c r="F282" s="233"/>
@@ -14862,7 +14837,7 @@
         <v>266</v>
       </c>
       <c r="B283" s="112"/>
-      <c r="C283" s="371"/>
+      <c r="C283" s="402"/>
       <c r="D283" s="203"/>
       <c r="E283" s="284"/>
       <c r="F283" s="233"/>
@@ -14895,7 +14870,7 @@
         <v>267</v>
       </c>
       <c r="B284" s="112"/>
-      <c r="C284" s="371"/>
+      <c r="C284" s="402"/>
       <c r="D284" s="203"/>
       <c r="E284" s="284"/>
       <c r="F284" s="233"/>
@@ -14928,7 +14903,7 @@
         <v>268</v>
       </c>
       <c r="B285" s="112"/>
-      <c r="C285" s="371"/>
+      <c r="C285" s="402"/>
       <c r="D285" s="203"/>
       <c r="E285" s="284"/>
       <c r="F285" s="254"/>
@@ -14961,7 +14936,7 @@
         <v>269</v>
       </c>
       <c r="B286" s="112"/>
-      <c r="C286" s="369"/>
+      <c r="C286" s="403"/>
       <c r="D286" s="203"/>
       <c r="E286" s="285"/>
       <c r="F286" s="233"/>
@@ -15365,7 +15340,7 @@
       <c r="H298" s="255"/>
       <c r="I298" s="256"/>
       <c r="J298" s="84"/>
-      <c r="K298" s="379"/>
+      <c r="K298" s="404"/>
       <c r="L298" s="82"/>
       <c r="M298" s="90"/>
       <c r="N298" s="26"/>
@@ -15398,7 +15373,7 @@
       <c r="H299" s="255"/>
       <c r="I299" s="256"/>
       <c r="J299" s="84"/>
-      <c r="K299" s="369"/>
+      <c r="K299" s="403"/>
       <c r="L299" s="82"/>
       <c r="M299" s="90"/>
       <c r="N299" s="26"/>
@@ -15489,7 +15464,7 @@
         <v>285</v>
       </c>
       <c r="B302" s="112"/>
-      <c r="C302" s="370"/>
+      <c r="C302" s="409"/>
       <c r="D302" s="205"/>
       <c r="E302" s="284"/>
       <c r="F302" s="254"/>
@@ -15497,7 +15472,7 @@
       <c r="H302" s="255"/>
       <c r="I302" s="256"/>
       <c r="J302" s="84"/>
-      <c r="K302" s="368"/>
+      <c r="K302" s="401"/>
       <c r="L302" s="82"/>
       <c r="M302" s="90"/>
       <c r="N302" s="26"/>
@@ -15522,7 +15497,7 @@
         <v>286</v>
       </c>
       <c r="B303" s="112"/>
-      <c r="C303" s="369"/>
+      <c r="C303" s="403"/>
       <c r="D303" s="206"/>
       <c r="E303" s="284"/>
       <c r="F303" s="254"/>
@@ -15530,7 +15505,7 @@
       <c r="H303" s="255"/>
       <c r="I303" s="256"/>
       <c r="J303" s="84"/>
-      <c r="K303" s="369"/>
+      <c r="K303" s="403"/>
       <c r="L303" s="82"/>
       <c r="M303" s="90"/>
       <c r="N303" s="26"/>
@@ -15555,7 +15530,7 @@
         <v>287</v>
       </c>
       <c r="B304" s="112"/>
-      <c r="C304" s="370"/>
+      <c r="C304" s="409"/>
       <c r="D304" s="207"/>
       <c r="E304" s="284"/>
       <c r="F304" s="233"/>
@@ -15588,7 +15563,7 @@
         <v>288</v>
       </c>
       <c r="B305" s="112"/>
-      <c r="C305" s="369"/>
+      <c r="C305" s="403"/>
       <c r="D305" s="208"/>
       <c r="E305" s="284"/>
       <c r="F305" s="233"/>
@@ -15654,7 +15629,7 @@
         <v>290</v>
       </c>
       <c r="B307" s="112"/>
-      <c r="C307" s="370"/>
+      <c r="C307" s="409"/>
       <c r="D307" s="205"/>
       <c r="E307" s="284"/>
       <c r="F307" s="233"/>
@@ -15687,7 +15662,7 @@
         <v>291</v>
       </c>
       <c r="B308" s="112"/>
-      <c r="C308" s="371"/>
+      <c r="C308" s="402"/>
       <c r="D308" s="203"/>
       <c r="E308" s="284"/>
       <c r="F308" s="233"/>
@@ -15720,7 +15695,7 @@
         <v>292</v>
       </c>
       <c r="B309" s="112"/>
-      <c r="C309" s="369"/>
+      <c r="C309" s="403"/>
       <c r="D309" s="206"/>
       <c r="E309" s="284"/>
       <c r="F309" s="233"/>
@@ -15917,10 +15892,10 @@
       <c r="A315" s="35">
         <v>298</v>
       </c>
-      <c r="B315" s="372"/>
-      <c r="C315" s="370"/>
+      <c r="B315" s="413"/>
+      <c r="C315" s="409"/>
       <c r="D315" s="202"/>
-      <c r="E315" s="373"/>
+      <c r="E315" s="414"/>
       <c r="F315" s="233"/>
       <c r="G315" s="233"/>
       <c r="H315" s="235"/>
@@ -15950,10 +15925,10 @@
       <c r="A316" s="35">
         <v>299</v>
       </c>
-      <c r="B316" s="371"/>
-      <c r="C316" s="371"/>
+      <c r="B316" s="402"/>
+      <c r="C316" s="402"/>
       <c r="D316" s="202"/>
-      <c r="E316" s="374"/>
+      <c r="E316" s="415"/>
       <c r="F316" s="233"/>
       <c r="G316" s="233"/>
       <c r="H316" s="235"/>
@@ -15983,10 +15958,10 @@
       <c r="A317" s="35">
         <v>300</v>
       </c>
-      <c r="B317" s="371"/>
-      <c r="C317" s="371"/>
+      <c r="B317" s="402"/>
+      <c r="C317" s="402"/>
       <c r="D317" s="202"/>
-      <c r="E317" s="374"/>
+      <c r="E317" s="415"/>
       <c r="F317" s="233"/>
       <c r="G317" s="233"/>
       <c r="H317" s="235"/>
@@ -16016,10 +15991,10 @@
       <c r="A318" s="35">
         <v>301</v>
       </c>
-      <c r="B318" s="371"/>
-      <c r="C318" s="371"/>
+      <c r="B318" s="402"/>
+      <c r="C318" s="402"/>
       <c r="D318" s="202"/>
-      <c r="E318" s="374"/>
+      <c r="E318" s="415"/>
       <c r="F318" s="233"/>
       <c r="G318" s="233"/>
       <c r="H318" s="235"/>
@@ -16049,10 +16024,10 @@
       <c r="A319" s="35">
         <v>302</v>
       </c>
-      <c r="B319" s="371"/>
-      <c r="C319" s="371"/>
+      <c r="B319" s="402"/>
+      <c r="C319" s="402"/>
       <c r="D319" s="202"/>
-      <c r="E319" s="374"/>
+      <c r="E319" s="415"/>
       <c r="F319" s="233"/>
       <c r="G319" s="233"/>
       <c r="H319" s="235"/>
@@ -16082,10 +16057,10 @@
       <c r="A320" s="35">
         <v>303</v>
       </c>
-      <c r="B320" s="371"/>
-      <c r="C320" s="371"/>
+      <c r="B320" s="402"/>
+      <c r="C320" s="402"/>
       <c r="D320" s="202"/>
-      <c r="E320" s="374"/>
+      <c r="E320" s="415"/>
       <c r="F320" s="254"/>
       <c r="G320" s="254"/>
       <c r="H320" s="255"/>
@@ -16115,10 +16090,10 @@
       <c r="A321" s="35">
         <v>304</v>
       </c>
-      <c r="B321" s="371"/>
-      <c r="C321" s="371"/>
+      <c r="B321" s="402"/>
+      <c r="C321" s="402"/>
       <c r="D321" s="202"/>
-      <c r="E321" s="374"/>
+      <c r="E321" s="415"/>
       <c r="F321" s="233"/>
       <c r="G321" s="233"/>
       <c r="H321" s="235"/>
@@ -16148,10 +16123,10 @@
       <c r="A322" s="35">
         <v>305</v>
       </c>
-      <c r="B322" s="371"/>
-      <c r="C322" s="371"/>
+      <c r="B322" s="402"/>
+      <c r="C322" s="402"/>
       <c r="D322" s="202"/>
-      <c r="E322" s="375"/>
+      <c r="E322" s="416"/>
       <c r="F322" s="233"/>
       <c r="G322" s="233"/>
       <c r="H322" s="235"/>
@@ -16181,8 +16156,8 @@
       <c r="A323" s="35">
         <v>306</v>
       </c>
-      <c r="B323" s="371"/>
-      <c r="C323" s="371"/>
+      <c r="B323" s="402"/>
+      <c r="C323" s="402"/>
       <c r="D323" s="202"/>
       <c r="E323" s="213"/>
       <c r="F323" s="266"/>
@@ -16214,8 +16189,8 @@
       <c r="A324" s="35">
         <v>307</v>
       </c>
-      <c r="B324" s="371"/>
-      <c r="C324" s="371"/>
+      <c r="B324" s="402"/>
+      <c r="C324" s="402"/>
       <c r="D324" s="202"/>
       <c r="E324" s="213"/>
       <c r="F324" s="254"/>
@@ -16247,10 +16222,10 @@
       <c r="A325" s="35">
         <v>308</v>
       </c>
-      <c r="B325" s="371"/>
-      <c r="C325" s="371"/>
+      <c r="B325" s="402"/>
+      <c r="C325" s="402"/>
       <c r="D325" s="207"/>
-      <c r="E325" s="373"/>
+      <c r="E325" s="414"/>
       <c r="F325" s="233"/>
       <c r="G325" s="233"/>
       <c r="H325" s="235"/>
@@ -16280,10 +16255,10 @@
       <c r="A326" s="35">
         <v>309</v>
       </c>
-      <c r="B326" s="371"/>
-      <c r="C326" s="371"/>
+      <c r="B326" s="402"/>
+      <c r="C326" s="402"/>
       <c r="D326" s="201"/>
-      <c r="E326" s="374"/>
+      <c r="E326" s="415"/>
       <c r="F326" s="254"/>
       <c r="G326" s="254"/>
       <c r="H326" s="255"/>
@@ -16313,10 +16288,10 @@
       <c r="A327" s="35">
         <v>310</v>
       </c>
-      <c r="B327" s="371"/>
-      <c r="C327" s="371"/>
+      <c r="B327" s="402"/>
+      <c r="C327" s="402"/>
       <c r="D327" s="201"/>
-      <c r="E327" s="374"/>
+      <c r="E327" s="415"/>
       <c r="F327" s="254"/>
       <c r="G327" s="254"/>
       <c r="H327" s="255"/>
@@ -16346,10 +16321,10 @@
       <c r="A328" s="35">
         <v>311</v>
       </c>
-      <c r="B328" s="371"/>
-      <c r="C328" s="369"/>
+      <c r="B328" s="402"/>
+      <c r="C328" s="403"/>
       <c r="D328" s="208"/>
-      <c r="E328" s="375"/>
+      <c r="E328" s="416"/>
       <c r="F328" s="254"/>
       <c r="G328" s="254"/>
       <c r="H328" s="255"/>
@@ -16379,7 +16354,7 @@
       <c r="A329" s="35">
         <v>312</v>
       </c>
-      <c r="B329" s="371"/>
+      <c r="B329" s="402"/>
       <c r="C329" s="99"/>
       <c r="D329" s="201"/>
       <c r="E329" s="214"/>
@@ -16412,10 +16387,10 @@
       <c r="A330" s="35">
         <v>313</v>
       </c>
-      <c r="B330" s="371"/>
-      <c r="C330" s="370"/>
+      <c r="B330" s="402"/>
+      <c r="C330" s="409"/>
       <c r="D330" s="207"/>
-      <c r="E330" s="373"/>
+      <c r="E330" s="414"/>
       <c r="F330" s="233"/>
       <c r="G330" s="233"/>
       <c r="H330" s="235"/>
@@ -16445,10 +16420,10 @@
       <c r="A331" s="35">
         <v>314</v>
       </c>
-      <c r="B331" s="371"/>
-      <c r="C331" s="371"/>
+      <c r="B331" s="402"/>
+      <c r="C331" s="402"/>
       <c r="D331" s="208"/>
-      <c r="E331" s="375"/>
+      <c r="E331" s="416"/>
       <c r="F331" s="233"/>
       <c r="G331" s="233"/>
       <c r="H331" s="235"/>
@@ -16478,10 +16453,10 @@
       <c r="A332" s="35">
         <v>315</v>
       </c>
-      <c r="B332" s="371"/>
-      <c r="C332" s="371"/>
+      <c r="B332" s="402"/>
+      <c r="C332" s="402"/>
       <c r="D332" s="202"/>
-      <c r="E332" s="373"/>
+      <c r="E332" s="414"/>
       <c r="F332" s="233"/>
       <c r="G332" s="233"/>
       <c r="H332" s="235"/>
@@ -16511,10 +16486,10 @@
       <c r="A333" s="35">
         <v>316</v>
       </c>
-      <c r="B333" s="371"/>
-      <c r="C333" s="369"/>
+      <c r="B333" s="402"/>
+      <c r="C333" s="403"/>
       <c r="D333" s="202"/>
-      <c r="E333" s="375"/>
+      <c r="E333" s="416"/>
       <c r="F333" s="233"/>
       <c r="G333" s="233"/>
       <c r="H333" s="235"/>
@@ -16544,7 +16519,7 @@
       <c r="A334" s="35">
         <v>317</v>
       </c>
-      <c r="B334" s="371"/>
+      <c r="B334" s="402"/>
       <c r="C334" s="99"/>
       <c r="D334" s="202"/>
       <c r="E334" s="213"/>
@@ -16577,10 +16552,10 @@
       <c r="A335" s="35">
         <v>318</v>
       </c>
-      <c r="B335" s="371"/>
-      <c r="C335" s="370"/>
+      <c r="B335" s="402"/>
+      <c r="C335" s="409"/>
       <c r="D335" s="207"/>
-      <c r="E335" s="373"/>
+      <c r="E335" s="414"/>
       <c r="F335" s="233"/>
       <c r="G335" s="233"/>
       <c r="H335" s="235"/>
@@ -16610,10 +16585,10 @@
       <c r="A336" s="35">
         <v>319</v>
       </c>
-      <c r="B336" s="371"/>
-      <c r="C336" s="371"/>
+      <c r="B336" s="402"/>
+      <c r="C336" s="402"/>
       <c r="D336" s="201"/>
-      <c r="E336" s="374"/>
+      <c r="E336" s="415"/>
       <c r="F336" s="233"/>
       <c r="G336" s="233"/>
       <c r="H336" s="235"/>
@@ -16643,10 +16618,10 @@
       <c r="A337" s="35">
         <v>320</v>
       </c>
-      <c r="B337" s="371"/>
-      <c r="C337" s="371"/>
+      <c r="B337" s="402"/>
+      <c r="C337" s="402"/>
       <c r="D337" s="100"/>
-      <c r="E337" s="374"/>
+      <c r="E337" s="415"/>
       <c r="F337" s="233"/>
       <c r="G337" s="233"/>
       <c r="H337" s="235"/>
@@ -16676,10 +16651,10 @@
       <c r="A338" s="35">
         <v>321</v>
       </c>
-      <c r="B338" s="371"/>
-      <c r="C338" s="371"/>
+      <c r="B338" s="402"/>
+      <c r="C338" s="402"/>
       <c r="D338" s="100"/>
-      <c r="E338" s="374"/>
+      <c r="E338" s="415"/>
       <c r="F338" s="233"/>
       <c r="G338" s="233"/>
       <c r="H338" s="235"/>
@@ -16709,10 +16684,10 @@
       <c r="A339" s="35">
         <v>322</v>
       </c>
-      <c r="B339" s="371"/>
-      <c r="C339" s="371"/>
+      <c r="B339" s="402"/>
+      <c r="C339" s="402"/>
       <c r="D339" s="100"/>
-      <c r="E339" s="374"/>
+      <c r="E339" s="415"/>
       <c r="F339" s="233"/>
       <c r="G339" s="233"/>
       <c r="H339" s="235"/>
@@ -16742,10 +16717,10 @@
       <c r="A340" s="35">
         <v>323</v>
       </c>
-      <c r="B340" s="371"/>
-      <c r="C340" s="371"/>
+      <c r="B340" s="402"/>
+      <c r="C340" s="402"/>
       <c r="D340" s="119"/>
-      <c r="E340" s="375"/>
+      <c r="E340" s="416"/>
       <c r="F340" s="233"/>
       <c r="G340" s="233"/>
       <c r="H340" s="235"/>
@@ -16775,10 +16750,10 @@
       <c r="A341" s="35">
         <v>324</v>
       </c>
-      <c r="B341" s="371"/>
-      <c r="C341" s="371"/>
+      <c r="B341" s="402"/>
+      <c r="C341" s="402"/>
       <c r="D341" s="111"/>
-      <c r="E341" s="373"/>
+      <c r="E341" s="414"/>
       <c r="F341" s="233"/>
       <c r="G341" s="233"/>
       <c r="H341" s="235"/>
@@ -16808,10 +16783,10 @@
       <c r="A342" s="35">
         <v>325</v>
       </c>
-      <c r="B342" s="371"/>
-      <c r="C342" s="371"/>
+      <c r="B342" s="402"/>
+      <c r="C342" s="402"/>
       <c r="D342" s="100"/>
-      <c r="E342" s="374"/>
+      <c r="E342" s="415"/>
       <c r="F342" s="254"/>
       <c r="G342" s="254"/>
       <c r="H342" s="255"/>
@@ -16841,10 +16816,10 @@
       <c r="A343" s="35">
         <v>326</v>
       </c>
-      <c r="B343" s="371"/>
-      <c r="C343" s="371"/>
+      <c r="B343" s="402"/>
+      <c r="C343" s="402"/>
       <c r="D343" s="100"/>
-      <c r="E343" s="374"/>
+      <c r="E343" s="415"/>
       <c r="F343" s="254"/>
       <c r="G343" s="254"/>
       <c r="H343" s="255"/>
@@ -16874,10 +16849,10 @@
       <c r="A344" s="35">
         <v>327</v>
       </c>
-      <c r="B344" s="369"/>
-      <c r="C344" s="369"/>
+      <c r="B344" s="403"/>
+      <c r="C344" s="403"/>
       <c r="D344" s="119"/>
-      <c r="E344" s="375"/>
+      <c r="E344" s="416"/>
       <c r="F344" s="254"/>
       <c r="G344" s="254"/>
       <c r="H344" s="255"/>
@@ -20743,38 +20718,6 @@
     <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D121:D131"/>
-    <mergeCell ref="D133:D142"/>
-    <mergeCell ref="B9:B31"/>
-    <mergeCell ref="B32:B46"/>
-    <mergeCell ref="B48:B60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D212:D220"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="D200:D210"/>
-    <mergeCell ref="M200:M207"/>
-    <mergeCell ref="L263:L265"/>
-    <mergeCell ref="C272:C278"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="C315:C328"/>
-    <mergeCell ref="C302:C303"/>
     <mergeCell ref="K302:K303"/>
     <mergeCell ref="C304:C305"/>
     <mergeCell ref="C307:C309"/>
@@ -20787,6 +20730,38 @@
     <mergeCell ref="E332:E333"/>
     <mergeCell ref="E325:E328"/>
     <mergeCell ref="E335:E340"/>
+    <mergeCell ref="C272:C278"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="C315:C328"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="D200:D210"/>
+    <mergeCell ref="M200:M207"/>
+    <mergeCell ref="L263:L265"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D212:D220"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D121:D131"/>
+    <mergeCell ref="D133:D142"/>
+    <mergeCell ref="B9:B31"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="B48:B60"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A81:A82">
     <cfRule type="notContainsBlanks" dxfId="12" priority="337">
@@ -20844,81 +20819,80 @@
     <hyperlink ref="I9" r:id="rId1" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="I10" r:id="rId2" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{493F42CF-258A-43CC-91CA-33CE67A09A07}"/>
     <hyperlink ref="I11" r:id="rId3" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{1D177EEE-0ABE-46B1-9DF4-1DA8FE8E09C8}"/>
-    <hyperlink ref="I12" r:id="rId4" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{FE6B0FEB-A42C-48DD-9E0B-DF89BCACEED2}"/>
-    <hyperlink ref="I13" r:id="rId5" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{8BBD36BC-0888-4151-A300-1017DABC4ADE}"/>
-    <hyperlink ref="I14" r:id="rId6" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{F7A2D7EA-DE51-4D7D-98A3-6DCF02460FC0}"/>
-    <hyperlink ref="I15" r:id="rId7" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{696405F1-D67C-4A27-AA0C-ED40B96E3DDB}"/>
-    <hyperlink ref="I16" r:id="rId8" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{8F2CBEBE-F5ED-4764-A66C-E847973964C6}"/>
-    <hyperlink ref="I17" r:id="rId9" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{927C6267-9313-4F12-B94C-FECC64983C50}"/>
-    <hyperlink ref="I18" r:id="rId10" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{9249819B-B697-45AF-BC16-715516840A6F}"/>
-    <hyperlink ref="I20" r:id="rId11" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{B514C9CE-111E-448E-A94C-1EC2DEBD329E}"/>
-    <hyperlink ref="I21" r:id="rId12" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{56EE22ED-893D-4FAB-82CE-114C4B87E7D3}"/>
-    <hyperlink ref="I22" r:id="rId13" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{4EEBFF4B-9D75-4324-AA9E-DFED1FFFAFA6}"/>
-    <hyperlink ref="I23" r:id="rId14" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{2ABE898D-689C-4C33-A143-8C1C10DDF6A3}"/>
-    <hyperlink ref="I24" r:id="rId15" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{2E934945-FB66-4A0E-9DB9-A78296AC8360}"/>
-    <hyperlink ref="I25" r:id="rId16" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{4319E36D-AB2D-43BA-A9D4-4C6649AF0DBB}"/>
-    <hyperlink ref="I26" r:id="rId17" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{A8D0DB5E-3367-4296-96C1-53229736CF01}"/>
-    <hyperlink ref="I27" r:id="rId18" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{EB042A3F-7F43-428C-BA4B-D8B1011D0C90}"/>
-    <hyperlink ref="I28" r:id="rId19" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{F07FD278-A1AE-4694-88AC-4B1D609B3B86}"/>
-    <hyperlink ref="I29" r:id="rId20" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{6AE26731-4580-4F7A-8A6E-4976DDBB40A7}"/>
-    <hyperlink ref="I30" r:id="rId21" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{E3A73C2B-FA56-4D6C-905C-6A301090480E}"/>
-    <hyperlink ref="I31" r:id="rId22" xr:uid="{79E70BBA-9A3F-420D-BA43-442F4B46B98B}"/>
-    <hyperlink ref="C1" r:id="rId23" xr:uid="{CF307923-0437-49F0-9102-F82031A1E661}"/>
-    <hyperlink ref="I32" r:id="rId24" xr:uid="{D8EC594E-C8EA-4D48-B947-8A21F01D0944}"/>
-    <hyperlink ref="I33" r:id="rId25" xr:uid="{B9D81509-4E7E-490D-982E-F4378E78C3C4}"/>
-    <hyperlink ref="I34" r:id="rId26" xr:uid="{3CF53917-72F1-4049-8580-98F4AC9C673D}"/>
-    <hyperlink ref="I35" r:id="rId27" xr:uid="{F4B10E3B-8C2A-452C-9059-FADA6A3F2FA1}"/>
-    <hyperlink ref="I36" r:id="rId28" xr:uid="{13585E7C-CF04-47FC-951F-BFFB3DB6B386}"/>
-    <hyperlink ref="I37" r:id="rId29" xr:uid="{549E2478-2791-4558-A359-1C4533190BCD}"/>
-    <hyperlink ref="I37:I46" r:id="rId30" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{1E436410-1022-4214-A873-35EA8E2DEFD6}"/>
-    <hyperlink ref="I48" r:id="rId31" xr:uid="{DA21AB1A-E950-472A-8E5A-984234D5A345}"/>
-    <hyperlink ref="I49" r:id="rId32" xr:uid="{92BC830D-EDD5-4D10-B896-3E6A7515E638}"/>
-    <hyperlink ref="I50" r:id="rId33" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{646F14B5-2AF8-4428-A402-B0C3BE1DA3C3}"/>
-    <hyperlink ref="I51" r:id="rId34" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{E1D22873-BEA6-4C6A-A8B2-A83CB73A1BDC}"/>
-    <hyperlink ref="I52" r:id="rId35" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{3158A383-163E-498B-89BB-EC1143D0315A}"/>
-    <hyperlink ref="I53" r:id="rId36" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{5ABEC6A3-47D4-4A4E-88D4-499A1D1E0FFF}"/>
-    <hyperlink ref="I54" r:id="rId37" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{739F66BA-2A42-4D8C-8D6E-E3E16D11F589}"/>
-    <hyperlink ref="I55" r:id="rId38" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{1671289B-E3BF-41DF-85AA-F0161FD55107}"/>
-    <hyperlink ref="I56" r:id="rId39" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{F5FC45C6-AAAA-4546-876A-CED1D4D82CFA}"/>
-    <hyperlink ref="I57" r:id="rId40" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{B54518A3-8EA1-483F-8FB1-028937341348}"/>
-    <hyperlink ref="I58" r:id="rId41" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{C5789879-51CF-4774-8FDC-88152230DF63}"/>
-    <hyperlink ref="I59" r:id="rId42" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{8FADF752-A80E-4C3A-B5CD-5BC0643BB669}"/>
-    <hyperlink ref="I60" r:id="rId43" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{2ECBC230-0973-4127-80D8-CD041267052B}"/>
-    <hyperlink ref="I61" r:id="rId44" xr:uid="{2026052B-9CD7-47D9-89B2-8F4657FCC36C}"/>
-    <hyperlink ref="I62:I68" r:id="rId45" display="1.Go to https://www.pchouse.com.bd/" xr:uid="{261A4BB2-0091-471F-8C7D-BBE9D07D9EE0}"/>
-    <hyperlink ref="I79" r:id="rId46" xr:uid="{F7295632-6EAB-4443-9BC1-F5A0B671CC62}"/>
-    <hyperlink ref="I80" r:id="rId47" xr:uid="{2E76C3C5-3507-45C5-B972-C4935D33CC1B}"/>
-    <hyperlink ref="I81" r:id="rId48" xr:uid="{77C71954-A0E7-4D55-9F53-48BC3382F845}"/>
-    <hyperlink ref="I82" r:id="rId49" xr:uid="{0A31FAC1-2213-4494-B779-0BD59A80B0C9}"/>
-    <hyperlink ref="I83" r:id="rId50" xr:uid="{3FCC78BF-CF69-430E-8ED2-3D19BC3B3995}"/>
-    <hyperlink ref="I84" r:id="rId51" xr:uid="{A151CFD0-FCD8-4F2B-B8DA-931AE6171C2F}"/>
-    <hyperlink ref="I19" r:id="rId52" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{EB140DD5-960D-482C-8422-D2619A8620F8}"/>
-    <hyperlink ref="J11" r:id="rId53" xr:uid="{E66120A2-EF1E-4AD4-BE55-8980035C2DB8}"/>
-    <hyperlink ref="J12" r:id="rId54" xr:uid="{8E9736F1-E8AA-4469-8799-361D67AC1792}"/>
-    <hyperlink ref="J13" r:id="rId55" xr:uid="{DC2BE8D9-CF21-49B5-9C7D-3FFC6DCE6AB2}"/>
-    <hyperlink ref="J14" r:id="rId56" xr:uid="{3C55D67F-6172-49FB-BA47-BCE68D5B0C24}"/>
-    <hyperlink ref="J15" r:id="rId57" xr:uid="{E72B9AAD-41EF-4751-A189-C84CE740FCDE}"/>
-    <hyperlink ref="J17" r:id="rId58" xr:uid="{A1F7EBDE-5513-4F31-824E-31500D4A34A3}"/>
-    <hyperlink ref="J19" r:id="rId59" xr:uid="{0DFCF93F-F8EC-4ED7-A980-842D2454F53B}"/>
-    <hyperlink ref="J22" r:id="rId60" xr:uid="{6BA3BCA3-8BCF-4167-A1BC-A1450632547F}"/>
-    <hyperlink ref="J27" r:id="rId61" xr:uid="{932D6BF5-8498-4763-9AA2-85ED8150F34F}"/>
-    <hyperlink ref="J36" r:id="rId62" xr:uid="{8091260C-C0E2-4E10-BFFF-DD6C5827F9CD}"/>
-    <hyperlink ref="J58" r:id="rId63" xr:uid="{ABEEDBEB-8070-41B0-BBED-06F4D44A0F95}"/>
-    <hyperlink ref="I69" r:id="rId64" xr:uid="{4FE479BE-1A69-4C19-A79F-473F26AFF924}"/>
-    <hyperlink ref="I70" r:id="rId65" xr:uid="{14743227-FBA8-40A9-92C5-7890CCA97A6D}"/>
-    <hyperlink ref="I71" r:id="rId66" xr:uid="{B1337236-1029-4CB4-9EE0-A1BCAD1CF681}"/>
-    <hyperlink ref="I72" r:id="rId67" xr:uid="{3B675C01-84CB-40C1-A6B0-DCFC17C23122}"/>
-    <hyperlink ref="I73" r:id="rId68" xr:uid="{3A8F7E0D-717B-4A8E-B811-EF6B8AE14642}"/>
-    <hyperlink ref="I74" r:id="rId69" xr:uid="{F7BD4FE3-CD6D-457F-917B-E03D23B1B064}"/>
-    <hyperlink ref="I75" r:id="rId70" xr:uid="{589DFF56-378C-4ABC-84EB-2A26BC95F180}"/>
-    <hyperlink ref="I76" r:id="rId71" xr:uid="{ECF515F5-2987-4B4C-BB57-0A6837E96FD7}"/>
-    <hyperlink ref="J76" r:id="rId72" xr:uid="{9AB2F93C-A574-4BE9-AFDA-DA5E246651C3}"/>
-    <hyperlink ref="H77" r:id="rId73" xr:uid="{0F3CA31E-4211-43D1-95B2-46A589FE6CFC}"/>
-    <hyperlink ref="I77" r:id="rId74" xr:uid="{E99FEA9F-C009-4D3F-8A60-BAAC18F0F648}"/>
-    <hyperlink ref="J77" r:id="rId75" xr:uid="{CCD6BF14-60A3-45C8-8857-213AA4C8DF1E}"/>
+    <hyperlink ref="I13" r:id="rId4" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{8BBD36BC-0888-4151-A300-1017DABC4ADE}"/>
+    <hyperlink ref="I14" r:id="rId5" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{F7A2D7EA-DE51-4D7D-98A3-6DCF02460FC0}"/>
+    <hyperlink ref="I15" r:id="rId6" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{696405F1-D67C-4A27-AA0C-ED40B96E3DDB}"/>
+    <hyperlink ref="I16" r:id="rId7" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{8F2CBEBE-F5ED-4764-A66C-E847973964C6}"/>
+    <hyperlink ref="I17" r:id="rId8" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{927C6267-9313-4F12-B94C-FECC64983C50}"/>
+    <hyperlink ref="I18" r:id="rId9" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{9249819B-B697-45AF-BC16-715516840A6F}"/>
+    <hyperlink ref="I20" r:id="rId10" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{B514C9CE-111E-448E-A94C-1EC2DEBD329E}"/>
+    <hyperlink ref="I21" r:id="rId11" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{56EE22ED-893D-4FAB-82CE-114C4B87E7D3}"/>
+    <hyperlink ref="I22" r:id="rId12" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{4EEBFF4B-9D75-4324-AA9E-DFED1FFFAFA6}"/>
+    <hyperlink ref="I23" r:id="rId13" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{2ABE898D-689C-4C33-A143-8C1C10DDF6A3}"/>
+    <hyperlink ref="I24" r:id="rId14" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{2E934945-FB66-4A0E-9DB9-A78296AC8360}"/>
+    <hyperlink ref="I25" r:id="rId15" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{4319E36D-AB2D-43BA-A9D4-4C6649AF0DBB}"/>
+    <hyperlink ref="I26" r:id="rId16" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{A8D0DB5E-3367-4296-96C1-53229736CF01}"/>
+    <hyperlink ref="I27" r:id="rId17" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{EB042A3F-7F43-428C-BA4B-D8B1011D0C90}"/>
+    <hyperlink ref="I28" r:id="rId18" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{F07FD278-A1AE-4694-88AC-4B1D609B3B86}"/>
+    <hyperlink ref="I29" r:id="rId19" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{6AE26731-4580-4F7A-8A6E-4976DDBB40A7}"/>
+    <hyperlink ref="I30" r:id="rId20" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{E3A73C2B-FA56-4D6C-905C-6A301090480E}"/>
+    <hyperlink ref="I31" r:id="rId21" xr:uid="{79E70BBA-9A3F-420D-BA43-442F4B46B98B}"/>
+    <hyperlink ref="C1" r:id="rId22" xr:uid="{CF307923-0437-49F0-9102-F82031A1E661}"/>
+    <hyperlink ref="I32" r:id="rId23" xr:uid="{D8EC594E-C8EA-4D48-B947-8A21F01D0944}"/>
+    <hyperlink ref="I33" r:id="rId24" xr:uid="{B9D81509-4E7E-490D-982E-F4378E78C3C4}"/>
+    <hyperlink ref="I34" r:id="rId25" xr:uid="{3CF53917-72F1-4049-8580-98F4AC9C673D}"/>
+    <hyperlink ref="I35" r:id="rId26" xr:uid="{F4B10E3B-8C2A-452C-9059-FADA6A3F2FA1}"/>
+    <hyperlink ref="I36" r:id="rId27" xr:uid="{13585E7C-CF04-47FC-951F-BFFB3DB6B386}"/>
+    <hyperlink ref="I37" r:id="rId28" xr:uid="{549E2478-2791-4558-A359-1C4533190BCD}"/>
+    <hyperlink ref="I37:I46" r:id="rId29" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{1E436410-1022-4214-A873-35EA8E2DEFD6}"/>
+    <hyperlink ref="I48" r:id="rId30" xr:uid="{DA21AB1A-E950-472A-8E5A-984234D5A345}"/>
+    <hyperlink ref="I49" r:id="rId31" xr:uid="{92BC830D-EDD5-4D10-B896-3E6A7515E638}"/>
+    <hyperlink ref="I50" r:id="rId32" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{646F14B5-2AF8-4428-A402-B0C3BE1DA3C3}"/>
+    <hyperlink ref="I51" r:id="rId33" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{E1D22873-BEA6-4C6A-A8B2-A83CB73A1BDC}"/>
+    <hyperlink ref="I52" r:id="rId34" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{3158A383-163E-498B-89BB-EC1143D0315A}"/>
+    <hyperlink ref="I53" r:id="rId35" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{5ABEC6A3-47D4-4A4E-88D4-499A1D1E0FFF}"/>
+    <hyperlink ref="I54" r:id="rId36" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{739F66BA-2A42-4D8C-8D6E-E3E16D11F589}"/>
+    <hyperlink ref="I55" r:id="rId37" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{1671289B-E3BF-41DF-85AA-F0161FD55107}"/>
+    <hyperlink ref="I56" r:id="rId38" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{F5FC45C6-AAAA-4546-876A-CED1D4D82CFA}"/>
+    <hyperlink ref="I57" r:id="rId39" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{B54518A3-8EA1-483F-8FB1-028937341348}"/>
+    <hyperlink ref="I58" r:id="rId40" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{C5789879-51CF-4774-8FDC-88152230DF63}"/>
+    <hyperlink ref="I59" r:id="rId41" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{8FADF752-A80E-4C3A-B5CD-5BC0643BB669}"/>
+    <hyperlink ref="I60" r:id="rId42" display="1.Go to https://www.pchouse.com.bd/index.php?route=account/login" xr:uid="{2ECBC230-0973-4127-80D8-CD041267052B}"/>
+    <hyperlink ref="I61" r:id="rId43" xr:uid="{2026052B-9CD7-47D9-89B2-8F4657FCC36C}"/>
+    <hyperlink ref="I62:I68" r:id="rId44" display="1.Go to https://www.pchouse.com.bd/" xr:uid="{261A4BB2-0091-471F-8C7D-BBE9D07D9EE0}"/>
+    <hyperlink ref="I79" r:id="rId45" xr:uid="{F7295632-6EAB-4443-9BC1-F5A0B671CC62}"/>
+    <hyperlink ref="I80" r:id="rId46" xr:uid="{2E76C3C5-3507-45C5-B972-C4935D33CC1B}"/>
+    <hyperlink ref="I81" r:id="rId47" xr:uid="{77C71954-A0E7-4D55-9F53-48BC3382F845}"/>
+    <hyperlink ref="I82" r:id="rId48" xr:uid="{0A31FAC1-2213-4494-B779-0BD59A80B0C9}"/>
+    <hyperlink ref="I83" r:id="rId49" xr:uid="{3FCC78BF-CF69-430E-8ED2-3D19BC3B3995}"/>
+    <hyperlink ref="I84" r:id="rId50" xr:uid="{A151CFD0-FCD8-4F2B-B8DA-931AE6171C2F}"/>
+    <hyperlink ref="I19" r:id="rId51" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{EB140DD5-960D-482C-8422-D2619A8620F8}"/>
+    <hyperlink ref="J11" r:id="rId52" xr:uid="{E66120A2-EF1E-4AD4-BE55-8980035C2DB8}"/>
+    <hyperlink ref="J13" r:id="rId53" xr:uid="{DC2BE8D9-CF21-49B5-9C7D-3FFC6DCE6AB2}"/>
+    <hyperlink ref="J14" r:id="rId54" xr:uid="{3C55D67F-6172-49FB-BA47-BCE68D5B0C24}"/>
+    <hyperlink ref="J15" r:id="rId55" xr:uid="{E72B9AAD-41EF-4751-A189-C84CE740FCDE}"/>
+    <hyperlink ref="J17" r:id="rId56" xr:uid="{A1F7EBDE-5513-4F31-824E-31500D4A34A3}"/>
+    <hyperlink ref="J19" r:id="rId57" xr:uid="{0DFCF93F-F8EC-4ED7-A980-842D2454F53B}"/>
+    <hyperlink ref="J22" r:id="rId58" xr:uid="{6BA3BCA3-8BCF-4167-A1BC-A1450632547F}"/>
+    <hyperlink ref="J27" r:id="rId59" xr:uid="{932D6BF5-8498-4763-9AA2-85ED8150F34F}"/>
+    <hyperlink ref="J36" r:id="rId60" xr:uid="{8091260C-C0E2-4E10-BFFF-DD6C5827F9CD}"/>
+    <hyperlink ref="J58" r:id="rId61" xr:uid="{ABEEDBEB-8070-41B0-BBED-06F4D44A0F95}"/>
+    <hyperlink ref="I69" r:id="rId62" xr:uid="{4FE479BE-1A69-4C19-A79F-473F26AFF924}"/>
+    <hyperlink ref="I70" r:id="rId63" xr:uid="{14743227-FBA8-40A9-92C5-7890CCA97A6D}"/>
+    <hyperlink ref="I71" r:id="rId64" xr:uid="{B1337236-1029-4CB4-9EE0-A1BCAD1CF681}"/>
+    <hyperlink ref="I72" r:id="rId65" xr:uid="{3B675C01-84CB-40C1-A6B0-DCFC17C23122}"/>
+    <hyperlink ref="I73" r:id="rId66" xr:uid="{3A8F7E0D-717B-4A8E-B811-EF6B8AE14642}"/>
+    <hyperlink ref="I74" r:id="rId67" xr:uid="{F7BD4FE3-CD6D-457F-917B-E03D23B1B064}"/>
+    <hyperlink ref="I75" r:id="rId68" xr:uid="{589DFF56-378C-4ABC-84EB-2A26BC95F180}"/>
+    <hyperlink ref="I76" r:id="rId69" xr:uid="{ECF515F5-2987-4B4C-BB57-0A6837E96FD7}"/>
+    <hyperlink ref="J76" r:id="rId70" xr:uid="{9AB2F93C-A574-4BE9-AFDA-DA5E246651C3}"/>
+    <hyperlink ref="I77" r:id="rId71" xr:uid="{E99FEA9F-C009-4D3F-8A60-BAAC18F0F648}"/>
+    <hyperlink ref="J77" r:id="rId72" xr:uid="{CCD6BF14-60A3-45C8-8857-213AA4C8DF1E}"/>
+    <hyperlink ref="J12" r:id="rId73" xr:uid="{8E9736F1-E8AA-4469-8799-361D67AC1792}"/>
+    <hyperlink ref="I12" r:id="rId74" display="https://www.pchouse.com.bd/index.php?route=account/register" xr:uid="{FE6B0FEB-A42C-48DD-9E0B-DF89BCACEED2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId76"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -20949,42 +20923,42 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B4" s="440" t="s">
+      <c r="B4" s="417" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="417"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="418"/>
+      <c r="F4" s="418"/>
+      <c r="G4" s="367"/>
       <c r="J4" s="143" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="339" t="s">
+      <c r="B5" s="336" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="442" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="443"/>
-      <c r="E5" s="443"/>
-      <c r="F5" s="443"/>
-      <c r="G5" s="444"/>
+      <c r="C5" s="419" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="420"/>
+      <c r="E5" s="420"/>
+      <c r="F5" s="420"/>
+      <c r="G5" s="421"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="340" t="s">
+      <c r="B6" s="337" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="445" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="435"/>
-      <c r="E6" s="435"/>
-      <c r="F6" s="435"/>
-      <c r="G6" s="446"/>
+      <c r="C6" s="422" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="423"/>
+      <c r="E6" s="423"/>
+      <c r="F6" s="423"/>
+      <c r="G6" s="424"/>
       <c r="I6" s="144" t="s">
         <v>44</v>
       </c>
@@ -20994,31 +20968,31 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="145"/>
-      <c r="B7" s="341" t="s">
+      <c r="B7" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="448" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="449"/>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="450"/>
+      <c r="C7" s="426" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="427"/>
+      <c r="E7" s="427"/>
+      <c r="F7" s="427"/>
+      <c r="G7" s="428"/>
       <c r="I7" s="144"/>
       <c r="J7" s="144"/>
       <c r="L7" s="146"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="339" t="s">
+      <c r="B8" s="336" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="447">
+      <c r="C8" s="425">
         <v>1</v>
       </c>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="443"/>
-      <c r="G8" s="444"/>
+      <c r="D8" s="420"/>
+      <c r="E8" s="420"/>
+      <c r="F8" s="420"/>
+      <c r="G8" s="421"/>
       <c r="I8" s="147">
         <f>C14</f>
         <v>51</v>
@@ -21028,16 +21002,16 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="339" t="s">
+      <c r="B9" s="336" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="442" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="443"/>
-      <c r="F9" s="443"/>
-      <c r="G9" s="444"/>
+      <c r="C9" s="419" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="420"/>
+      <c r="E9" s="420"/>
+      <c r="F9" s="420"/>
+      <c r="G9" s="421"/>
       <c r="I9" s="147">
         <f>D14</f>
         <v>25</v>
@@ -21047,14 +21021,14 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="434" t="s">
+      <c r="B10" s="438" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="435"/>
-      <c r="D10" s="435"/>
-      <c r="E10" s="435"/>
-      <c r="F10" s="435"/>
-      <c r="G10" s="436"/>
+      <c r="C10" s="423"/>
+      <c r="D10" s="423"/>
+      <c r="E10" s="423"/>
+      <c r="F10" s="423"/>
+      <c r="G10" s="439"/>
       <c r="I10" s="147">
         <f>E14</f>
         <v>0</v>
@@ -21064,12 +21038,12 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="426"/>
-      <c r="C11" s="427"/>
-      <c r="D11" s="427"/>
-      <c r="E11" s="427"/>
-      <c r="F11" s="427"/>
-      <c r="G11" s="428"/>
+      <c r="B11" s="435"/>
+      <c r="C11" s="436"/>
+      <c r="D11" s="436"/>
+      <c r="E11" s="436"/>
+      <c r="F11" s="436"/>
+      <c r="G11" s="437"/>
       <c r="I11" s="147">
         <f>F14</f>
         <v>0</v>
@@ -21122,26 +21096,26 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="329" t="s">
+      <c r="B14" s="326" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="326">
+      <c r="C14" s="323">
         <f>SUM(C13)</f>
         <v>51</v>
       </c>
-      <c r="D14" s="327">
+      <c r="D14" s="324">
         <f>SUM(D13)</f>
         <v>25</v>
       </c>
-      <c r="E14" s="326">
+      <c r="E14" s="323">
         <f>SUM(E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="326">
+      <c r="F14" s="323">
         <f>SUM(F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="328">
+      <c r="G14" s="325">
         <f>SUM(G13)</f>
         <v>76</v>
       </c>
@@ -21206,16 +21180,16 @@
       <c r="R17" s="160"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="439"/>
-      <c r="C18" s="437" t="s">
+      <c r="B18" s="444"/>
+      <c r="C18" s="440" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="438" t="s">
+      <c r="D18" s="443" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="421"/>
-      <c r="F18" s="421"/>
-      <c r="G18" s="422"/>
+      <c r="E18" s="430"/>
+      <c r="F18" s="430"/>
+      <c r="G18" s="431"/>
       <c r="L18" s="151"/>
       <c r="M18" s="151"/>
       <c r="N18" s="151"/>
@@ -21225,294 +21199,294 @@
       <c r="R18" s="151"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="430"/>
-      <c r="C19" s="430"/>
-      <c r="D19" s="423"/>
-      <c r="E19" s="424"/>
-      <c r="F19" s="424"/>
-      <c r="G19" s="425"/>
+      <c r="B19" s="441"/>
+      <c r="C19" s="441"/>
+      <c r="D19" s="432"/>
+      <c r="E19" s="433"/>
+      <c r="F19" s="433"/>
+      <c r="G19" s="434"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="430"/>
-      <c r="C20" s="430"/>
-      <c r="D20" s="423"/>
-      <c r="E20" s="424"/>
-      <c r="F20" s="424"/>
-      <c r="G20" s="425"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="441"/>
+      <c r="D20" s="432"/>
+      <c r="E20" s="433"/>
+      <c r="F20" s="433"/>
+      <c r="G20" s="434"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="431"/>
-      <c r="C21" s="431"/>
-      <c r="D21" s="426"/>
-      <c r="E21" s="427"/>
-      <c r="F21" s="427"/>
-      <c r="G21" s="428"/>
+      <c r="B21" s="442"/>
+      <c r="C21" s="442"/>
+      <c r="D21" s="435"/>
+      <c r="E21" s="436"/>
+      <c r="F21" s="436"/>
+      <c r="G21" s="437"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B22" s="429" t="s">
+      <c r="B22" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="433" t="s">
+      <c r="C22" s="446" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="420" t="s">
+      <c r="D22" s="429" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="421"/>
-      <c r="F22" s="421"/>
-      <c r="G22" s="422"/>
+      <c r="E22" s="430"/>
+      <c r="F22" s="430"/>
+      <c r="G22" s="431"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="430"/>
-      <c r="C23" s="430"/>
-      <c r="D23" s="423"/>
-      <c r="E23" s="424"/>
-      <c r="F23" s="424"/>
-      <c r="G23" s="425"/>
+      <c r="B23" s="441"/>
+      <c r="C23" s="441"/>
+      <c r="D23" s="432"/>
+      <c r="E23" s="433"/>
+      <c r="F23" s="433"/>
+      <c r="G23" s="434"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="430"/>
-      <c r="C24" s="430"/>
-      <c r="D24" s="423"/>
-      <c r="E24" s="424"/>
-      <c r="F24" s="424"/>
-      <c r="G24" s="425"/>
+      <c r="B24" s="441"/>
+      <c r="C24" s="441"/>
+      <c r="D24" s="432"/>
+      <c r="E24" s="433"/>
+      <c r="F24" s="433"/>
+      <c r="G24" s="434"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="431"/>
-      <c r="C25" s="431"/>
-      <c r="D25" s="426"/>
-      <c r="E25" s="427"/>
-      <c r="F25" s="427"/>
-      <c r="G25" s="428"/>
+      <c r="B25" s="442"/>
+      <c r="C25" s="442"/>
+      <c r="D25" s="435"/>
+      <c r="E25" s="436"/>
+      <c r="F25" s="436"/>
+      <c r="G25" s="437"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="429" t="s">
+      <c r="B26" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="433" t="s">
+      <c r="C26" s="446" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="420" t="s">
+      <c r="D26" s="429" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="421"/>
-      <c r="F26" s="421"/>
-      <c r="G26" s="422"/>
+      <c r="E26" s="430"/>
+      <c r="F26" s="430"/>
+      <c r="G26" s="431"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="430"/>
-      <c r="C27" s="430"/>
-      <c r="D27" s="423"/>
-      <c r="E27" s="424"/>
-      <c r="F27" s="424"/>
-      <c r="G27" s="425"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="441"/>
+      <c r="D27" s="432"/>
+      <c r="E27" s="433"/>
+      <c r="F27" s="433"/>
+      <c r="G27" s="434"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="430"/>
-      <c r="C28" s="430"/>
-      <c r="D28" s="423"/>
-      <c r="E28" s="424"/>
-      <c r="F28" s="424"/>
-      <c r="G28" s="425"/>
+      <c r="B28" s="441"/>
+      <c r="C28" s="441"/>
+      <c r="D28" s="432"/>
+      <c r="E28" s="433"/>
+      <c r="F28" s="433"/>
+      <c r="G28" s="434"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="431"/>
-      <c r="C29" s="431"/>
-      <c r="D29" s="426"/>
-      <c r="E29" s="427"/>
-      <c r="F29" s="427"/>
-      <c r="G29" s="428"/>
+      <c r="B29" s="442"/>
+      <c r="C29" s="442"/>
+      <c r="D29" s="435"/>
+      <c r="E29" s="436"/>
+      <c r="F29" s="436"/>
+      <c r="G29" s="437"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="429" t="s">
+      <c r="B30" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="433" t="s">
+      <c r="C30" s="446" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="420" t="s">
+      <c r="D30" s="429" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="421"/>
-      <c r="F30" s="421"/>
-      <c r="G30" s="422"/>
+      <c r="E30" s="430"/>
+      <c r="F30" s="430"/>
+      <c r="G30" s="431"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="430"/>
-      <c r="C31" s="430"/>
-      <c r="D31" s="423"/>
-      <c r="E31" s="424"/>
-      <c r="F31" s="424"/>
-      <c r="G31" s="425"/>
+      <c r="B31" s="441"/>
+      <c r="C31" s="441"/>
+      <c r="D31" s="432"/>
+      <c r="E31" s="433"/>
+      <c r="F31" s="433"/>
+      <c r="G31" s="434"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="430"/>
-      <c r="C32" s="430"/>
-      <c r="D32" s="423"/>
-      <c r="E32" s="424"/>
-      <c r="F32" s="424"/>
-      <c r="G32" s="425"/>
+      <c r="B32" s="441"/>
+      <c r="C32" s="441"/>
+      <c r="D32" s="432"/>
+      <c r="E32" s="433"/>
+      <c r="F32" s="433"/>
+      <c r="G32" s="434"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="431"/>
-      <c r="C33" s="431"/>
-      <c r="D33" s="426"/>
-      <c r="E33" s="427"/>
-      <c r="F33" s="427"/>
-      <c r="G33" s="428"/>
+      <c r="B33" s="442"/>
+      <c r="C33" s="442"/>
+      <c r="D33" s="435"/>
+      <c r="E33" s="436"/>
+      <c r="F33" s="436"/>
+      <c r="G33" s="437"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="429" t="s">
+      <c r="B34" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="433" t="s">
+      <c r="C34" s="446" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="420" t="s">
+      <c r="D34" s="429" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="421"/>
-      <c r="F34" s="421"/>
-      <c r="G34" s="422"/>
+      <c r="E34" s="430"/>
+      <c r="F34" s="430"/>
+      <c r="G34" s="431"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="430"/>
-      <c r="C35" s="430"/>
-      <c r="D35" s="423"/>
-      <c r="E35" s="424"/>
-      <c r="F35" s="424"/>
-      <c r="G35" s="425"/>
+      <c r="B35" s="441"/>
+      <c r="C35" s="441"/>
+      <c r="D35" s="432"/>
+      <c r="E35" s="433"/>
+      <c r="F35" s="433"/>
+      <c r="G35" s="434"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="430"/>
-      <c r="C36" s="430"/>
-      <c r="D36" s="423"/>
-      <c r="E36" s="424"/>
-      <c r="F36" s="424"/>
-      <c r="G36" s="425"/>
+      <c r="B36" s="441"/>
+      <c r="C36" s="441"/>
+      <c r="D36" s="432"/>
+      <c r="E36" s="433"/>
+      <c r="F36" s="433"/>
+      <c r="G36" s="434"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="431"/>
-      <c r="C37" s="431"/>
-      <c r="D37" s="426"/>
-      <c r="E37" s="427"/>
-      <c r="F37" s="427"/>
-      <c r="G37" s="428"/>
+      <c r="B37" s="442"/>
+      <c r="C37" s="442"/>
+      <c r="D37" s="435"/>
+      <c r="E37" s="436"/>
+      <c r="F37" s="436"/>
+      <c r="G37" s="437"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="429" t="s">
+      <c r="B38" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="432" t="s">
+      <c r="C38" s="447" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="420" t="s">
+      <c r="D38" s="429" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="421"/>
-      <c r="F38" s="421"/>
-      <c r="G38" s="422"/>
+      <c r="E38" s="430"/>
+      <c r="F38" s="430"/>
+      <c r="G38" s="431"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="430"/>
-      <c r="C39" s="430"/>
-      <c r="D39" s="423"/>
-      <c r="E39" s="424"/>
-      <c r="F39" s="424"/>
-      <c r="G39" s="425"/>
+      <c r="B39" s="441"/>
+      <c r="C39" s="441"/>
+      <c r="D39" s="432"/>
+      <c r="E39" s="433"/>
+      <c r="F39" s="433"/>
+      <c r="G39" s="434"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="430"/>
-      <c r="C40" s="430"/>
-      <c r="D40" s="423"/>
-      <c r="E40" s="424"/>
-      <c r="F40" s="424"/>
-      <c r="G40" s="425"/>
+      <c r="B40" s="441"/>
+      <c r="C40" s="441"/>
+      <c r="D40" s="432"/>
+      <c r="E40" s="433"/>
+      <c r="F40" s="433"/>
+      <c r="G40" s="434"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="431"/>
-      <c r="C41" s="431"/>
-      <c r="D41" s="426"/>
-      <c r="E41" s="427"/>
-      <c r="F41" s="427"/>
-      <c r="G41" s="428"/>
+      <c r="B41" s="442"/>
+      <c r="C41" s="442"/>
+      <c r="D41" s="435"/>
+      <c r="E41" s="436"/>
+      <c r="F41" s="436"/>
+      <c r="G41" s="437"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="429" t="s">
+      <c r="B42" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="432" t="s">
+      <c r="C42" s="447" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="420" t="s">
+      <c r="D42" s="429" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="421"/>
-      <c r="F42" s="421"/>
-      <c r="G42" s="422"/>
+      <c r="E42" s="430"/>
+      <c r="F42" s="430"/>
+      <c r="G42" s="431"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="430"/>
-      <c r="C43" s="430"/>
-      <c r="D43" s="423"/>
-      <c r="E43" s="424"/>
-      <c r="F43" s="424"/>
-      <c r="G43" s="425"/>
+      <c r="B43" s="441"/>
+      <c r="C43" s="441"/>
+      <c r="D43" s="432"/>
+      <c r="E43" s="433"/>
+      <c r="F43" s="433"/>
+      <c r="G43" s="434"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="430"/>
-      <c r="C44" s="430"/>
-      <c r="D44" s="423"/>
-      <c r="E44" s="424"/>
-      <c r="F44" s="424"/>
-      <c r="G44" s="425"/>
+      <c r="B44" s="441"/>
+      <c r="C44" s="441"/>
+      <c r="D44" s="432"/>
+      <c r="E44" s="433"/>
+      <c r="F44" s="433"/>
+      <c r="G44" s="434"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="431"/>
-      <c r="C45" s="431"/>
-      <c r="D45" s="426"/>
-      <c r="E45" s="427"/>
-      <c r="F45" s="427"/>
-      <c r="G45" s="428"/>
+      <c r="B45" s="442"/>
+      <c r="C45" s="442"/>
+      <c r="D45" s="435"/>
+      <c r="E45" s="436"/>
+      <c r="F45" s="436"/>
+      <c r="G45" s="437"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="429" t="s">
+      <c r="B46" s="445" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="432" t="s">
+      <c r="C46" s="447" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="420" t="s">
+      <c r="D46" s="429" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="421"/>
-      <c r="F46" s="421"/>
-      <c r="G46" s="422"/>
+      <c r="E46" s="430"/>
+      <c r="F46" s="430"/>
+      <c r="G46" s="431"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="430"/>
-      <c r="C47" s="430"/>
-      <c r="D47" s="423"/>
-      <c r="E47" s="424"/>
-      <c r="F47" s="424"/>
-      <c r="G47" s="425"/>
+      <c r="B47" s="441"/>
+      <c r="C47" s="441"/>
+      <c r="D47" s="432"/>
+      <c r="E47" s="433"/>
+      <c r="F47" s="433"/>
+      <c r="G47" s="434"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="430"/>
-      <c r="C48" s="430"/>
-      <c r="D48" s="423"/>
-      <c r="E48" s="424"/>
-      <c r="F48" s="424"/>
-      <c r="G48" s="425"/>
+      <c r="B48" s="441"/>
+      <c r="C48" s="441"/>
+      <c r="D48" s="432"/>
+      <c r="E48" s="433"/>
+      <c r="F48" s="433"/>
+      <c r="G48" s="434"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="431"/>
-      <c r="C49" s="431"/>
-      <c r="D49" s="426"/>
-      <c r="E49" s="427"/>
-      <c r="F49" s="427"/>
-      <c r="G49" s="428"/>
+      <c r="B49" s="442"/>
+      <c r="C49" s="442"/>
+      <c r="D49" s="435"/>
+      <c r="E49" s="436"/>
+      <c r="F49" s="436"/>
+      <c r="G49" s="437"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="51" spans="2:7" ht="33.75" customHeight="1"/>
@@ -22467,12 +22441,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="D42:G45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:G49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:G37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
     <mergeCell ref="D22:G25"/>
     <mergeCell ref="D26:G29"/>
     <mergeCell ref="D30:G33"/>
@@ -22486,18 +22466,12 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D42:G45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:G49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:G37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:G41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -22530,21 +22504,21 @@
       <c r="E2" s="162"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="451" t="s">
+      <c r="B3" s="448" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="421"/>
-      <c r="D3" s="421"/>
-      <c r="E3" s="422"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="431"/>
       <c r="F3" s="163"/>
       <c r="G3" s="163"/>
       <c r="H3" s="163"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1">
-      <c r="B4" s="426"/>
-      <c r="C4" s="427"/>
-      <c r="D4" s="427"/>
-      <c r="E4" s="428"/>
+      <c r="B4" s="435"/>
+      <c r="C4" s="436"/>
+      <c r="D4" s="436"/>
+      <c r="E4" s="437"/>
       <c r="F4" s="163"/>
       <c r="G4" s="163"/>
       <c r="H4" s="163"/>
@@ -22574,8 +22548,8 @@
       <c r="D6" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="342" t="s">
-        <v>276</v>
+      <c r="E6" s="339" t="s">
+        <v>262</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -22610,8 +22584,8 @@
       <c r="D7" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="342" t="s">
-        <v>277</v>
+      <c r="E7" s="339" t="s">
+        <v>263</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -22646,8 +22620,8 @@
       <c r="D8" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="342" t="s">
-        <v>278</v>
+      <c r="E8" s="339" t="s">
+        <v>264</v>
       </c>
       <c r="F8" s="171"/>
       <c r="G8" s="171"/>
@@ -22682,8 +22656,8 @@
       <c r="D9" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="342" t="s">
-        <v>279</v>
+      <c r="E9" s="339" t="s">
+        <v>265</v>
       </c>
       <c r="F9" s="171"/>
       <c r="G9" s="171"/>
@@ -22718,8 +22692,8 @@
       <c r="D10" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="342" t="s">
-        <v>277</v>
+      <c r="E10" s="339" t="s">
+        <v>263</v>
       </c>
       <c r="F10" s="171"/>
       <c r="G10" s="171"/>

--- a/pchousebd.xlsx
+++ b/pchousebd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ProjectTesting\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE0AD6-3BD5-4A98-9207-D594B4FB33F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E812B1B-314D-4059-8C2A-C3B91778C5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,9 +784,6 @@
     <t>20/12/2024</t>
   </si>
   <si>
-    <t>26/1/24</t>
-  </si>
-  <si>
     <t>Syed Muztaba Ali</t>
   </si>
   <si>
@@ -899,6 +896,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1RwEejO1Cu2k0LouNIlWRJyCY890jlqr2/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>28/1/24</t>
   </si>
 </sst>
 </file>
@@ -3366,111 +3366,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3482,52 +3405,106 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3539,34 +3516,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="28" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5450,8 +5450,8 @@
   <dimension ref="A1:AC1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5474,10 +5474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="413" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="367"/>
+      <c r="B1" s="415"/>
       <c r="C1" s="341" t="s">
         <v>106</v>
       </c>
@@ -5497,10 +5497,10 @@
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="368" t="s">
+      <c r="L1" s="416" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="369"/>
+      <c r="M1" s="417"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -5519,10 +5519,10 @@
       <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="367"/>
+      <c r="B2" s="415"/>
       <c r="C2" s="340" t="s">
         <v>237</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="327" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
@@ -5567,16 +5567,16 @@
       <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="367"/>
+      <c r="B3" s="415"/>
       <c r="C3" s="13"/>
       <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="322" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
@@ -5613,16 +5613,16 @@
       <c r="AC3" s="11"/>
     </row>
     <row r="4" spans="1:29" ht="43.15" customHeight="1" thickBot="1">
-      <c r="A4" s="365" t="s">
+      <c r="A4" s="413" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="366"/>
+      <c r="B4" s="414"/>
       <c r="C4" s="13"/>
       <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="322" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>15</v>
@@ -5659,17 +5659,17 @@
       <c r="AC4" s="11"/>
     </row>
     <row r="5" spans="1:29" ht="29.75" customHeight="1" thickBot="1">
-      <c r="A5" s="370" t="s">
+      <c r="A5" s="391" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="371"/>
-      <c r="C5" s="372" t="s">
+      <c r="B5" s="392"/>
+      <c r="C5" s="393" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="373"/>
-      <c r="E5" s="373"/>
-      <c r="F5" s="373"/>
-      <c r="G5" s="374"/>
+      <c r="D5" s="394"/>
+      <c r="E5" s="394"/>
+      <c r="F5" s="394"/>
+      <c r="G5" s="395"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
@@ -5815,7 +5815,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="342" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J8" s="315"/>
       <c r="K8" s="37"/>
@@ -5844,7 +5844,7 @@
       <c r="A9" s="333">
         <v>2</v>
       </c>
-      <c r="B9" s="381" t="s">
+      <c r="B9" s="401" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="304"/>
@@ -5891,7 +5891,7 @@
       <c r="A10" s="333">
         <v>3</v>
       </c>
-      <c r="B10" s="382"/>
+      <c r="B10" s="402"/>
       <c r="C10" s="303"/>
       <c r="D10" s="305"/>
       <c r="E10" s="345" t="s">
@@ -5904,7 +5904,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="343" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I10" s="311" t="s">
         <v>98</v>
@@ -5924,7 +5924,7 @@
       <c r="A11" s="333">
         <v>4</v>
       </c>
-      <c r="B11" s="382"/>
+      <c r="B11" s="402"/>
       <c r="C11" s="44"/>
       <c r="D11" s="176"/>
       <c r="E11" s="345" t="s">
@@ -5934,16 +5934,16 @@
         <v>188</v>
       </c>
       <c r="G11" s="307" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="306" t="s">
         <v>246</v>
-      </c>
-      <c r="H11" s="306" t="s">
-        <v>247</v>
       </c>
       <c r="I11" s="311" t="s">
         <v>98</v>
       </c>
       <c r="J11" s="328" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K11" s="43"/>
       <c r="L11" s="38" t="s">
@@ -5959,7 +5959,7 @@
       <c r="A12" s="333">
         <v>5</v>
       </c>
-      <c r="B12" s="382"/>
+      <c r="B12" s="402"/>
       <c r="C12" s="44"/>
       <c r="D12" s="176"/>
       <c r="E12" s="345" t="s">
@@ -5969,16 +5969,16 @@
         <v>188</v>
       </c>
       <c r="G12" s="307" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="306" t="s">
         <v>246</v>
-      </c>
-      <c r="H12" s="306" t="s">
-        <v>247</v>
       </c>
       <c r="I12" s="311" t="s">
         <v>98</v>
       </c>
       <c r="J12" s="328" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K12" s="43"/>
       <c r="L12" s="38" t="s">
@@ -5994,7 +5994,7 @@
       <c r="A13" s="333">
         <v>6</v>
       </c>
-      <c r="B13" s="382"/>
+      <c r="B13" s="402"/>
       <c r="C13" s="44"/>
       <c r="D13" s="176"/>
       <c r="E13" s="345" t="s">
@@ -6004,16 +6004,16 @@
         <v>188</v>
       </c>
       <c r="G13" s="307" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="309" t="s">
         <v>246</v>
-      </c>
-      <c r="H13" s="309" t="s">
-        <v>247</v>
       </c>
       <c r="I13" s="311" t="s">
         <v>98</v>
       </c>
       <c r="J13" s="328" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K13" s="43"/>
       <c r="L13" s="38" t="s">
@@ -6029,7 +6029,7 @@
       <c r="A14" s="333">
         <v>7</v>
       </c>
-      <c r="B14" s="382"/>
+      <c r="B14" s="402"/>
       <c r="C14" s="44"/>
       <c r="D14" s="176"/>
       <c r="E14" s="345" t="s">
@@ -6039,7 +6039,7 @@
         <v>188</v>
       </c>
       <c r="G14" s="307" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H14" s="306" t="s">
         <v>101</v>
@@ -6048,7 +6048,7 @@
         <v>98</v>
       </c>
       <c r="J14" s="328" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K14" s="43"/>
       <c r="L14" s="38" t="s">
@@ -6064,7 +6064,7 @@
       <c r="A15" s="333">
         <v>8</v>
       </c>
-      <c r="B15" s="382"/>
+      <c r="B15" s="402"/>
       <c r="C15" s="44"/>
       <c r="D15" s="176"/>
       <c r="E15" s="345" t="s">
@@ -6074,7 +6074,7 @@
         <v>188</v>
       </c>
       <c r="G15" s="307" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H15" s="306" t="s">
         <v>39</v>
@@ -6083,7 +6083,7 @@
         <v>98</v>
       </c>
       <c r="J15" s="328" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K15" s="43"/>
       <c r="L15" s="38" t="s">
@@ -6099,7 +6099,7 @@
       <c r="A16" s="333">
         <v>9</v>
       </c>
-      <c r="B16" s="382"/>
+      <c r="B16" s="402"/>
       <c r="C16" s="44"/>
       <c r="D16" s="176"/>
       <c r="E16" s="345" t="s">
@@ -6132,17 +6132,17 @@
       <c r="A17" s="333">
         <v>10</v>
       </c>
-      <c r="B17" s="382"/>
+      <c r="B17" s="402"/>
       <c r="C17" s="44"/>
       <c r="D17" s="176"/>
       <c r="E17" s="345" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F17" s="348" t="s">
         <v>188</v>
       </c>
       <c r="G17" s="307" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H17" s="306" t="s">
         <v>102</v>
@@ -6151,7 +6151,7 @@
         <v>98</v>
       </c>
       <c r="J17" s="328" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K17" s="43"/>
       <c r="L17" s="38" t="s">
@@ -6167,7 +6167,7 @@
       <c r="A18" s="333">
         <v>11</v>
       </c>
-      <c r="B18" s="382"/>
+      <c r="B18" s="402"/>
       <c r="C18" s="44"/>
       <c r="D18" s="176"/>
       <c r="E18" s="349" t="s">
@@ -6200,7 +6200,7 @@
       <c r="A19" s="333">
         <v>12</v>
       </c>
-      <c r="B19" s="382"/>
+      <c r="B19" s="402"/>
       <c r="C19" s="44"/>
       <c r="D19" s="301"/>
       <c r="E19" s="350" t="s">
@@ -6210,7 +6210,7 @@
         <v>188</v>
       </c>
       <c r="G19" s="307" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H19" s="306" t="s">
         <v>170</v>
@@ -6219,7 +6219,7 @@
         <v>98</v>
       </c>
       <c r="J19" s="328" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K19" s="43"/>
       <c r="L19" s="38" t="s">
@@ -6235,20 +6235,20 @@
       <c r="A20" s="333">
         <v>13</v>
       </c>
-      <c r="B20" s="382"/>
+      <c r="B20" s="402"/>
       <c r="C20" s="44"/>
       <c r="D20" s="301"/>
       <c r="E20" s="352" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F20" s="353" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G20" s="306" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="306" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I20" s="311" t="s">
         <v>98</v>
@@ -6268,7 +6268,7 @@
       <c r="A21" s="333">
         <v>14</v>
       </c>
-      <c r="B21" s="382"/>
+      <c r="B21" s="402"/>
       <c r="C21" s="44"/>
       <c r="D21" s="301"/>
       <c r="E21" s="352" t="s">
@@ -6281,7 +6281,7 @@
         <v>36</v>
       </c>
       <c r="H21" s="306" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I21" s="311" t="s">
         <v>98</v>
@@ -6301,11 +6301,11 @@
       <c r="A22" s="333">
         <v>15</v>
       </c>
-      <c r="B22" s="382"/>
+      <c r="B22" s="402"/>
       <c r="C22" s="44"/>
       <c r="D22" s="176"/>
       <c r="E22" s="347" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F22" s="348" t="s">
         <v>116</v>
@@ -6320,7 +6320,7 @@
         <v>98</v>
       </c>
       <c r="J22" s="328" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K22" s="43"/>
       <c r="L22" s="38" t="s">
@@ -6336,7 +6336,7 @@
       <c r="A23" s="333">
         <v>16</v>
       </c>
-      <c r="B23" s="382"/>
+      <c r="B23" s="402"/>
       <c r="C23" s="44"/>
       <c r="D23" s="176"/>
       <c r="E23" s="345" t="s">
@@ -6369,7 +6369,7 @@
       <c r="A24" s="333">
         <v>17</v>
       </c>
-      <c r="B24" s="382"/>
+      <c r="B24" s="402"/>
       <c r="C24" s="360"/>
       <c r="D24" s="176"/>
       <c r="E24" s="347" t="s">
@@ -6402,7 +6402,7 @@
       <c r="A25" s="333">
         <v>18</v>
       </c>
-      <c r="B25" s="382"/>
+      <c r="B25" s="402"/>
       <c r="C25" s="361"/>
       <c r="D25" s="359"/>
       <c r="E25" s="349" t="s">
@@ -6435,7 +6435,7 @@
       <c r="A26" s="333">
         <v>19</v>
       </c>
-      <c r="B26" s="382"/>
+      <c r="B26" s="402"/>
       <c r="C26" s="344"/>
       <c r="D26" s="301"/>
       <c r="E26" s="352" t="s">
@@ -6468,11 +6468,11 @@
       <c r="A27" s="333">
         <v>20</v>
       </c>
-      <c r="B27" s="382"/>
+      <c r="B27" s="402"/>
       <c r="C27" s="44"/>
       <c r="D27" s="301"/>
       <c r="E27" s="352" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" s="351" t="s">
         <v>188</v>
@@ -6481,13 +6481,13 @@
         <v>117</v>
       </c>
       <c r="H27" s="306" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I27" s="311" t="s">
         <v>98</v>
       </c>
       <c r="J27" s="328" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="38" t="s">
@@ -6503,7 +6503,7 @@
       <c r="A28" s="333">
         <v>21</v>
       </c>
-      <c r="B28" s="382"/>
+      <c r="B28" s="402"/>
       <c r="C28" s="44"/>
       <c r="D28" s="176"/>
       <c r="E28" s="347" t="s">
@@ -6536,7 +6536,7 @@
       <c r="A29" s="333">
         <v>22</v>
       </c>
-      <c r="B29" s="382"/>
+      <c r="B29" s="402"/>
       <c r="C29" s="44"/>
       <c r="D29" s="301"/>
       <c r="E29" s="352" t="s">
@@ -6569,7 +6569,7 @@
       <c r="A30" s="333">
         <v>23</v>
       </c>
-      <c r="B30" s="382"/>
+      <c r="B30" s="402"/>
       <c r="C30" s="44"/>
       <c r="D30" s="176"/>
       <c r="E30" s="347" t="s">
@@ -6602,11 +6602,11 @@
       <c r="A31" s="333">
         <v>24</v>
       </c>
-      <c r="B31" s="383"/>
+      <c r="B31" s="403"/>
       <c r="C31" s="44"/>
       <c r="D31" s="301"/>
       <c r="E31" s="352" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="351" t="s">
         <v>188</v>
@@ -6635,8 +6635,8 @@
       <c r="A32" s="333">
         <v>25</v>
       </c>
-      <c r="B32" s="384" t="s">
-        <v>257</v>
+      <c r="B32" s="404" t="s">
+        <v>256</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="176"/>
@@ -6670,7 +6670,7 @@
       <c r="A33" s="333">
         <v>26</v>
       </c>
-      <c r="B33" s="385"/>
+      <c r="B33" s="405"/>
       <c r="C33" s="44"/>
       <c r="D33" s="176"/>
       <c r="E33" s="330" t="s">
@@ -6703,7 +6703,7 @@
       <c r="A34" s="333">
         <v>27</v>
       </c>
-      <c r="B34" s="385"/>
+      <c r="B34" s="405"/>
       <c r="C34" s="44"/>
       <c r="D34" s="176"/>
       <c r="E34" s="345" t="s">
@@ -6736,7 +6736,7 @@
       <c r="A35" s="333">
         <v>28</v>
       </c>
-      <c r="B35" s="385"/>
+      <c r="B35" s="405"/>
       <c r="C35" s="44"/>
       <c r="D35" s="176"/>
       <c r="E35" s="330" t="s">
@@ -6769,7 +6769,7 @@
       <c r="A36" s="333">
         <v>29</v>
       </c>
-      <c r="B36" s="385"/>
+      <c r="B36" s="405"/>
       <c r="C36" s="45"/>
       <c r="D36" s="302"/>
       <c r="E36" s="331" t="s">
@@ -6788,7 +6788,7 @@
         <v>111</v>
       </c>
       <c r="J36" s="332" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K36" s="46"/>
       <c r="L36" s="38" t="s">
@@ -6804,7 +6804,7 @@
       <c r="A37" s="333">
         <v>30</v>
       </c>
-      <c r="B37" s="385"/>
+      <c r="B37" s="405"/>
       <c r="C37" s="45"/>
       <c r="D37" s="180"/>
       <c r="E37" s="330" t="s">
@@ -6837,7 +6837,7 @@
       <c r="A38" s="333">
         <v>31</v>
       </c>
-      <c r="B38" s="385"/>
+      <c r="B38" s="405"/>
       <c r="C38" s="45"/>
       <c r="D38" s="180"/>
       <c r="E38" s="355" t="s">
@@ -6870,7 +6870,7 @@
       <c r="A39" s="333">
         <v>32</v>
       </c>
-      <c r="B39" s="385"/>
+      <c r="B39" s="405"/>
       <c r="C39" s="45"/>
       <c r="D39" s="180"/>
       <c r="E39" s="355" t="s">
@@ -6903,7 +6903,7 @@
       <c r="A40" s="333">
         <v>33</v>
       </c>
-      <c r="B40" s="385"/>
+      <c r="B40" s="405"/>
       <c r="C40" s="47"/>
       <c r="D40" s="181"/>
       <c r="E40" s="357" t="s">
@@ -6936,7 +6936,7 @@
       <c r="A41" s="333">
         <v>34</v>
       </c>
-      <c r="B41" s="385"/>
+      <c r="B41" s="405"/>
       <c r="C41" s="45"/>
       <c r="D41" s="180"/>
       <c r="E41" s="355" t="s">
@@ -6969,7 +6969,7 @@
       <c r="A42" s="333">
         <v>35</v>
       </c>
-      <c r="B42" s="385"/>
+      <c r="B42" s="405"/>
       <c r="C42" s="50"/>
       <c r="D42" s="182"/>
       <c r="E42" s="358" t="s">
@@ -7002,11 +7002,11 @@
       <c r="A43" s="333">
         <v>36</v>
       </c>
-      <c r="B43" s="385"/>
+      <c r="B43" s="405"/>
       <c r="C43" s="49"/>
       <c r="D43" s="176"/>
       <c r="E43" s="345" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F43" s="348" t="s">
         <v>123</v>
@@ -7047,7 +7047,7 @@
       <c r="A44" s="333">
         <v>37</v>
       </c>
-      <c r="B44" s="385"/>
+      <c r="B44" s="405"/>
       <c r="C44" s="45"/>
       <c r="D44" s="180"/>
       <c r="E44" s="355" t="s">
@@ -7080,7 +7080,7 @@
       <c r="A45" s="333">
         <v>38</v>
       </c>
-      <c r="B45" s="385"/>
+      <c r="B45" s="405"/>
       <c r="C45" s="45"/>
       <c r="D45" s="180"/>
       <c r="E45" s="355" t="s">
@@ -7113,7 +7113,7 @@
       <c r="A46" s="333">
         <v>39</v>
       </c>
-      <c r="B46" s="386"/>
+      <c r="B46" s="406"/>
       <c r="C46" s="45"/>
       <c r="D46" s="180"/>
       <c r="E46" s="355" t="s">
@@ -7147,7 +7147,7 @@
         <v>40</v>
       </c>
       <c r="B47" s="335" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="176"/>
@@ -7181,7 +7181,7 @@
       <c r="A48" s="333">
         <v>41</v>
       </c>
-      <c r="B48" s="387" t="s">
+      <c r="B48" s="407" t="s">
         <v>147</v>
       </c>
       <c r="C48" s="45"/>
@@ -7216,7 +7216,7 @@
       <c r="A49" s="333">
         <v>42</v>
       </c>
-      <c r="B49" s="388"/>
+      <c r="B49" s="408"/>
       <c r="C49" s="45"/>
       <c r="D49" s="180"/>
       <c r="E49" s="355" t="s">
@@ -7249,7 +7249,7 @@
       <c r="A50" s="333">
         <v>43</v>
       </c>
-      <c r="B50" s="388"/>
+      <c r="B50" s="408"/>
       <c r="C50" s="45"/>
       <c r="D50" s="180"/>
       <c r="E50" s="355" t="s">
@@ -7282,7 +7282,7 @@
       <c r="A51" s="333">
         <v>44</v>
       </c>
-      <c r="B51" s="388"/>
+      <c r="B51" s="408"/>
       <c r="C51" s="45"/>
       <c r="D51" s="180"/>
       <c r="E51" s="355" t="s">
@@ -7315,7 +7315,7 @@
       <c r="A52" s="333">
         <v>45</v>
       </c>
-      <c r="B52" s="388"/>
+      <c r="B52" s="408"/>
       <c r="C52" s="45"/>
       <c r="D52" s="180"/>
       <c r="E52" s="355" t="s">
@@ -7348,7 +7348,7 @@
       <c r="A53" s="333">
         <v>46</v>
       </c>
-      <c r="B53" s="388"/>
+      <c r="B53" s="408"/>
       <c r="C53" s="45"/>
       <c r="D53" s="180"/>
       <c r="E53" s="355" t="s">
@@ -7381,7 +7381,7 @@
       <c r="A54" s="333">
         <v>47</v>
       </c>
-      <c r="B54" s="388"/>
+      <c r="B54" s="408"/>
       <c r="C54" s="45"/>
       <c r="D54" s="180"/>
       <c r="E54" s="355" t="s">
@@ -7414,7 +7414,7 @@
       <c r="A55" s="333">
         <v>48</v>
       </c>
-      <c r="B55" s="388"/>
+      <c r="B55" s="408"/>
       <c r="C55" s="45"/>
       <c r="D55" s="180"/>
       <c r="E55" s="355" t="s">
@@ -7447,7 +7447,7 @@
       <c r="A56" s="333">
         <v>49</v>
       </c>
-      <c r="B56" s="388"/>
+      <c r="B56" s="408"/>
       <c r="C56" s="45"/>
       <c r="D56" s="180"/>
       <c r="E56" s="355" t="s">
@@ -7480,7 +7480,7 @@
       <c r="A57" s="333">
         <v>50</v>
       </c>
-      <c r="B57" s="388"/>
+      <c r="B57" s="408"/>
       <c r="C57" s="45"/>
       <c r="D57" s="180"/>
       <c r="E57" s="355" t="s">
@@ -7513,17 +7513,17 @@
       <c r="A58" s="333">
         <v>51</v>
       </c>
-      <c r="B58" s="388"/>
+      <c r="B58" s="408"/>
       <c r="C58" s="45"/>
       <c r="D58" s="180"/>
       <c r="E58" s="355" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" s="356" t="s">
         <v>154</v>
       </c>
       <c r="G58" s="307" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H58" s="306" t="s">
         <v>39</v>
@@ -7532,7 +7532,7 @@
         <v>150</v>
       </c>
       <c r="J58" s="332" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="38" t="s">
@@ -7548,7 +7548,7 @@
       <c r="A59" s="333">
         <v>52</v>
       </c>
-      <c r="B59" s="388"/>
+      <c r="B59" s="408"/>
       <c r="C59" s="45"/>
       <c r="D59" s="180"/>
       <c r="E59" s="355" t="s">
@@ -7581,7 +7581,7 @@
       <c r="A60" s="333">
         <v>53</v>
       </c>
-      <c r="B60" s="389"/>
+      <c r="B60" s="409"/>
       <c r="C60" s="45"/>
       <c r="D60" s="180"/>
       <c r="E60" s="355" t="s">
@@ -7614,7 +7614,7 @@
       <c r="A61" s="333">
         <v>54</v>
       </c>
-      <c r="B61" s="387" t="s">
+      <c r="B61" s="407" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="45"/>
@@ -7651,7 +7651,7 @@
       <c r="A62" s="333">
         <v>55</v>
       </c>
-      <c r="B62" s="388"/>
+      <c r="B62" s="408"/>
       <c r="C62" s="45"/>
       <c r="D62" s="180"/>
       <c r="E62" s="355" t="s">
@@ -7684,7 +7684,7 @@
       <c r="A63" s="333">
         <v>56</v>
       </c>
-      <c r="B63" s="388"/>
+      <c r="B63" s="408"/>
       <c r="C63" s="45"/>
       <c r="D63" s="180"/>
       <c r="E63" s="355" t="s">
@@ -7717,7 +7717,7 @@
       <c r="A64" s="333">
         <v>57</v>
       </c>
-      <c r="B64" s="388"/>
+      <c r="B64" s="408"/>
       <c r="C64" s="45"/>
       <c r="D64" s="180"/>
       <c r="E64" s="355" t="s">
@@ -7750,7 +7750,7 @@
       <c r="A65" s="333">
         <v>58</v>
       </c>
-      <c r="B65" s="388"/>
+      <c r="B65" s="408"/>
       <c r="C65" s="45"/>
       <c r="D65" s="180"/>
       <c r="E65" s="355" t="s">
@@ -7795,7 +7795,7 @@
       <c r="A66" s="333">
         <v>59</v>
       </c>
-      <c r="B66" s="388"/>
+      <c r="B66" s="408"/>
       <c r="C66" s="45"/>
       <c r="D66" s="180"/>
       <c r="E66" s="355" t="s">
@@ -7828,7 +7828,7 @@
       <c r="A67" s="333">
         <v>60</v>
       </c>
-      <c r="B67" s="388"/>
+      <c r="B67" s="408"/>
       <c r="C67" s="45"/>
       <c r="D67" s="180"/>
       <c r="E67" s="355" t="s">
@@ -7861,7 +7861,7 @@
       <c r="A68" s="333">
         <v>61</v>
       </c>
-      <c r="B68" s="389"/>
+      <c r="B68" s="409"/>
       <c r="C68" s="45"/>
       <c r="D68" s="180"/>
       <c r="E68" s="355" t="s">
@@ -7894,7 +7894,7 @@
       <c r="A69" s="333">
         <v>62</v>
       </c>
-      <c r="B69" s="387" t="s">
+      <c r="B69" s="407" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="45"/>
@@ -7929,7 +7929,7 @@
       <c r="A70" s="333">
         <v>63</v>
       </c>
-      <c r="B70" s="388"/>
+      <c r="B70" s="408"/>
       <c r="C70" s="45"/>
       <c r="D70" s="180"/>
       <c r="E70" s="355" t="s">
@@ -7962,7 +7962,7 @@
       <c r="A71" s="333">
         <v>64</v>
       </c>
-      <c r="B71" s="388"/>
+      <c r="B71" s="408"/>
       <c r="C71" s="45"/>
       <c r="D71" s="180"/>
       <c r="E71" s="355" t="s">
@@ -7995,7 +7995,7 @@
       <c r="A72" s="333">
         <v>65</v>
       </c>
-      <c r="B72" s="388"/>
+      <c r="B72" s="408"/>
       <c r="C72" s="45"/>
       <c r="D72" s="180"/>
       <c r="E72" s="355" t="s">
@@ -8028,7 +8028,7 @@
       <c r="A73" s="333">
         <v>66</v>
       </c>
-      <c r="B73" s="388"/>
+      <c r="B73" s="408"/>
       <c r="C73" s="45"/>
       <c r="D73" s="180"/>
       <c r="E73" s="355" t="s">
@@ -8061,7 +8061,7 @@
       <c r="A74" s="333">
         <v>67</v>
       </c>
-      <c r="B74" s="388"/>
+      <c r="B74" s="408"/>
       <c r="C74" s="45"/>
       <c r="D74" s="180"/>
       <c r="E74" s="355" t="s">
@@ -8094,7 +8094,7 @@
       <c r="A75" s="333">
         <v>68</v>
       </c>
-      <c r="B75" s="388"/>
+      <c r="B75" s="408"/>
       <c r="C75" s="45"/>
       <c r="D75" s="180"/>
       <c r="E75" s="355" t="s">
@@ -8127,14 +8127,14 @@
       <c r="A76" s="333">
         <v>69</v>
       </c>
-      <c r="B76" s="388"/>
+      <c r="B76" s="408"/>
       <c r="C76" s="45"/>
       <c r="D76" s="180"/>
       <c r="E76" s="355" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F76" s="356" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G76" s="307" t="s">
         <v>167</v>
@@ -8146,7 +8146,7 @@
         <v>134</v>
       </c>
       <c r="J76" s="332" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K76" s="46"/>
       <c r="L76" s="38" t="s">
@@ -8162,7 +8162,7 @@
       <c r="A77" s="333">
         <v>70</v>
       </c>
-      <c r="B77" s="389"/>
+      <c r="B77" s="409"/>
       <c r="C77" s="45"/>
       <c r="D77" s="180"/>
       <c r="E77" s="355" t="s">
@@ -8174,14 +8174,14 @@
       <c r="G77" s="307" t="s">
         <v>167</v>
       </c>
-      <c r="H77" s="449" t="s">
+      <c r="H77" s="365" t="s">
         <v>39</v>
       </c>
       <c r="I77" s="312" t="s">
         <v>134</v>
       </c>
       <c r="J77" s="332" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K77" s="46"/>
       <c r="L77" s="38" t="s">
@@ -8218,7 +8218,7 @@
       <c r="A79" s="333">
         <v>72</v>
       </c>
-      <c r="B79" s="390" t="s">
+      <c r="B79" s="410" t="s">
         <v>162</v>
       </c>
       <c r="C79" s="45"/>
@@ -8255,7 +8255,7 @@
       <c r="A80" s="333">
         <v>73</v>
       </c>
-      <c r="B80" s="391"/>
+      <c r="B80" s="411"/>
       <c r="C80" s="45"/>
       <c r="D80" s="180"/>
       <c r="E80" s="355" t="s">
@@ -8288,7 +8288,7 @@
       <c r="A81" s="333">
         <v>74</v>
       </c>
-      <c r="B81" s="391"/>
+      <c r="B81" s="411"/>
       <c r="C81" s="45"/>
       <c r="D81" s="180"/>
       <c r="E81" s="355" t="s">
@@ -8321,7 +8321,7 @@
       <c r="A82" s="333">
         <v>75</v>
       </c>
-      <c r="B82" s="391"/>
+      <c r="B82" s="411"/>
       <c r="C82" s="47"/>
       <c r="D82" s="180"/>
       <c r="E82" s="355" t="s">
@@ -8354,7 +8354,7 @@
       <c r="A83" s="333">
         <v>77</v>
       </c>
-      <c r="B83" s="391"/>
+      <c r="B83" s="411"/>
       <c r="C83" s="363"/>
       <c r="D83" s="362"/>
       <c r="E83" s="330" t="s">
@@ -8387,7 +8387,7 @@
       <c r="A84" s="333">
         <v>78</v>
       </c>
-      <c r="B84" s="392"/>
+      <c r="B84" s="412"/>
       <c r="C84" s="364"/>
       <c r="D84" s="362"/>
       <c r="E84" s="355" t="s">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B118" s="70"/>
       <c r="C118" s="71"/>
-      <c r="D118" s="375"/>
+      <c r="D118" s="396"/>
       <c r="E118" s="281"/>
       <c r="F118" s="212"/>
       <c r="G118" s="220"/>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B119" s="70"/>
       <c r="C119" s="71"/>
-      <c r="D119" s="376"/>
+      <c r="D119" s="397"/>
       <c r="E119" s="281"/>
       <c r="F119" s="212"/>
       <c r="G119" s="220"/>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B121" s="70"/>
       <c r="C121" s="71"/>
-      <c r="D121" s="377"/>
+      <c r="D121" s="398"/>
       <c r="E121" s="281"/>
       <c r="F121" s="212"/>
       <c r="G121" s="220"/>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B122" s="70"/>
       <c r="C122" s="71"/>
-      <c r="D122" s="378"/>
+      <c r="D122" s="399"/>
       <c r="E122" s="281"/>
       <c r="F122" s="212"/>
       <c r="G122" s="220"/>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="B123" s="70"/>
       <c r="C123" s="71"/>
-      <c r="D123" s="378"/>
+      <c r="D123" s="399"/>
       <c r="E123" s="282"/>
       <c r="F123" s="174"/>
       <c r="G123" s="220"/>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B124" s="70"/>
       <c r="C124" s="71"/>
-      <c r="D124" s="378"/>
+      <c r="D124" s="399"/>
       <c r="E124" s="281"/>
       <c r="F124" s="212"/>
       <c r="G124" s="220"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B125" s="70"/>
       <c r="C125" s="71"/>
-      <c r="D125" s="378"/>
+      <c r="D125" s="399"/>
       <c r="E125" s="281"/>
       <c r="F125" s="212"/>
       <c r="G125" s="220"/>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B126" s="70"/>
       <c r="C126" s="71"/>
-      <c r="D126" s="378"/>
+      <c r="D126" s="399"/>
       <c r="E126" s="281"/>
       <c r="F126" s="212"/>
       <c r="G126" s="220"/>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B127" s="70"/>
       <c r="C127" s="71"/>
-      <c r="D127" s="378"/>
+      <c r="D127" s="399"/>
       <c r="E127" s="281"/>
       <c r="F127" s="212"/>
       <c r="G127" s="220"/>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="B128" s="70"/>
       <c r="C128" s="71"/>
-      <c r="D128" s="378"/>
+      <c r="D128" s="399"/>
       <c r="E128" s="281"/>
       <c r="F128" s="212"/>
       <c r="G128" s="220"/>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B129" s="70"/>
       <c r="C129" s="71"/>
-      <c r="D129" s="378"/>
+      <c r="D129" s="399"/>
       <c r="E129" s="282"/>
       <c r="F129" s="174"/>
       <c r="G129" s="220"/>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B130" s="70"/>
       <c r="C130" s="71"/>
-      <c r="D130" s="378"/>
+      <c r="D130" s="399"/>
       <c r="E130" s="281"/>
       <c r="F130" s="212"/>
       <c r="G130" s="220"/>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="B131" s="70"/>
       <c r="C131" s="71"/>
-      <c r="D131" s="376"/>
+      <c r="D131" s="397"/>
       <c r="E131" s="281"/>
       <c r="F131" s="212"/>
       <c r="G131" s="220"/>
@@ -9888,7 +9888,7 @@
       </c>
       <c r="B133" s="70"/>
       <c r="C133" s="71"/>
-      <c r="D133" s="379"/>
+      <c r="D133" s="400"/>
       <c r="E133" s="281"/>
       <c r="F133" s="212"/>
       <c r="G133" s="220"/>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B134" s="70"/>
       <c r="C134" s="71"/>
-      <c r="D134" s="380"/>
+      <c r="D134" s="386"/>
       <c r="E134" s="281"/>
       <c r="F134" s="212"/>
       <c r="G134" s="220"/>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="B135" s="70"/>
       <c r="C135" s="71"/>
-      <c r="D135" s="380"/>
+      <c r="D135" s="386"/>
       <c r="E135" s="281"/>
       <c r="F135" s="212"/>
       <c r="G135" s="220"/>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="B136" s="70"/>
       <c r="C136" s="71"/>
-      <c r="D136" s="380"/>
+      <c r="D136" s="386"/>
       <c r="E136" s="282"/>
       <c r="F136" s="174"/>
       <c r="G136" s="220"/>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B137" s="70"/>
       <c r="C137" s="71"/>
-      <c r="D137" s="380"/>
+      <c r="D137" s="386"/>
       <c r="E137" s="283"/>
       <c r="F137" s="227"/>
       <c r="G137" s="228"/>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B138" s="70"/>
       <c r="C138" s="71"/>
-      <c r="D138" s="380"/>
+      <c r="D138" s="386"/>
       <c r="E138" s="283"/>
       <c r="F138" s="230"/>
       <c r="G138" s="231"/>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="B139" s="70"/>
       <c r="C139" s="71"/>
-      <c r="D139" s="380"/>
+      <c r="D139" s="386"/>
       <c r="E139" s="284"/>
       <c r="F139" s="233"/>
       <c r="G139" s="234"/>
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B140" s="70"/>
       <c r="C140" s="71"/>
-      <c r="D140" s="380"/>
+      <c r="D140" s="386"/>
       <c r="E140" s="284"/>
       <c r="F140" s="233"/>
       <c r="G140" s="234"/>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B141" s="70"/>
       <c r="C141" s="71"/>
-      <c r="D141" s="380"/>
+      <c r="D141" s="386"/>
       <c r="E141" s="285"/>
       <c r="F141" s="233"/>
       <c r="G141" s="234"/>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="B142" s="70"/>
       <c r="C142" s="71"/>
-      <c r="D142" s="380"/>
+      <c r="D142" s="386"/>
       <c r="E142" s="286"/>
       <c r="F142" s="230"/>
       <c r="G142" s="231"/>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B144" s="70"/>
       <c r="C144" s="71"/>
-      <c r="D144" s="393"/>
+      <c r="D144" s="382"/>
       <c r="E144" s="287"/>
       <c r="F144" s="230"/>
       <c r="G144" s="231"/>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="B145" s="70"/>
       <c r="C145" s="71"/>
-      <c r="D145" s="394"/>
+      <c r="D145" s="383"/>
       <c r="E145" s="284"/>
       <c r="F145" s="233"/>
       <c r="G145" s="234"/>
@@ -10350,7 +10350,7 @@
       </c>
       <c r="B147" s="70"/>
       <c r="C147" s="71"/>
-      <c r="D147" s="393"/>
+      <c r="D147" s="382"/>
       <c r="E147" s="284"/>
       <c r="F147" s="233"/>
       <c r="G147" s="234"/>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B148" s="70"/>
       <c r="C148" s="71"/>
-      <c r="D148" s="394"/>
+      <c r="D148" s="383"/>
       <c r="E148" s="287"/>
       <c r="F148" s="233"/>
       <c r="G148" s="234"/>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="B149" s="70"/>
       <c r="C149" s="71"/>
-      <c r="D149" s="394"/>
+      <c r="D149" s="383"/>
       <c r="E149" s="284"/>
       <c r="F149" s="233"/>
       <c r="G149" s="234"/>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="B150" s="70"/>
       <c r="C150" s="71"/>
-      <c r="D150" s="394"/>
+      <c r="D150" s="383"/>
       <c r="E150" s="287"/>
       <c r="F150" s="230"/>
       <c r="G150" s="231"/>
@@ -10482,7 +10482,7 @@
       </c>
       <c r="B151" s="70"/>
       <c r="C151" s="71"/>
-      <c r="D151" s="394"/>
+      <c r="D151" s="383"/>
       <c r="E151" s="286"/>
       <c r="F151" s="236"/>
       <c r="G151" s="237"/>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="B152" s="70"/>
       <c r="C152" s="71"/>
-      <c r="D152" s="394"/>
+      <c r="D152" s="383"/>
       <c r="E152" s="287"/>
       <c r="F152" s="239"/>
       <c r="G152" s="231"/>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B153" s="70"/>
       <c r="C153" s="71"/>
-      <c r="D153" s="395"/>
+      <c r="D153" s="384"/>
       <c r="E153" s="286"/>
       <c r="F153" s="240"/>
       <c r="G153" s="237"/>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="B155" s="70"/>
       <c r="C155" s="71"/>
-      <c r="D155" s="396"/>
+      <c r="D155" s="385"/>
       <c r="E155" s="289"/>
       <c r="F155" s="241"/>
       <c r="G155" s="237"/>
@@ -10647,7 +10647,7 @@
       </c>
       <c r="B156" s="70"/>
       <c r="C156" s="71"/>
-      <c r="D156" s="380"/>
+      <c r="D156" s="386"/>
       <c r="E156" s="286"/>
       <c r="F156" s="241"/>
       <c r="G156" s="237"/>
@@ -10680,7 +10680,7 @@
       </c>
       <c r="B157" s="70"/>
       <c r="C157" s="71"/>
-      <c r="D157" s="380"/>
+      <c r="D157" s="386"/>
       <c r="E157" s="284"/>
       <c r="F157" s="233"/>
       <c r="G157" s="234"/>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B158" s="70"/>
       <c r="C158" s="71"/>
-      <c r="D158" s="380"/>
+      <c r="D158" s="386"/>
       <c r="E158" s="284"/>
       <c r="F158" s="233"/>
       <c r="G158" s="234"/>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="B159" s="70"/>
       <c r="C159" s="71"/>
-      <c r="D159" s="380"/>
+      <c r="D159" s="386"/>
       <c r="E159" s="284"/>
       <c r="F159" s="233"/>
       <c r="G159" s="234"/>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="B160" s="70"/>
       <c r="C160" s="71"/>
-      <c r="D160" s="380"/>
+      <c r="D160" s="386"/>
       <c r="E160" s="284"/>
       <c r="F160" s="233"/>
       <c r="G160" s="234"/>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="B161" s="70"/>
       <c r="C161" s="71"/>
-      <c r="D161" s="380"/>
+      <c r="D161" s="386"/>
       <c r="E161" s="284"/>
       <c r="F161" s="233"/>
       <c r="G161" s="233"/>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B162" s="70"/>
       <c r="C162" s="71"/>
-      <c r="D162" s="380"/>
+      <c r="D162" s="386"/>
       <c r="E162" s="284"/>
       <c r="F162" s="233"/>
       <c r="G162" s="233"/>
@@ -10878,7 +10878,7 @@
       </c>
       <c r="B163" s="70"/>
       <c r="C163" s="71"/>
-      <c r="D163" s="397"/>
+      <c r="D163" s="387"/>
       <c r="E163" s="284"/>
       <c r="F163" s="233"/>
       <c r="G163" s="233"/>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="B167" s="70"/>
       <c r="C167" s="88"/>
-      <c r="D167" s="393"/>
+      <c r="D167" s="382"/>
       <c r="E167" s="288"/>
       <c r="F167" s="233"/>
       <c r="G167" s="233"/>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="B168" s="70"/>
       <c r="C168" s="88"/>
-      <c r="D168" s="395"/>
+      <c r="D168" s="384"/>
       <c r="E168" s="288"/>
       <c r="F168" s="233"/>
       <c r="G168" s="233"/>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="B200" s="70"/>
       <c r="C200" s="88"/>
-      <c r="D200" s="405"/>
+      <c r="D200" s="378"/>
       <c r="E200" s="284"/>
       <c r="F200" s="233"/>
       <c r="G200" s="233"/>
@@ -12108,7 +12108,7 @@
       <c r="J200" s="84"/>
       <c r="K200" s="87"/>
       <c r="L200" s="82"/>
-      <c r="M200" s="408"/>
+      <c r="M200" s="381"/>
       <c r="N200" s="26"/>
       <c r="O200" s="26"/>
       <c r="P200" s="26"/>
@@ -12132,7 +12132,7 @@
       </c>
       <c r="B201" s="70"/>
       <c r="C201" s="88"/>
-      <c r="D201" s="406"/>
+      <c r="D201" s="379"/>
       <c r="E201" s="284"/>
       <c r="F201" s="233"/>
       <c r="G201" s="233"/>
@@ -12141,7 +12141,7 @@
       <c r="J201" s="84"/>
       <c r="K201" s="87"/>
       <c r="L201" s="82"/>
-      <c r="M201" s="402"/>
+      <c r="M201" s="369"/>
       <c r="N201" s="26"/>
       <c r="O201" s="26"/>
       <c r="P201" s="26"/>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="B202" s="70"/>
       <c r="C202" s="88"/>
-      <c r="D202" s="406"/>
+      <c r="D202" s="379"/>
       <c r="E202" s="284"/>
       <c r="F202" s="233"/>
       <c r="G202" s="233"/>
@@ -12174,7 +12174,7 @@
       <c r="J202" s="84"/>
       <c r="K202" s="87"/>
       <c r="L202" s="82"/>
-      <c r="M202" s="402"/>
+      <c r="M202" s="369"/>
       <c r="N202" s="26"/>
       <c r="O202" s="26"/>
       <c r="P202" s="26"/>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="B203" s="70"/>
       <c r="C203" s="88"/>
-      <c r="D203" s="406"/>
+      <c r="D203" s="379"/>
       <c r="E203" s="283"/>
       <c r="F203" s="233"/>
       <c r="G203" s="233"/>
@@ -12207,7 +12207,7 @@
       <c r="J203" s="84"/>
       <c r="K203" s="87"/>
       <c r="L203" s="82"/>
-      <c r="M203" s="402"/>
+      <c r="M203" s="369"/>
       <c r="N203" s="26"/>
       <c r="O203" s="26"/>
       <c r="P203" s="26"/>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B204" s="70"/>
       <c r="C204" s="88"/>
-      <c r="D204" s="406"/>
+      <c r="D204" s="379"/>
       <c r="E204" s="283"/>
       <c r="F204" s="233"/>
       <c r="G204" s="233"/>
@@ -12240,7 +12240,7 @@
       <c r="J204" s="84"/>
       <c r="K204" s="87"/>
       <c r="L204" s="82"/>
-      <c r="M204" s="402"/>
+      <c r="M204" s="369"/>
       <c r="N204" s="26"/>
       <c r="O204" s="26"/>
       <c r="P204" s="26"/>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="B205" s="70"/>
       <c r="C205" s="88"/>
-      <c r="D205" s="406"/>
+      <c r="D205" s="379"/>
       <c r="E205" s="283"/>
       <c r="F205" s="233"/>
       <c r="G205" s="233"/>
@@ -12273,7 +12273,7 @@
       <c r="J205" s="84"/>
       <c r="K205" s="87"/>
       <c r="L205" s="82"/>
-      <c r="M205" s="402"/>
+      <c r="M205" s="369"/>
       <c r="N205" s="26"/>
       <c r="O205" s="26"/>
       <c r="P205" s="26"/>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="B206" s="70"/>
       <c r="C206" s="88"/>
-      <c r="D206" s="406"/>
+      <c r="D206" s="379"/>
       <c r="E206" s="283"/>
       <c r="F206" s="233"/>
       <c r="G206" s="233"/>
@@ -12306,7 +12306,7 @@
       <c r="J206" s="84"/>
       <c r="K206" s="87"/>
       <c r="L206" s="82"/>
-      <c r="M206" s="402"/>
+      <c r="M206" s="369"/>
       <c r="N206" s="26"/>
       <c r="O206" s="26"/>
       <c r="P206" s="26"/>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="B207" s="70"/>
       <c r="C207" s="88"/>
-      <c r="D207" s="406"/>
+      <c r="D207" s="379"/>
       <c r="E207" s="284"/>
       <c r="F207" s="233"/>
       <c r="G207" s="233"/>
@@ -12339,7 +12339,7 @@
       <c r="J207" s="84"/>
       <c r="K207" s="87"/>
       <c r="L207" s="82"/>
-      <c r="M207" s="403"/>
+      <c r="M207" s="367"/>
       <c r="N207" s="26"/>
       <c r="O207" s="26"/>
       <c r="P207" s="26"/>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="B208" s="70"/>
       <c r="C208" s="88"/>
-      <c r="D208" s="406"/>
+      <c r="D208" s="379"/>
       <c r="E208" s="284"/>
       <c r="F208" s="233"/>
       <c r="G208" s="233"/>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="B209" s="70"/>
       <c r="C209" s="88"/>
-      <c r="D209" s="406"/>
+      <c r="D209" s="379"/>
       <c r="E209" s="284"/>
       <c r="F209" s="233"/>
       <c r="G209" s="233"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="B210" s="70"/>
       <c r="C210" s="88"/>
-      <c r="D210" s="407"/>
+      <c r="D210" s="380"/>
       <c r="E210" s="284"/>
       <c r="F210" s="233"/>
       <c r="G210" s="233"/>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B212" s="98"/>
       <c r="C212" s="99"/>
-      <c r="D212" s="398"/>
+      <c r="D212" s="388"/>
       <c r="E212" s="284"/>
       <c r="F212" s="233"/>
       <c r="G212" s="245"/>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="B213" s="82"/>
       <c r="C213" s="101"/>
-      <c r="D213" s="399"/>
+      <c r="D213" s="389"/>
       <c r="E213" s="284"/>
       <c r="F213" s="233"/>
       <c r="G213" s="245"/>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="B214" s="82"/>
       <c r="C214" s="101"/>
-      <c r="D214" s="399"/>
+      <c r="D214" s="389"/>
       <c r="E214" s="284"/>
       <c r="F214" s="233"/>
       <c r="G214" s="245"/>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="B215" s="82"/>
       <c r="C215" s="99"/>
-      <c r="D215" s="399"/>
+      <c r="D215" s="389"/>
       <c r="E215" s="284"/>
       <c r="F215" s="233"/>
       <c r="G215" s="245"/>
@@ -12627,7 +12627,7 @@
       </c>
       <c r="B216" s="98"/>
       <c r="C216" s="99"/>
-      <c r="D216" s="399"/>
+      <c r="D216" s="389"/>
       <c r="E216" s="284"/>
       <c r="F216" s="233"/>
       <c r="G216" s="245"/>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="B217" s="98"/>
       <c r="C217" s="99"/>
-      <c r="D217" s="399"/>
+      <c r="D217" s="389"/>
       <c r="E217" s="284"/>
       <c r="F217" s="233"/>
       <c r="G217" s="245"/>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="B218" s="98"/>
       <c r="C218" s="99"/>
-      <c r="D218" s="399"/>
+      <c r="D218" s="389"/>
       <c r="E218" s="284"/>
       <c r="F218" s="233"/>
       <c r="G218" s="245"/>
@@ -12726,7 +12726,7 @@
       </c>
       <c r="B219" s="98"/>
       <c r="C219" s="99"/>
-      <c r="D219" s="399"/>
+      <c r="D219" s="389"/>
       <c r="E219" s="284"/>
       <c r="F219" s="233"/>
       <c r="G219" s="245"/>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="B220" s="98"/>
       <c r="C220" s="99"/>
-      <c r="D220" s="400"/>
+      <c r="D220" s="390"/>
       <c r="E220" s="284"/>
       <c r="F220" s="233"/>
       <c r="G220" s="245"/>
@@ -14185,8 +14185,8 @@
       <c r="H263" s="258"/>
       <c r="I263" s="259"/>
       <c r="J263" s="113"/>
-      <c r="K263" s="401"/>
-      <c r="L263" s="408"/>
+      <c r="K263" s="366"/>
+      <c r="L263" s="381"/>
       <c r="M263" s="108"/>
       <c r="N263" s="26"/>
       <c r="O263" s="26"/>
@@ -14218,8 +14218,8 @@
       <c r="H264" s="261"/>
       <c r="I264" s="262"/>
       <c r="J264" s="115"/>
-      <c r="K264" s="402"/>
-      <c r="L264" s="402"/>
+      <c r="K264" s="369"/>
+      <c r="L264" s="369"/>
       <c r="M264" s="108"/>
       <c r="N264" s="26"/>
       <c r="O264" s="26"/>
@@ -14251,8 +14251,8 @@
       <c r="H265" s="229"/>
       <c r="I265" s="228"/>
       <c r="J265" s="76"/>
-      <c r="K265" s="403"/>
-      <c r="L265" s="403"/>
+      <c r="K265" s="367"/>
+      <c r="L265" s="367"/>
       <c r="M265" s="108"/>
       <c r="N265" s="26"/>
       <c r="O265" s="26"/>
@@ -14474,9 +14474,9 @@
         <v>255</v>
       </c>
       <c r="B272" s="112"/>
-      <c r="C272" s="409"/>
+      <c r="C272" s="368"/>
       <c r="D272" s="202"/>
-      <c r="E272" s="410"/>
+      <c r="E272" s="374"/>
       <c r="F272" s="233"/>
       <c r="G272" s="233"/>
       <c r="H272" s="235"/>
@@ -14507,9 +14507,9 @@
         <v>256</v>
       </c>
       <c r="B273" s="112"/>
-      <c r="C273" s="402"/>
+      <c r="C273" s="369"/>
       <c r="D273" s="202"/>
-      <c r="E273" s="411"/>
+      <c r="E273" s="375"/>
       <c r="F273" s="233"/>
       <c r="G273" s="233"/>
       <c r="H273" s="235"/>
@@ -14540,9 +14540,9 @@
         <v>257</v>
       </c>
       <c r="B274" s="112"/>
-      <c r="C274" s="402"/>
+      <c r="C274" s="369"/>
       <c r="D274" s="202"/>
-      <c r="E274" s="412"/>
+      <c r="E274" s="376"/>
       <c r="F274" s="233"/>
       <c r="G274" s="233"/>
       <c r="H274" s="235"/>
@@ -14573,7 +14573,7 @@
         <v>258</v>
       </c>
       <c r="B275" s="112"/>
-      <c r="C275" s="402"/>
+      <c r="C275" s="369"/>
       <c r="D275" s="202"/>
       <c r="E275" s="284"/>
       <c r="F275" s="233"/>
@@ -14606,7 +14606,7 @@
         <v>259</v>
       </c>
       <c r="B276" s="112"/>
-      <c r="C276" s="402"/>
+      <c r="C276" s="369"/>
       <c r="D276" s="202"/>
       <c r="E276" s="284"/>
       <c r="F276" s="233"/>
@@ -14639,7 +14639,7 @@
         <v>260</v>
       </c>
       <c r="B277" s="112"/>
-      <c r="C277" s="402"/>
+      <c r="C277" s="369"/>
       <c r="D277" s="202"/>
       <c r="E277" s="284"/>
       <c r="F277" s="254"/>
@@ -14672,7 +14672,7 @@
         <v>261</v>
       </c>
       <c r="B278" s="112"/>
-      <c r="C278" s="403"/>
+      <c r="C278" s="367"/>
       <c r="D278" s="202"/>
       <c r="E278" s="284"/>
       <c r="F278" s="233"/>
@@ -14705,7 +14705,7 @@
         <v>262</v>
       </c>
       <c r="B279" s="112"/>
-      <c r="C279" s="409"/>
+      <c r="C279" s="368"/>
       <c r="D279" s="205"/>
       <c r="E279" s="284"/>
       <c r="F279" s="254"/>
@@ -14738,7 +14738,7 @@
         <v>263</v>
       </c>
       <c r="B280" s="112"/>
-      <c r="C280" s="403"/>
+      <c r="C280" s="367"/>
       <c r="D280" s="206"/>
       <c r="E280" s="284"/>
       <c r="F280" s="254"/>
@@ -14804,7 +14804,7 @@
         <v>265</v>
       </c>
       <c r="B282" s="112"/>
-      <c r="C282" s="409"/>
+      <c r="C282" s="368"/>
       <c r="D282" s="205"/>
       <c r="E282" s="284"/>
       <c r="F282" s="233"/>
@@ -14837,7 +14837,7 @@
         <v>266</v>
       </c>
       <c r="B283" s="112"/>
-      <c r="C283" s="402"/>
+      <c r="C283" s="369"/>
       <c r="D283" s="203"/>
       <c r="E283" s="284"/>
       <c r="F283" s="233"/>
@@ -14870,7 +14870,7 @@
         <v>267</v>
       </c>
       <c r="B284" s="112"/>
-      <c r="C284" s="402"/>
+      <c r="C284" s="369"/>
       <c r="D284" s="203"/>
       <c r="E284" s="284"/>
       <c r="F284" s="233"/>
@@ -14903,7 +14903,7 @@
         <v>268</v>
       </c>
       <c r="B285" s="112"/>
-      <c r="C285" s="402"/>
+      <c r="C285" s="369"/>
       <c r="D285" s="203"/>
       <c r="E285" s="284"/>
       <c r="F285" s="254"/>
@@ -14936,7 +14936,7 @@
         <v>269</v>
       </c>
       <c r="B286" s="112"/>
-      <c r="C286" s="403"/>
+      <c r="C286" s="367"/>
       <c r="D286" s="203"/>
       <c r="E286" s="285"/>
       <c r="F286" s="233"/>
@@ -15340,7 +15340,7 @@
       <c r="H298" s="255"/>
       <c r="I298" s="256"/>
       <c r="J298" s="84"/>
-      <c r="K298" s="404"/>
+      <c r="K298" s="377"/>
       <c r="L298" s="82"/>
       <c r="M298" s="90"/>
       <c r="N298" s="26"/>
@@ -15373,7 +15373,7 @@
       <c r="H299" s="255"/>
       <c r="I299" s="256"/>
       <c r="J299" s="84"/>
-      <c r="K299" s="403"/>
+      <c r="K299" s="367"/>
       <c r="L299" s="82"/>
       <c r="M299" s="90"/>
       <c r="N299" s="26"/>
@@ -15464,7 +15464,7 @@
         <v>285</v>
       </c>
       <c r="B302" s="112"/>
-      <c r="C302" s="409"/>
+      <c r="C302" s="368"/>
       <c r="D302" s="205"/>
       <c r="E302" s="284"/>
       <c r="F302" s="254"/>
@@ -15472,7 +15472,7 @@
       <c r="H302" s="255"/>
       <c r="I302" s="256"/>
       <c r="J302" s="84"/>
-      <c r="K302" s="401"/>
+      <c r="K302" s="366"/>
       <c r="L302" s="82"/>
       <c r="M302" s="90"/>
       <c r="N302" s="26"/>
@@ -15497,7 +15497,7 @@
         <v>286</v>
       </c>
       <c r="B303" s="112"/>
-      <c r="C303" s="403"/>
+      <c r="C303" s="367"/>
       <c r="D303" s="206"/>
       <c r="E303" s="284"/>
       <c r="F303" s="254"/>
@@ -15505,7 +15505,7 @@
       <c r="H303" s="255"/>
       <c r="I303" s="256"/>
       <c r="J303" s="84"/>
-      <c r="K303" s="403"/>
+      <c r="K303" s="367"/>
       <c r="L303" s="82"/>
       <c r="M303" s="90"/>
       <c r="N303" s="26"/>
@@ -15530,7 +15530,7 @@
         <v>287</v>
       </c>
       <c r="B304" s="112"/>
-      <c r="C304" s="409"/>
+      <c r="C304" s="368"/>
       <c r="D304" s="207"/>
       <c r="E304" s="284"/>
       <c r="F304" s="233"/>
@@ -15563,7 +15563,7 @@
         <v>288</v>
       </c>
       <c r="B305" s="112"/>
-      <c r="C305" s="403"/>
+      <c r="C305" s="367"/>
       <c r="D305" s="208"/>
       <c r="E305" s="284"/>
       <c r="F305" s="233"/>
@@ -15629,7 +15629,7 @@
         <v>290</v>
       </c>
       <c r="B307" s="112"/>
-      <c r="C307" s="409"/>
+      <c r="C307" s="368"/>
       <c r="D307" s="205"/>
       <c r="E307" s="284"/>
       <c r="F307" s="233"/>
@@ -15662,7 +15662,7 @@
         <v>291</v>
       </c>
       <c r="B308" s="112"/>
-      <c r="C308" s="402"/>
+      <c r="C308" s="369"/>
       <c r="D308" s="203"/>
       <c r="E308" s="284"/>
       <c r="F308" s="233"/>
@@ -15695,7 +15695,7 @@
         <v>292</v>
       </c>
       <c r="B309" s="112"/>
-      <c r="C309" s="403"/>
+      <c r="C309" s="367"/>
       <c r="D309" s="206"/>
       <c r="E309" s="284"/>
       <c r="F309" s="233"/>
@@ -15892,10 +15892,10 @@
       <c r="A315" s="35">
         <v>298</v>
       </c>
-      <c r="B315" s="413"/>
-      <c r="C315" s="409"/>
+      <c r="B315" s="370"/>
+      <c r="C315" s="368"/>
       <c r="D315" s="202"/>
-      <c r="E315" s="414"/>
+      <c r="E315" s="371"/>
       <c r="F315" s="233"/>
       <c r="G315" s="233"/>
       <c r="H315" s="235"/>
@@ -15925,10 +15925,10 @@
       <c r="A316" s="35">
         <v>299</v>
       </c>
-      <c r="B316" s="402"/>
-      <c r="C316" s="402"/>
+      <c r="B316" s="369"/>
+      <c r="C316" s="369"/>
       <c r="D316" s="202"/>
-      <c r="E316" s="415"/>
+      <c r="E316" s="372"/>
       <c r="F316" s="233"/>
       <c r="G316" s="233"/>
       <c r="H316" s="235"/>
@@ -15958,10 +15958,10 @@
       <c r="A317" s="35">
         <v>300</v>
       </c>
-      <c r="B317" s="402"/>
-      <c r="C317" s="402"/>
+      <c r="B317" s="369"/>
+      <c r="C317" s="369"/>
       <c r="D317" s="202"/>
-      <c r="E317" s="415"/>
+      <c r="E317" s="372"/>
       <c r="F317" s="233"/>
       <c r="G317" s="233"/>
       <c r="H317" s="235"/>
@@ -15991,10 +15991,10 @@
       <c r="A318" s="35">
         <v>301</v>
       </c>
-      <c r="B318" s="402"/>
-      <c r="C318" s="402"/>
+      <c r="B318" s="369"/>
+      <c r="C318" s="369"/>
       <c r="D318" s="202"/>
-      <c r="E318" s="415"/>
+      <c r="E318" s="372"/>
       <c r="F318" s="233"/>
       <c r="G318" s="233"/>
       <c r="H318" s="235"/>
@@ -16024,10 +16024,10 @@
       <c r="A319" s="35">
         <v>302</v>
       </c>
-      <c r="B319" s="402"/>
-      <c r="C319" s="402"/>
+      <c r="B319" s="369"/>
+      <c r="C319" s="369"/>
       <c r="D319" s="202"/>
-      <c r="E319" s="415"/>
+      <c r="E319" s="372"/>
       <c r="F319" s="233"/>
       <c r="G319" s="233"/>
       <c r="H319" s="235"/>
@@ -16057,10 +16057,10 @@
       <c r="A320" s="35">
         <v>303</v>
       </c>
-      <c r="B320" s="402"/>
-      <c r="C320" s="402"/>
+      <c r="B320" s="369"/>
+      <c r="C320" s="369"/>
       <c r="D320" s="202"/>
-      <c r="E320" s="415"/>
+      <c r="E320" s="372"/>
       <c r="F320" s="254"/>
       <c r="G320" s="254"/>
       <c r="H320" s="255"/>
@@ -16090,10 +16090,10 @@
       <c r="A321" s="35">
         <v>304</v>
       </c>
-      <c r="B321" s="402"/>
-      <c r="C321" s="402"/>
+      <c r="B321" s="369"/>
+      <c r="C321" s="369"/>
       <c r="D321" s="202"/>
-      <c r="E321" s="415"/>
+      <c r="E321" s="372"/>
       <c r="F321" s="233"/>
       <c r="G321" s="233"/>
       <c r="H321" s="235"/>
@@ -16123,10 +16123,10 @@
       <c r="A322" s="35">
         <v>305</v>
       </c>
-      <c r="B322" s="402"/>
-      <c r="C322" s="402"/>
+      <c r="B322" s="369"/>
+      <c r="C322" s="369"/>
       <c r="D322" s="202"/>
-      <c r="E322" s="416"/>
+      <c r="E322" s="373"/>
       <c r="F322" s="233"/>
       <c r="G322" s="233"/>
       <c r="H322" s="235"/>
@@ -16156,8 +16156,8 @@
       <c r="A323" s="35">
         <v>306</v>
       </c>
-      <c r="B323" s="402"/>
-      <c r="C323" s="402"/>
+      <c r="B323" s="369"/>
+      <c r="C323" s="369"/>
       <c r="D323" s="202"/>
       <c r="E323" s="213"/>
       <c r="F323" s="266"/>
@@ -16189,8 +16189,8 @@
       <c r="A324" s="35">
         <v>307</v>
       </c>
-      <c r="B324" s="402"/>
-      <c r="C324" s="402"/>
+      <c r="B324" s="369"/>
+      <c r="C324" s="369"/>
       <c r="D324" s="202"/>
       <c r="E324" s="213"/>
       <c r="F324" s="254"/>
@@ -16222,10 +16222,10 @@
       <c r="A325" s="35">
         <v>308</v>
       </c>
-      <c r="B325" s="402"/>
-      <c r="C325" s="402"/>
+      <c r="B325" s="369"/>
+      <c r="C325" s="369"/>
       <c r="D325" s="207"/>
-      <c r="E325" s="414"/>
+      <c r="E325" s="371"/>
       <c r="F325" s="233"/>
       <c r="G325" s="233"/>
       <c r="H325" s="235"/>
@@ -16255,10 +16255,10 @@
       <c r="A326" s="35">
         <v>309</v>
       </c>
-      <c r="B326" s="402"/>
-      <c r="C326" s="402"/>
+      <c r="B326" s="369"/>
+      <c r="C326" s="369"/>
       <c r="D326" s="201"/>
-      <c r="E326" s="415"/>
+      <c r="E326" s="372"/>
       <c r="F326" s="254"/>
       <c r="G326" s="254"/>
       <c r="H326" s="255"/>
@@ -16288,10 +16288,10 @@
       <c r="A327" s="35">
         <v>310</v>
       </c>
-      <c r="B327" s="402"/>
-      <c r="C327" s="402"/>
+      <c r="B327" s="369"/>
+      <c r="C327" s="369"/>
       <c r="D327" s="201"/>
-      <c r="E327" s="415"/>
+      <c r="E327" s="372"/>
       <c r="F327" s="254"/>
       <c r="G327" s="254"/>
       <c r="H327" s="255"/>
@@ -16321,10 +16321,10 @@
       <c r="A328" s="35">
         <v>311</v>
       </c>
-      <c r="B328" s="402"/>
-      <c r="C328" s="403"/>
+      <c r="B328" s="369"/>
+      <c r="C328" s="367"/>
       <c r="D328" s="208"/>
-      <c r="E328" s="416"/>
+      <c r="E328" s="373"/>
       <c r="F328" s="254"/>
       <c r="G328" s="254"/>
       <c r="H328" s="255"/>
@@ -16354,7 +16354,7 @@
       <c r="A329" s="35">
         <v>312</v>
       </c>
-      <c r="B329" s="402"/>
+      <c r="B329" s="369"/>
       <c r="C329" s="99"/>
       <c r="D329" s="201"/>
       <c r="E329" s="214"/>
@@ -16387,10 +16387,10 @@
       <c r="A330" s="35">
         <v>313</v>
       </c>
-      <c r="B330" s="402"/>
-      <c r="C330" s="409"/>
+      <c r="B330" s="369"/>
+      <c r="C330" s="368"/>
       <c r="D330" s="207"/>
-      <c r="E330" s="414"/>
+      <c r="E330" s="371"/>
       <c r="F330" s="233"/>
       <c r="G330" s="233"/>
       <c r="H330" s="235"/>
@@ -16420,10 +16420,10 @@
       <c r="A331" s="35">
         <v>314</v>
       </c>
-      <c r="B331" s="402"/>
-      <c r="C331" s="402"/>
+      <c r="B331" s="369"/>
+      <c r="C331" s="369"/>
       <c r="D331" s="208"/>
-      <c r="E331" s="416"/>
+      <c r="E331" s="373"/>
       <c r="F331" s="233"/>
       <c r="G331" s="233"/>
       <c r="H331" s="235"/>
@@ -16453,10 +16453,10 @@
       <c r="A332" s="35">
         <v>315</v>
       </c>
-      <c r="B332" s="402"/>
-      <c r="C332" s="402"/>
+      <c r="B332" s="369"/>
+      <c r="C332" s="369"/>
       <c r="D332" s="202"/>
-      <c r="E332" s="414"/>
+      <c r="E332" s="371"/>
       <c r="F332" s="233"/>
       <c r="G332" s="233"/>
       <c r="H332" s="235"/>
@@ -16486,10 +16486,10 @@
       <c r="A333" s="35">
         <v>316</v>
       </c>
-      <c r="B333" s="402"/>
-      <c r="C333" s="403"/>
+      <c r="B333" s="369"/>
+      <c r="C333" s="367"/>
       <c r="D333" s="202"/>
-      <c r="E333" s="416"/>
+      <c r="E333" s="373"/>
       <c r="F333" s="233"/>
       <c r="G333" s="233"/>
       <c r="H333" s="235"/>
@@ -16519,7 +16519,7 @@
       <c r="A334" s="35">
         <v>317</v>
       </c>
-      <c r="B334" s="402"/>
+      <c r="B334" s="369"/>
       <c r="C334" s="99"/>
       <c r="D334" s="202"/>
       <c r="E334" s="213"/>
@@ -16552,10 +16552,10 @@
       <c r="A335" s="35">
         <v>318</v>
       </c>
-      <c r="B335" s="402"/>
-      <c r="C335" s="409"/>
+      <c r="B335" s="369"/>
+      <c r="C335" s="368"/>
       <c r="D335" s="207"/>
-      <c r="E335" s="414"/>
+      <c r="E335" s="371"/>
       <c r="F335" s="233"/>
       <c r="G335" s="233"/>
       <c r="H335" s="235"/>
@@ -16585,10 +16585,10 @@
       <c r="A336" s="35">
         <v>319</v>
       </c>
-      <c r="B336" s="402"/>
-      <c r="C336" s="402"/>
+      <c r="B336" s="369"/>
+      <c r="C336" s="369"/>
       <c r="D336" s="201"/>
-      <c r="E336" s="415"/>
+      <c r="E336" s="372"/>
       <c r="F336" s="233"/>
       <c r="G336" s="233"/>
       <c r="H336" s="235"/>
@@ -16618,10 +16618,10 @@
       <c r="A337" s="35">
         <v>320</v>
       </c>
-      <c r="B337" s="402"/>
-      <c r="C337" s="402"/>
+      <c r="B337" s="369"/>
+      <c r="C337" s="369"/>
       <c r="D337" s="100"/>
-      <c r="E337" s="415"/>
+      <c r="E337" s="372"/>
       <c r="F337" s="233"/>
       <c r="G337" s="233"/>
       <c r="H337" s="235"/>
@@ -16651,10 +16651,10 @@
       <c r="A338" s="35">
         <v>321</v>
       </c>
-      <c r="B338" s="402"/>
-      <c r="C338" s="402"/>
+      <c r="B338" s="369"/>
+      <c r="C338" s="369"/>
       <c r="D338" s="100"/>
-      <c r="E338" s="415"/>
+      <c r="E338" s="372"/>
       <c r="F338" s="233"/>
       <c r="G338" s="233"/>
       <c r="H338" s="235"/>
@@ -16684,10 +16684,10 @@
       <c r="A339" s="35">
         <v>322</v>
       </c>
-      <c r="B339" s="402"/>
-      <c r="C339" s="402"/>
+      <c r="B339" s="369"/>
+      <c r="C339" s="369"/>
       <c r="D339" s="100"/>
-      <c r="E339" s="415"/>
+      <c r="E339" s="372"/>
       <c r="F339" s="233"/>
       <c r="G339" s="233"/>
       <c r="H339" s="235"/>
@@ -16717,10 +16717,10 @@
       <c r="A340" s="35">
         <v>323</v>
       </c>
-      <c r="B340" s="402"/>
-      <c r="C340" s="402"/>
+      <c r="B340" s="369"/>
+      <c r="C340" s="369"/>
       <c r="D340" s="119"/>
-      <c r="E340" s="416"/>
+      <c r="E340" s="373"/>
       <c r="F340" s="233"/>
       <c r="G340" s="233"/>
       <c r="H340" s="235"/>
@@ -16750,10 +16750,10 @@
       <c r="A341" s="35">
         <v>324</v>
       </c>
-      <c r="B341" s="402"/>
-      <c r="C341" s="402"/>
+      <c r="B341" s="369"/>
+      <c r="C341" s="369"/>
       <c r="D341" s="111"/>
-      <c r="E341" s="414"/>
+      <c r="E341" s="371"/>
       <c r="F341" s="233"/>
       <c r="G341" s="233"/>
       <c r="H341" s="235"/>
@@ -16783,10 +16783,10 @@
       <c r="A342" s="35">
         <v>325</v>
       </c>
-      <c r="B342" s="402"/>
-      <c r="C342" s="402"/>
+      <c r="B342" s="369"/>
+      <c r="C342" s="369"/>
       <c r="D342" s="100"/>
-      <c r="E342" s="415"/>
+      <c r="E342" s="372"/>
       <c r="F342" s="254"/>
       <c r="G342" s="254"/>
       <c r="H342" s="255"/>
@@ -16816,10 +16816,10 @@
       <c r="A343" s="35">
         <v>326</v>
       </c>
-      <c r="B343" s="402"/>
-      <c r="C343" s="402"/>
+      <c r="B343" s="369"/>
+      <c r="C343" s="369"/>
       <c r="D343" s="100"/>
-      <c r="E343" s="415"/>
+      <c r="E343" s="372"/>
       <c r="F343" s="254"/>
       <c r="G343" s="254"/>
       <c r="H343" s="255"/>
@@ -16849,10 +16849,10 @@
       <c r="A344" s="35">
         <v>327</v>
       </c>
-      <c r="B344" s="403"/>
-      <c r="C344" s="403"/>
+      <c r="B344" s="367"/>
+      <c r="C344" s="367"/>
       <c r="D344" s="119"/>
-      <c r="E344" s="416"/>
+      <c r="E344" s="373"/>
       <c r="F344" s="254"/>
       <c r="G344" s="254"/>
       <c r="H344" s="255"/>
@@ -20718,6 +20718,38 @@
     <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D121:D131"/>
+    <mergeCell ref="D133:D142"/>
+    <mergeCell ref="B9:B31"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="B48:B60"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D212:D220"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="D200:D210"/>
+    <mergeCell ref="M200:M207"/>
+    <mergeCell ref="L263:L265"/>
+    <mergeCell ref="C272:C278"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="C315:C328"/>
+    <mergeCell ref="C302:C303"/>
     <mergeCell ref="K302:K303"/>
     <mergeCell ref="C304:C305"/>
     <mergeCell ref="C307:C309"/>
@@ -20730,38 +20762,6 @@
     <mergeCell ref="E332:E333"/>
     <mergeCell ref="E325:E328"/>
     <mergeCell ref="E335:E340"/>
-    <mergeCell ref="C272:C278"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="C315:C328"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="D200:D210"/>
-    <mergeCell ref="M200:M207"/>
-    <mergeCell ref="L263:L265"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D212:D220"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D121:D131"/>
-    <mergeCell ref="D133:D142"/>
-    <mergeCell ref="B9:B31"/>
-    <mergeCell ref="B32:B46"/>
-    <mergeCell ref="B48:B60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <conditionalFormatting sqref="A81:A82">
     <cfRule type="notContainsBlanks" dxfId="12" priority="337">
@@ -20923,14 +20923,14 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B4" s="417" t="s">
+      <c r="B4" s="438" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="418"/>
-      <c r="D4" s="418"/>
-      <c r="E4" s="418"/>
-      <c r="F4" s="418"/>
-      <c r="G4" s="367"/>
+      <c r="C4" s="439"/>
+      <c r="D4" s="439"/>
+      <c r="E4" s="439"/>
+      <c r="F4" s="439"/>
+      <c r="G4" s="415"/>
       <c r="J4" s="143" t="s">
         <v>41</v>
       </c>
@@ -20940,25 +20940,25 @@
       <c r="B5" s="336" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="419" t="s">
+      <c r="C5" s="440" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="420"/>
-      <c r="E5" s="420"/>
-      <c r="F5" s="420"/>
-      <c r="G5" s="421"/>
+      <c r="D5" s="441"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="442"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="337" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="422" t="s">
+      <c r="C6" s="443" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="423"/>
-      <c r="E6" s="423"/>
-      <c r="F6" s="423"/>
-      <c r="G6" s="424"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="433"/>
+      <c r="F6" s="433"/>
+      <c r="G6" s="444"/>
       <c r="I6" s="144" t="s">
         <v>44</v>
       </c>
@@ -20971,13 +20971,13 @@
       <c r="B7" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="426" t="s">
+      <c r="C7" s="446" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="427"/>
-      <c r="E7" s="427"/>
-      <c r="F7" s="427"/>
-      <c r="G7" s="428"/>
+      <c r="D7" s="447"/>
+      <c r="E7" s="447"/>
+      <c r="F7" s="447"/>
+      <c r="G7" s="448"/>
       <c r="I7" s="144"/>
       <c r="J7" s="144"/>
       <c r="L7" s="146"/>
@@ -20986,13 +20986,13 @@
       <c r="B8" s="336" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="425">
+      <c r="C8" s="445">
         <v>1</v>
       </c>
-      <c r="D8" s="420"/>
-      <c r="E8" s="420"/>
-      <c r="F8" s="420"/>
-      <c r="G8" s="421"/>
+      <c r="D8" s="441"/>
+      <c r="E8" s="441"/>
+      <c r="F8" s="441"/>
+      <c r="G8" s="442"/>
       <c r="I8" s="147">
         <f>C14</f>
         <v>51</v>
@@ -21005,13 +21005,13 @@
       <c r="B9" s="336" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="419" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="420"/>
-      <c r="E9" s="420"/>
-      <c r="F9" s="420"/>
-      <c r="G9" s="421"/>
+      <c r="C9" s="440" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="441"/>
+      <c r="E9" s="441"/>
+      <c r="F9" s="441"/>
+      <c r="G9" s="442"/>
       <c r="I9" s="147">
         <f>D14</f>
         <v>25</v>
@@ -21021,14 +21021,14 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="438" t="s">
+      <c r="B10" s="432" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="423"/>
-      <c r="D10" s="423"/>
-      <c r="E10" s="423"/>
-      <c r="F10" s="423"/>
-      <c r="G10" s="439"/>
+      <c r="C10" s="433"/>
+      <c r="D10" s="433"/>
+      <c r="E10" s="433"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="434"/>
       <c r="I10" s="147">
         <f>E14</f>
         <v>0</v>
@@ -21038,12 +21038,12 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="435"/>
-      <c r="C11" s="436"/>
-      <c r="D11" s="436"/>
-      <c r="E11" s="436"/>
-      <c r="F11" s="436"/>
-      <c r="G11" s="437"/>
+      <c r="B11" s="424"/>
+      <c r="C11" s="425"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="426"/>
       <c r="I11" s="147">
         <f>F14</f>
         <v>0</v>
@@ -21180,16 +21180,16 @@
       <c r="R17" s="160"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="444"/>
-      <c r="C18" s="440" t="s">
+      <c r="B18" s="437"/>
+      <c r="C18" s="435" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="443" t="s">
+      <c r="D18" s="436" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="430"/>
-      <c r="F18" s="430"/>
-      <c r="G18" s="431"/>
+      <c r="E18" s="419"/>
+      <c r="F18" s="419"/>
+      <c r="G18" s="420"/>
       <c r="L18" s="151"/>
       <c r="M18" s="151"/>
       <c r="N18" s="151"/>
@@ -21199,294 +21199,294 @@
       <c r="R18" s="151"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="441"/>
-      <c r="C19" s="441"/>
-      <c r="D19" s="432"/>
-      <c r="E19" s="433"/>
-      <c r="F19" s="433"/>
-      <c r="G19" s="434"/>
+      <c r="B19" s="428"/>
+      <c r="C19" s="428"/>
+      <c r="D19" s="421"/>
+      <c r="E19" s="422"/>
+      <c r="F19" s="422"/>
+      <c r="G19" s="423"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="441"/>
-      <c r="C20" s="441"/>
-      <c r="D20" s="432"/>
-      <c r="E20" s="433"/>
-      <c r="F20" s="433"/>
-      <c r="G20" s="434"/>
+      <c r="B20" s="428"/>
+      <c r="C20" s="428"/>
+      <c r="D20" s="421"/>
+      <c r="E20" s="422"/>
+      <c r="F20" s="422"/>
+      <c r="G20" s="423"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="442"/>
-      <c r="C21" s="442"/>
-      <c r="D21" s="435"/>
-      <c r="E21" s="436"/>
-      <c r="F21" s="436"/>
-      <c r="G21" s="437"/>
+      <c r="B21" s="429"/>
+      <c r="C21" s="429"/>
+      <c r="D21" s="424"/>
+      <c r="E21" s="425"/>
+      <c r="F21" s="425"/>
+      <c r="G21" s="426"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B22" s="445" t="s">
+      <c r="B22" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="446" t="s">
+      <c r="C22" s="431" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="429" t="s">
+      <c r="D22" s="418" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="430"/>
-      <c r="F22" s="430"/>
-      <c r="G22" s="431"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="420"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="441"/>
-      <c r="C23" s="441"/>
-      <c r="D23" s="432"/>
-      <c r="E23" s="433"/>
-      <c r="F23" s="433"/>
-      <c r="G23" s="434"/>
+      <c r="B23" s="428"/>
+      <c r="C23" s="428"/>
+      <c r="D23" s="421"/>
+      <c r="E23" s="422"/>
+      <c r="F23" s="422"/>
+      <c r="G23" s="423"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="441"/>
-      <c r="C24" s="441"/>
-      <c r="D24" s="432"/>
-      <c r="E24" s="433"/>
-      <c r="F24" s="433"/>
-      <c r="G24" s="434"/>
+      <c r="B24" s="428"/>
+      <c r="C24" s="428"/>
+      <c r="D24" s="421"/>
+      <c r="E24" s="422"/>
+      <c r="F24" s="422"/>
+      <c r="G24" s="423"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="442"/>
-      <c r="C25" s="442"/>
-      <c r="D25" s="435"/>
-      <c r="E25" s="436"/>
-      <c r="F25" s="436"/>
-      <c r="G25" s="437"/>
+      <c r="B25" s="429"/>
+      <c r="C25" s="429"/>
+      <c r="D25" s="424"/>
+      <c r="E25" s="425"/>
+      <c r="F25" s="425"/>
+      <c r="G25" s="426"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="445" t="s">
+      <c r="B26" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="446" t="s">
+      <c r="C26" s="431" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="429" t="s">
+      <c r="D26" s="418" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="430"/>
-      <c r="F26" s="430"/>
-      <c r="G26" s="431"/>
+      <c r="E26" s="419"/>
+      <c r="F26" s="419"/>
+      <c r="G26" s="420"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="441"/>
-      <c r="C27" s="441"/>
-      <c r="D27" s="432"/>
-      <c r="E27" s="433"/>
-      <c r="F27" s="433"/>
-      <c r="G27" s="434"/>
+      <c r="B27" s="428"/>
+      <c r="C27" s="428"/>
+      <c r="D27" s="421"/>
+      <c r="E27" s="422"/>
+      <c r="F27" s="422"/>
+      <c r="G27" s="423"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="441"/>
-      <c r="C28" s="441"/>
-      <c r="D28" s="432"/>
-      <c r="E28" s="433"/>
-      <c r="F28" s="433"/>
-      <c r="G28" s="434"/>
+      <c r="B28" s="428"/>
+      <c r="C28" s="428"/>
+      <c r="D28" s="421"/>
+      <c r="E28" s="422"/>
+      <c r="F28" s="422"/>
+      <c r="G28" s="423"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="442"/>
-      <c r="C29" s="442"/>
-      <c r="D29" s="435"/>
-      <c r="E29" s="436"/>
-      <c r="F29" s="436"/>
-      <c r="G29" s="437"/>
+      <c r="B29" s="429"/>
+      <c r="C29" s="429"/>
+      <c r="D29" s="424"/>
+      <c r="E29" s="425"/>
+      <c r="F29" s="425"/>
+      <c r="G29" s="426"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="445" t="s">
+      <c r="B30" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="446" t="s">
+      <c r="C30" s="431" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="429" t="s">
+      <c r="D30" s="418" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="430"/>
-      <c r="F30" s="430"/>
-      <c r="G30" s="431"/>
+      <c r="E30" s="419"/>
+      <c r="F30" s="419"/>
+      <c r="G30" s="420"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="441"/>
-      <c r="C31" s="441"/>
-      <c r="D31" s="432"/>
-      <c r="E31" s="433"/>
-      <c r="F31" s="433"/>
-      <c r="G31" s="434"/>
+      <c r="B31" s="428"/>
+      <c r="C31" s="428"/>
+      <c r="D31" s="421"/>
+      <c r="E31" s="422"/>
+      <c r="F31" s="422"/>
+      <c r="G31" s="423"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="441"/>
-      <c r="C32" s="441"/>
-      <c r="D32" s="432"/>
-      <c r="E32" s="433"/>
-      <c r="F32" s="433"/>
-      <c r="G32" s="434"/>
+      <c r="B32" s="428"/>
+      <c r="C32" s="428"/>
+      <c r="D32" s="421"/>
+      <c r="E32" s="422"/>
+      <c r="F32" s="422"/>
+      <c r="G32" s="423"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="442"/>
-      <c r="C33" s="442"/>
-      <c r="D33" s="435"/>
-      <c r="E33" s="436"/>
-      <c r="F33" s="436"/>
-      <c r="G33" s="437"/>
+      <c r="B33" s="429"/>
+      <c r="C33" s="429"/>
+      <c r="D33" s="424"/>
+      <c r="E33" s="425"/>
+      <c r="F33" s="425"/>
+      <c r="G33" s="426"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="445" t="s">
+      <c r="B34" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="446" t="s">
+      <c r="C34" s="431" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="429" t="s">
+      <c r="D34" s="418" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="430"/>
-      <c r="F34" s="430"/>
-      <c r="G34" s="431"/>
+      <c r="E34" s="419"/>
+      <c r="F34" s="419"/>
+      <c r="G34" s="420"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="441"/>
-      <c r="C35" s="441"/>
-      <c r="D35" s="432"/>
-      <c r="E35" s="433"/>
-      <c r="F35" s="433"/>
-      <c r="G35" s="434"/>
+      <c r="B35" s="428"/>
+      <c r="C35" s="428"/>
+      <c r="D35" s="421"/>
+      <c r="E35" s="422"/>
+      <c r="F35" s="422"/>
+      <c r="G35" s="423"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="441"/>
-      <c r="C36" s="441"/>
-      <c r="D36" s="432"/>
-      <c r="E36" s="433"/>
-      <c r="F36" s="433"/>
-      <c r="G36" s="434"/>
+      <c r="B36" s="428"/>
+      <c r="C36" s="428"/>
+      <c r="D36" s="421"/>
+      <c r="E36" s="422"/>
+      <c r="F36" s="422"/>
+      <c r="G36" s="423"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="442"/>
-      <c r="C37" s="442"/>
-      <c r="D37" s="435"/>
-      <c r="E37" s="436"/>
-      <c r="F37" s="436"/>
-      <c r="G37" s="437"/>
+      <c r="B37" s="429"/>
+      <c r="C37" s="429"/>
+      <c r="D37" s="424"/>
+      <c r="E37" s="425"/>
+      <c r="F37" s="425"/>
+      <c r="G37" s="426"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="445" t="s">
+      <c r="B38" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="447" t="s">
+      <c r="C38" s="430" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="429" t="s">
+      <c r="D38" s="418" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="430"/>
-      <c r="F38" s="430"/>
-      <c r="G38" s="431"/>
+      <c r="E38" s="419"/>
+      <c r="F38" s="419"/>
+      <c r="G38" s="420"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="441"/>
-      <c r="C39" s="441"/>
-      <c r="D39" s="432"/>
-      <c r="E39" s="433"/>
-      <c r="F39" s="433"/>
-      <c r="G39" s="434"/>
+      <c r="B39" s="428"/>
+      <c r="C39" s="428"/>
+      <c r="D39" s="421"/>
+      <c r="E39" s="422"/>
+      <c r="F39" s="422"/>
+      <c r="G39" s="423"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="441"/>
-      <c r="C40" s="441"/>
-      <c r="D40" s="432"/>
-      <c r="E40" s="433"/>
-      <c r="F40" s="433"/>
-      <c r="G40" s="434"/>
+      <c r="B40" s="428"/>
+      <c r="C40" s="428"/>
+      <c r="D40" s="421"/>
+      <c r="E40" s="422"/>
+      <c r="F40" s="422"/>
+      <c r="G40" s="423"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="442"/>
-      <c r="C41" s="442"/>
-      <c r="D41" s="435"/>
-      <c r="E41" s="436"/>
-      <c r="F41" s="436"/>
-      <c r="G41" s="437"/>
+      <c r="B41" s="429"/>
+      <c r="C41" s="429"/>
+      <c r="D41" s="424"/>
+      <c r="E41" s="425"/>
+      <c r="F41" s="425"/>
+      <c r="G41" s="426"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="445" t="s">
+      <c r="B42" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="447" t="s">
+      <c r="C42" s="430" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="429" t="s">
+      <c r="D42" s="418" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="430"/>
-      <c r="F42" s="430"/>
-      <c r="G42" s="431"/>
+      <c r="E42" s="419"/>
+      <c r="F42" s="419"/>
+      <c r="G42" s="420"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="441"/>
-      <c r="C43" s="441"/>
-      <c r="D43" s="432"/>
-      <c r="E43" s="433"/>
-      <c r="F43" s="433"/>
-      <c r="G43" s="434"/>
+      <c r="B43" s="428"/>
+      <c r="C43" s="428"/>
+      <c r="D43" s="421"/>
+      <c r="E43" s="422"/>
+      <c r="F43" s="422"/>
+      <c r="G43" s="423"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="441"/>
-      <c r="C44" s="441"/>
-      <c r="D44" s="432"/>
-      <c r="E44" s="433"/>
-      <c r="F44" s="433"/>
-      <c r="G44" s="434"/>
+      <c r="B44" s="428"/>
+      <c r="C44" s="428"/>
+      <c r="D44" s="421"/>
+      <c r="E44" s="422"/>
+      <c r="F44" s="422"/>
+      <c r="G44" s="423"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="442"/>
-      <c r="C45" s="442"/>
-      <c r="D45" s="435"/>
-      <c r="E45" s="436"/>
-      <c r="F45" s="436"/>
-      <c r="G45" s="437"/>
+      <c r="B45" s="429"/>
+      <c r="C45" s="429"/>
+      <c r="D45" s="424"/>
+      <c r="E45" s="425"/>
+      <c r="F45" s="425"/>
+      <c r="G45" s="426"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="445" t="s">
+      <c r="B46" s="427" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="447" t="s">
+      <c r="C46" s="430" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="429" t="s">
+      <c r="D46" s="418" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="430"/>
-      <c r="F46" s="430"/>
-      <c r="G46" s="431"/>
+      <c r="E46" s="419"/>
+      <c r="F46" s="419"/>
+      <c r="G46" s="420"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="441"/>
-      <c r="C47" s="441"/>
-      <c r="D47" s="432"/>
-      <c r="E47" s="433"/>
-      <c r="F47" s="433"/>
-      <c r="G47" s="434"/>
+      <c r="B47" s="428"/>
+      <c r="C47" s="428"/>
+      <c r="D47" s="421"/>
+      <c r="E47" s="422"/>
+      <c r="F47" s="422"/>
+      <c r="G47" s="423"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="441"/>
-      <c r="C48" s="441"/>
-      <c r="D48" s="432"/>
-      <c r="E48" s="433"/>
-      <c r="F48" s="433"/>
-      <c r="G48" s="434"/>
+      <c r="B48" s="428"/>
+      <c r="C48" s="428"/>
+      <c r="D48" s="421"/>
+      <c r="E48" s="422"/>
+      <c r="F48" s="422"/>
+      <c r="G48" s="423"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="442"/>
-      <c r="C49" s="442"/>
-      <c r="D49" s="435"/>
-      <c r="E49" s="436"/>
-      <c r="F49" s="436"/>
-      <c r="G49" s="437"/>
+      <c r="B49" s="429"/>
+      <c r="C49" s="429"/>
+      <c r="D49" s="424"/>
+      <c r="E49" s="425"/>
+      <c r="F49" s="425"/>
+      <c r="G49" s="426"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="51" spans="2:7" ht="33.75" customHeight="1"/>
@@ -22441,18 +22441,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D42:G45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:G49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:G37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:G41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="D22:G25"/>
     <mergeCell ref="D26:G29"/>
     <mergeCell ref="D30:G33"/>
@@ -22466,12 +22460,18 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="D42:G45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:G49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:G37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -22504,21 +22504,21 @@
       <c r="E2" s="162"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="448" t="s">
+      <c r="B3" s="449" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="430"/>
-      <c r="D3" s="430"/>
-      <c r="E3" s="431"/>
+      <c r="C3" s="419"/>
+      <c r="D3" s="419"/>
+      <c r="E3" s="420"/>
       <c r="F3" s="163"/>
       <c r="G3" s="163"/>
       <c r="H3" s="163"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1">
-      <c r="B4" s="435"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="437"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="426"/>
       <c r="F4" s="163"/>
       <c r="G4" s="163"/>
       <c r="H4" s="163"/>
@@ -22549,7 +22549,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="339" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -22585,7 +22585,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="339" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -22621,7 +22621,7 @@
         <v>81</v>
       </c>
       <c r="E8" s="339" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F8" s="171"/>
       <c r="G8" s="171"/>
@@ -22657,7 +22657,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="339" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" s="171"/>
       <c r="G9" s="171"/>
@@ -22693,7 +22693,7 @@
         <v>85</v>
       </c>
       <c r="E10" s="339" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="171"/>
       <c r="G10" s="171"/>

--- a/pchousebd.xlsx
+++ b/pchousebd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ProjectTesting\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9506D8FB-BD6F-42E8-8ACA-CA33CA9B2268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F83746-E64B-43A7-8307-FDD5DA555CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,15 @@
     <sheet name="Mind Maps " sheetId="2" r:id="rId1"/>
     <sheet name="TestCase" sheetId="4" r:id="rId2"/>
     <sheet name="Test Summary Report" sheetId="5" r:id="rId3"/>
-    <sheet name="Bug Report" sheetId="8" r:id="rId4"/>
-    <sheet name="BugReport" sheetId="9" r:id="rId5"/>
-    <sheet name="Test Metrics" sheetId="7" r:id="rId6"/>
+    <sheet name="Bug Report" sheetId="9" r:id="rId4"/>
+    <sheet name="Test Metrics" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="387">
   <si>
     <t>Product Name</t>
   </si>
@@ -637,9 +636,6 @@
   </si>
   <si>
     <t>Verify by giving comma as first name and last name</t>
-  </si>
-  <si>
-    <t>Verify by giving special characters as first name and last name and both</t>
   </si>
   <si>
     <t>Verify by giving multiple account using same mobile number</t>
@@ -1270,538 +1266,6 @@
     <t>Expected: Should not allow registration with previously used mobile numbers</t>
   </si>
   <si>
-    <t># SL 03</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Allows invalid mobile number</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-https://www.pchouse.com.bd/index.php?route=account/register
-2. Create  account with invalid mobile number
-3. complete registration
-</t>
-  </si>
-  <si>
-    <t>Screenshot: account with invalid mobile number</t>
-  </si>
-  <si>
-    <t>Expected: Should not allow invalid mobile numbers</t>
-  </si>
-  <si>
-    <t># SL 04</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Eye icon is not added in password field</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-https://www.pchouse.com.bd/index.php?route=account/register
-</t>
-  </si>
-  <si>
-    <r>
-      <t>Priority:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Low</t>
-    </r>
-  </si>
-  <si>
-    <t>Screenshot: eye icon missing</t>
-  </si>
-  <si>
-    <t>Expected: icon should be present</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>does not send otp to confirm mobile number</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected: Should sent OTP</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>captcha is  not added</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected: cpacha should be present</t>
-  </si>
-  <si>
-    <t># SL 05</t>
-  </si>
-  <si>
-    <r>
-      <t>Issue:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ser should not be allowed to register an account with the same registered email by adding plus for example useractual+1@gmail.com.</t>
-    </r>
-  </si>
-  <si>
-    <t>Screenshot: allows emails with + sign added</t>
-  </si>
-  <si>
-    <t>Expected: should not allow</t>
-  </si>
-  <si>
-    <t># SL 06</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Does not send email verification link</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected: should send</t>
-  </si>
-  <si>
-    <t># SL 07</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>User should be informed to check the spam folder if no email link is found in the inbox.</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected: should be informed</t>
-  </si>
-  <si>
-    <t># SL 08</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Resend Link option is not present </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Priority:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> High</t>
-    </r>
-  </si>
-  <si>
-    <t># SL 09</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Eye icon is not added in password field in user login</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-https://www.pchouse.com.bd/index.php?route=account/login
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Module: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>User login</t>
-    </r>
-  </si>
-  <si>
-    <t># SL 10</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>No</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>captcha on the login form to prevent the robot attack</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Env:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Production.</t>
-    </r>
-  </si>
-  <si>
-    <t># SL 11</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Logged in user gets logged out on closing the browser.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-https://www.pchouse.com.bd/index.php?route=account/login
-2. Close Browser
-</t>
-  </si>
-  <si>
-    <t># SL 12</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Social login i-e Facebook and google is not present</t>
-    </r>
-  </si>
-  <si>
-    <t># SL 13</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>User cant log out</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. N/A
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Module: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Log out</t>
-    </r>
-  </si>
-  <si>
-    <t># SL 14</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>When user updates password, the user Should log out from all browser and devices</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Goto the URL
-https://www.pchouse.com.bd/index.php?route=account/login   
-2. click on forgottrn password
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Module: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Forgotten password</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected: should get logged out</t>
-  </si>
-  <si>
-    <t># SL 15</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Link sent to the user does not expire after a certain time.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Priority:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>High</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected: should expire</t>
-  </si>
-  <si>
-    <t># SL 16</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>mail which the user gets against forgot password  displayed in the spam folder</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected:  should appear in inbox</t>
-  </si>
-  <si>
-    <t># SL 17</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Crushes when clicking on the recover button without entering the email id.</t>
-    </r>
-  </si>
-  <si>
-    <t>Expected:  should show error message</t>
-  </si>
-  <si>
-    <t># SL 18</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>No error message displayed for blank input</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to https://www.pchouse.com.bd/  
-2. search
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Module: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Search</t>
-    </r>
-  </si>
-  <si>
-    <t>Screenshot: No error message shown</t>
-  </si>
-  <si>
-    <t># SL 19</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Issue: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Searching with large number of text  shows abnormality</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Go to https://www.pchouse.com.bd/  
-2. search with large number
-</t>
-  </si>
-  <si>
-    <t>Screenshot: abnormal result</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Issue: </t>
     </r>
@@ -1833,12 +1297,79 @@
     <t>Bug 05
 TC_08</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Issue: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Registered with invalid last name(example using comma as last name)</t>
+    </r>
+  </si>
+  <si>
+    <t>Screenshot: Invalid last name</t>
+  </si>
+  <si>
+    <t>Expected: Should not allow registration with last name.</t>
+  </si>
+  <si>
+    <t>Expected: Should not allow registration with invalid first name.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Issue: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Registered with invalid first and last name(example using comma as first and last name)</t>
+    </r>
+  </si>
+  <si>
+    <t>Screenshot: Invalid first and last name</t>
+  </si>
+  <si>
+    <t>Verify by giving special characters as first name and last name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Issue: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Registered with special characters as first name and last name(example using @$# as first and  #%% as last name)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Goto the URL
+https://www.pchouse.com.bd/index.php?route=account/register
+2. Fill the first and last name with invalid texts (example using @$# as first and  #%% as last name)
+3. complete registration
+</t>
+  </si>
+  <si>
+    <t>Screenshot: Invalid first and last name using special characters</t>
+  </si>
+  <si>
+    <t>Expected: Should not allow registration with special characters as first and last name.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="86">
+  <fonts count="77">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2314,66 +1845,8 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2560,14 +2033,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="80">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -3364,21 +2831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -3491,7 +2943,7 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="48"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="545">
+  <cellXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4524,111 +3976,49 @@
     <xf numFmtId="0" fontId="73" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="71" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="78" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4640,52 +4030,106 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4697,285 +4141,106 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="48" xfId="2"/>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="16" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="30" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="48" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="11" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="48" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="48" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="48" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="48" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="48" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="30" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="30" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="30" borderId="48" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="48" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="48" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="76" fillId="30" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="11" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="11" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="11" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="11" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="11" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="30" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="72" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="78" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="79" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="30" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="30" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="30" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="30" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="11" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="30" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="30" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="72" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6851,9 +6116,9 @@
   </sheetPr>
   <dimension ref="A1:AC1010"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6876,10 +6141,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="366" t="s">
+      <c r="A1" s="419" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="368"/>
+      <c r="B1" s="421"/>
       <c r="C1" s="340" t="s">
         <v>106</v>
       </c>
@@ -6887,22 +6152,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="320" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="320" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="369" t="s">
+      <c r="L1" s="422" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="370"/>
+      <c r="M1" s="423"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -6921,24 +6186,24 @@
       <c r="AC1" s="11"/>
     </row>
     <row r="2" spans="1:29" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="419" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="368"/>
+      <c r="B2" s="421"/>
       <c r="C2" s="339" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="321" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="326" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
@@ -6969,16 +6234,16 @@
       <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="366" t="s">
+      <c r="A3" s="419" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="368"/>
+      <c r="B3" s="421"/>
       <c r="C3" s="13"/>
       <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="321" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
@@ -7015,16 +6280,16 @@
       <c r="AC3" s="11"/>
     </row>
     <row r="4" spans="1:29" ht="43.15" customHeight="1" thickBot="1">
-      <c r="A4" s="366" t="s">
+      <c r="A4" s="419" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="367"/>
+      <c r="B4" s="420"/>
       <c r="C4" s="13"/>
       <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="321" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>15</v>
@@ -7061,17 +6326,17 @@
       <c r="AC4" s="11"/>
     </row>
     <row r="5" spans="1:29" ht="29.75" customHeight="1" thickBot="1">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="397" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="372"/>
-      <c r="C5" s="373" t="s">
+      <c r="B5" s="398"/>
+      <c r="C5" s="399" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="374"/>
-      <c r="G5" s="375"/>
+      <c r="D5" s="400"/>
+      <c r="E5" s="400"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="401"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
@@ -7138,7 +6403,7 @@
     </row>
     <row r="7" spans="1:29" ht="20.75" customHeight="1" thickBot="1">
       <c r="A7" s="365" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B7" s="291" t="s">
         <v>23</v>
@@ -7195,7 +6460,7 @@
     </row>
     <row r="8" spans="1:29" ht="36.75" customHeight="1" thickBot="1">
       <c r="A8" s="332" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="333" t="s">
         <v>35</v>
@@ -7217,7 +6482,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="341" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J8" s="314"/>
       <c r="K8" s="36"/>
@@ -7244,9 +6509,9 @@
     </row>
     <row r="9" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A9" s="332" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="382" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="407" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="303"/>
@@ -7291,9 +6556,9 @@
     </row>
     <row r="10" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A10" s="332" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="383"/>
+        <v>280</v>
+      </c>
+      <c r="B10" s="408"/>
       <c r="C10" s="302"/>
       <c r="D10" s="304"/>
       <c r="E10" s="344" t="s">
@@ -7306,7 +6571,7 @@
         <v>36</v>
       </c>
       <c r="H10" s="342" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I10" s="310" t="s">
         <v>98</v>
@@ -7324,9 +6589,9 @@
     </row>
     <row r="11" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="332" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="383"/>
+        <v>281</v>
+      </c>
+      <c r="B11" s="408"/>
       <c r="C11" s="43"/>
       <c r="D11" s="175"/>
       <c r="E11" s="344" t="s">
@@ -7336,16 +6601,16 @@
         <v>188</v>
       </c>
       <c r="G11" s="306" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="305" t="s">
         <v>245</v>
-      </c>
-      <c r="H11" s="305" t="s">
-        <v>246</v>
       </c>
       <c r="I11" s="310" t="s">
         <v>98</v>
       </c>
       <c r="J11" s="327" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="37" t="s">
@@ -7359,9 +6624,9 @@
     </row>
     <row r="12" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A12" s="332" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="383"/>
+        <v>282</v>
+      </c>
+      <c r="B12" s="408"/>
       <c r="C12" s="43"/>
       <c r="D12" s="175"/>
       <c r="E12" s="344" t="s">
@@ -7371,16 +6636,16 @@
         <v>188</v>
       </c>
       <c r="G12" s="306" t="s">
+        <v>244</v>
+      </c>
+      <c r="H12" s="305" t="s">
         <v>245</v>
-      </c>
-      <c r="H12" s="305" t="s">
-        <v>246</v>
       </c>
       <c r="I12" s="310" t="s">
         <v>98</v>
       </c>
       <c r="J12" s="327" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="37" t="s">
@@ -7394,9 +6659,9 @@
     </row>
     <row r="13" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A13" s="332" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="383"/>
+        <v>283</v>
+      </c>
+      <c r="B13" s="408"/>
       <c r="C13" s="43"/>
       <c r="D13" s="175"/>
       <c r="E13" s="344" t="s">
@@ -7406,16 +6671,16 @@
         <v>188</v>
       </c>
       <c r="G13" s="306" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="308" t="s">
         <v>245</v>
-      </c>
-      <c r="H13" s="308" t="s">
-        <v>246</v>
       </c>
       <c r="I13" s="310" t="s">
         <v>98</v>
       </c>
       <c r="J13" s="327" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="37" t="s">
@@ -7429,19 +6694,19 @@
     </row>
     <row r="14" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A14" s="332" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="383"/>
+        <v>284</v>
+      </c>
+      <c r="B14" s="408"/>
       <c r="C14" s="43"/>
       <c r="D14" s="175"/>
       <c r="E14" s="344" t="s">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="F14" s="347" t="s">
         <v>188</v>
       </c>
       <c r="G14" s="306" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H14" s="305" t="s">
         <v>101</v>
@@ -7450,7 +6715,7 @@
         <v>98</v>
       </c>
       <c r="J14" s="327" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="37" t="s">
@@ -7464,19 +6729,19 @@
     </row>
     <row r="15" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A15" s="332" t="s">
-        <v>286</v>
-      </c>
-      <c r="B15" s="383"/>
+        <v>285</v>
+      </c>
+      <c r="B15" s="408"/>
       <c r="C15" s="43"/>
       <c r="D15" s="175"/>
       <c r="E15" s="344" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="347" t="s">
         <v>188</v>
       </c>
       <c r="G15" s="306" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H15" s="305" t="s">
         <v>39</v>
@@ -7485,7 +6750,7 @@
         <v>98</v>
       </c>
       <c r="J15" s="327" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="37" t="s">
@@ -7499,13 +6764,13 @@
     </row>
     <row r="16" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A16" s="332" t="s">
-        <v>287</v>
-      </c>
-      <c r="B16" s="383"/>
+        <v>286</v>
+      </c>
+      <c r="B16" s="408"/>
       <c r="C16" s="43"/>
       <c r="D16" s="175"/>
       <c r="E16" s="344" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="347" t="s">
         <v>188</v>
@@ -7532,19 +6797,19 @@
     </row>
     <row r="17" spans="1:17" ht="47.25" customHeight="1" thickBot="1">
       <c r="A17" s="332" t="s">
-        <v>288</v>
-      </c>
-      <c r="B17" s="383"/>
+        <v>287</v>
+      </c>
+      <c r="B17" s="408"/>
       <c r="C17" s="43"/>
       <c r="D17" s="175"/>
       <c r="E17" s="344" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F17" s="347" t="s">
         <v>188</v>
       </c>
       <c r="G17" s="306" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H17" s="305" t="s">
         <v>102</v>
@@ -7553,7 +6818,7 @@
         <v>98</v>
       </c>
       <c r="J17" s="327" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="37" t="s">
@@ -7567,13 +6832,13 @@
     </row>
     <row r="18" spans="1:17" ht="67.5" customHeight="1" thickBot="1">
       <c r="A18" s="332" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="383"/>
+        <v>288</v>
+      </c>
+      <c r="B18" s="408"/>
       <c r="C18" s="43"/>
       <c r="D18" s="175"/>
       <c r="E18" s="348" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="347" t="s">
         <v>188</v>
@@ -7600,19 +6865,19 @@
     </row>
     <row r="19" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A19" s="332" t="s">
-        <v>290</v>
-      </c>
-      <c r="B19" s="383"/>
+        <v>289</v>
+      </c>
+      <c r="B19" s="408"/>
       <c r="C19" s="43"/>
       <c r="D19" s="300"/>
       <c r="E19" s="349" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="350" t="s">
         <v>188</v>
       </c>
       <c r="G19" s="306" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H19" s="305" t="s">
         <v>170</v>
@@ -7621,7 +6886,7 @@
         <v>98</v>
       </c>
       <c r="J19" s="327" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="37" t="s">
@@ -7635,22 +6900,22 @@
     </row>
     <row r="20" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A20" s="332" t="s">
-        <v>291</v>
-      </c>
-      <c r="B20" s="383"/>
+        <v>290</v>
+      </c>
+      <c r="B20" s="408"/>
       <c r="C20" s="43"/>
       <c r="D20" s="300"/>
       <c r="E20" s="351" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F20" s="352" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G20" s="305" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="305" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I20" s="310" t="s">
         <v>98</v>
@@ -7668,22 +6933,22 @@
     </row>
     <row r="21" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A21" s="332" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" s="383"/>
+        <v>291</v>
+      </c>
+      <c r="B21" s="408"/>
       <c r="C21" s="43"/>
       <c r="D21" s="300"/>
       <c r="E21" s="351" t="s">
         <v>104</v>
       </c>
       <c r="F21" s="350" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="305" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="305" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I21" s="310" t="s">
         <v>98</v>
@@ -7701,13 +6966,13 @@
     </row>
     <row r="22" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A22" s="332" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="383"/>
+        <v>292</v>
+      </c>
+      <c r="B22" s="408"/>
       <c r="C22" s="43"/>
       <c r="D22" s="175"/>
       <c r="E22" s="346" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F22" s="347" t="s">
         <v>116</v>
@@ -7722,7 +6987,7 @@
         <v>98</v>
       </c>
       <c r="J22" s="327" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K22" s="42"/>
       <c r="L22" s="37" t="s">
@@ -7736,16 +7001,16 @@
     </row>
     <row r="23" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A23" s="332" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="383"/>
+        <v>293</v>
+      </c>
+      <c r="B23" s="408"/>
       <c r="C23" s="43"/>
       <c r="D23" s="175"/>
       <c r="E23" s="344" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F23" s="347" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="306" t="s">
         <v>117</v>
@@ -7769,16 +7034,16 @@
     </row>
     <row r="24" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A24" s="332" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="383"/>
+        <v>294</v>
+      </c>
+      <c r="B24" s="408"/>
       <c r="C24" s="359"/>
       <c r="D24" s="175"/>
       <c r="E24" s="346" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24" s="347" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G24" s="306" t="s">
         <v>117</v>
@@ -7802,16 +7067,16 @@
     </row>
     <row r="25" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A25" s="332" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" s="383"/>
+        <v>295</v>
+      </c>
+      <c r="B25" s="408"/>
       <c r="C25" s="360"/>
       <c r="D25" s="358"/>
       <c r="E25" s="348" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="347" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G25" s="306" t="s">
         <v>110</v>
@@ -7835,13 +7100,13 @@
     </row>
     <row r="26" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A26" s="332" t="s">
-        <v>297</v>
-      </c>
-      <c r="B26" s="383"/>
+        <v>296</v>
+      </c>
+      <c r="B26" s="408"/>
       <c r="C26" s="343"/>
       <c r="D26" s="300"/>
       <c r="E26" s="351" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="350" t="s">
         <v>105</v>
@@ -7868,13 +7133,13 @@
     </row>
     <row r="27" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A27" s="332" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="383"/>
+        <v>297</v>
+      </c>
+      <c r="B27" s="408"/>
       <c r="C27" s="43"/>
       <c r="D27" s="300"/>
       <c r="E27" s="351" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="350" t="s">
         <v>188</v>
@@ -7883,13 +7148,13 @@
         <v>117</v>
       </c>
       <c r="H27" s="305" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I27" s="310" t="s">
         <v>98</v>
       </c>
       <c r="J27" s="327" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K27" s="42"/>
       <c r="L27" s="37" t="s">
@@ -7903,16 +7168,16 @@
     </row>
     <row r="28" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A28" s="332" t="s">
-        <v>299</v>
-      </c>
-      <c r="B28" s="383"/>
+        <v>298</v>
+      </c>
+      <c r="B28" s="408"/>
       <c r="C28" s="43"/>
       <c r="D28" s="175"/>
       <c r="E28" s="346" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28" s="347" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28" s="306" t="s">
         <v>117</v>
@@ -7936,16 +7201,16 @@
     </row>
     <row r="29" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A29" s="332" t="s">
-        <v>300</v>
-      </c>
-      <c r="B29" s="383"/>
+        <v>299</v>
+      </c>
+      <c r="B29" s="408"/>
       <c r="C29" s="43"/>
       <c r="D29" s="300"/>
       <c r="E29" s="351" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F29" s="350" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G29" s="306" t="s">
         <v>117</v>
@@ -7969,16 +7234,16 @@
     </row>
     <row r="30" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A30" s="332" t="s">
-        <v>301</v>
-      </c>
-      <c r="B30" s="383"/>
+        <v>300</v>
+      </c>
+      <c r="B30" s="408"/>
       <c r="C30" s="43"/>
       <c r="D30" s="175"/>
       <c r="E30" s="346" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F30" s="347" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G30" s="306" t="s">
         <v>117</v>
@@ -8002,13 +7267,13 @@
     </row>
     <row r="31" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A31" s="332" t="s">
-        <v>302</v>
-      </c>
-      <c r="B31" s="384"/>
+        <v>301</v>
+      </c>
+      <c r="B31" s="409"/>
       <c r="C31" s="43"/>
       <c r="D31" s="300"/>
       <c r="E31" s="351" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F31" s="350" t="s">
         <v>188</v>
@@ -8035,10 +7300,10 @@
     </row>
     <row r="32" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A32" s="332" t="s">
-        <v>303</v>
-      </c>
-      <c r="B32" s="385" t="s">
-        <v>256</v>
+        <v>302</v>
+      </c>
+      <c r="B32" s="410" t="s">
+        <v>255</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="175"/>
@@ -8070,9 +7335,9 @@
     </row>
     <row r="33" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A33" s="332" t="s">
-        <v>304</v>
-      </c>
-      <c r="B33" s="386"/>
+        <v>303</v>
+      </c>
+      <c r="B33" s="411"/>
       <c r="C33" s="43"/>
       <c r="D33" s="175"/>
       <c r="E33" s="329" t="s">
@@ -8103,9 +7368,9 @@
     </row>
     <row r="34" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A34" s="332" t="s">
-        <v>305</v>
-      </c>
-      <c r="B34" s="386"/>
+        <v>304</v>
+      </c>
+      <c r="B34" s="411"/>
       <c r="C34" s="43"/>
       <c r="D34" s="175"/>
       <c r="E34" s="344" t="s">
@@ -8136,13 +7401,13 @@
     </row>
     <row r="35" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A35" s="332" t="s">
-        <v>306</v>
-      </c>
-      <c r="B35" s="386"/>
+        <v>305</v>
+      </c>
+      <c r="B35" s="411"/>
       <c r="C35" s="43"/>
       <c r="D35" s="175"/>
       <c r="E35" s="329" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F35" s="347" t="s">
         <v>114</v>
@@ -8169,9 +7434,9 @@
     </row>
     <row r="36" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A36" s="332" t="s">
-        <v>307</v>
-      </c>
-      <c r="B36" s="386"/>
+        <v>306</v>
+      </c>
+      <c r="B36" s="411"/>
       <c r="C36" s="44"/>
       <c r="D36" s="301"/>
       <c r="E36" s="330" t="s">
@@ -8190,7 +7455,7 @@
         <v>111</v>
       </c>
       <c r="J36" s="331" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K36" s="45"/>
       <c r="L36" s="37" t="s">
@@ -8204,9 +7469,9 @@
     </row>
     <row r="37" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A37" s="332" t="s">
-        <v>308</v>
-      </c>
-      <c r="B37" s="386"/>
+        <v>307</v>
+      </c>
+      <c r="B37" s="411"/>
       <c r="C37" s="44"/>
       <c r="D37" s="179"/>
       <c r="E37" s="329" t="s">
@@ -8237,9 +7502,9 @@
     </row>
     <row r="38" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A38" s="332" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" s="386"/>
+        <v>308</v>
+      </c>
+      <c r="B38" s="411"/>
       <c r="C38" s="44"/>
       <c r="D38" s="179"/>
       <c r="E38" s="354" t="s">
@@ -8270,13 +7535,13 @@
     </row>
     <row r="39" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A39" s="332" t="s">
-        <v>310</v>
-      </c>
-      <c r="B39" s="386"/>
+        <v>309</v>
+      </c>
+      <c r="B39" s="411"/>
       <c r="C39" s="44"/>
       <c r="D39" s="179"/>
       <c r="E39" s="354" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F39" s="355" t="s">
         <v>120</v>
@@ -8303,13 +7568,13 @@
     </row>
     <row r="40" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A40" s="332" t="s">
-        <v>311</v>
-      </c>
-      <c r="B40" s="386"/>
+        <v>310</v>
+      </c>
+      <c r="B40" s="411"/>
       <c r="C40" s="46"/>
       <c r="D40" s="180"/>
       <c r="E40" s="356" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F40" s="355" t="s">
         <v>120</v>
@@ -8336,13 +7601,13 @@
     </row>
     <row r="41" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A41" s="332" t="s">
-        <v>312</v>
-      </c>
-      <c r="B41" s="386"/>
+        <v>311</v>
+      </c>
+      <c r="B41" s="411"/>
       <c r="C41" s="44"/>
       <c r="D41" s="179"/>
       <c r="E41" s="354" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" s="355" t="s">
         <v>121</v>
@@ -8369,9 +7634,9 @@
     </row>
     <row r="42" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A42" s="332" t="s">
-        <v>313</v>
-      </c>
-      <c r="B42" s="386"/>
+        <v>312</v>
+      </c>
+      <c r="B42" s="411"/>
       <c r="C42" s="49"/>
       <c r="D42" s="181"/>
       <c r="E42" s="357" t="s">
@@ -8402,13 +7667,13 @@
     </row>
     <row r="43" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A43" s="332" t="s">
-        <v>314</v>
-      </c>
-      <c r="B43" s="386"/>
+        <v>313</v>
+      </c>
+      <c r="B43" s="411"/>
       <c r="C43" s="48"/>
       <c r="D43" s="175"/>
       <c r="E43" s="344" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F43" s="347" t="s">
         <v>123</v>
@@ -8447,13 +7712,13 @@
     </row>
     <row r="44" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A44" s="332" t="s">
-        <v>315</v>
-      </c>
-      <c r="B44" s="386"/>
+        <v>314</v>
+      </c>
+      <c r="B44" s="411"/>
       <c r="C44" s="44"/>
       <c r="D44" s="179"/>
       <c r="E44" s="354" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F44" s="355" t="s">
         <v>125</v>
@@ -8480,13 +7745,13 @@
     </row>
     <row r="45" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A45" s="332" t="s">
-        <v>316</v>
-      </c>
-      <c r="B45" s="386"/>
+        <v>315</v>
+      </c>
+      <c r="B45" s="411"/>
       <c r="C45" s="44"/>
       <c r="D45" s="179"/>
       <c r="E45" s="354" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F45" s="355" t="s">
         <v>109</v>
@@ -8513,9 +7778,9 @@
     </row>
     <row r="46" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A46" s="332" t="s">
-        <v>317</v>
-      </c>
-      <c r="B46" s="387"/>
+        <v>316</v>
+      </c>
+      <c r="B46" s="412"/>
       <c r="C46" s="44"/>
       <c r="D46" s="179"/>
       <c r="E46" s="354" t="s">
@@ -8546,10 +7811,10 @@
     </row>
     <row r="47" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A47" s="332" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B47" s="334" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C47" s="44"/>
       <c r="D47" s="175"/>
@@ -8581,15 +7846,15 @@
     </row>
     <row r="48" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A48" s="332" t="s">
-        <v>319</v>
-      </c>
-      <c r="B48" s="388" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="413" t="s">
         <v>147</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="179"/>
       <c r="E48" s="354" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F48" s="355" t="s">
         <v>116</v>
@@ -8616,13 +7881,13 @@
     </row>
     <row r="49" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A49" s="332" t="s">
-        <v>320</v>
-      </c>
-      <c r="B49" s="389"/>
+        <v>319</v>
+      </c>
+      <c r="B49" s="414"/>
       <c r="C49" s="44"/>
       <c r="D49" s="179"/>
       <c r="E49" s="354" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F49" s="355" t="s">
         <v>148</v>
@@ -8649,13 +7914,13 @@
     </row>
     <row r="50" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A50" s="332" t="s">
-        <v>321</v>
-      </c>
-      <c r="B50" s="389"/>
+        <v>320</v>
+      </c>
+      <c r="B50" s="414"/>
       <c r="C50" s="44"/>
       <c r="D50" s="179"/>
       <c r="E50" s="354" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" s="355" t="s">
         <v>149</v>
@@ -8682,9 +7947,9 @@
     </row>
     <row r="51" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A51" s="332" t="s">
-        <v>322</v>
-      </c>
-      <c r="B51" s="389"/>
+        <v>321</v>
+      </c>
+      <c r="B51" s="414"/>
       <c r="C51" s="44"/>
       <c r="D51" s="179"/>
       <c r="E51" s="354" t="s">
@@ -8715,13 +7980,13 @@
     </row>
     <row r="52" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="332" t="s">
-        <v>323</v>
-      </c>
-      <c r="B52" s="389"/>
+        <v>322</v>
+      </c>
+      <c r="B52" s="414"/>
       <c r="C52" s="44"/>
       <c r="D52" s="179"/>
       <c r="E52" s="354" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F52" s="355" t="s">
         <v>152</v>
@@ -8748,13 +8013,13 @@
     </row>
     <row r="53" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A53" s="332" t="s">
-        <v>324</v>
-      </c>
-      <c r="B53" s="389"/>
+        <v>323</v>
+      </c>
+      <c r="B53" s="414"/>
       <c r="C53" s="44"/>
       <c r="D53" s="179"/>
       <c r="E53" s="354" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F53" s="355" t="s">
         <v>153</v>
@@ -8781,13 +8046,13 @@
     </row>
     <row r="54" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A54" s="332" t="s">
-        <v>325</v>
-      </c>
-      <c r="B54" s="389"/>
+        <v>324</v>
+      </c>
+      <c r="B54" s="414"/>
       <c r="C54" s="44"/>
       <c r="D54" s="179"/>
       <c r="E54" s="354" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F54" s="355" t="s">
         <v>154</v>
@@ -8814,13 +8079,13 @@
     </row>
     <row r="55" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A55" s="332" t="s">
-        <v>326</v>
-      </c>
-      <c r="B55" s="389"/>
+        <v>325</v>
+      </c>
+      <c r="B55" s="414"/>
       <c r="C55" s="44"/>
       <c r="D55" s="179"/>
       <c r="E55" s="354" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" s="355" t="s">
         <v>155</v>
@@ -8847,9 +8112,9 @@
     </row>
     <row r="56" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A56" s="332" t="s">
-        <v>327</v>
-      </c>
-      <c r="B56" s="389"/>
+        <v>326</v>
+      </c>
+      <c r="B56" s="414"/>
       <c r="C56" s="44"/>
       <c r="D56" s="179"/>
       <c r="E56" s="354" t="s">
@@ -8880,13 +8145,13 @@
     </row>
     <row r="57" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A57" s="332" t="s">
-        <v>328</v>
-      </c>
-      <c r="B57" s="389"/>
+        <v>327</v>
+      </c>
+      <c r="B57" s="414"/>
       <c r="C57" s="44"/>
       <c r="D57" s="179"/>
       <c r="E57" s="354" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F57" s="355" t="s">
         <v>158</v>
@@ -8913,19 +8178,19 @@
     </row>
     <row r="58" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A58" s="332" t="s">
-        <v>329</v>
-      </c>
-      <c r="B58" s="389"/>
+        <v>328</v>
+      </c>
+      <c r="B58" s="414"/>
       <c r="C58" s="44"/>
       <c r="D58" s="179"/>
       <c r="E58" s="354" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F58" s="355" t="s">
         <v>154</v>
       </c>
       <c r="G58" s="306" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H58" s="305" t="s">
         <v>39</v>
@@ -8934,7 +8199,7 @@
         <v>150</v>
       </c>
       <c r="J58" s="331" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K58" s="51"/>
       <c r="L58" s="37" t="s">
@@ -8948,13 +8213,13 @@
     </row>
     <row r="59" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A59" s="332" t="s">
-        <v>330</v>
-      </c>
-      <c r="B59" s="389"/>
+        <v>329</v>
+      </c>
+      <c r="B59" s="414"/>
       <c r="C59" s="44"/>
       <c r="D59" s="179"/>
       <c r="E59" s="354" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F59" s="355" t="s">
         <v>159</v>
@@ -8981,9 +8246,9 @@
     </row>
     <row r="60" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A60" s="332" t="s">
-        <v>331</v>
-      </c>
-      <c r="B60" s="390"/>
+        <v>330</v>
+      </c>
+      <c r="B60" s="415"/>
       <c r="C60" s="44"/>
       <c r="D60" s="179"/>
       <c r="E60" s="354" t="s">
@@ -9014,9 +8279,9 @@
     </row>
     <row r="61" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A61" s="332" t="s">
-        <v>332</v>
-      </c>
-      <c r="B61" s="388" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" s="413" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="44"/>
@@ -9051,9 +8316,9 @@
     </row>
     <row r="62" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A62" s="332" t="s">
-        <v>333</v>
-      </c>
-      <c r="B62" s="389"/>
+        <v>332</v>
+      </c>
+      <c r="B62" s="414"/>
       <c r="C62" s="44"/>
       <c r="D62" s="179"/>
       <c r="E62" s="354" t="s">
@@ -9084,9 +8349,9 @@
     </row>
     <row r="63" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A63" s="332" t="s">
-        <v>334</v>
-      </c>
-      <c r="B63" s="389"/>
+        <v>333</v>
+      </c>
+      <c r="B63" s="414"/>
       <c r="C63" s="44"/>
       <c r="D63" s="179"/>
       <c r="E63" s="354" t="s">
@@ -9117,13 +8382,13 @@
     </row>
     <row r="64" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A64" s="332" t="s">
-        <v>335</v>
-      </c>
-      <c r="B64" s="389"/>
+        <v>334</v>
+      </c>
+      <c r="B64" s="414"/>
       <c r="C64" s="44"/>
       <c r="D64" s="179"/>
       <c r="E64" s="354" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F64" s="355" t="s">
         <v>140</v>
@@ -9150,9 +8415,9 @@
     </row>
     <row r="65" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A65" s="332" t="s">
-        <v>336</v>
-      </c>
-      <c r="B65" s="389"/>
+        <v>335</v>
+      </c>
+      <c r="B65" s="414"/>
       <c r="C65" s="44"/>
       <c r="D65" s="179"/>
       <c r="E65" s="354" t="s">
@@ -9195,9 +8460,9 @@
     </row>
     <row r="66" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A66" s="332" t="s">
-        <v>337</v>
-      </c>
-      <c r="B66" s="389"/>
+        <v>336</v>
+      </c>
+      <c r="B66" s="414"/>
       <c r="C66" s="44"/>
       <c r="D66" s="179"/>
       <c r="E66" s="354" t="s">
@@ -9228,13 +8493,13 @@
     </row>
     <row r="67" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A67" s="332" t="s">
-        <v>338</v>
-      </c>
-      <c r="B67" s="389"/>
+        <v>337</v>
+      </c>
+      <c r="B67" s="414"/>
       <c r="C67" s="44"/>
       <c r="D67" s="179"/>
       <c r="E67" s="354" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F67" s="355" t="s">
         <v>145</v>
@@ -9261,9 +8526,9 @@
     </row>
     <row r="68" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A68" s="332" t="s">
-        <v>339</v>
-      </c>
-      <c r="B68" s="390"/>
+        <v>338</v>
+      </c>
+      <c r="B68" s="415"/>
       <c r="C68" s="44"/>
       <c r="D68" s="179"/>
       <c r="E68" s="354" t="s">
@@ -9294,9 +8559,9 @@
     </row>
     <row r="69" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A69" s="332" t="s">
-        <v>340</v>
-      </c>
-      <c r="B69" s="388" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="413" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="44"/>
@@ -9329,9 +8594,9 @@
     </row>
     <row r="70" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A70" s="332" t="s">
-        <v>341</v>
-      </c>
-      <c r="B70" s="389"/>
+        <v>340</v>
+      </c>
+      <c r="B70" s="414"/>
       <c r="C70" s="44"/>
       <c r="D70" s="179"/>
       <c r="E70" s="354" t="s">
@@ -9362,9 +8627,9 @@
     </row>
     <row r="71" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A71" s="332" t="s">
-        <v>342</v>
-      </c>
-      <c r="B71" s="389"/>
+        <v>341</v>
+      </c>
+      <c r="B71" s="414"/>
       <c r="C71" s="44"/>
       <c r="D71" s="179"/>
       <c r="E71" s="354" t="s">
@@ -9395,13 +8660,13 @@
     </row>
     <row r="72" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A72" s="332" t="s">
-        <v>343</v>
-      </c>
-      <c r="B72" s="389"/>
+        <v>342</v>
+      </c>
+      <c r="B72" s="414"/>
       <c r="C72" s="44"/>
       <c r="D72" s="179"/>
       <c r="E72" s="354" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F72" s="355" t="s">
         <v>116</v>
@@ -9428,9 +8693,9 @@
     </row>
     <row r="73" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A73" s="332" t="s">
-        <v>344</v>
-      </c>
-      <c r="B73" s="389"/>
+        <v>343</v>
+      </c>
+      <c r="B73" s="414"/>
       <c r="C73" s="44"/>
       <c r="D73" s="179"/>
       <c r="E73" s="354" t="s">
@@ -9461,9 +8726,9 @@
     </row>
     <row r="74" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A74" s="332" t="s">
-        <v>345</v>
-      </c>
-      <c r="B74" s="389"/>
+        <v>344</v>
+      </c>
+      <c r="B74" s="414"/>
       <c r="C74" s="44"/>
       <c r="D74" s="179"/>
       <c r="E74" s="354" t="s">
@@ -9494,9 +8759,9 @@
     </row>
     <row r="75" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A75" s="332" t="s">
-        <v>346</v>
-      </c>
-      <c r="B75" s="389"/>
+        <v>345</v>
+      </c>
+      <c r="B75" s="414"/>
       <c r="C75" s="44"/>
       <c r="D75" s="179"/>
       <c r="E75" s="354" t="s">
@@ -9527,16 +8792,16 @@
     </row>
     <row r="76" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A76" s="332" t="s">
-        <v>347</v>
-      </c>
-      <c r="B76" s="389"/>
+        <v>346</v>
+      </c>
+      <c r="B76" s="414"/>
       <c r="C76" s="44"/>
       <c r="D76" s="179"/>
       <c r="E76" s="354" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F76" s="355" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G76" s="306" t="s">
         <v>167</v>
@@ -9548,7 +8813,7 @@
         <v>134</v>
       </c>
       <c r="J76" s="331" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K76" s="45"/>
       <c r="L76" s="37" t="s">
@@ -9562,9 +8827,9 @@
     </row>
     <row r="77" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A77" s="332" t="s">
-        <v>348</v>
-      </c>
-      <c r="B77" s="390"/>
+        <v>347</v>
+      </c>
+      <c r="B77" s="415"/>
       <c r="C77" s="44"/>
       <c r="D77" s="179"/>
       <c r="E77" s="354" t="s">
@@ -9583,7 +8848,7 @@
         <v>134</v>
       </c>
       <c r="J77" s="331" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K77" s="45"/>
       <c r="L77" s="37" t="s">
@@ -9616,9 +8881,9 @@
     </row>
     <row r="79" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A79" s="332" t="s">
-        <v>349</v>
-      </c>
-      <c r="B79" s="391" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" s="416" t="s">
         <v>162</v>
       </c>
       <c r="C79" s="44"/>
@@ -9653,13 +8918,13 @@
     </row>
     <row r="80" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A80" s="332" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" s="392"/>
+        <v>349</v>
+      </c>
+      <c r="B80" s="417"/>
       <c r="C80" s="44"/>
       <c r="D80" s="179"/>
       <c r="E80" s="354" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F80" s="355" t="s">
         <v>164</v>
@@ -9686,13 +8951,13 @@
     </row>
     <row r="81" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A81" s="332" t="s">
-        <v>351</v>
-      </c>
-      <c r="B81" s="392"/>
+        <v>350</v>
+      </c>
+      <c r="B81" s="417"/>
       <c r="C81" s="44"/>
       <c r="D81" s="179"/>
       <c r="E81" s="354" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F81" s="355" t="s">
         <v>165</v>
@@ -9719,13 +8984,13 @@
     </row>
     <row r="82" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A82" s="332" t="s">
-        <v>352</v>
-      </c>
-      <c r="B82" s="392"/>
+        <v>351</v>
+      </c>
+      <c r="B82" s="417"/>
       <c r="C82" s="46"/>
       <c r="D82" s="179"/>
       <c r="E82" s="354" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F82" s="355" t="s">
         <v>166</v>
@@ -9752,16 +9017,16 @@
     </row>
     <row r="83" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A83" s="332" t="s">
-        <v>353</v>
-      </c>
-      <c r="B83" s="392"/>
+        <v>352</v>
+      </c>
+      <c r="B83" s="417"/>
       <c r="C83" s="362"/>
       <c r="D83" s="361"/>
       <c r="E83" s="329" t="s">
+        <v>232</v>
+      </c>
+      <c r="F83" s="355" t="s">
         <v>233</v>
-      </c>
-      <c r="F83" s="355" t="s">
-        <v>234</v>
       </c>
       <c r="G83" s="306" t="s">
         <v>167</v>
@@ -9785,9 +9050,9 @@
     </row>
     <row r="84" spans="1:29" ht="45" customHeight="1" thickBot="1">
       <c r="A84" s="332" t="s">
-        <v>354</v>
-      </c>
-      <c r="B84" s="393"/>
+        <v>353</v>
+      </c>
+      <c r="B84" s="418"/>
       <c r="C84" s="363"/>
       <c r="D84" s="361"/>
       <c r="E84" s="354" t="s">
@@ -10793,7 +10058,7 @@
       </c>
       <c r="B118" s="69"/>
       <c r="C118" s="70"/>
-      <c r="D118" s="376"/>
+      <c r="D118" s="402"/>
       <c r="E118" s="280"/>
       <c r="F118" s="211"/>
       <c r="G118" s="219"/>
@@ -10826,7 +10091,7 @@
       </c>
       <c r="B119" s="69"/>
       <c r="C119" s="70"/>
-      <c r="D119" s="377"/>
+      <c r="D119" s="403"/>
       <c r="E119" s="280"/>
       <c r="F119" s="211"/>
       <c r="G119" s="219"/>
@@ -10892,7 +10157,7 @@
       </c>
       <c r="B121" s="69"/>
       <c r="C121" s="70"/>
-      <c r="D121" s="378"/>
+      <c r="D121" s="404"/>
       <c r="E121" s="280"/>
       <c r="F121" s="211"/>
       <c r="G121" s="219"/>
@@ -10925,7 +10190,7 @@
       </c>
       <c r="B122" s="69"/>
       <c r="C122" s="70"/>
-      <c r="D122" s="379"/>
+      <c r="D122" s="405"/>
       <c r="E122" s="280"/>
       <c r="F122" s="211"/>
       <c r="G122" s="219"/>
@@ -10958,7 +10223,7 @@
       </c>
       <c r="B123" s="69"/>
       <c r="C123" s="70"/>
-      <c r="D123" s="379"/>
+      <c r="D123" s="405"/>
       <c r="E123" s="281"/>
       <c r="F123" s="173"/>
       <c r="G123" s="219"/>
@@ -10991,7 +10256,7 @@
       </c>
       <c r="B124" s="69"/>
       <c r="C124" s="70"/>
-      <c r="D124" s="379"/>
+      <c r="D124" s="405"/>
       <c r="E124" s="280"/>
       <c r="F124" s="211"/>
       <c r="G124" s="219"/>
@@ -11024,7 +10289,7 @@
       </c>
       <c r="B125" s="69"/>
       <c r="C125" s="70"/>
-      <c r="D125" s="379"/>
+      <c r="D125" s="405"/>
       <c r="E125" s="280"/>
       <c r="F125" s="211"/>
       <c r="G125" s="219"/>
@@ -11057,7 +10322,7 @@
       </c>
       <c r="B126" s="69"/>
       <c r="C126" s="70"/>
-      <c r="D126" s="379"/>
+      <c r="D126" s="405"/>
       <c r="E126" s="280"/>
       <c r="F126" s="211"/>
       <c r="G126" s="219"/>
@@ -11090,7 +10355,7 @@
       </c>
       <c r="B127" s="69"/>
       <c r="C127" s="70"/>
-      <c r="D127" s="379"/>
+      <c r="D127" s="405"/>
       <c r="E127" s="280"/>
       <c r="F127" s="211"/>
       <c r="G127" s="219"/>
@@ -11123,7 +10388,7 @@
       </c>
       <c r="B128" s="69"/>
       <c r="C128" s="70"/>
-      <c r="D128" s="379"/>
+      <c r="D128" s="405"/>
       <c r="E128" s="280"/>
       <c r="F128" s="211"/>
       <c r="G128" s="219"/>
@@ -11156,7 +10421,7 @@
       </c>
       <c r="B129" s="69"/>
       <c r="C129" s="70"/>
-      <c r="D129" s="379"/>
+      <c r="D129" s="405"/>
       <c r="E129" s="281"/>
       <c r="F129" s="173"/>
       <c r="G129" s="219"/>
@@ -11189,7 +10454,7 @@
       </c>
       <c r="B130" s="69"/>
       <c r="C130" s="70"/>
-      <c r="D130" s="379"/>
+      <c r="D130" s="405"/>
       <c r="E130" s="280"/>
       <c r="F130" s="211"/>
       <c r="G130" s="219"/>
@@ -11222,7 +10487,7 @@
       </c>
       <c r="B131" s="69"/>
       <c r="C131" s="70"/>
-      <c r="D131" s="377"/>
+      <c r="D131" s="403"/>
       <c r="E131" s="280"/>
       <c r="F131" s="211"/>
       <c r="G131" s="219"/>
@@ -11288,7 +10553,7 @@
       </c>
       <c r="B133" s="69"/>
       <c r="C133" s="70"/>
-      <c r="D133" s="380"/>
+      <c r="D133" s="406"/>
       <c r="E133" s="280"/>
       <c r="F133" s="211"/>
       <c r="G133" s="219"/>
@@ -11321,7 +10586,7 @@
       </c>
       <c r="B134" s="69"/>
       <c r="C134" s="70"/>
-      <c r="D134" s="381"/>
+      <c r="D134" s="392"/>
       <c r="E134" s="280"/>
       <c r="F134" s="211"/>
       <c r="G134" s="219"/>
@@ -11354,7 +10619,7 @@
       </c>
       <c r="B135" s="69"/>
       <c r="C135" s="70"/>
-      <c r="D135" s="381"/>
+      <c r="D135" s="392"/>
       <c r="E135" s="280"/>
       <c r="F135" s="211"/>
       <c r="G135" s="219"/>
@@ -11387,7 +10652,7 @@
       </c>
       <c r="B136" s="69"/>
       <c r="C136" s="70"/>
-      <c r="D136" s="381"/>
+      <c r="D136" s="392"/>
       <c r="E136" s="281"/>
       <c r="F136" s="173"/>
       <c r="G136" s="219"/>
@@ -11420,7 +10685,7 @@
       </c>
       <c r="B137" s="69"/>
       <c r="C137" s="70"/>
-      <c r="D137" s="381"/>
+      <c r="D137" s="392"/>
       <c r="E137" s="282"/>
       <c r="F137" s="226"/>
       <c r="G137" s="227"/>
@@ -11453,7 +10718,7 @@
       </c>
       <c r="B138" s="69"/>
       <c r="C138" s="70"/>
-      <c r="D138" s="381"/>
+      <c r="D138" s="392"/>
       <c r="E138" s="282"/>
       <c r="F138" s="229"/>
       <c r="G138" s="230"/>
@@ -11486,7 +10751,7 @@
       </c>
       <c r="B139" s="69"/>
       <c r="C139" s="70"/>
-      <c r="D139" s="381"/>
+      <c r="D139" s="392"/>
       <c r="E139" s="283"/>
       <c r="F139" s="232"/>
       <c r="G139" s="233"/>
@@ -11519,7 +10784,7 @@
       </c>
       <c r="B140" s="69"/>
       <c r="C140" s="70"/>
-      <c r="D140" s="381"/>
+      <c r="D140" s="392"/>
       <c r="E140" s="283"/>
       <c r="F140" s="232"/>
       <c r="G140" s="233"/>
@@ -11552,7 +10817,7 @@
       </c>
       <c r="B141" s="69"/>
       <c r="C141" s="70"/>
-      <c r="D141" s="381"/>
+      <c r="D141" s="392"/>
       <c r="E141" s="284"/>
       <c r="F141" s="232"/>
       <c r="G141" s="233"/>
@@ -11585,7 +10850,7 @@
       </c>
       <c r="B142" s="69"/>
       <c r="C142" s="70"/>
-      <c r="D142" s="381"/>
+      <c r="D142" s="392"/>
       <c r="E142" s="285"/>
       <c r="F142" s="229"/>
       <c r="G142" s="230"/>
@@ -11651,7 +10916,7 @@
       </c>
       <c r="B144" s="69"/>
       <c r="C144" s="70"/>
-      <c r="D144" s="394"/>
+      <c r="D144" s="388"/>
       <c r="E144" s="286"/>
       <c r="F144" s="229"/>
       <c r="G144" s="230"/>
@@ -11684,7 +10949,7 @@
       </c>
       <c r="B145" s="69"/>
       <c r="C145" s="70"/>
-      <c r="D145" s="395"/>
+      <c r="D145" s="389"/>
       <c r="E145" s="283"/>
       <c r="F145" s="232"/>
       <c r="G145" s="233"/>
@@ -11750,7 +11015,7 @@
       </c>
       <c r="B147" s="69"/>
       <c r="C147" s="70"/>
-      <c r="D147" s="394"/>
+      <c r="D147" s="388"/>
       <c r="E147" s="283"/>
       <c r="F147" s="232"/>
       <c r="G147" s="233"/>
@@ -11783,7 +11048,7 @@
       </c>
       <c r="B148" s="69"/>
       <c r="C148" s="70"/>
-      <c r="D148" s="395"/>
+      <c r="D148" s="389"/>
       <c r="E148" s="286"/>
       <c r="F148" s="232"/>
       <c r="G148" s="233"/>
@@ -11816,7 +11081,7 @@
       </c>
       <c r="B149" s="69"/>
       <c r="C149" s="70"/>
-      <c r="D149" s="395"/>
+      <c r="D149" s="389"/>
       <c r="E149" s="283"/>
       <c r="F149" s="232"/>
       <c r="G149" s="233"/>
@@ -11849,7 +11114,7 @@
       </c>
       <c r="B150" s="69"/>
       <c r="C150" s="70"/>
-      <c r="D150" s="395"/>
+      <c r="D150" s="389"/>
       <c r="E150" s="286"/>
       <c r="F150" s="229"/>
       <c r="G150" s="230"/>
@@ -11882,7 +11147,7 @@
       </c>
       <c r="B151" s="69"/>
       <c r="C151" s="70"/>
-      <c r="D151" s="395"/>
+      <c r="D151" s="389"/>
       <c r="E151" s="285"/>
       <c r="F151" s="235"/>
       <c r="G151" s="236"/>
@@ -11915,7 +11180,7 @@
       </c>
       <c r="B152" s="69"/>
       <c r="C152" s="70"/>
-      <c r="D152" s="395"/>
+      <c r="D152" s="389"/>
       <c r="E152" s="286"/>
       <c r="F152" s="238"/>
       <c r="G152" s="230"/>
@@ -11948,7 +11213,7 @@
       </c>
       <c r="B153" s="69"/>
       <c r="C153" s="70"/>
-      <c r="D153" s="396"/>
+      <c r="D153" s="390"/>
       <c r="E153" s="285"/>
       <c r="F153" s="239"/>
       <c r="G153" s="236"/>
@@ -12014,7 +11279,7 @@
       </c>
       <c r="B155" s="69"/>
       <c r="C155" s="70"/>
-      <c r="D155" s="397"/>
+      <c r="D155" s="391"/>
       <c r="E155" s="288"/>
       <c r="F155" s="240"/>
       <c r="G155" s="236"/>
@@ -12047,7 +11312,7 @@
       </c>
       <c r="B156" s="69"/>
       <c r="C156" s="70"/>
-      <c r="D156" s="381"/>
+      <c r="D156" s="392"/>
       <c r="E156" s="285"/>
       <c r="F156" s="240"/>
       <c r="G156" s="236"/>
@@ -12080,7 +11345,7 @@
       </c>
       <c r="B157" s="69"/>
       <c r="C157" s="70"/>
-      <c r="D157" s="381"/>
+      <c r="D157" s="392"/>
       <c r="E157" s="283"/>
       <c r="F157" s="232"/>
       <c r="G157" s="233"/>
@@ -12113,7 +11378,7 @@
       </c>
       <c r="B158" s="69"/>
       <c r="C158" s="70"/>
-      <c r="D158" s="381"/>
+      <c r="D158" s="392"/>
       <c r="E158" s="283"/>
       <c r="F158" s="232"/>
       <c r="G158" s="233"/>
@@ -12146,7 +11411,7 @@
       </c>
       <c r="B159" s="69"/>
       <c r="C159" s="70"/>
-      <c r="D159" s="381"/>
+      <c r="D159" s="392"/>
       <c r="E159" s="283"/>
       <c r="F159" s="232"/>
       <c r="G159" s="233"/>
@@ -12179,7 +11444,7 @@
       </c>
       <c r="B160" s="69"/>
       <c r="C160" s="70"/>
-      <c r="D160" s="381"/>
+      <c r="D160" s="392"/>
       <c r="E160" s="283"/>
       <c r="F160" s="232"/>
       <c r="G160" s="233"/>
@@ -12212,7 +11477,7 @@
       </c>
       <c r="B161" s="69"/>
       <c r="C161" s="70"/>
-      <c r="D161" s="381"/>
+      <c r="D161" s="392"/>
       <c r="E161" s="283"/>
       <c r="F161" s="232"/>
       <c r="G161" s="232"/>
@@ -12245,7 +11510,7 @@
       </c>
       <c r="B162" s="69"/>
       <c r="C162" s="70"/>
-      <c r="D162" s="381"/>
+      <c r="D162" s="392"/>
       <c r="E162" s="283"/>
       <c r="F162" s="232"/>
       <c r="G162" s="232"/>
@@ -12278,7 +11543,7 @@
       </c>
       <c r="B163" s="69"/>
       <c r="C163" s="70"/>
-      <c r="D163" s="398"/>
+      <c r="D163" s="393"/>
       <c r="E163" s="283"/>
       <c r="F163" s="232"/>
       <c r="G163" s="232"/>
@@ -12410,7 +11675,7 @@
       </c>
       <c r="B167" s="69"/>
       <c r="C167" s="87"/>
-      <c r="D167" s="394"/>
+      <c r="D167" s="388"/>
       <c r="E167" s="287"/>
       <c r="F167" s="232"/>
       <c r="G167" s="232"/>
@@ -12443,7 +11708,7 @@
       </c>
       <c r="B168" s="69"/>
       <c r="C168" s="87"/>
-      <c r="D168" s="396"/>
+      <c r="D168" s="390"/>
       <c r="E168" s="287"/>
       <c r="F168" s="232"/>
       <c r="G168" s="232"/>
@@ -13499,7 +12764,7 @@
       </c>
       <c r="B200" s="69"/>
       <c r="C200" s="87"/>
-      <c r="D200" s="406"/>
+      <c r="D200" s="384"/>
       <c r="E200" s="283"/>
       <c r="F200" s="232"/>
       <c r="G200" s="232"/>
@@ -13508,7 +12773,7 @@
       <c r="J200" s="83"/>
       <c r="K200" s="86"/>
       <c r="L200" s="81"/>
-      <c r="M200" s="409"/>
+      <c r="M200" s="387"/>
       <c r="N200" s="26"/>
       <c r="O200" s="26"/>
       <c r="P200" s="26"/>
@@ -13532,7 +12797,7 @@
       </c>
       <c r="B201" s="69"/>
       <c r="C201" s="87"/>
-      <c r="D201" s="407"/>
+      <c r="D201" s="385"/>
       <c r="E201" s="283"/>
       <c r="F201" s="232"/>
       <c r="G201" s="232"/>
@@ -13541,7 +12806,7 @@
       <c r="J201" s="83"/>
       <c r="K201" s="86"/>
       <c r="L201" s="81"/>
-      <c r="M201" s="403"/>
+      <c r="M201" s="375"/>
       <c r="N201" s="26"/>
       <c r="O201" s="26"/>
       <c r="P201" s="26"/>
@@ -13565,7 +12830,7 @@
       </c>
       <c r="B202" s="69"/>
       <c r="C202" s="87"/>
-      <c r="D202" s="407"/>
+      <c r="D202" s="385"/>
       <c r="E202" s="283"/>
       <c r="F202" s="232"/>
       <c r="G202" s="232"/>
@@ -13574,7 +12839,7 @@
       <c r="J202" s="83"/>
       <c r="K202" s="86"/>
       <c r="L202" s="81"/>
-      <c r="M202" s="403"/>
+      <c r="M202" s="375"/>
       <c r="N202" s="26"/>
       <c r="O202" s="26"/>
       <c r="P202" s="26"/>
@@ -13598,7 +12863,7 @@
       </c>
       <c r="B203" s="69"/>
       <c r="C203" s="87"/>
-      <c r="D203" s="407"/>
+      <c r="D203" s="385"/>
       <c r="E203" s="282"/>
       <c r="F203" s="232"/>
       <c r="G203" s="232"/>
@@ -13607,7 +12872,7 @@
       <c r="J203" s="83"/>
       <c r="K203" s="86"/>
       <c r="L203" s="81"/>
-      <c r="M203" s="403"/>
+      <c r="M203" s="375"/>
       <c r="N203" s="26"/>
       <c r="O203" s="26"/>
       <c r="P203" s="26"/>
@@ -13631,7 +12896,7 @@
       </c>
       <c r="B204" s="69"/>
       <c r="C204" s="87"/>
-      <c r="D204" s="407"/>
+      <c r="D204" s="385"/>
       <c r="E204" s="282"/>
       <c r="F204" s="232"/>
       <c r="G204" s="232"/>
@@ -13640,7 +12905,7 @@
       <c r="J204" s="83"/>
       <c r="K204" s="86"/>
       <c r="L204" s="81"/>
-      <c r="M204" s="403"/>
+      <c r="M204" s="375"/>
       <c r="N204" s="26"/>
       <c r="O204" s="26"/>
       <c r="P204" s="26"/>
@@ -13664,7 +12929,7 @@
       </c>
       <c r="B205" s="69"/>
       <c r="C205" s="87"/>
-      <c r="D205" s="407"/>
+      <c r="D205" s="385"/>
       <c r="E205" s="282"/>
       <c r="F205" s="232"/>
       <c r="G205" s="232"/>
@@ -13673,7 +12938,7 @@
       <c r="J205" s="83"/>
       <c r="K205" s="86"/>
       <c r="L205" s="81"/>
-      <c r="M205" s="403"/>
+      <c r="M205" s="375"/>
       <c r="N205" s="26"/>
       <c r="O205" s="26"/>
       <c r="P205" s="26"/>
@@ -13697,7 +12962,7 @@
       </c>
       <c r="B206" s="69"/>
       <c r="C206" s="87"/>
-      <c r="D206" s="407"/>
+      <c r="D206" s="385"/>
       <c r="E206" s="282"/>
       <c r="F206" s="232"/>
       <c r="G206" s="232"/>
@@ -13706,7 +12971,7 @@
       <c r="J206" s="83"/>
       <c r="K206" s="86"/>
       <c r="L206" s="81"/>
-      <c r="M206" s="403"/>
+      <c r="M206" s="375"/>
       <c r="N206" s="26"/>
       <c r="O206" s="26"/>
       <c r="P206" s="26"/>
@@ -13730,7 +12995,7 @@
       </c>
       <c r="B207" s="69"/>
       <c r="C207" s="87"/>
-      <c r="D207" s="407"/>
+      <c r="D207" s="385"/>
       <c r="E207" s="283"/>
       <c r="F207" s="232"/>
       <c r="G207" s="232"/>
@@ -13739,7 +13004,7 @@
       <c r="J207" s="83"/>
       <c r="K207" s="86"/>
       <c r="L207" s="81"/>
-      <c r="M207" s="404"/>
+      <c r="M207" s="373"/>
       <c r="N207" s="26"/>
       <c r="O207" s="26"/>
       <c r="P207" s="26"/>
@@ -13763,7 +13028,7 @@
       </c>
       <c r="B208" s="69"/>
       <c r="C208" s="87"/>
-      <c r="D208" s="407"/>
+      <c r="D208" s="385"/>
       <c r="E208" s="283"/>
       <c r="F208" s="232"/>
       <c r="G208" s="232"/>
@@ -13796,7 +13061,7 @@
       </c>
       <c r="B209" s="69"/>
       <c r="C209" s="87"/>
-      <c r="D209" s="407"/>
+      <c r="D209" s="385"/>
       <c r="E209" s="283"/>
       <c r="F209" s="232"/>
       <c r="G209" s="232"/>
@@ -13829,7 +13094,7 @@
       </c>
       <c r="B210" s="69"/>
       <c r="C210" s="87"/>
-      <c r="D210" s="408"/>
+      <c r="D210" s="386"/>
       <c r="E210" s="283"/>
       <c r="F210" s="232"/>
       <c r="G210" s="232"/>
@@ -13895,7 +13160,7 @@
       </c>
       <c r="B212" s="97"/>
       <c r="C212" s="98"/>
-      <c r="D212" s="399"/>
+      <c r="D212" s="394"/>
       <c r="E212" s="283"/>
       <c r="F212" s="232"/>
       <c r="G212" s="244"/>
@@ -13928,7 +13193,7 @@
       </c>
       <c r="B213" s="81"/>
       <c r="C213" s="100"/>
-      <c r="D213" s="400"/>
+      <c r="D213" s="395"/>
       <c r="E213" s="283"/>
       <c r="F213" s="232"/>
       <c r="G213" s="244"/>
@@ -13961,7 +13226,7 @@
       </c>
       <c r="B214" s="81"/>
       <c r="C214" s="100"/>
-      <c r="D214" s="400"/>
+      <c r="D214" s="395"/>
       <c r="E214" s="283"/>
       <c r="F214" s="232"/>
       <c r="G214" s="244"/>
@@ -13994,7 +13259,7 @@
       </c>
       <c r="B215" s="81"/>
       <c r="C215" s="98"/>
-      <c r="D215" s="400"/>
+      <c r="D215" s="395"/>
       <c r="E215" s="283"/>
       <c r="F215" s="232"/>
       <c r="G215" s="244"/>
@@ -14027,7 +13292,7 @@
       </c>
       <c r="B216" s="97"/>
       <c r="C216" s="98"/>
-      <c r="D216" s="400"/>
+      <c r="D216" s="395"/>
       <c r="E216" s="283"/>
       <c r="F216" s="232"/>
       <c r="G216" s="244"/>
@@ -14060,7 +13325,7 @@
       </c>
       <c r="B217" s="97"/>
       <c r="C217" s="98"/>
-      <c r="D217" s="400"/>
+      <c r="D217" s="395"/>
       <c r="E217" s="283"/>
       <c r="F217" s="232"/>
       <c r="G217" s="244"/>
@@ -14093,7 +13358,7 @@
       </c>
       <c r="B218" s="97"/>
       <c r="C218" s="98"/>
-      <c r="D218" s="400"/>
+      <c r="D218" s="395"/>
       <c r="E218" s="283"/>
       <c r="F218" s="232"/>
       <c r="G218" s="244"/>
@@ -14126,7 +13391,7 @@
       </c>
       <c r="B219" s="97"/>
       <c r="C219" s="98"/>
-      <c r="D219" s="400"/>
+      <c r="D219" s="395"/>
       <c r="E219" s="283"/>
       <c r="F219" s="232"/>
       <c r="G219" s="244"/>
@@ -14159,7 +13424,7 @@
       </c>
       <c r="B220" s="97"/>
       <c r="C220" s="98"/>
-      <c r="D220" s="401"/>
+      <c r="D220" s="396"/>
       <c r="E220" s="283"/>
       <c r="F220" s="232"/>
       <c r="G220" s="244"/>
@@ -15585,8 +14850,8 @@
       <c r="H263" s="257"/>
       <c r="I263" s="258"/>
       <c r="J263" s="112"/>
-      <c r="K263" s="402"/>
-      <c r="L263" s="409"/>
+      <c r="K263" s="372"/>
+      <c r="L263" s="387"/>
       <c r="M263" s="107"/>
       <c r="N263" s="26"/>
       <c r="O263" s="26"/>
@@ -15618,8 +14883,8 @@
       <c r="H264" s="260"/>
       <c r="I264" s="261"/>
       <c r="J264" s="114"/>
-      <c r="K264" s="403"/>
-      <c r="L264" s="403"/>
+      <c r="K264" s="375"/>
+      <c r="L264" s="375"/>
       <c r="M264" s="107"/>
       <c r="N264" s="26"/>
       <c r="O264" s="26"/>
@@ -15651,8 +14916,8 @@
       <c r="H265" s="228"/>
       <c r="I265" s="227"/>
       <c r="J265" s="75"/>
-      <c r="K265" s="404"/>
-      <c r="L265" s="404"/>
+      <c r="K265" s="373"/>
+      <c r="L265" s="373"/>
       <c r="M265" s="107"/>
       <c r="N265" s="26"/>
       <c r="O265" s="26"/>
@@ -15874,9 +15139,9 @@
         <v>255</v>
       </c>
       <c r="B272" s="111"/>
-      <c r="C272" s="410"/>
+      <c r="C272" s="374"/>
       <c r="D272" s="201"/>
-      <c r="E272" s="411"/>
+      <c r="E272" s="380"/>
       <c r="F272" s="232"/>
       <c r="G272" s="232"/>
       <c r="H272" s="234"/>
@@ -15907,9 +15172,9 @@
         <v>256</v>
       </c>
       <c r="B273" s="111"/>
-      <c r="C273" s="403"/>
+      <c r="C273" s="375"/>
       <c r="D273" s="201"/>
-      <c r="E273" s="412"/>
+      <c r="E273" s="381"/>
       <c r="F273" s="232"/>
       <c r="G273" s="232"/>
       <c r="H273" s="234"/>
@@ -15940,9 +15205,9 @@
         <v>257</v>
       </c>
       <c r="B274" s="111"/>
-      <c r="C274" s="403"/>
+      <c r="C274" s="375"/>
       <c r="D274" s="201"/>
-      <c r="E274" s="413"/>
+      <c r="E274" s="382"/>
       <c r="F274" s="232"/>
       <c r="G274" s="232"/>
       <c r="H274" s="234"/>
@@ -15973,7 +15238,7 @@
         <v>258</v>
       </c>
       <c r="B275" s="111"/>
-      <c r="C275" s="403"/>
+      <c r="C275" s="375"/>
       <c r="D275" s="201"/>
       <c r="E275" s="283"/>
       <c r="F275" s="232"/>
@@ -16006,7 +15271,7 @@
         <v>259</v>
       </c>
       <c r="B276" s="111"/>
-      <c r="C276" s="403"/>
+      <c r="C276" s="375"/>
       <c r="D276" s="201"/>
       <c r="E276" s="283"/>
       <c r="F276" s="232"/>
@@ -16039,7 +15304,7 @@
         <v>260</v>
       </c>
       <c r="B277" s="111"/>
-      <c r="C277" s="403"/>
+      <c r="C277" s="375"/>
       <c r="D277" s="201"/>
       <c r="E277" s="283"/>
       <c r="F277" s="253"/>
@@ -16072,7 +15337,7 @@
         <v>261</v>
       </c>
       <c r="B278" s="111"/>
-      <c r="C278" s="404"/>
+      <c r="C278" s="373"/>
       <c r="D278" s="201"/>
       <c r="E278" s="283"/>
       <c r="F278" s="232"/>
@@ -16105,7 +15370,7 @@
         <v>262</v>
       </c>
       <c r="B279" s="111"/>
-      <c r="C279" s="410"/>
+      <c r="C279" s="374"/>
       <c r="D279" s="204"/>
       <c r="E279" s="283"/>
       <c r="F279" s="253"/>
@@ -16138,7 +15403,7 @@
         <v>263</v>
       </c>
       <c r="B280" s="111"/>
-      <c r="C280" s="404"/>
+      <c r="C280" s="373"/>
       <c r="D280" s="205"/>
       <c r="E280" s="283"/>
       <c r="F280" s="253"/>
@@ -16204,7 +15469,7 @@
         <v>265</v>
       </c>
       <c r="B282" s="111"/>
-      <c r="C282" s="410"/>
+      <c r="C282" s="374"/>
       <c r="D282" s="204"/>
       <c r="E282" s="283"/>
       <c r="F282" s="232"/>
@@ -16237,7 +15502,7 @@
         <v>266</v>
       </c>
       <c r="B283" s="111"/>
-      <c r="C283" s="403"/>
+      <c r="C283" s="375"/>
       <c r="D283" s="202"/>
       <c r="E283" s="283"/>
       <c r="F283" s="232"/>
@@ -16270,7 +15535,7 @@
         <v>267</v>
       </c>
       <c r="B284" s="111"/>
-      <c r="C284" s="403"/>
+      <c r="C284" s="375"/>
       <c r="D284" s="202"/>
       <c r="E284" s="283"/>
       <c r="F284" s="232"/>
@@ -16303,7 +15568,7 @@
         <v>268</v>
       </c>
       <c r="B285" s="111"/>
-      <c r="C285" s="403"/>
+      <c r="C285" s="375"/>
       <c r="D285" s="202"/>
       <c r="E285" s="283"/>
       <c r="F285" s="253"/>
@@ -16336,7 +15601,7 @@
         <v>269</v>
       </c>
       <c r="B286" s="111"/>
-      <c r="C286" s="404"/>
+      <c r="C286" s="373"/>
       <c r="D286" s="202"/>
       <c r="E286" s="284"/>
       <c r="F286" s="232"/>
@@ -16740,7 +16005,7 @@
       <c r="H298" s="254"/>
       <c r="I298" s="255"/>
       <c r="J298" s="83"/>
-      <c r="K298" s="405"/>
+      <c r="K298" s="383"/>
       <c r="L298" s="81"/>
       <c r="M298" s="89"/>
       <c r="N298" s="26"/>
@@ -16773,7 +16038,7 @@
       <c r="H299" s="254"/>
       <c r="I299" s="255"/>
       <c r="J299" s="83"/>
-      <c r="K299" s="404"/>
+      <c r="K299" s="373"/>
       <c r="L299" s="81"/>
       <c r="M299" s="89"/>
       <c r="N299" s="26"/>
@@ -16864,7 +16129,7 @@
         <v>285</v>
       </c>
       <c r="B302" s="111"/>
-      <c r="C302" s="410"/>
+      <c r="C302" s="374"/>
       <c r="D302" s="204"/>
       <c r="E302" s="283"/>
       <c r="F302" s="253"/>
@@ -16872,7 +16137,7 @@
       <c r="H302" s="254"/>
       <c r="I302" s="255"/>
       <c r="J302" s="83"/>
-      <c r="K302" s="402"/>
+      <c r="K302" s="372"/>
       <c r="L302" s="81"/>
       <c r="M302" s="89"/>
       <c r="N302" s="26"/>
@@ -16897,7 +16162,7 @@
         <v>286</v>
       </c>
       <c r="B303" s="111"/>
-      <c r="C303" s="404"/>
+      <c r="C303" s="373"/>
       <c r="D303" s="205"/>
       <c r="E303" s="283"/>
       <c r="F303" s="253"/>
@@ -16905,7 +16170,7 @@
       <c r="H303" s="254"/>
       <c r="I303" s="255"/>
       <c r="J303" s="83"/>
-      <c r="K303" s="404"/>
+      <c r="K303" s="373"/>
       <c r="L303" s="81"/>
       <c r="M303" s="89"/>
       <c r="N303" s="26"/>
@@ -16930,7 +16195,7 @@
         <v>287</v>
       </c>
       <c r="B304" s="111"/>
-      <c r="C304" s="410"/>
+      <c r="C304" s="374"/>
       <c r="D304" s="206"/>
       <c r="E304" s="283"/>
       <c r="F304" s="232"/>
@@ -16963,7 +16228,7 @@
         <v>288</v>
       </c>
       <c r="B305" s="111"/>
-      <c r="C305" s="404"/>
+      <c r="C305" s="373"/>
       <c r="D305" s="207"/>
       <c r="E305" s="283"/>
       <c r="F305" s="232"/>
@@ -17029,7 +16294,7 @@
         <v>290</v>
       </c>
       <c r="B307" s="111"/>
-      <c r="C307" s="410"/>
+      <c r="C307" s="374"/>
       <c r="D307" s="204"/>
       <c r="E307" s="283"/>
       <c r="F307" s="232"/>
@@ -17062,7 +16327,7 @@
         <v>291</v>
       </c>
       <c r="B308" s="111"/>
-      <c r="C308" s="403"/>
+      <c r="C308" s="375"/>
       <c r="D308" s="202"/>
       <c r="E308" s="283"/>
       <c r="F308" s="232"/>
@@ -17095,7 +16360,7 @@
         <v>292</v>
       </c>
       <c r="B309" s="111"/>
-      <c r="C309" s="404"/>
+      <c r="C309" s="373"/>
       <c r="D309" s="205"/>
       <c r="E309" s="283"/>
       <c r="F309" s="232"/>
@@ -17292,10 +16557,10 @@
       <c r="A315" s="34">
         <v>298</v>
       </c>
-      <c r="B315" s="414"/>
-      <c r="C315" s="410"/>
+      <c r="B315" s="376"/>
+      <c r="C315" s="374"/>
       <c r="D315" s="201"/>
-      <c r="E315" s="415"/>
+      <c r="E315" s="377"/>
       <c r="F315" s="232"/>
       <c r="G315" s="232"/>
       <c r="H315" s="234"/>
@@ -17325,10 +16590,10 @@
       <c r="A316" s="34">
         <v>299</v>
       </c>
-      <c r="B316" s="403"/>
-      <c r="C316" s="403"/>
+      <c r="B316" s="375"/>
+      <c r="C316" s="375"/>
       <c r="D316" s="201"/>
-      <c r="E316" s="416"/>
+      <c r="E316" s="378"/>
       <c r="F316" s="232"/>
       <c r="G316" s="232"/>
       <c r="H316" s="234"/>
@@ -17358,10 +16623,10 @@
       <c r="A317" s="34">
         <v>300</v>
       </c>
-      <c r="B317" s="403"/>
-      <c r="C317" s="403"/>
+      <c r="B317" s="375"/>
+      <c r="C317" s="375"/>
       <c r="D317" s="201"/>
-      <c r="E317" s="416"/>
+      <c r="E317" s="378"/>
       <c r="F317" s="232"/>
       <c r="G317" s="232"/>
       <c r="H317" s="234"/>
@@ -17391,10 +16656,10 @@
       <c r="A318" s="34">
         <v>301</v>
       </c>
-      <c r="B318" s="403"/>
-      <c r="C318" s="403"/>
+      <c r="B318" s="375"/>
+      <c r="C318" s="375"/>
       <c r="D318" s="201"/>
-      <c r="E318" s="416"/>
+      <c r="E318" s="378"/>
       <c r="F318" s="232"/>
       <c r="G318" s="232"/>
       <c r="H318" s="234"/>
@@ -17424,10 +16689,10 @@
       <c r="A319" s="34">
         <v>302</v>
       </c>
-      <c r="B319" s="403"/>
-      <c r="C319" s="403"/>
+      <c r="B319" s="375"/>
+      <c r="C319" s="375"/>
       <c r="D319" s="201"/>
-      <c r="E319" s="416"/>
+      <c r="E319" s="378"/>
       <c r="F319" s="232"/>
       <c r="G319" s="232"/>
       <c r="H319" s="234"/>
@@ -17457,10 +16722,10 @@
       <c r="A320" s="34">
         <v>303</v>
       </c>
-      <c r="B320" s="403"/>
-      <c r="C320" s="403"/>
+      <c r="B320" s="375"/>
+      <c r="C320" s="375"/>
       <c r="D320" s="201"/>
-      <c r="E320" s="416"/>
+      <c r="E320" s="378"/>
       <c r="F320" s="253"/>
       <c r="G320" s="253"/>
       <c r="H320" s="254"/>
@@ -17490,10 +16755,10 @@
       <c r="A321" s="34">
         <v>304</v>
       </c>
-      <c r="B321" s="403"/>
-      <c r="C321" s="403"/>
+      <c r="B321" s="375"/>
+      <c r="C321" s="375"/>
       <c r="D321" s="201"/>
-      <c r="E321" s="416"/>
+      <c r="E321" s="378"/>
       <c r="F321" s="232"/>
       <c r="G321" s="232"/>
       <c r="H321" s="234"/>
@@ -17523,10 +16788,10 @@
       <c r="A322" s="34">
         <v>305</v>
       </c>
-      <c r="B322" s="403"/>
-      <c r="C322" s="403"/>
+      <c r="B322" s="375"/>
+      <c r="C322" s="375"/>
       <c r="D322" s="201"/>
-      <c r="E322" s="417"/>
+      <c r="E322" s="379"/>
       <c r="F322" s="232"/>
       <c r="G322" s="232"/>
       <c r="H322" s="234"/>
@@ -17556,8 +16821,8 @@
       <c r="A323" s="34">
         <v>306</v>
       </c>
-      <c r="B323" s="403"/>
-      <c r="C323" s="403"/>
+      <c r="B323" s="375"/>
+      <c r="C323" s="375"/>
       <c r="D323" s="201"/>
       <c r="E323" s="212"/>
       <c r="F323" s="265"/>
@@ -17589,8 +16854,8 @@
       <c r="A324" s="34">
         <v>307</v>
       </c>
-      <c r="B324" s="403"/>
-      <c r="C324" s="403"/>
+      <c r="B324" s="375"/>
+      <c r="C324" s="375"/>
       <c r="D324" s="201"/>
       <c r="E324" s="212"/>
       <c r="F324" s="253"/>
@@ -17622,10 +16887,10 @@
       <c r="A325" s="34">
         <v>308</v>
       </c>
-      <c r="B325" s="403"/>
-      <c r="C325" s="403"/>
+      <c r="B325" s="375"/>
+      <c r="C325" s="375"/>
       <c r="D325" s="206"/>
-      <c r="E325" s="415"/>
+      <c r="E325" s="377"/>
       <c r="F325" s="232"/>
       <c r="G325" s="232"/>
       <c r="H325" s="234"/>
@@ -17655,10 +16920,10 @@
       <c r="A326" s="34">
         <v>309</v>
       </c>
-      <c r="B326" s="403"/>
-      <c r="C326" s="403"/>
+      <c r="B326" s="375"/>
+      <c r="C326" s="375"/>
       <c r="D326" s="200"/>
-      <c r="E326" s="416"/>
+      <c r="E326" s="378"/>
       <c r="F326" s="253"/>
       <c r="G326" s="253"/>
       <c r="H326" s="254"/>
@@ -17688,10 +16953,10 @@
       <c r="A327" s="34">
         <v>310</v>
       </c>
-      <c r="B327" s="403"/>
-      <c r="C327" s="403"/>
+      <c r="B327" s="375"/>
+      <c r="C327" s="375"/>
       <c r="D327" s="200"/>
-      <c r="E327" s="416"/>
+      <c r="E327" s="378"/>
       <c r="F327" s="253"/>
       <c r="G327" s="253"/>
       <c r="H327" s="254"/>
@@ -17721,10 +16986,10 @@
       <c r="A328" s="34">
         <v>311</v>
       </c>
-      <c r="B328" s="403"/>
-      <c r="C328" s="404"/>
+      <c r="B328" s="375"/>
+      <c r="C328" s="373"/>
       <c r="D328" s="207"/>
-      <c r="E328" s="417"/>
+      <c r="E328" s="379"/>
       <c r="F328" s="253"/>
       <c r="G328" s="253"/>
       <c r="H328" s="254"/>
@@ -17754,7 +17019,7 @@
       <c r="A329" s="34">
         <v>312</v>
       </c>
-      <c r="B329" s="403"/>
+      <c r="B329" s="375"/>
       <c r="C329" s="98"/>
       <c r="D329" s="200"/>
       <c r="E329" s="213"/>
@@ -17787,10 +17052,10 @@
       <c r="A330" s="34">
         <v>313</v>
       </c>
-      <c r="B330" s="403"/>
-      <c r="C330" s="410"/>
+      <c r="B330" s="375"/>
+      <c r="C330" s="374"/>
       <c r="D330" s="206"/>
-      <c r="E330" s="415"/>
+      <c r="E330" s="377"/>
       <c r="F330" s="232"/>
       <c r="G330" s="232"/>
       <c r="H330" s="234"/>
@@ -17820,10 +17085,10 @@
       <c r="A331" s="34">
         <v>314</v>
       </c>
-      <c r="B331" s="403"/>
-      <c r="C331" s="403"/>
+      <c r="B331" s="375"/>
+      <c r="C331" s="375"/>
       <c r="D331" s="207"/>
-      <c r="E331" s="417"/>
+      <c r="E331" s="379"/>
       <c r="F331" s="232"/>
       <c r="G331" s="232"/>
       <c r="H331" s="234"/>
@@ -17853,10 +17118,10 @@
       <c r="A332" s="34">
         <v>315</v>
       </c>
-      <c r="B332" s="403"/>
-      <c r="C332" s="403"/>
+      <c r="B332" s="375"/>
+      <c r="C332" s="375"/>
       <c r="D332" s="201"/>
-      <c r="E332" s="415"/>
+      <c r="E332" s="377"/>
       <c r="F332" s="232"/>
       <c r="G332" s="232"/>
       <c r="H332" s="234"/>
@@ -17886,10 +17151,10 @@
       <c r="A333" s="34">
         <v>316</v>
       </c>
-      <c r="B333" s="403"/>
-      <c r="C333" s="404"/>
+      <c r="B333" s="375"/>
+      <c r="C333" s="373"/>
       <c r="D333" s="201"/>
-      <c r="E333" s="417"/>
+      <c r="E333" s="379"/>
       <c r="F333" s="232"/>
       <c r="G333" s="232"/>
       <c r="H333" s="234"/>
@@ -17919,7 +17184,7 @@
       <c r="A334" s="34">
         <v>317</v>
       </c>
-      <c r="B334" s="403"/>
+      <c r="B334" s="375"/>
       <c r="C334" s="98"/>
       <c r="D334" s="201"/>
       <c r="E334" s="212"/>
@@ -17952,10 +17217,10 @@
       <c r="A335" s="34">
         <v>318</v>
       </c>
-      <c r="B335" s="403"/>
-      <c r="C335" s="410"/>
+      <c r="B335" s="375"/>
+      <c r="C335" s="374"/>
       <c r="D335" s="206"/>
-      <c r="E335" s="415"/>
+      <c r="E335" s="377"/>
       <c r="F335" s="232"/>
       <c r="G335" s="232"/>
       <c r="H335" s="234"/>
@@ -17985,10 +17250,10 @@
       <c r="A336" s="34">
         <v>319</v>
       </c>
-      <c r="B336" s="403"/>
-      <c r="C336" s="403"/>
+      <c r="B336" s="375"/>
+      <c r="C336" s="375"/>
       <c r="D336" s="200"/>
-      <c r="E336" s="416"/>
+      <c r="E336" s="378"/>
       <c r="F336" s="232"/>
       <c r="G336" s="232"/>
       <c r="H336" s="234"/>
@@ -18018,10 +17283,10 @@
       <c r="A337" s="34">
         <v>320</v>
       </c>
-      <c r="B337" s="403"/>
-      <c r="C337" s="403"/>
+      <c r="B337" s="375"/>
+      <c r="C337" s="375"/>
       <c r="D337" s="99"/>
-      <c r="E337" s="416"/>
+      <c r="E337" s="378"/>
       <c r="F337" s="232"/>
       <c r="G337" s="232"/>
       <c r="H337" s="234"/>
@@ -18051,10 +17316,10 @@
       <c r="A338" s="34">
         <v>321</v>
       </c>
-      <c r="B338" s="403"/>
-      <c r="C338" s="403"/>
+      <c r="B338" s="375"/>
+      <c r="C338" s="375"/>
       <c r="D338" s="99"/>
-      <c r="E338" s="416"/>
+      <c r="E338" s="378"/>
       <c r="F338" s="232"/>
       <c r="G338" s="232"/>
       <c r="H338" s="234"/>
@@ -18084,10 +17349,10 @@
       <c r="A339" s="34">
         <v>322</v>
       </c>
-      <c r="B339" s="403"/>
-      <c r="C339" s="403"/>
+      <c r="B339" s="375"/>
+      <c r="C339" s="375"/>
       <c r="D339" s="99"/>
-      <c r="E339" s="416"/>
+      <c r="E339" s="378"/>
       <c r="F339" s="232"/>
       <c r="G339" s="232"/>
       <c r="H339" s="234"/>
@@ -18117,10 +17382,10 @@
       <c r="A340" s="34">
         <v>323</v>
       </c>
-      <c r="B340" s="403"/>
-      <c r="C340" s="403"/>
+      <c r="B340" s="375"/>
+      <c r="C340" s="375"/>
       <c r="D340" s="118"/>
-      <c r="E340" s="417"/>
+      <c r="E340" s="379"/>
       <c r="F340" s="232"/>
       <c r="G340" s="232"/>
       <c r="H340" s="234"/>
@@ -18150,10 +17415,10 @@
       <c r="A341" s="34">
         <v>324</v>
       </c>
-      <c r="B341" s="403"/>
-      <c r="C341" s="403"/>
+      <c r="B341" s="375"/>
+      <c r="C341" s="375"/>
       <c r="D341" s="110"/>
-      <c r="E341" s="415"/>
+      <c r="E341" s="377"/>
       <c r="F341" s="232"/>
       <c r="G341" s="232"/>
       <c r="H341" s="234"/>
@@ -18183,10 +17448,10 @@
       <c r="A342" s="34">
         <v>325</v>
       </c>
-      <c r="B342" s="403"/>
-      <c r="C342" s="403"/>
+      <c r="B342" s="375"/>
+      <c r="C342" s="375"/>
       <c r="D342" s="99"/>
-      <c r="E342" s="416"/>
+      <c r="E342" s="378"/>
       <c r="F342" s="253"/>
       <c r="G342" s="253"/>
       <c r="H342" s="254"/>
@@ -18216,10 +17481,10 @@
       <c r="A343" s="34">
         <v>326</v>
       </c>
-      <c r="B343" s="403"/>
-      <c r="C343" s="403"/>
+      <c r="B343" s="375"/>
+      <c r="C343" s="375"/>
       <c r="D343" s="99"/>
-      <c r="E343" s="416"/>
+      <c r="E343" s="378"/>
       <c r="F343" s="253"/>
       <c r="G343" s="253"/>
       <c r="H343" s="254"/>
@@ -18249,10 +17514,10 @@
       <c r="A344" s="34">
         <v>327</v>
       </c>
-      <c r="B344" s="404"/>
-      <c r="C344" s="404"/>
+      <c r="B344" s="373"/>
+      <c r="C344" s="373"/>
       <c r="D344" s="118"/>
-      <c r="E344" s="417"/>
+      <c r="E344" s="379"/>
       <c r="F344" s="253"/>
       <c r="G344" s="253"/>
       <c r="H344" s="254"/>
@@ -22118,6 +21383,38 @@
     <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D121:D131"/>
+    <mergeCell ref="D133:D142"/>
+    <mergeCell ref="B9:B31"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="B48:B60"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D147:D153"/>
+    <mergeCell ref="D155:D163"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D212:D220"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="D200:D210"/>
+    <mergeCell ref="M200:M207"/>
+    <mergeCell ref="L263:L265"/>
+    <mergeCell ref="C272:C278"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="C315:C328"/>
+    <mergeCell ref="C302:C303"/>
     <mergeCell ref="K302:K303"/>
     <mergeCell ref="C304:C305"/>
     <mergeCell ref="C307:C309"/>
@@ -22130,38 +21427,6 @@
     <mergeCell ref="E332:E333"/>
     <mergeCell ref="E325:E328"/>
     <mergeCell ref="E335:E340"/>
-    <mergeCell ref="C272:C278"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="C315:C328"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="K298:K299"/>
-    <mergeCell ref="D200:D210"/>
-    <mergeCell ref="M200:M207"/>
-    <mergeCell ref="L263:L265"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D147:D153"/>
-    <mergeCell ref="D155:D163"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D212:D220"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D121:D131"/>
-    <mergeCell ref="D133:D142"/>
-    <mergeCell ref="B9:B31"/>
-    <mergeCell ref="B32:B46"/>
-    <mergeCell ref="B48:B60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="72" type="noConversion"/>
   <conditionalFormatting sqref="L8:L84">
@@ -22319,14 +21584,14 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B4" s="418" t="s">
+      <c r="B4" s="444" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="419"/>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="368"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="421"/>
       <c r="J4" s="142" t="s">
         <v>41</v>
       </c>
@@ -22336,25 +21601,25 @@
       <c r="B5" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="420" t="s">
+      <c r="C5" s="446" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="421"/>
-      <c r="E5" s="421"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="422"/>
+      <c r="D5" s="447"/>
+      <c r="E5" s="447"/>
+      <c r="F5" s="447"/>
+      <c r="G5" s="448"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="336" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="423" t="s">
+      <c r="C6" s="449" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="424"/>
-      <c r="E6" s="424"/>
-      <c r="F6" s="424"/>
-      <c r="G6" s="425"/>
+      <c r="D6" s="439"/>
+      <c r="E6" s="439"/>
+      <c r="F6" s="439"/>
+      <c r="G6" s="450"/>
       <c r="I6" s="143" t="s">
         <v>44</v>
       </c>
@@ -22367,13 +21632,13 @@
       <c r="B7" s="337" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="427" t="s">
+      <c r="C7" s="452" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="428"/>
-      <c r="E7" s="428"/>
-      <c r="F7" s="428"/>
-      <c r="G7" s="429"/>
+      <c r="D7" s="453"/>
+      <c r="E7" s="453"/>
+      <c r="F7" s="453"/>
+      <c r="G7" s="454"/>
       <c r="I7" s="143"/>
       <c r="J7" s="143"/>
       <c r="L7" s="145"/>
@@ -22382,13 +21647,13 @@
       <c r="B8" s="335" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="426">
+      <c r="C8" s="451">
         <v>1</v>
       </c>
-      <c r="D8" s="421"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="421"/>
-      <c r="G8" s="422"/>
+      <c r="D8" s="447"/>
+      <c r="E8" s="447"/>
+      <c r="F8" s="447"/>
+      <c r="G8" s="448"/>
       <c r="I8" s="146">
         <f>C14</f>
         <v>51</v>
@@ -22401,13 +21666,13 @@
       <c r="B9" s="335" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="420" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="421"/>
-      <c r="E9" s="421"/>
-      <c r="F9" s="421"/>
-      <c r="G9" s="422"/>
+      <c r="C9" s="446" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="447"/>
+      <c r="E9" s="447"/>
+      <c r="F9" s="447"/>
+      <c r="G9" s="448"/>
       <c r="I9" s="146">
         <f>D14</f>
         <v>25</v>
@@ -22417,13 +21682,13 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="439" t="s">
+      <c r="B10" s="438" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="424"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="424"/>
-      <c r="F10" s="424"/>
+      <c r="C10" s="439"/>
+      <c r="D10" s="439"/>
+      <c r="E10" s="439"/>
+      <c r="F10" s="439"/>
       <c r="G10" s="440"/>
       <c r="I10" s="146">
         <f>E14</f>
@@ -22434,12 +21699,12 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B11" s="436"/>
-      <c r="C11" s="437"/>
-      <c r="D11" s="437"/>
-      <c r="E11" s="437"/>
-      <c r="F11" s="437"/>
-      <c r="G11" s="438"/>
+      <c r="B11" s="430"/>
+      <c r="C11" s="431"/>
+      <c r="D11" s="431"/>
+      <c r="E11" s="431"/>
+      <c r="F11" s="431"/>
+      <c r="G11" s="432"/>
       <c r="I11" s="146">
         <f>F14</f>
         <v>0</v>
@@ -22576,16 +21841,16 @@
       <c r="R17" s="159"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="445"/>
+      <c r="B18" s="443"/>
       <c r="C18" s="441" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="444" t="s">
+      <c r="D18" s="442" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="431"/>
-      <c r="F18" s="431"/>
-      <c r="G18" s="432"/>
+      <c r="E18" s="425"/>
+      <c r="F18" s="425"/>
+      <c r="G18" s="426"/>
       <c r="L18" s="150"/>
       <c r="M18" s="150"/>
       <c r="N18" s="150"/>
@@ -22595,294 +21860,294 @@
       <c r="R18" s="150"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="442"/>
-      <c r="C19" s="442"/>
-      <c r="D19" s="433"/>
-      <c r="E19" s="434"/>
-      <c r="F19" s="434"/>
-      <c r="G19" s="435"/>
+      <c r="B19" s="434"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="427"/>
+      <c r="E19" s="428"/>
+      <c r="F19" s="428"/>
+      <c r="G19" s="429"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="442"/>
-      <c r="C20" s="442"/>
-      <c r="D20" s="433"/>
-      <c r="E20" s="434"/>
-      <c r="F20" s="434"/>
-      <c r="G20" s="435"/>
+      <c r="B20" s="434"/>
+      <c r="C20" s="434"/>
+      <c r="D20" s="427"/>
+      <c r="E20" s="428"/>
+      <c r="F20" s="428"/>
+      <c r="G20" s="429"/>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="443"/>
-      <c r="C21" s="443"/>
-      <c r="D21" s="436"/>
-      <c r="E21" s="437"/>
-      <c r="F21" s="437"/>
-      <c r="G21" s="438"/>
+      <c r="B21" s="435"/>
+      <c r="C21" s="435"/>
+      <c r="D21" s="430"/>
+      <c r="E21" s="431"/>
+      <c r="F21" s="431"/>
+      <c r="G21" s="432"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B22" s="446" t="s">
+      <c r="B22" s="433" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="447" t="s">
+      <c r="C22" s="437" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="430" t="s">
+      <c r="D22" s="424" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="431"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="432"/>
+      <c r="E22" s="425"/>
+      <c r="F22" s="425"/>
+      <c r="G22" s="426"/>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="442"/>
-      <c r="C23" s="442"/>
-      <c r="D23" s="433"/>
-      <c r="E23" s="434"/>
-      <c r="F23" s="434"/>
-      <c r="G23" s="435"/>
+      <c r="B23" s="434"/>
+      <c r="C23" s="434"/>
+      <c r="D23" s="427"/>
+      <c r="E23" s="428"/>
+      <c r="F23" s="428"/>
+      <c r="G23" s="429"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="442"/>
-      <c r="C24" s="442"/>
-      <c r="D24" s="433"/>
-      <c r="E24" s="434"/>
-      <c r="F24" s="434"/>
-      <c r="G24" s="435"/>
+      <c r="B24" s="434"/>
+      <c r="C24" s="434"/>
+      <c r="D24" s="427"/>
+      <c r="E24" s="428"/>
+      <c r="F24" s="428"/>
+      <c r="G24" s="429"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="443"/>
-      <c r="C25" s="443"/>
-      <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="438"/>
+      <c r="B25" s="435"/>
+      <c r="C25" s="435"/>
+      <c r="D25" s="430"/>
+      <c r="E25" s="431"/>
+      <c r="F25" s="431"/>
+      <c r="G25" s="432"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="446" t="s">
+      <c r="B26" s="433" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="447" t="s">
+      <c r="C26" s="437" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="430" t="s">
+      <c r="D26" s="424" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="431"/>
-      <c r="F26" s="431"/>
-      <c r="G26" s="432"/>
+      <c r="E26" s="425"/>
+      <c r="F26" s="425"/>
+      <c r="G26" s="426"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="442"/>
-      <c r="C27" s="442"/>
-      <c r="D27" s="433"/>
-      <c r="E27" s="434"/>
-      <c r="F27" s="434"/>
-      <c r="G27" s="435"/>
+      <c r="B27" s="434"/>
+      <c r="C27" s="434"/>
+      <c r="D27" s="427"/>
+      <c r="E27" s="428"/>
+      <c r="F27" s="428"/>
+      <c r="G27" s="429"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="442"/>
-      <c r="C28" s="442"/>
-      <c r="D28" s="433"/>
-      <c r="E28" s="434"/>
-      <c r="F28" s="434"/>
-      <c r="G28" s="435"/>
+      <c r="B28" s="434"/>
+      <c r="C28" s="434"/>
+      <c r="D28" s="427"/>
+      <c r="E28" s="428"/>
+      <c r="F28" s="428"/>
+      <c r="G28" s="429"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="443"/>
-      <c r="C29" s="443"/>
-      <c r="D29" s="436"/>
-      <c r="E29" s="437"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="438"/>
+      <c r="B29" s="435"/>
+      <c r="C29" s="435"/>
+      <c r="D29" s="430"/>
+      <c r="E29" s="431"/>
+      <c r="F29" s="431"/>
+      <c r="G29" s="432"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="446" t="s">
+      <c r="B30" s="433" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="447" t="s">
+      <c r="C30" s="437" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="430" t="s">
+      <c r="D30" s="424" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="431"/>
-      <c r="F30" s="431"/>
-      <c r="G30" s="432"/>
+      <c r="E30" s="425"/>
+      <c r="F30" s="425"/>
+      <c r="G30" s="426"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="442"/>
-      <c r="C31" s="442"/>
-      <c r="D31" s="433"/>
-      <c r="E31" s="434"/>
-      <c r="F31" s="434"/>
-      <c r="G31" s="435"/>
+      <c r="B31" s="434"/>
+      <c r="C31" s="434"/>
+      <c r="D31" s="427"/>
+      <c r="E31" s="428"/>
+      <c r="F31" s="428"/>
+      <c r="G31" s="429"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="442"/>
-      <c r="C32" s="442"/>
-      <c r="D32" s="433"/>
-      <c r="E32" s="434"/>
-      <c r="F32" s="434"/>
-      <c r="G32" s="435"/>
+      <c r="B32" s="434"/>
+      <c r="C32" s="434"/>
+      <c r="D32" s="427"/>
+      <c r="E32" s="428"/>
+      <c r="F32" s="428"/>
+      <c r="G32" s="429"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="443"/>
-      <c r="C33" s="443"/>
-      <c r="D33" s="436"/>
-      <c r="E33" s="437"/>
-      <c r="F33" s="437"/>
-      <c r="G33" s="438"/>
+      <c r="B33" s="435"/>
+      <c r="C33" s="435"/>
+      <c r="D33" s="430"/>
+      <c r="E33" s="431"/>
+      <c r="F33" s="431"/>
+      <c r="G33" s="432"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="446" t="s">
+      <c r="B34" s="433" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="447" t="s">
+      <c r="C34" s="437" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="430" t="s">
+      <c r="D34" s="424" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="431"/>
-      <c r="F34" s="431"/>
-      <c r="G34" s="432"/>
+      <c r="E34" s="425"/>
+      <c r="F34" s="425"/>
+      <c r="G34" s="426"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="442"/>
-      <c r="C35" s="442"/>
-      <c r="D35" s="433"/>
-      <c r="E35" s="434"/>
-      <c r="F35" s="434"/>
-      <c r="G35" s="435"/>
+      <c r="B35" s="434"/>
+      <c r="C35" s="434"/>
+      <c r="D35" s="427"/>
+      <c r="E35" s="428"/>
+      <c r="F35" s="428"/>
+      <c r="G35" s="429"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="442"/>
-      <c r="C36" s="442"/>
-      <c r="D36" s="433"/>
-      <c r="E36" s="434"/>
-      <c r="F36" s="434"/>
-      <c r="G36" s="435"/>
+      <c r="B36" s="434"/>
+      <c r="C36" s="434"/>
+      <c r="D36" s="427"/>
+      <c r="E36" s="428"/>
+      <c r="F36" s="428"/>
+      <c r="G36" s="429"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="443"/>
-      <c r="C37" s="443"/>
-      <c r="D37" s="436"/>
-      <c r="E37" s="437"/>
-      <c r="F37" s="437"/>
-      <c r="G37" s="438"/>
+      <c r="B37" s="435"/>
+      <c r="C37" s="435"/>
+      <c r="D37" s="430"/>
+      <c r="E37" s="431"/>
+      <c r="F37" s="431"/>
+      <c r="G37" s="432"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="446" t="s">
+      <c r="B38" s="433" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="448" t="s">
+      <c r="C38" s="436" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="430" t="s">
+      <c r="D38" s="424" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="431"/>
-      <c r="F38" s="431"/>
-      <c r="G38" s="432"/>
+      <c r="E38" s="425"/>
+      <c r="F38" s="425"/>
+      <c r="G38" s="426"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="442"/>
-      <c r="C39" s="442"/>
-      <c r="D39" s="433"/>
-      <c r="E39" s="434"/>
-      <c r="F39" s="434"/>
-      <c r="G39" s="435"/>
+      <c r="B39" s="434"/>
+      <c r="C39" s="434"/>
+      <c r="D39" s="427"/>
+      <c r="E39" s="428"/>
+      <c r="F39" s="428"/>
+      <c r="G39" s="429"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="442"/>
-      <c r="C40" s="442"/>
-      <c r="D40" s="433"/>
-      <c r="E40" s="434"/>
-      <c r="F40" s="434"/>
-      <c r="G40" s="435"/>
+      <c r="B40" s="434"/>
+      <c r="C40" s="434"/>
+      <c r="D40" s="427"/>
+      <c r="E40" s="428"/>
+      <c r="F40" s="428"/>
+      <c r="G40" s="429"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B41" s="443"/>
-      <c r="C41" s="443"/>
-      <c r="D41" s="436"/>
-      <c r="E41" s="437"/>
-      <c r="F41" s="437"/>
-      <c r="G41" s="438"/>
+      <c r="B41" s="435"/>
+      <c r="C41" s="435"/>
+      <c r="D41" s="430"/>
+      <c r="E41" s="431"/>
+      <c r="F41" s="431"/>
+      <c r="G41" s="432"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="446" t="s">
+      <c r="B42" s="433" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="448" t="s">
+      <c r="C42" s="436" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="430" t="s">
+      <c r="D42" s="424" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="431"/>
-      <c r="F42" s="431"/>
-      <c r="G42" s="432"/>
+      <c r="E42" s="425"/>
+      <c r="F42" s="425"/>
+      <c r="G42" s="426"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="442"/>
-      <c r="C43" s="442"/>
-      <c r="D43" s="433"/>
-      <c r="E43" s="434"/>
-      <c r="F43" s="434"/>
-      <c r="G43" s="435"/>
+      <c r="B43" s="434"/>
+      <c r="C43" s="434"/>
+      <c r="D43" s="427"/>
+      <c r="E43" s="428"/>
+      <c r="F43" s="428"/>
+      <c r="G43" s="429"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="442"/>
-      <c r="C44" s="442"/>
-      <c r="D44" s="433"/>
-      <c r="E44" s="434"/>
-      <c r="F44" s="434"/>
-      <c r="G44" s="435"/>
+      <c r="B44" s="434"/>
+      <c r="C44" s="434"/>
+      <c r="D44" s="427"/>
+      <c r="E44" s="428"/>
+      <c r="F44" s="428"/>
+      <c r="G44" s="429"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B45" s="443"/>
-      <c r="C45" s="443"/>
-      <c r="D45" s="436"/>
-      <c r="E45" s="437"/>
-      <c r="F45" s="437"/>
-      <c r="G45" s="438"/>
+      <c r="B45" s="435"/>
+      <c r="C45" s="435"/>
+      <c r="D45" s="430"/>
+      <c r="E45" s="431"/>
+      <c r="F45" s="431"/>
+      <c r="G45" s="432"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="446" t="s">
+      <c r="B46" s="433" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="448" t="s">
+      <c r="C46" s="436" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="430" t="s">
+      <c r="D46" s="424" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="431"/>
-      <c r="F46" s="431"/>
-      <c r="G46" s="432"/>
+      <c r="E46" s="425"/>
+      <c r="F46" s="425"/>
+      <c r="G46" s="426"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="442"/>
-      <c r="C47" s="442"/>
-      <c r="D47" s="433"/>
-      <c r="E47" s="434"/>
-      <c r="F47" s="434"/>
-      <c r="G47" s="435"/>
+      <c r="B47" s="434"/>
+      <c r="C47" s="434"/>
+      <c r="D47" s="427"/>
+      <c r="E47" s="428"/>
+      <c r="F47" s="428"/>
+      <c r="G47" s="429"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="442"/>
-      <c r="C48" s="442"/>
-      <c r="D48" s="433"/>
-      <c r="E48" s="434"/>
-      <c r="F48" s="434"/>
-      <c r="G48" s="435"/>
+      <c r="B48" s="434"/>
+      <c r="C48" s="434"/>
+      <c r="D48" s="427"/>
+      <c r="E48" s="428"/>
+      <c r="F48" s="428"/>
+      <c r="G48" s="429"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="443"/>
-      <c r="C49" s="443"/>
-      <c r="D49" s="436"/>
-      <c r="E49" s="437"/>
-      <c r="F49" s="437"/>
-      <c r="G49" s="438"/>
+      <c r="B49" s="435"/>
+      <c r="C49" s="435"/>
+      <c r="D49" s="430"/>
+      <c r="E49" s="431"/>
+      <c r="F49" s="431"/>
+      <c r="G49" s="432"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="51" spans="2:7" ht="33.75" customHeight="1"/>
@@ -23837,18 +23102,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D42:G45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:G49"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:G37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:G41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="D22:G25"/>
     <mergeCell ref="D26:G29"/>
     <mergeCell ref="D30:G33"/>
@@ -23862,12 +23121,18 @@
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="D42:G45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:G49"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:G37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:G41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -23876,2966 +23141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027BA09-3343-447C-A49A-47BF13E599F3}">
-  <dimension ref="A1:Z970"/>
-  <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" style="450" customWidth="1"/>
-    <col min="2" max="2" width="93.140625" style="450" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" style="450" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="450" customWidth="1"/>
-    <col min="5" max="22" width="45.7109375" style="450" customWidth="1"/>
-    <col min="23" max="16384" width="14.42578125" style="450"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="12.75" customHeight="1"/>
-    <row r="2" spans="2:3" ht="24" customHeight="1" thickBot="1"/>
-    <row r="3" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B3" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="506"/>
-    </row>
-    <row r="4" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B4" s="507"/>
-      <c r="C4" s="508"/>
-    </row>
-    <row r="5" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B5" s="507"/>
-      <c r="C5" s="508"/>
-    </row>
-    <row r="6" spans="2:3" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B6" s="509"/>
-      <c r="C6" s="510"/>
-    </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1">
-      <c r="B7" s="452" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" s="527"/>
-    </row>
-    <row r="8" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B8" s="528"/>
-      <c r="C8" s="529"/>
-    </row>
-    <row r="9" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B9" s="453" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="504"/>
-    </row>
-    <row r="10" spans="2:3" ht="21" customHeight="1">
-      <c r="B10" s="453"/>
-      <c r="C10" s="504"/>
-    </row>
-    <row r="11" spans="2:3" ht="21" customHeight="1">
-      <c r="B11" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="503"/>
-    </row>
-    <row r="12" spans="2:3" ht="63" customHeight="1">
-      <c r="B12" s="455" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="456"/>
-    </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1">
-      <c r="B13" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="456"/>
-    </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1">
-      <c r="B14" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="456"/>
-    </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1">
-      <c r="B15" s="457" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="456"/>
-    </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1">
-      <c r="B16" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="456"/>
-    </row>
-    <row r="17" spans="1:3" ht="27" customHeight="1">
-      <c r="A17" s="458"/>
-      <c r="B17" s="502" t="s">
-        <v>440</v>
-      </c>
-      <c r="C17" s="456"/>
-    </row>
-    <row r="18" spans="1:3" ht="27" customHeight="1">
-      <c r="A18" s="458"/>
-      <c r="B18" s="460" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="456"/>
-    </row>
-    <row r="19" spans="1:3" ht="27" customHeight="1" thickBot="1">
-      <c r="A19" s="458"/>
-      <c r="B19" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="462"/>
-    </row>
-    <row r="20" spans="1:3" ht="27" customHeight="1" thickBot="1">
-      <c r="B20" s="463"/>
-      <c r="C20" s="464"/>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B21" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" s="506"/>
-    </row>
-    <row r="22" spans="1:3" ht="13.5" customHeight="1">
-      <c r="B22" s="507"/>
-      <c r="C22" s="508"/>
-    </row>
-    <row r="23" spans="1:3" ht="13.5" customHeight="1">
-      <c r="B23" s="507"/>
-      <c r="C23" s="508"/>
-    </row>
-    <row r="24" spans="1:3" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B24" s="509"/>
-      <c r="C24" s="510"/>
-    </row>
-    <row r="25" spans="1:3" ht="13.5" customHeight="1">
-      <c r="B25" s="452" t="s">
-        <v>441</v>
-      </c>
-      <c r="C25" s="527"/>
-    </row>
-    <row r="26" spans="1:3" ht="25.5" customHeight="1">
-      <c r="B26" s="528"/>
-      <c r="C26" s="529"/>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B27" s="453" t="s">
-        <v>366</v>
-      </c>
-      <c r="C27" s="504"/>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B28" s="453"/>
-      <c r="C28" s="504"/>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B29" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" s="503"/>
-    </row>
-    <row r="30" spans="1:3" ht="64.5" customHeight="1">
-      <c r="B30" s="455" t="s">
-        <v>367</v>
-      </c>
-      <c r="C30" s="456"/>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B31" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="456"/>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1">
-      <c r="B32" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="456"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.25" customHeight="1">
-      <c r="B33" s="457" t="s">
-        <v>362</v>
-      </c>
-      <c r="C33" s="456"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B34" s="457" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="456"/>
-    </row>
-    <row r="35" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A35" s="458"/>
-      <c r="B35" s="459" t="s">
-        <v>369</v>
-      </c>
-      <c r="C35" s="456"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="458"/>
-      <c r="B36" s="460" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" s="456"/>
-    </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="458"/>
-      <c r="B37" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C37" s="462"/>
-    </row>
-    <row r="38" spans="1:5" ht="12.75" customHeight="1" thickBot="1">
-      <c r="C38" s="464"/>
-      <c r="D38" s="466"/>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B39" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="506"/>
-    </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B40" s="507"/>
-      <c r="C40" s="508"/>
-      <c r="D40" s="467"/>
-    </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B41" s="507"/>
-      <c r="C41" s="508"/>
-      <c r="E41" s="468"/>
-    </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B42" s="509"/>
-      <c r="C42" s="510"/>
-      <c r="E42" s="468"/>
-    </row>
-    <row r="43" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B43" s="465" t="s">
-        <v>371</v>
-      </c>
-      <c r="C43" s="505"/>
-      <c r="E43" s="468"/>
-    </row>
-    <row r="44" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B44" s="453"/>
-      <c r="C44" s="504"/>
-      <c r="E44" s="468"/>
-    </row>
-    <row r="45" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B45" s="453" t="s">
-        <v>372</v>
-      </c>
-      <c r="C45" s="504"/>
-      <c r="E45" s="468"/>
-    </row>
-    <row r="46" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B46" s="453"/>
-      <c r="C46" s="504"/>
-      <c r="E46" s="468"/>
-    </row>
-    <row r="47" spans="1:5" ht="12.75" customHeight="1">
-      <c r="B47" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C47" s="503"/>
-      <c r="E47" s="468"/>
-    </row>
-    <row r="48" spans="1:5" ht="69" customHeight="1">
-      <c r="B48" s="455" t="s">
-        <v>373</v>
-      </c>
-      <c r="C48" s="456"/>
-      <c r="E48" s="468"/>
-    </row>
-    <row r="49" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B49" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C49" s="456"/>
-      <c r="E49" s="464"/>
-    </row>
-    <row r="50" spans="1:26" ht="16.5" customHeight="1">
-      <c r="B50" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C50" s="456"/>
-      <c r="E50" s="464"/>
-    </row>
-    <row r="51" spans="1:26" ht="15" customHeight="1">
-      <c r="B51" s="457" t="s">
-        <v>362</v>
-      </c>
-      <c r="C51" s="456"/>
-      <c r="E51" s="464"/>
-    </row>
-    <row r="52" spans="1:26" ht="17.25" customHeight="1">
-      <c r="B52" s="457" t="s">
-        <v>368</v>
-      </c>
-      <c r="C52" s="456"/>
-    </row>
-    <row r="53" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A53" s="458"/>
-      <c r="B53" s="459" t="s">
-        <v>374</v>
-      </c>
-      <c r="C53" s="456"/>
-    </row>
-    <row r="54" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A54" s="458"/>
-      <c r="B54" s="460" t="s">
-        <v>375</v>
-      </c>
-      <c r="C54" s="456"/>
-    </row>
-    <row r="55" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A55" s="458"/>
-      <c r="B55" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C55" s="462"/>
-    </row>
-    <row r="56" spans="1:26" ht="12.75" customHeight="1">
-      <c r="D56" s="464"/>
-      <c r="F56" s="464"/>
-      <c r="G56" s="464"/>
-      <c r="H56" s="464"/>
-      <c r="I56" s="464"/>
-      <c r="J56" s="464"/>
-      <c r="K56" s="464"/>
-      <c r="L56" s="464"/>
-      <c r="M56" s="464"/>
-      <c r="N56" s="464"/>
-      <c r="O56" s="464"/>
-      <c r="P56" s="464"/>
-      <c r="Q56" s="464"/>
-      <c r="R56" s="464"/>
-      <c r="S56" s="464"/>
-      <c r="T56" s="464"/>
-      <c r="U56" s="464"/>
-      <c r="V56" s="464"/>
-      <c r="W56" s="464"/>
-      <c r="X56" s="464"/>
-      <c r="Y56" s="464"/>
-      <c r="Z56" s="464"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.75" customHeight="1">
-      <c r="C57" s="469"/>
-      <c r="D57" s="464"/>
-      <c r="F57" s="464"/>
-      <c r="G57" s="464"/>
-      <c r="H57" s="464"/>
-      <c r="I57" s="464"/>
-      <c r="J57" s="464"/>
-      <c r="K57" s="464"/>
-      <c r="L57" s="464"/>
-      <c r="M57" s="464"/>
-      <c r="N57" s="464"/>
-      <c r="O57" s="464"/>
-      <c r="P57" s="464"/>
-      <c r="Q57" s="464"/>
-      <c r="R57" s="464"/>
-      <c r="S57" s="464"/>
-      <c r="T57" s="464"/>
-      <c r="U57" s="464"/>
-      <c r="V57" s="464"/>
-      <c r="W57" s="464"/>
-      <c r="X57" s="464"/>
-      <c r="Y57" s="464"/>
-      <c r="Z57" s="464"/>
-    </row>
-    <row r="58" spans="1:26" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="59" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B59" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C59" s="506"/>
-    </row>
-    <row r="60" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B60" s="507"/>
-      <c r="C60" s="508"/>
-    </row>
-    <row r="61" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B61" s="507"/>
-      <c r="C61" s="508"/>
-    </row>
-    <row r="62" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B62" s="509"/>
-      <c r="C62" s="510"/>
-    </row>
-    <row r="63" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B63" s="465" t="s">
-        <v>376</v>
-      </c>
-      <c r="C63" s="505"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B64" s="453"/>
-      <c r="C64" s="504"/>
-    </row>
-    <row r="65" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B65" s="453" t="s">
-        <v>377</v>
-      </c>
-      <c r="C65" s="504"/>
-    </row>
-    <row r="66" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B66" s="453"/>
-      <c r="C66" s="504"/>
-    </row>
-    <row r="67" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B67" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C67" s="503"/>
-    </row>
-    <row r="68" spans="1:26" ht="32.25" customHeight="1">
-      <c r="B68" s="455" t="s">
-        <v>378</v>
-      </c>
-      <c r="C68" s="456"/>
-    </row>
-    <row r="69" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B69" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C69" s="456"/>
-      <c r="E69" s="464"/>
-    </row>
-    <row r="70" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B70" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C70" s="456"/>
-      <c r="E70" s="464"/>
-    </row>
-    <row r="71" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B71" s="457" t="s">
-        <v>379</v>
-      </c>
-      <c r="C71" s="456"/>
-    </row>
-    <row r="72" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B72" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C72" s="456"/>
-    </row>
-    <row r="73" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A73" s="458"/>
-      <c r="B73" s="459" t="s">
-        <v>380</v>
-      </c>
-      <c r="C73" s="456"/>
-      <c r="F73" s="464"/>
-      <c r="G73" s="464"/>
-      <c r="H73" s="464"/>
-      <c r="I73" s="464"/>
-      <c r="J73" s="464"/>
-      <c r="K73" s="464"/>
-      <c r="L73" s="464"/>
-      <c r="M73" s="464"/>
-      <c r="N73" s="464"/>
-      <c r="O73" s="464"/>
-      <c r="P73" s="464"/>
-      <c r="Q73" s="464"/>
-      <c r="R73" s="464"/>
-      <c r="S73" s="464"/>
-      <c r="T73" s="464"/>
-      <c r="U73" s="464"/>
-      <c r="V73" s="464"/>
-      <c r="W73" s="464"/>
-      <c r="X73" s="464"/>
-      <c r="Y73" s="464"/>
-      <c r="Z73" s="464"/>
-    </row>
-    <row r="74" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A74" s="458"/>
-      <c r="B74" s="460" t="s">
-        <v>381</v>
-      </c>
-      <c r="C74" s="456"/>
-    </row>
-    <row r="75" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A75" s="458"/>
-      <c r="B75" s="470" t="s">
-        <v>365</v>
-      </c>
-      <c r="C75" s="462"/>
-    </row>
-    <row r="76" spans="1:26" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C76" s="464"/>
-    </row>
-    <row r="77" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B77" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C77" s="506"/>
-    </row>
-    <row r="78" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B78" s="507"/>
-      <c r="C78" s="508"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B79" s="507"/>
-      <c r="C79" s="508"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B80" s="509"/>
-      <c r="C80" s="510"/>
-    </row>
-    <row r="81" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B81" s="465" t="s">
-        <v>376</v>
-      </c>
-      <c r="C81" s="505"/>
-    </row>
-    <row r="82" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B82" s="453"/>
-      <c r="C82" s="504"/>
-    </row>
-    <row r="83" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B83" s="453" t="s">
-        <v>382</v>
-      </c>
-      <c r="C83" s="504"/>
-    </row>
-    <row r="84" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B84" s="453"/>
-      <c r="C84" s="504"/>
-    </row>
-    <row r="85" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B85" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C85" s="503"/>
-    </row>
-    <row r="86" spans="1:3" ht="38.25" customHeight="1">
-      <c r="B86" s="455" t="s">
-        <v>378</v>
-      </c>
-      <c r="C86" s="456"/>
-    </row>
-    <row r="87" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B87" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C87" s="456"/>
-    </row>
-    <row r="88" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B88" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C88" s="456"/>
-    </row>
-    <row r="89" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B89" s="457" t="s">
-        <v>379</v>
-      </c>
-      <c r="C89" s="456"/>
-    </row>
-    <row r="90" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B90" s="457" t="s">
-        <v>368</v>
-      </c>
-      <c r="C90" s="456"/>
-    </row>
-    <row r="91" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A91" s="458"/>
-      <c r="C91" s="456"/>
-    </row>
-    <row r="92" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A92" s="458"/>
-      <c r="B92" s="460" t="s">
-        <v>383</v>
-      </c>
-      <c r="C92" s="456"/>
-    </row>
-    <row r="93" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A93" s="458"/>
-      <c r="B93" s="470" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" s="462"/>
-    </row>
-    <row r="94" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="95" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B95" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C95" s="506"/>
-    </row>
-    <row r="96" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B96" s="507"/>
-      <c r="C96" s="508"/>
-    </row>
-    <row r="97" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B97" s="507"/>
-      <c r="C97" s="508"/>
-    </row>
-    <row r="98" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B98" s="509"/>
-      <c r="C98" s="510"/>
-    </row>
-    <row r="99" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B99" s="465" t="s">
-        <v>376</v>
-      </c>
-      <c r="C99" s="505"/>
-    </row>
-    <row r="100" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B100" s="453"/>
-      <c r="C100" s="504"/>
-    </row>
-    <row r="101" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B101" s="453" t="s">
-        <v>384</v>
-      </c>
-      <c r="C101" s="504"/>
-    </row>
-    <row r="102" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B102" s="453"/>
-      <c r="C102" s="504"/>
-    </row>
-    <row r="103" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B103" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C103" s="503"/>
-    </row>
-    <row r="104" spans="1:3" ht="42" customHeight="1">
-      <c r="B104" s="455" t="s">
-        <v>378</v>
-      </c>
-      <c r="C104" s="456"/>
-    </row>
-    <row r="105" spans="1:3" ht="16.5" customHeight="1">
-      <c r="B105" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C105" s="456"/>
-    </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B106" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C106" s="456"/>
-    </row>
-    <row r="107" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B107" s="457" t="s">
-        <v>362</v>
-      </c>
-      <c r="C107" s="456"/>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B108" s="457" t="s">
-        <v>368</v>
-      </c>
-      <c r="C108" s="456"/>
-    </row>
-    <row r="109" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A109" s="458"/>
-      <c r="B109" s="459"/>
-      <c r="C109" s="456"/>
-    </row>
-    <row r="110" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A110" s="458"/>
-      <c r="B110" s="460" t="s">
-        <v>385</v>
-      </c>
-      <c r="C110" s="456"/>
-    </row>
-    <row r="111" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A111" s="458"/>
-      <c r="B111" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C111" s="462"/>
-    </row>
-    <row r="112" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="113" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B113" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C113" s="506"/>
-    </row>
-    <row r="114" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B114" s="507"/>
-      <c r="C114" s="508"/>
-    </row>
-    <row r="115" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B115" s="507"/>
-      <c r="C115" s="508"/>
-    </row>
-    <row r="116" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B116" s="509"/>
-      <c r="C116" s="510"/>
-    </row>
-    <row r="117" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B117" s="471" t="s">
-        <v>386</v>
-      </c>
-      <c r="C117" s="530"/>
-    </row>
-    <row r="118" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B118" s="474"/>
-      <c r="C118" s="531"/>
-    </row>
-    <row r="119" spans="1:3" ht="27.75" customHeight="1">
-      <c r="B119" s="472" t="s">
-        <v>387</v>
-      </c>
-      <c r="C119" s="532"/>
-    </row>
-    <row r="120" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B120" s="472"/>
-      <c r="C120" s="532"/>
-    </row>
-    <row r="121" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B121" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C121" s="503"/>
-    </row>
-    <row r="122" spans="1:3" ht="38.25" customHeight="1">
-      <c r="B122" s="455" t="s">
-        <v>378</v>
-      </c>
-      <c r="C122" s="456"/>
-    </row>
-    <row r="123" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B123" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C123" s="456"/>
-    </row>
-    <row r="124" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B124" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C124" s="456"/>
-    </row>
-    <row r="125" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B125" s="457" t="s">
-        <v>379</v>
-      </c>
-      <c r="C125" s="456"/>
-    </row>
-    <row r="126" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B126" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C126" s="456"/>
-    </row>
-    <row r="127" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A127" s="458"/>
-      <c r="B127" s="459" t="s">
-        <v>388</v>
-      </c>
-      <c r="C127" s="456"/>
-    </row>
-    <row r="128" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A128" s="458"/>
-      <c r="B128" s="473" t="s">
-        <v>389</v>
-      </c>
-      <c r="C128" s="456"/>
-    </row>
-    <row r="129" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A129" s="458"/>
-      <c r="B129" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C129" s="462"/>
-    </row>
-    <row r="130" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="131" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B131" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C131" s="506"/>
-    </row>
-    <row r="132" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B132" s="507"/>
-      <c r="C132" s="508"/>
-    </row>
-    <row r="133" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B133" s="507"/>
-      <c r="C133" s="508"/>
-    </row>
-    <row r="134" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B134" s="509"/>
-      <c r="C134" s="510"/>
-    </row>
-    <row r="135" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B135" s="471" t="s">
-        <v>390</v>
-      </c>
-      <c r="C135" s="530"/>
-    </row>
-    <row r="136" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B136" s="474"/>
-      <c r="C136" s="531"/>
-    </row>
-    <row r="137" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B137" s="474" t="s">
-        <v>391</v>
-      </c>
-      <c r="C137" s="531"/>
-    </row>
-    <row r="138" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B138" s="474"/>
-      <c r="C138" s="531"/>
-    </row>
-    <row r="139" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B139" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C139" s="503"/>
-    </row>
-    <row r="140" spans="1:3" ht="36" customHeight="1">
-      <c r="B140" s="455" t="s">
-        <v>378</v>
-      </c>
-      <c r="C140" s="456"/>
-    </row>
-    <row r="141" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B141" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C141" s="456"/>
-    </row>
-    <row r="142" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B142" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C142" s="456"/>
-    </row>
-    <row r="143" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B143" s="475" t="s">
-        <v>362</v>
-      </c>
-      <c r="C143" s="456"/>
-    </row>
-    <row r="144" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B144" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C144" s="456"/>
-    </row>
-    <row r="145" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A145" s="458"/>
-      <c r="B145" s="459"/>
-      <c r="C145" s="456"/>
-    </row>
-    <row r="146" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A146" s="458"/>
-      <c r="B146" s="473" t="s">
-        <v>392</v>
-      </c>
-      <c r="C146" s="456"/>
-    </row>
-    <row r="147" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A147" s="458"/>
-      <c r="B147" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C147" s="462"/>
-    </row>
-    <row r="148" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="149" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B149" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C149" s="506"/>
-    </row>
-    <row r="150" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B150" s="507"/>
-      <c r="C150" s="508"/>
-    </row>
-    <row r="151" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B151" s="507"/>
-      <c r="C151" s="508"/>
-    </row>
-    <row r="152" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B152" s="509"/>
-      <c r="C152" s="510"/>
-    </row>
-    <row r="153" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B153" s="471" t="s">
-        <v>393</v>
-      </c>
-      <c r="C153" s="530"/>
-    </row>
-    <row r="154" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B154" s="474"/>
-      <c r="C154" s="531"/>
-    </row>
-    <row r="155" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B155" s="474" t="s">
-        <v>394</v>
-      </c>
-      <c r="C155" s="531"/>
-    </row>
-    <row r="156" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B156" s="474"/>
-      <c r="C156" s="531"/>
-    </row>
-    <row r="157" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B157" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C157" s="503"/>
-    </row>
-    <row r="158" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B158" s="455" t="s">
-        <v>378</v>
-      </c>
-      <c r="C158" s="456"/>
-    </row>
-    <row r="159" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B159" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C159" s="456"/>
-    </row>
-    <row r="160" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B160" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C160" s="456"/>
-    </row>
-    <row r="161" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B161" s="457" t="s">
-        <v>379</v>
-      </c>
-      <c r="C161" s="456"/>
-    </row>
-    <row r="162" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B162" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C162" s="456"/>
-    </row>
-    <row r="163" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A163" s="458"/>
-      <c r="B163" s="459"/>
-      <c r="C163" s="456"/>
-    </row>
-    <row r="164" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A164" s="458"/>
-      <c r="B164" s="473" t="s">
-        <v>395</v>
-      </c>
-      <c r="C164" s="456"/>
-    </row>
-    <row r="165" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A165" s="458"/>
-      <c r="B165" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C165" s="462"/>
-    </row>
-    <row r="166" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="167" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B167" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C167" s="506"/>
-    </row>
-    <row r="168" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B168" s="507"/>
-      <c r="C168" s="508"/>
-    </row>
-    <row r="169" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B169" s="507"/>
-      <c r="C169" s="508"/>
-    </row>
-    <row r="170" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B170" s="509"/>
-      <c r="C170" s="510"/>
-    </row>
-    <row r="171" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B171" s="471" t="s">
-        <v>396</v>
-      </c>
-      <c r="C171" s="530"/>
-    </row>
-    <row r="172" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B172" s="474"/>
-      <c r="C172" s="531"/>
-    </row>
-    <row r="173" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B173" s="474" t="s">
-        <v>397</v>
-      </c>
-      <c r="C173" s="531"/>
-    </row>
-    <row r="174" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B174" s="474"/>
-      <c r="C174" s="531"/>
-    </row>
-    <row r="175" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B175" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C175" s="503"/>
-    </row>
-    <row r="176" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B176" s="455" t="s">
-        <v>378</v>
-      </c>
-      <c r="C176" s="456"/>
-    </row>
-    <row r="177" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B177" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C177" s="456"/>
-    </row>
-    <row r="178" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B178" s="457" t="s">
-        <v>361</v>
-      </c>
-      <c r="C178" s="456"/>
-    </row>
-    <row r="179" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B179" s="475" t="s">
-        <v>398</v>
-      </c>
-      <c r="C179" s="456"/>
-    </row>
-    <row r="180" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B180" s="475" t="s">
-        <v>368</v>
-      </c>
-      <c r="C180" s="456"/>
-    </row>
-    <row r="181" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A181" s="458"/>
-      <c r="B181" s="459"/>
-      <c r="C181" s="456"/>
-    </row>
-    <row r="182" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A182" s="458"/>
-      <c r="B182" s="460" t="s">
-        <v>381</v>
-      </c>
-      <c r="C182" s="456"/>
-    </row>
-    <row r="183" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A183" s="458"/>
-      <c r="B183" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C183" s="462"/>
-    </row>
-    <row r="184" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="185" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B185" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C185" s="506"/>
-    </row>
-    <row r="186" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B186" s="507"/>
-      <c r="C186" s="508"/>
-    </row>
-    <row r="187" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B187" s="507"/>
-      <c r="C187" s="508"/>
-    </row>
-    <row r="188" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B188" s="509"/>
-      <c r="C188" s="510"/>
-    </row>
-    <row r="189" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B189" s="471" t="s">
-        <v>399</v>
-      </c>
-      <c r="C189" s="530"/>
-    </row>
-    <row r="190" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B190" s="474"/>
-      <c r="C190" s="531"/>
-    </row>
-    <row r="191" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B191" s="474" t="s">
-        <v>400</v>
-      </c>
-      <c r="C191" s="531"/>
-    </row>
-    <row r="192" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B192" s="474"/>
-      <c r="C192" s="531"/>
-    </row>
-    <row r="193" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B193" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C193" s="503"/>
-    </row>
-    <row r="194" spans="1:3" ht="39" customHeight="1">
-      <c r="B194" s="476" t="s">
-        <v>401</v>
-      </c>
-      <c r="C194" s="456"/>
-    </row>
-    <row r="195" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B195" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C195" s="456"/>
-    </row>
-    <row r="196" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B196" s="475" t="s">
-        <v>402</v>
-      </c>
-      <c r="C196" s="456"/>
-    </row>
-    <row r="197" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B197" s="457" t="s">
-        <v>379</v>
-      </c>
-      <c r="C197" s="456"/>
-    </row>
-    <row r="198" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B198" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C198" s="456"/>
-    </row>
-    <row r="199" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A199" s="458"/>
-      <c r="B199" s="459" t="s">
-        <v>380</v>
-      </c>
-      <c r="C199" s="456"/>
-    </row>
-    <row r="200" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A200" s="458"/>
-      <c r="B200" s="460" t="s">
-        <v>381</v>
-      </c>
-      <c r="C200" s="456"/>
-    </row>
-    <row r="201" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A201" s="458"/>
-      <c r="B201" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C201" s="462"/>
-    </row>
-    <row r="202" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="203" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B203" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C203" s="506"/>
-    </row>
-    <row r="204" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B204" s="507"/>
-      <c r="C204" s="508"/>
-    </row>
-    <row r="205" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B205" s="507"/>
-      <c r="C205" s="508"/>
-    </row>
-    <row r="206" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B206" s="509"/>
-      <c r="C206" s="510"/>
-    </row>
-    <row r="207" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B207" s="471" t="s">
-        <v>403</v>
-      </c>
-      <c r="C207" s="530"/>
-    </row>
-    <row r="208" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B208" s="474"/>
-      <c r="C208" s="531"/>
-    </row>
-    <row r="209" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B209" s="474" t="s">
-        <v>404</v>
-      </c>
-      <c r="C209" s="531"/>
-    </row>
-    <row r="210" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B210" s="474"/>
-      <c r="C210" s="531"/>
-    </row>
-    <row r="211" spans="1:3" ht="24" customHeight="1">
-      <c r="B211" s="477" t="s">
-        <v>358</v>
-      </c>
-      <c r="C211" s="533"/>
-    </row>
-    <row r="212" spans="1:3" ht="30" customHeight="1">
-      <c r="B212" s="476" t="s">
-        <v>401</v>
-      </c>
-      <c r="C212" s="456"/>
-    </row>
-    <row r="213" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B213" s="475" t="s">
-        <v>405</v>
-      </c>
-      <c r="C213" s="456"/>
-    </row>
-    <row r="214" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B214" s="475" t="s">
-        <v>402</v>
-      </c>
-      <c r="C214" s="456"/>
-    </row>
-    <row r="215" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B215" s="457" t="s">
-        <v>379</v>
-      </c>
-      <c r="C215" s="456"/>
-    </row>
-    <row r="216" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B216" s="475" t="s">
-        <v>368</v>
-      </c>
-      <c r="C216" s="456"/>
-    </row>
-    <row r="217" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A217" s="458"/>
-      <c r="B217" s="459"/>
-      <c r="C217" s="456"/>
-    </row>
-    <row r="218" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A218" s="458"/>
-      <c r="B218" s="460" t="s">
-        <v>381</v>
-      </c>
-      <c r="C218" s="456"/>
-    </row>
-    <row r="219" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A219" s="458"/>
-      <c r="B219" s="470" t="s">
-        <v>365</v>
-      </c>
-      <c r="C219" s="462"/>
-    </row>
-    <row r="220" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="221" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B221" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C221" s="506"/>
-    </row>
-    <row r="222" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B222" s="507"/>
-      <c r="C222" s="508"/>
-    </row>
-    <row r="223" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B223" s="507"/>
-      <c r="C223" s="508"/>
-    </row>
-    <row r="224" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B224" s="509"/>
-      <c r="C224" s="510"/>
-    </row>
-    <row r="225" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B225" s="471" t="s">
-        <v>406</v>
-      </c>
-      <c r="C225" s="530"/>
-    </row>
-    <row r="226" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B226" s="474"/>
-      <c r="C226" s="531"/>
-    </row>
-    <row r="227" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B227" s="474" t="s">
-        <v>407</v>
-      </c>
-      <c r="C227" s="531"/>
-    </row>
-    <row r="228" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B228" s="474"/>
-      <c r="C228" s="531"/>
-    </row>
-    <row r="229" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B229" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C229" s="503"/>
-    </row>
-    <row r="230" spans="1:3" ht="51" customHeight="1">
-      <c r="B230" s="476" t="s">
-        <v>408</v>
-      </c>
-      <c r="C230" s="456"/>
-    </row>
-    <row r="231" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B231" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C231" s="456"/>
-    </row>
-    <row r="232" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B232" s="475" t="s">
-        <v>402</v>
-      </c>
-      <c r="C232" s="456"/>
-    </row>
-    <row r="233" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B233" s="475" t="s">
-        <v>398</v>
-      </c>
-      <c r="C233" s="456"/>
-    </row>
-    <row r="234" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B234" s="475" t="s">
-        <v>368</v>
-      </c>
-      <c r="C234" s="456"/>
-    </row>
-    <row r="235" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A235" s="458"/>
-      <c r="B235" s="459"/>
-      <c r="C235" s="456"/>
-    </row>
-    <row r="236" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A236" s="458"/>
-      <c r="B236" s="460" t="s">
-        <v>381</v>
-      </c>
-      <c r="C236" s="456"/>
-    </row>
-    <row r="237" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A237" s="458"/>
-      <c r="B237" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C237" s="462"/>
-    </row>
-    <row r="238" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="239" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B239" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C239" s="506"/>
-    </row>
-    <row r="240" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B240" s="507"/>
-      <c r="C240" s="508"/>
-    </row>
-    <row r="241" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B241" s="507"/>
-      <c r="C241" s="508"/>
-    </row>
-    <row r="242" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B242" s="509"/>
-      <c r="C242" s="510"/>
-    </row>
-    <row r="243" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B243" s="471" t="s">
-        <v>409</v>
-      </c>
-      <c r="C243" s="530"/>
-    </row>
-    <row r="244" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B244" s="474"/>
-      <c r="C244" s="531"/>
-    </row>
-    <row r="245" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B245" s="474" t="s">
-        <v>410</v>
-      </c>
-      <c r="C245" s="531"/>
-    </row>
-    <row r="246" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B246" s="474"/>
-      <c r="C246" s="531"/>
-    </row>
-    <row r="247" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B247" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C247" s="503"/>
-    </row>
-    <row r="248" spans="1:3" ht="28.5" customHeight="1">
-      <c r="B248" s="476" t="s">
-        <v>401</v>
-      </c>
-      <c r="C248" s="456"/>
-    </row>
-    <row r="249" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B249" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C249" s="456"/>
-    </row>
-    <row r="250" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B250" s="475" t="s">
-        <v>402</v>
-      </c>
-      <c r="C250" s="456"/>
-    </row>
-    <row r="251" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B251" s="457" t="s">
-        <v>379</v>
-      </c>
-      <c r="C251" s="456"/>
-    </row>
-    <row r="252" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B252" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C252" s="456"/>
-    </row>
-    <row r="253" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A253" s="458"/>
-      <c r="B253" s="459"/>
-      <c r="C253" s="456"/>
-    </row>
-    <row r="254" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A254" s="458"/>
-      <c r="B254" s="460" t="s">
-        <v>381</v>
-      </c>
-      <c r="C254" s="456"/>
-    </row>
-    <row r="255" spans="1:3" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A255" s="458"/>
-      <c r="B255" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C255" s="462"/>
-    </row>
-    <row r="256" spans="1:3" ht="12.75" customHeight="1" thickBot="1"/>
-    <row r="257" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B257" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C257" s="506"/>
-    </row>
-    <row r="258" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B258" s="507"/>
-      <c r="C258" s="508"/>
-    </row>
-    <row r="259" spans="1:3" ht="12.75" customHeight="1">
-      <c r="B259" s="507"/>
-      <c r="C259" s="508"/>
-    </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B260" s="509"/>
-      <c r="C260" s="510"/>
-    </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B261" s="471" t="s">
-        <v>411</v>
-      </c>
-      <c r="C261" s="530"/>
-    </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B262" s="474"/>
-      <c r="C262" s="531"/>
-    </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B263" s="474" t="s">
-        <v>412</v>
-      </c>
-      <c r="C263" s="531"/>
-    </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B264" s="474"/>
-      <c r="C264" s="531"/>
-    </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B265" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C265" s="503"/>
-    </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B266" s="476" t="s">
-        <v>413</v>
-      </c>
-      <c r="C266" s="456"/>
-    </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B267" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C267" s="456"/>
-    </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B268" s="475" t="s">
-        <v>414</v>
-      </c>
-      <c r="C268" s="456"/>
-    </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B269" s="475" t="s">
-        <v>398</v>
-      </c>
-      <c r="C269" s="456"/>
-    </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B270" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C270" s="456"/>
-    </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A271" s="458"/>
-      <c r="B271" s="459" t="s">
-        <v>380</v>
-      </c>
-      <c r="C271" s="456"/>
-    </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A272" s="458"/>
-      <c r="B272" s="460" t="s">
-        <v>381</v>
-      </c>
-      <c r="C272" s="456"/>
-    </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A273" s="458"/>
-      <c r="B273" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C273" s="462"/>
-    </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B275" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C275" s="506"/>
-    </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B276" s="507"/>
-      <c r="C276" s="508"/>
-    </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B277" s="507"/>
-      <c r="C277" s="508"/>
-    </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B278" s="509"/>
-      <c r="C278" s="510"/>
-    </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B279" s="471" t="s">
-        <v>415</v>
-      </c>
-      <c r="C279" s="530"/>
-    </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B280" s="474"/>
-      <c r="C280" s="531"/>
-    </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B281" s="474" t="s">
-        <v>416</v>
-      </c>
-      <c r="C281" s="531"/>
-    </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B282" s="474"/>
-      <c r="C282" s="531"/>
-    </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B283" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C283" s="503"/>
-    </row>
-    <row r="284" spans="1:3" ht="50.25" customHeight="1">
-      <c r="B284" s="476" t="s">
-        <v>417</v>
-      </c>
-      <c r="C284" s="456"/>
-    </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B285" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C285" s="456"/>
-    </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B286" s="475" t="s">
-        <v>418</v>
-      </c>
-      <c r="C286" s="456"/>
-    </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B287" s="475" t="s">
-        <v>398</v>
-      </c>
-      <c r="C287" s="456"/>
-    </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B288" s="475" t="s">
-        <v>368</v>
-      </c>
-      <c r="C288" s="456"/>
-    </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A289" s="458"/>
-      <c r="B289" s="459"/>
-      <c r="C289" s="456"/>
-    </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A290" s="458"/>
-      <c r="B290" s="473" t="s">
-        <v>419</v>
-      </c>
-      <c r="C290" s="456"/>
-    </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A291" s="458"/>
-      <c r="B291" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C291" s="462"/>
-    </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B293" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C293" s="506"/>
-    </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B294" s="507"/>
-      <c r="C294" s="508"/>
-    </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B295" s="507"/>
-      <c r="C295" s="508"/>
-    </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B296" s="509"/>
-      <c r="C296" s="510"/>
-    </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B297" s="471" t="s">
-        <v>420</v>
-      </c>
-      <c r="C297" s="530"/>
-    </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B298" s="474"/>
-      <c r="C298" s="531"/>
-    </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B299" s="474" t="s">
-        <v>421</v>
-      </c>
-      <c r="C299" s="531"/>
-    </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B300" s="474"/>
-      <c r="C300" s="531"/>
-    </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B301" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C301" s="503"/>
-    </row>
-    <row r="302" spans="1:3" ht="48" customHeight="1">
-      <c r="B302" s="476" t="s">
-        <v>417</v>
-      </c>
-      <c r="C302" s="456"/>
-    </row>
-    <row r="303" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B303" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C303" s="456"/>
-    </row>
-    <row r="304" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B304" s="475" t="s">
-        <v>418</v>
-      </c>
-      <c r="C304" s="456"/>
-    </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B305" s="475" t="s">
-        <v>422</v>
-      </c>
-      <c r="C305" s="456"/>
-    </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B306" s="475" t="s">
-        <v>368</v>
-      </c>
-      <c r="C306" s="456"/>
-    </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A307" s="458"/>
-      <c r="B307" s="459"/>
-      <c r="C307" s="456"/>
-    </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A308" s="458"/>
-      <c r="B308" s="473" t="s">
-        <v>423</v>
-      </c>
-      <c r="C308" s="456"/>
-    </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A309" s="458"/>
-      <c r="B309" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C309" s="462"/>
-    </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B311" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C311" s="506"/>
-    </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B312" s="507"/>
-      <c r="C312" s="508"/>
-    </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B313" s="507"/>
-      <c r="C313" s="508"/>
-    </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B314" s="509"/>
-      <c r="C314" s="510"/>
-    </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B315" s="471" t="s">
-        <v>424</v>
-      </c>
-      <c r="C315" s="530"/>
-    </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B316" s="474"/>
-      <c r="C316" s="531"/>
-    </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B317" s="474" t="s">
-        <v>425</v>
-      </c>
-      <c r="C317" s="531"/>
-    </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B318" s="474"/>
-      <c r="C318" s="531"/>
-    </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B319" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C319" s="503"/>
-    </row>
-    <row r="320" spans="1:3" ht="48" customHeight="1">
-      <c r="B320" s="476" t="s">
-        <v>417</v>
-      </c>
-      <c r="C320" s="456"/>
-    </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B321" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C321" s="456"/>
-    </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B322" s="475" t="s">
-        <v>418</v>
-      </c>
-      <c r="C322" s="456"/>
-    </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B323" s="475" t="s">
-        <v>379</v>
-      </c>
-      <c r="C323" s="456"/>
-    </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B324" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C324" s="456"/>
-    </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A325" s="458"/>
-      <c r="B325" s="459"/>
-      <c r="C325" s="456"/>
-    </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A326" s="458"/>
-      <c r="B326" s="473" t="s">
-        <v>426</v>
-      </c>
-      <c r="C326" s="456"/>
-    </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A327" s="458"/>
-      <c r="B327" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C327" s="462"/>
-    </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B329" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C329" s="506"/>
-    </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B330" s="507"/>
-      <c r="C330" s="508"/>
-    </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B331" s="507"/>
-      <c r="C331" s="508"/>
-    </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B332" s="509"/>
-      <c r="C332" s="510"/>
-    </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B333" s="471" t="s">
-        <v>427</v>
-      </c>
-      <c r="C333" s="530"/>
-    </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B334" s="474"/>
-      <c r="C334" s="531"/>
-    </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B335" s="474" t="s">
-        <v>428</v>
-      </c>
-      <c r="C335" s="531"/>
-    </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B336" s="474"/>
-      <c r="C336" s="531"/>
-    </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B337" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C337" s="503"/>
-    </row>
-    <row r="338" spans="1:3" ht="52.5" customHeight="1">
-      <c r="B338" s="476" t="s">
-        <v>417</v>
-      </c>
-      <c r="C338" s="456"/>
-    </row>
-    <row r="339" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B339" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C339" s="456"/>
-    </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B340" s="475" t="s">
-        <v>418</v>
-      </c>
-      <c r="C340" s="456"/>
-    </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B341" s="475" t="s">
-        <v>398</v>
-      </c>
-      <c r="C341" s="456"/>
-    </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B342" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C342" s="456"/>
-    </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A343" s="458"/>
-      <c r="B343" s="459"/>
-      <c r="C343" s="456"/>
-    </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A344" s="458"/>
-      <c r="B344" s="473" t="s">
-        <v>429</v>
-      </c>
-      <c r="C344" s="456"/>
-    </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A345" s="458"/>
-      <c r="B345" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C345" s="462"/>
-    </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B347" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C347" s="506"/>
-    </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B348" s="507"/>
-      <c r="C348" s="508"/>
-    </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B349" s="507"/>
-      <c r="C349" s="508"/>
-    </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B350" s="509"/>
-      <c r="C350" s="510"/>
-    </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B351" s="471" t="s">
-        <v>430</v>
-      </c>
-      <c r="C351" s="530"/>
-    </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B352" s="474"/>
-      <c r="C352" s="531"/>
-    </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B353" s="474" t="s">
-        <v>431</v>
-      </c>
-      <c r="C353" s="531"/>
-    </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B354" s="474"/>
-      <c r="C354" s="531"/>
-    </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B355" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C355" s="503"/>
-    </row>
-    <row r="356" spans="1:3" ht="34.5" customHeight="1">
-      <c r="B356" s="476" t="s">
-        <v>432</v>
-      </c>
-      <c r="C356" s="456"/>
-    </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B357" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C357" s="456"/>
-    </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B358" s="475" t="s">
-        <v>433</v>
-      </c>
-      <c r="C358" s="456"/>
-    </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B359" s="475" t="s">
-        <v>379</v>
-      </c>
-      <c r="C359" s="456"/>
-    </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B360" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C360" s="456"/>
-    </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A361" s="458"/>
-      <c r="B361" s="459" t="s">
-        <v>434</v>
-      </c>
-      <c r="C361" s="456"/>
-    </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A362" s="458"/>
-      <c r="B362" s="473" t="s">
-        <v>429</v>
-      </c>
-      <c r="C362" s="456"/>
-    </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A363" s="458"/>
-      <c r="B363" s="461" t="s">
-        <v>365</v>
-      </c>
-      <c r="C363" s="462"/>
-    </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B365" s="451" t="s">
-        <v>356</v>
-      </c>
-      <c r="C365" s="506"/>
-    </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B366" s="507"/>
-      <c r="C366" s="508"/>
-    </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B367" s="507"/>
-      <c r="C367" s="508"/>
-    </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B368" s="509"/>
-      <c r="C368" s="510"/>
-    </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B369" s="471" t="s">
-        <v>435</v>
-      </c>
-      <c r="C369" s="530"/>
-    </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B370" s="474"/>
-      <c r="C370" s="531"/>
-    </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B371" s="474" t="s">
-        <v>436</v>
-      </c>
-      <c r="C371" s="531"/>
-    </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B372" s="474"/>
-      <c r="C372" s="531"/>
-    </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B373" s="454" t="s">
-        <v>358</v>
-      </c>
-      <c r="C373" s="503"/>
-    </row>
-    <row r="374" spans="1:3" ht="34.5" customHeight="1">
-      <c r="B374" s="476" t="s">
-        <v>437</v>
-      </c>
-      <c r="C374" s="456"/>
-    </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B375" s="457" t="s">
-        <v>360</v>
-      </c>
-      <c r="C375" s="456"/>
-    </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B376" s="475" t="s">
-        <v>433</v>
-      </c>
-      <c r="C376" s="456"/>
-    </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B377" s="475" t="s">
-        <v>379</v>
-      </c>
-      <c r="C377" s="456"/>
-    </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B378" s="457" t="s">
-        <v>363</v>
-      </c>
-      <c r="C378" s="456"/>
-    </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A379" s="458"/>
-      <c r="B379" s="459" t="s">
-        <v>438</v>
-      </c>
-      <c r="C379" s="456"/>
-    </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A380" s="458"/>
-      <c r="B380" s="473" t="s">
-        <v>429</v>
-      </c>
-      <c r="C380" s="456"/>
-    </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A381" s="478"/>
-      <c r="B381" s="479" t="s">
-        <v>365</v>
-      </c>
-      <c r="C381" s="456"/>
-    </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B383" s="480"/>
-      <c r="C383" s="481"/>
-    </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B384" s="481"/>
-      <c r="C384" s="481"/>
-    </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B385" s="481"/>
-      <c r="C385" s="481"/>
-    </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B386" s="481"/>
-      <c r="C386" s="481"/>
-    </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B387" s="482"/>
-      <c r="C387" s="483"/>
-    </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B388" s="483"/>
-      <c r="C388" s="483"/>
-    </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B389" s="484"/>
-      <c r="C389" s="483"/>
-    </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B390" s="483"/>
-      <c r="C390" s="483"/>
-    </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B391" s="485"/>
-      <c r="C391" s="483"/>
-    </row>
-    <row r="392" spans="1:3" ht="18" customHeight="1">
-      <c r="B392" s="486"/>
-      <c r="C392" s="487"/>
-    </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B393" s="488"/>
-      <c r="C393" s="487"/>
-    </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B394" s="485"/>
-      <c r="C394" s="487"/>
-    </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B395" s="485"/>
-      <c r="C395" s="487"/>
-    </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B396" s="485"/>
-      <c r="C396" s="487"/>
-    </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A397" s="478"/>
-      <c r="B397" s="489"/>
-      <c r="C397" s="487"/>
-    </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A398" s="478"/>
-      <c r="B398" s="485"/>
-      <c r="C398" s="487"/>
-    </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A399" s="478"/>
-      <c r="B399" s="485"/>
-      <c r="C399" s="487"/>
-    </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B401" s="490"/>
-      <c r="C401" s="491"/>
-    </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B402" s="492"/>
-      <c r="C402" s="493"/>
-    </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B403" s="492"/>
-      <c r="C403" s="493"/>
-    </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B404" s="492"/>
-      <c r="C404" s="494"/>
-    </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B405" s="495"/>
-      <c r="C405" s="491"/>
-    </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B406" s="492"/>
-      <c r="C406" s="493"/>
-    </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B407" s="495"/>
-      <c r="C407" s="493"/>
-    </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B408" s="492"/>
-      <c r="C408" s="493"/>
-    </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B409" s="496"/>
-      <c r="C409" s="493"/>
-    </row>
-    <row r="410" spans="1:3" ht="15" customHeight="1">
-      <c r="C410" s="497"/>
-    </row>
-    <row r="411" spans="1:3" ht="15.75" hidden="1" customHeight="1">
-      <c r="B411" s="486"/>
-      <c r="C411" s="497"/>
-    </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B412" s="498"/>
-      <c r="C412" s="497"/>
-    </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B413" s="498"/>
-      <c r="C413" s="497"/>
-    </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B414" s="496"/>
-      <c r="C414" s="497"/>
-    </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A415" s="478"/>
-      <c r="B415" s="499"/>
-      <c r="C415" s="497"/>
-    </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A416" s="478"/>
-      <c r="B416" s="486"/>
-      <c r="C416" s="497"/>
-    </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A417" s="478"/>
-      <c r="B417" s="496"/>
-      <c r="C417" s="497"/>
-    </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B419" s="500"/>
-      <c r="C419" s="481"/>
-    </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B420" s="481"/>
-      <c r="C420" s="481"/>
-    </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B421" s="481"/>
-      <c r="C421" s="481"/>
-    </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B422" s="481"/>
-      <c r="C422" s="481"/>
-    </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B423" s="495"/>
-      <c r="C423" s="492"/>
-    </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B424" s="492"/>
-      <c r="C424" s="492"/>
-    </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B425" s="495"/>
-      <c r="C425" s="492"/>
-    </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B426" s="492"/>
-      <c r="C426" s="492"/>
-    </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B427" s="496"/>
-      <c r="C427" s="492"/>
-    </row>
-    <row r="428" spans="1:3" ht="30.75" customHeight="1">
-      <c r="B428" s="486"/>
-      <c r="C428" s="501"/>
-    </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B429" s="498"/>
-      <c r="C429" s="501"/>
-    </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B430" s="498"/>
-      <c r="C430" s="501"/>
-    </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B431" s="498"/>
-      <c r="C431" s="501"/>
-    </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B432" s="496"/>
-      <c r="C432" s="501"/>
-    </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A433" s="478"/>
-      <c r="B433" s="499"/>
-      <c r="C433" s="501"/>
-    </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A434" s="478"/>
-      <c r="B434" s="498"/>
-      <c r="C434" s="501"/>
-    </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A435" s="478"/>
-      <c r="B435" s="496"/>
-      <c r="C435" s="501"/>
-    </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="B353:C354"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="B365:C368"/>
-    <mergeCell ref="B369:C370"/>
-    <mergeCell ref="B371:C372"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B329:C332"/>
-    <mergeCell ref="B333:C334"/>
-    <mergeCell ref="B335:C336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="B347:C350"/>
-    <mergeCell ref="B351:C352"/>
-    <mergeCell ref="B299:C300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B311:C314"/>
-    <mergeCell ref="B315:C316"/>
-    <mergeCell ref="B317:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B275:C278"/>
-    <mergeCell ref="B279:C280"/>
-    <mergeCell ref="B281:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B293:C296"/>
-    <mergeCell ref="B297:C298"/>
-    <mergeCell ref="B245:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B257:C260"/>
-    <mergeCell ref="B261:C262"/>
-    <mergeCell ref="B263:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B221:C224"/>
-    <mergeCell ref="B225:C226"/>
-    <mergeCell ref="B227:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B239:C242"/>
-    <mergeCell ref="B243:C244"/>
-    <mergeCell ref="B191:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B203:C206"/>
-    <mergeCell ref="B207:C208"/>
-    <mergeCell ref="B209:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B167:C170"/>
-    <mergeCell ref="B171:C172"/>
-    <mergeCell ref="B173:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B185:C188"/>
-    <mergeCell ref="B189:C190"/>
-    <mergeCell ref="B137:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B149:C152"/>
-    <mergeCell ref="B153:C154"/>
-    <mergeCell ref="B155:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B113:C116"/>
-    <mergeCell ref="B117:C118"/>
-    <mergeCell ref="B119:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B131:C134"/>
-    <mergeCell ref="B135:C136"/>
-    <mergeCell ref="B83:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B95:C98"/>
-    <mergeCell ref="B99:C100"/>
-    <mergeCell ref="B101:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B77:C80"/>
-    <mergeCell ref="B81:C82"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B39:C42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:C24"/>
-    <mergeCell ref="B25:C26"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{0F872509-C7EA-4256-A331-1F482901261A}"/>
-    <hyperlink ref="B35" r:id="rId2" xr:uid="{B48A7F11-8D9A-420F-9AF0-B495DA4A4CFD}"/>
-    <hyperlink ref="B73" r:id="rId3" xr:uid="{9D7D8966-4DF4-48DC-ABFC-A690C57A490D}"/>
-    <hyperlink ref="B127" r:id="rId4" xr:uid="{93B1FC91-A525-4DD2-AEB8-9A383E0DD683}"/>
-    <hyperlink ref="B199" r:id="rId5" xr:uid="{00E6A4B1-4AAC-4ECE-9CB9-708763854C3D}"/>
-    <hyperlink ref="B271" r:id="rId6" xr:uid="{0DE02799-440E-4497-B910-1D04098A9509}"/>
-    <hyperlink ref="B361" r:id="rId7" xr:uid="{E7E7BB22-A1D1-4AAA-BC1A-BB93033FB310}"/>
-    <hyperlink ref="B379" r:id="rId8" xr:uid="{2AE627F0-6724-48DC-933E-B3101698CCFA}"/>
-    <hyperlink ref="B53" r:id="rId9" xr:uid="{0561CA9B-A7AF-496D-9956-26FB3EBB27B5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41BFE86-E676-4646-960B-B8AB7D72B437}">
   <dimension ref="B2:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:C91"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -26847,471 +23157,483 @@
   <sheetData>
     <row r="2" spans="2:3" ht="13.5" thickBot="1"/>
     <row r="3" spans="2:3">
-      <c r="B3" s="511" t="s">
+      <c r="B3" s="459" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="460"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="461"/>
+      <c r="C4" s="462"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="461"/>
+      <c r="C5" s="462"/>
+    </row>
+    <row r="6" spans="2:3" ht="13.5" thickBot="1">
+      <c r="B6" s="463"/>
+      <c r="C6" s="464"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="465" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="512"/>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="513"/>
-      <c r="C4" s="514"/>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="513"/>
-      <c r="C5" s="514"/>
-    </row>
-    <row r="6" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B6" s="515"/>
-      <c r="C6" s="516"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="517" t="s">
+      <c r="C7" s="466"/>
+    </row>
+    <row r="8" spans="2:3" ht="16.25" customHeight="1">
+      <c r="B8" s="461"/>
+      <c r="C8" s="462"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="455" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="462"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="461"/>
+      <c r="C10" s="462"/>
+    </row>
+    <row r="11" spans="2:3" ht="14.25">
+      <c r="B11" s="457" t="s">
         <v>357</v>
       </c>
-      <c r="C7" s="518"/>
-    </row>
-    <row r="8" spans="2:3" ht="16.25" customHeight="1">
-      <c r="B8" s="513"/>
-      <c r="C8" s="514"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="519" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="514"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="513"/>
-      <c r="C10" s="514"/>
-    </row>
-    <row r="11" spans="2:3" ht="14.25">
-      <c r="B11" s="520" t="s">
+      <c r="C11" s="462"/>
+    </row>
+    <row r="12" spans="2:3" ht="71.25">
+      <c r="B12" s="367" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="514"/>
-    </row>
-    <row r="12" spans="2:3" ht="71.25">
-      <c r="B12" s="521" t="s">
+      <c r="C12" s="368"/>
+    </row>
+    <row r="13" spans="2:3" ht="14.25">
+      <c r="B13" s="366" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="522"/>
-    </row>
-    <row r="13" spans="2:3" ht="14.25">
-      <c r="B13" s="523" t="s">
+      <c r="C13" s="368"/>
+    </row>
+    <row r="14" spans="2:3" ht="14.25">
+      <c r="B14" s="366" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="522"/>
-    </row>
-    <row r="14" spans="2:3" ht="14.25">
-      <c r="B14" s="523" t="s">
+      <c r="C14" s="368"/>
+    </row>
+    <row r="15" spans="2:3" ht="14.25">
+      <c r="B15" s="366" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="522"/>
-    </row>
-    <row r="15" spans="2:3" ht="14.25">
-      <c r="B15" s="523" t="s">
+      <c r="C15" s="368"/>
+    </row>
+    <row r="16" spans="2:3" ht="14.25">
+      <c r="B16" s="366" t="s">
         <v>362</v>
       </c>
-      <c r="C15" s="522"/>
-    </row>
-    <row r="16" spans="2:3" ht="14.25">
-      <c r="B16" s="523" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="522"/>
+      <c r="C16" s="368"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="524" t="s">
-        <v>440</v>
-      </c>
-      <c r="C17" s="522"/>
+      <c r="B17" s="369" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="368"/>
     </row>
     <row r="18" spans="2:3" ht="14.25">
-      <c r="B18" s="523" t="s">
+      <c r="B18" s="366" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="368"/>
+    </row>
+    <row r="19" spans="2:3" ht="14.65" thickBot="1">
+      <c r="B19" s="370" t="s">
         <v>364</v>
       </c>
-      <c r="C18" s="522"/>
-    </row>
-    <row r="19" spans="2:3" ht="14.65" thickBot="1">
-      <c r="B19" s="525" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="526"/>
+      <c r="C19" s="371"/>
     </row>
     <row r="20" spans="2:3" ht="24.85" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:3">
-      <c r="B21" s="511" t="s">
-        <v>356</v>
-      </c>
-      <c r="C21" s="512"/>
+      <c r="B21" s="459" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="460"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="513"/>
-      <c r="C22" s="514"/>
+      <c r="B22" s="461"/>
+      <c r="C22" s="462"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="513"/>
-      <c r="C23" s="514"/>
+      <c r="B23" s="461"/>
+      <c r="C23" s="462"/>
     </row>
     <row r="24" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B24" s="515"/>
-      <c r="C24" s="516"/>
+      <c r="B24" s="463"/>
+      <c r="C24" s="464"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="517" t="s">
-        <v>441</v>
-      </c>
-      <c r="C25" s="518"/>
+      <c r="B25" s="465" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="466"/>
     </row>
     <row r="26" spans="2:3" ht="15.85" customHeight="1">
-      <c r="B26" s="513"/>
-      <c r="C26" s="514"/>
+      <c r="B26" s="461"/>
+      <c r="C26" s="462"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="519" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="514"/>
+      <c r="B27" s="455" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="462"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="513"/>
-      <c r="C28" s="514"/>
+      <c r="B28" s="461"/>
+      <c r="C28" s="462"/>
     </row>
     <row r="29" spans="2:3" ht="14.25">
-      <c r="B29" s="520" t="s">
+      <c r="B29" s="457" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="462"/>
+    </row>
+    <row r="30" spans="2:3" ht="71.25">
+      <c r="B30" s="367" t="s">
         <v>358</v>
       </c>
-      <c r="C29" s="514"/>
-    </row>
-    <row r="30" spans="2:3" ht="71.25">
-      <c r="B30" s="521" t="s">
+      <c r="C30" s="368"/>
+    </row>
+    <row r="31" spans="2:3" ht="14.25">
+      <c r="B31" s="366" t="s">
         <v>359</v>
       </c>
-      <c r="C30" s="522"/>
-    </row>
-    <row r="31" spans="2:3" ht="14.25">
-      <c r="B31" s="523" t="s">
+      <c r="C31" s="368"/>
+    </row>
+    <row r="32" spans="2:3" ht="14.25">
+      <c r="B32" s="366" t="s">
         <v>360</v>
       </c>
-      <c r="C31" s="522"/>
-    </row>
-    <row r="32" spans="2:3" ht="14.25">
-      <c r="B32" s="523" t="s">
+      <c r="C32" s="368"/>
+    </row>
+    <row r="33" spans="2:3" ht="14.25">
+      <c r="B33" s="366" t="s">
         <v>361</v>
       </c>
-      <c r="C32" s="522"/>
-    </row>
-    <row r="33" spans="2:3" ht="14.25">
-      <c r="B33" s="523" t="s">
+      <c r="C33" s="368"/>
+    </row>
+    <row r="34" spans="2:3" ht="14.25">
+      <c r="B34" s="366" t="s">
         <v>362</v>
       </c>
-      <c r="C33" s="522"/>
-    </row>
-    <row r="34" spans="2:3" ht="14.25">
-      <c r="B34" s="523" t="s">
-        <v>363</v>
-      </c>
-      <c r="C34" s="522"/>
+      <c r="C34" s="368"/>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="524" t="s">
-        <v>440</v>
-      </c>
-      <c r="C35" s="522"/>
+      <c r="B35" s="369" t="s">
+        <v>377</v>
+      </c>
+      <c r="C35" s="368"/>
     </row>
     <row r="36" spans="2:3" ht="14.25">
-      <c r="B36" s="523" t="s">
+      <c r="B36" s="366" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" s="368"/>
+    </row>
+    <row r="37" spans="2:3" ht="14.65" thickBot="1">
+      <c r="B37" s="370" t="s">
         <v>364</v>
       </c>
-      <c r="C36" s="522"/>
-    </row>
-    <row r="37" spans="2:3" ht="14.65" thickBot="1">
-      <c r="B37" s="525" t="s">
-        <v>365</v>
-      </c>
-      <c r="C37" s="526"/>
+      <c r="C37" s="371"/>
     </row>
     <row r="38" spans="2:3" ht="13.5" thickBot="1"/>
     <row r="39" spans="2:3">
-      <c r="B39" s="511" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="512"/>
+      <c r="B39" s="459" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" s="460"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="513"/>
-      <c r="C40" s="514"/>
+      <c r="B40" s="461"/>
+      <c r="C40" s="462"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="513"/>
-      <c r="C41" s="514"/>
+      <c r="B41" s="461"/>
+      <c r="C41" s="462"/>
     </row>
     <row r="42" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B42" s="515"/>
-      <c r="C42" s="516"/>
+      <c r="B42" s="463"/>
+      <c r="C42" s="464"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="517" t="s">
-        <v>442</v>
-      </c>
-      <c r="C43" s="518"/>
+      <c r="B43" s="465" t="s">
+        <v>373</v>
+      </c>
+      <c r="C43" s="466"/>
     </row>
     <row r="44" spans="2:3" ht="18.399999999999999" customHeight="1">
-      <c r="B44" s="513"/>
-      <c r="C44" s="514"/>
+      <c r="B44" s="461"/>
+      <c r="C44" s="462"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="519" t="s">
-        <v>439</v>
-      </c>
-      <c r="C45" s="514"/>
+      <c r="B45" s="455" t="s">
+        <v>380</v>
+      </c>
+      <c r="C45" s="462"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="513"/>
-      <c r="C46" s="514"/>
+      <c r="B46" s="461"/>
+      <c r="C46" s="462"/>
     </row>
     <row r="47" spans="2:3" ht="14.25">
-      <c r="B47" s="520" t="s">
+      <c r="B47" s="457" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="462"/>
+    </row>
+    <row r="48" spans="2:3" ht="71.25">
+      <c r="B48" s="367" t="s">
         <v>358</v>
       </c>
-      <c r="C47" s="514"/>
-    </row>
-    <row r="48" spans="2:3" ht="71.25">
-      <c r="B48" s="521" t="s">
+      <c r="C48" s="368"/>
+    </row>
+    <row r="49" spans="2:3" ht="14.25">
+      <c r="B49" s="366" t="s">
         <v>359</v>
       </c>
-      <c r="C48" s="522"/>
-    </row>
-    <row r="49" spans="2:3" ht="14.25">
-      <c r="B49" s="523" t="s">
+      <c r="C49" s="368"/>
+    </row>
+    <row r="50" spans="2:3" ht="14.25">
+      <c r="B50" s="366" t="s">
         <v>360</v>
       </c>
-      <c r="C49" s="522"/>
-    </row>
-    <row r="50" spans="2:3" ht="14.25">
-      <c r="B50" s="523" t="s">
+      <c r="C50" s="368"/>
+    </row>
+    <row r="51" spans="2:3" ht="14.25">
+      <c r="B51" s="366" t="s">
         <v>361</v>
       </c>
-      <c r="C50" s="522"/>
-    </row>
-    <row r="51" spans="2:3" ht="14.25">
-      <c r="B51" s="523" t="s">
+      <c r="C51" s="368"/>
+    </row>
+    <row r="52" spans="2:3" ht="14.25">
+      <c r="B52" s="366" t="s">
         <v>362</v>
       </c>
-      <c r="C51" s="522"/>
-    </row>
-    <row r="52" spans="2:3" ht="14.25">
-      <c r="B52" s="523" t="s">
+      <c r="C52" s="368"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="369" t="s">
+        <v>381</v>
+      </c>
+      <c r="C53" s="368"/>
+    </row>
+    <row r="54" spans="2:3" ht="14.25">
+      <c r="B54" s="366" t="s">
         <v>363</v>
       </c>
-      <c r="C52" s="522"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="524" t="s">
-        <v>440</v>
-      </c>
-      <c r="C53" s="522"/>
-    </row>
-    <row r="54" spans="2:3" ht="14.25">
-      <c r="B54" s="523" t="s">
+      <c r="C54" s="368"/>
+    </row>
+    <row r="55" spans="2:3" ht="14.65" thickBot="1">
+      <c r="B55" s="370" t="s">
         <v>364</v>
       </c>
-      <c r="C54" s="522"/>
-    </row>
-    <row r="55" spans="2:3" ht="14.65" thickBot="1">
-      <c r="B55" s="525" t="s">
-        <v>365</v>
-      </c>
-      <c r="C55" s="526"/>
+      <c r="C55" s="371"/>
     </row>
     <row r="56" spans="2:3" ht="13.5" thickBot="1"/>
     <row r="57" spans="2:3">
-      <c r="B57" s="511" t="s">
-        <v>356</v>
-      </c>
-      <c r="C57" s="512"/>
+      <c r="B57" s="459" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="460"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="513"/>
-      <c r="C58" s="514"/>
+      <c r="B58" s="461"/>
+      <c r="C58" s="462"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="513"/>
-      <c r="C59" s="514"/>
+      <c r="B59" s="461"/>
+      <c r="C59" s="462"/>
     </row>
     <row r="60" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B60" s="515"/>
-      <c r="C60" s="516"/>
+      <c r="B60" s="463"/>
+      <c r="C60" s="464"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="517" t="s">
-        <v>443</v>
-      </c>
-      <c r="C61" s="518"/>
+      <c r="B61" s="465" t="s">
+        <v>374</v>
+      </c>
+      <c r="C61" s="466"/>
     </row>
     <row r="62" spans="2:3" ht="18.399999999999999" customHeight="1">
-      <c r="B62" s="513"/>
-      <c r="C62" s="514"/>
+      <c r="B62" s="461"/>
+      <c r="C62" s="462"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="519" t="s">
-        <v>439</v>
-      </c>
-      <c r="C63" s="514"/>
+      <c r="B63" s="455" t="s">
+        <v>383</v>
+      </c>
+      <c r="C63" s="462"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="513"/>
-      <c r="C64" s="514"/>
+      <c r="B64" s="461"/>
+      <c r="C64" s="462"/>
     </row>
     <row r="65" spans="2:3" ht="14.25">
-      <c r="B65" s="520" t="s">
-        <v>358</v>
-      </c>
-      <c r="C65" s="514"/>
+      <c r="B65" s="457" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="462"/>
     </row>
     <row r="66" spans="2:3" ht="71.25">
-      <c r="B66" s="521" t="s">
+      <c r="B66" s="367" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="368"/>
+    </row>
+    <row r="67" spans="2:3" ht="14.25">
+      <c r="B67" s="366" t="s">
         <v>359</v>
       </c>
-      <c r="C66" s="522"/>
-    </row>
-    <row r="67" spans="2:3" ht="14.25">
-      <c r="B67" s="523" t="s">
+      <c r="C67" s="368"/>
+    </row>
+    <row r="68" spans="2:3" ht="14.25">
+      <c r="B68" s="366" t="s">
         <v>360</v>
       </c>
-      <c r="C67" s="522"/>
-    </row>
-    <row r="68" spans="2:3" ht="14.25">
-      <c r="B68" s="523" t="s">
+      <c r="C68" s="368"/>
+    </row>
+    <row r="69" spans="2:3" ht="14.25">
+      <c r="B69" s="366" t="s">
         <v>361</v>
       </c>
-      <c r="C68" s="522"/>
-    </row>
-    <row r="69" spans="2:3" ht="14.25">
-      <c r="B69" s="523" t="s">
+      <c r="C69" s="368"/>
+    </row>
+    <row r="70" spans="2:3" ht="14.25">
+      <c r="B70" s="366" t="s">
         <v>362</v>
       </c>
-      <c r="C69" s="522"/>
-    </row>
-    <row r="70" spans="2:3" ht="14.25">
-      <c r="B70" s="523" t="s">
-        <v>363</v>
-      </c>
-      <c r="C70" s="522"/>
+      <c r="C70" s="368"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="524" t="s">
-        <v>440</v>
-      </c>
-      <c r="C71" s="522"/>
+      <c r="B71" s="369" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="368"/>
     </row>
     <row r="72" spans="2:3" ht="14.25">
-      <c r="B72" s="523" t="s">
+      <c r="B72" s="366" t="s">
+        <v>386</v>
+      </c>
+      <c r="C72" s="368"/>
+    </row>
+    <row r="73" spans="2:3" ht="14.65" thickBot="1">
+      <c r="B73" s="370" t="s">
         <v>364</v>
       </c>
-      <c r="C72" s="522"/>
-    </row>
-    <row r="73" spans="2:3" ht="14.65" thickBot="1">
-      <c r="B73" s="525" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" s="526"/>
+      <c r="C73" s="371"/>
     </row>
     <row r="74" spans="2:3" ht="13.5" thickBot="1"/>
     <row r="75" spans="2:3">
-      <c r="B75" s="511" t="s">
-        <v>356</v>
-      </c>
-      <c r="C75" s="534"/>
+      <c r="B75" s="459" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" s="467"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="535"/>
-      <c r="C76" s="536"/>
+      <c r="B76" s="468"/>
+      <c r="C76" s="469"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="535"/>
-      <c r="C77" s="536"/>
+      <c r="B77" s="468"/>
+      <c r="C77" s="469"/>
     </row>
     <row r="78" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B78" s="537"/>
-      <c r="C78" s="538"/>
+      <c r="B78" s="470"/>
+      <c r="C78" s="471"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="517" t="s">
-        <v>444</v>
-      </c>
-      <c r="C79" s="539"/>
+      <c r="B79" s="465" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" s="472"/>
     </row>
     <row r="80" spans="2:3" ht="16.5" customHeight="1">
-      <c r="B80" s="540"/>
-      <c r="C80" s="541"/>
+      <c r="B80" s="473"/>
+      <c r="C80" s="474"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="519" t="s">
+      <c r="B81" s="455" t="s">
+        <v>365</v>
+      </c>
+      <c r="C81" s="456"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="455"/>
+      <c r="C82" s="456"/>
+    </row>
+    <row r="83" spans="2:3" ht="14.25">
+      <c r="B83" s="457" t="s">
+        <v>357</v>
+      </c>
+      <c r="C83" s="458"/>
+    </row>
+    <row r="84" spans="2:3" ht="71.25">
+      <c r="B84" s="367" t="s">
         <v>366</v>
       </c>
-      <c r="C81" s="542"/>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="519"/>
-      <c r="C82" s="542"/>
-    </row>
-    <row r="83" spans="2:3" ht="14.25">
-      <c r="B83" s="520" t="s">
-        <v>358</v>
-      </c>
-      <c r="C83" s="543"/>
-    </row>
-    <row r="84" spans="2:3" ht="71.25">
-      <c r="B84" s="521" t="s">
+      <c r="C84" s="368"/>
+    </row>
+    <row r="85" spans="2:3" ht="14.25">
+      <c r="B85" s="366" t="s">
+        <v>359</v>
+      </c>
+      <c r="C85" s="368"/>
+    </row>
+    <row r="86" spans="2:3" ht="14.25">
+      <c r="B86" s="366" t="s">
+        <v>360</v>
+      </c>
+      <c r="C86" s="368"/>
+    </row>
+    <row r="87" spans="2:3" ht="14.25">
+      <c r="B87" s="366" t="s">
+        <v>361</v>
+      </c>
+      <c r="C87" s="368"/>
+    </row>
+    <row r="88" spans="2:3" ht="14.25">
+      <c r="B88" s="366" t="s">
         <v>367</v>
       </c>
-      <c r="C84" s="522"/>
-    </row>
-    <row r="85" spans="2:3" ht="14.25">
-      <c r="B85" s="523" t="s">
-        <v>360</v>
-      </c>
-      <c r="C85" s="522"/>
-    </row>
-    <row r="86" spans="2:3" ht="14.25">
-      <c r="B86" s="523" t="s">
-        <v>361</v>
-      </c>
-      <c r="C86" s="522"/>
-    </row>
-    <row r="87" spans="2:3" ht="14.25">
-      <c r="B87" s="523" t="s">
-        <v>362</v>
-      </c>
-      <c r="C87" s="522"/>
-    </row>
-    <row r="88" spans="2:3" ht="14.25">
-      <c r="B88" s="523" t="s">
+      <c r="C88" s="368"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="369" t="s">
         <v>368</v>
       </c>
-      <c r="C88" s="522"/>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="544" t="s">
+      <c r="C89" s="368"/>
+    </row>
+    <row r="90" spans="2:3" ht="14.25">
+      <c r="B90" s="366" t="s">
         <v>369</v>
       </c>
-      <c r="C89" s="522"/>
-    </row>
-    <row r="90" spans="2:3" ht="14.25">
-      <c r="B90" s="523" t="s">
-        <v>370</v>
-      </c>
-      <c r="C90" s="522"/>
+      <c r="C90" s="368"/>
     </row>
     <row r="91" spans="2:3" ht="14.65" thickBot="1">
-      <c r="B91" s="525" t="s">
-        <v>365</v>
-      </c>
-      <c r="C91" s="526"/>
+      <c r="B91" s="370" t="s">
+        <v>364</v>
+      </c>
+      <c r="C91" s="371"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B45:C46"/>
     <mergeCell ref="B81:C82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B57:C60"/>
@@ -27320,18 +23642,6 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B75:C78"/>
     <mergeCell ref="B79:C80"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B39:C42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:C24"/>
-    <mergeCell ref="B25:C26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{CA664AC2-2392-4877-857F-92C7FB868085}"/>
@@ -27344,11 +23654,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -27369,21 +23679,21 @@
       <c r="E2" s="161"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="449" t="s">
+      <c r="B3" s="475" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="432"/>
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="426"/>
       <c r="F3" s="162"/>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1">
-      <c r="B4" s="436"/>
-      <c r="C4" s="437"/>
-      <c r="D4" s="437"/>
-      <c r="E4" s="438"/>
+      <c r="B4" s="430"/>
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="432"/>
       <c r="F4" s="162"/>
       <c r="G4" s="162"/>
       <c r="H4" s="162"/>
@@ -27414,7 +23724,7 @@
         <v>77</v>
       </c>
       <c r="E6" s="338" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -27450,7 +23760,7 @@
         <v>79</v>
       </c>
       <c r="E7" s="338" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -27486,7 +23796,7 @@
         <v>81</v>
       </c>
       <c r="E8" s="338" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="170"/>
       <c r="G8" s="170"/>
@@ -27522,7 +23832,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="338" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F9" s="170"/>
       <c r="G9" s="170"/>
@@ -27558,7 +23868,7 @@
         <v>85</v>
       </c>
       <c r="E10" s="338" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" s="170"/>
       <c r="G10" s="170"/>
